--- a/vaayuyaana/jagiNavLog.xlsx
+++ b/vaayuyaana/jagiNavLog.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jagadishn\Documents\jagi\haaru\aerodynamic\stage03\XC\dual\xc02\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jagadishn\Documents\jagi\haaru\aerodynamic\stage03\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79E6C763-0951-4080-9C02-BD7A4341BAC1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9B7725B-64BC-44DB-AE40-CCE6160331E0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E3DE2A8C-E23C-4F63-95E8-9AD5B4E402C0}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{E3DE2A8C-E23C-4F63-95E8-9AD5B4E402C0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -492,7 +492,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="42">
+  <borders count="41">
     <border>
       <left/>
       <right/>
@@ -988,19 +988,6 @@
         <color indexed="64"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1032,7 +1019,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="136">
+  <cellXfs count="138">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1190,11 +1177,110 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1202,28 +1288,88 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1232,205 +1378,52 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1830,7 +1823,7 @@
   <dimension ref="A1:W35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection sqref="A1:E1"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1846,35 +1839,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="103" t="s">
+      <c r="A1" s="101" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="104"/>
-      <c r="C1" s="104"/>
-      <c r="D1" s="104"/>
-      <c r="E1" s="105"/>
+      <c r="B1" s="102"/>
+      <c r="C1" s="102"/>
+      <c r="D1" s="102"/>
+      <c r="E1" s="103"/>
       <c r="F1" s="1"/>
-      <c r="G1" s="108" t="s">
+      <c r="G1" s="107" t="s">
         <v>57</v>
       </c>
-      <c r="H1" s="108"/>
-      <c r="I1" s="108"/>
-      <c r="J1" s="108"/>
-      <c r="K1" s="108"/>
-      <c r="L1" s="108"/>
-      <c r="M1" s="108"/>
-      <c r="N1" s="108"/>
-      <c r="O1" s="108"/>
-      <c r="P1" s="108"/>
+      <c r="H1" s="107"/>
+      <c r="I1" s="107"/>
+      <c r="J1" s="107"/>
+      <c r="K1" s="107"/>
+      <c r="L1" s="107"/>
+      <c r="M1" s="107"/>
+      <c r="N1" s="107"/>
+      <c r="O1" s="107"/>
+      <c r="P1" s="107"/>
       <c r="Q1" s="1"/>
-      <c r="R1" s="135" t="s">
+      <c r="R1" s="104" t="s">
         <v>87</v>
       </c>
-      <c r="S1" s="106"/>
-      <c r="T1" s="106"/>
-      <c r="U1" s="106"/>
-      <c r="V1" s="106"/>
-      <c r="W1" s="107"/>
+      <c r="S1" s="105"/>
+      <c r="T1" s="105"/>
+      <c r="U1" s="105"/>
+      <c r="V1" s="105"/>
+      <c r="W1" s="106"/>
     </row>
     <row r="2" spans="1:23" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -1892,219 +1885,219 @@
       <c r="G2" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="H2" s="133"/>
-      <c r="I2" s="134"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="70"/>
       <c r="J2" s="4" t="s">
         <v>74</v>
       </c>
       <c r="K2" s="3"/>
-      <c r="L2" s="55"/>
-      <c r="M2" s="56"/>
-      <c r="N2" s="96"/>
-      <c r="O2" s="96"/>
-      <c r="P2" s="96"/>
-      <c r="Q2" s="96"/>
-      <c r="R2" s="96"/>
-      <c r="S2" s="96"/>
-      <c r="T2" s="96"/>
-      <c r="U2" s="96"/>
-      <c r="V2" s="96"/>
-      <c r="W2" s="132"/>
+      <c r="L2" s="126"/>
+      <c r="M2" s="127"/>
+      <c r="N2" s="62"/>
+      <c r="O2" s="62"/>
+      <c r="P2" s="62"/>
+      <c r="Q2" s="62"/>
+      <c r="R2" s="62"/>
+      <c r="S2" s="62"/>
+      <c r="T2" s="62"/>
+      <c r="U2" s="62"/>
+      <c r="V2" s="62"/>
+      <c r="W2" s="63"/>
     </row>
     <row r="3" spans="1:23" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="110"/>
-      <c r="B3" s="96"/>
-      <c r="C3" s="96"/>
-      <c r="D3" s="130" t="s">
+      <c r="A3" s="93"/>
+      <c r="B3" s="62"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="130"/>
-      <c r="F3" s="130" t="s">
+      <c r="E3" s="68"/>
+      <c r="F3" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="130"/>
-      <c r="H3" s="130"/>
-      <c r="I3" s="130"/>
-      <c r="J3" s="130" t="s">
+      <c r="G3" s="68"/>
+      <c r="H3" s="68"/>
+      <c r="I3" s="68"/>
+      <c r="J3" s="68" t="s">
         <v>5</v>
       </c>
-      <c r="K3" s="130"/>
-      <c r="L3" s="130"/>
-      <c r="M3" s="130"/>
-      <c r="N3" s="97"/>
-      <c r="O3" s="97"/>
-      <c r="P3" s="97"/>
-      <c r="Q3" s="97"/>
-      <c r="R3" s="97"/>
-      <c r="S3" s="97"/>
-      <c r="T3" s="97"/>
-      <c r="U3" s="97"/>
-      <c r="V3" s="97"/>
-      <c r="W3" s="99"/>
+      <c r="K3" s="68"/>
+      <c r="L3" s="68"/>
+      <c r="M3" s="68"/>
+      <c r="N3" s="60"/>
+      <c r="O3" s="60"/>
+      <c r="P3" s="60"/>
+      <c r="Q3" s="60"/>
+      <c r="R3" s="60"/>
+      <c r="S3" s="60"/>
+      <c r="T3" s="60"/>
+      <c r="U3" s="60"/>
+      <c r="V3" s="60"/>
+      <c r="W3" s="64"/>
     </row>
     <row r="4" spans="1:23" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="116" t="s">
+      <c r="A4" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="117"/>
-      <c r="C4" s="117"/>
-      <c r="D4" s="102"/>
-      <c r="E4" s="102"/>
-      <c r="F4" s="102"/>
-      <c r="G4" s="102"/>
-      <c r="H4" s="102"/>
-      <c r="I4" s="102"/>
+      <c r="B4" s="73"/>
+      <c r="C4" s="73"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="66"/>
+      <c r="I4" s="66"/>
       <c r="J4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="76"/>
-      <c r="L4" s="76"/>
-      <c r="M4" s="76"/>
-      <c r="N4" s="97"/>
-      <c r="O4" s="97"/>
-      <c r="P4" s="97"/>
-      <c r="Q4" s="97"/>
-      <c r="R4" s="97"/>
-      <c r="S4" s="97"/>
-      <c r="T4" s="97"/>
-      <c r="U4" s="97"/>
-      <c r="V4" s="97"/>
-      <c r="W4" s="99"/>
+      <c r="K4" s="56"/>
+      <c r="L4" s="56"/>
+      <c r="M4" s="56"/>
+      <c r="N4" s="60"/>
+      <c r="O4" s="60"/>
+      <c r="P4" s="60"/>
+      <c r="Q4" s="60"/>
+      <c r="R4" s="60"/>
+      <c r="S4" s="60"/>
+      <c r="T4" s="60"/>
+      <c r="U4" s="60"/>
+      <c r="V4" s="60"/>
+      <c r="W4" s="64"/>
     </row>
     <row r="5" spans="1:23" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="116" t="s">
+      <c r="A5" s="72" t="s">
         <v>86</v>
       </c>
-      <c r="B5" s="117"/>
-      <c r="C5" s="117"/>
-      <c r="D5" s="102"/>
-      <c r="E5" s="102"/>
-      <c r="F5" s="102"/>
-      <c r="G5" s="102"/>
-      <c r="H5" s="102"/>
-      <c r="I5" s="102"/>
+      <c r="B5" s="73"/>
+      <c r="C5" s="73"/>
+      <c r="D5" s="66"/>
+      <c r="E5" s="66"/>
+      <c r="F5" s="66"/>
+      <c r="G5" s="66"/>
+      <c r="H5" s="66"/>
+      <c r="I5" s="66"/>
       <c r="J5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="K5" s="76"/>
-      <c r="L5" s="76"/>
-      <c r="M5" s="76"/>
-      <c r="N5" s="97"/>
-      <c r="O5" s="97"/>
-      <c r="P5" s="97"/>
-      <c r="Q5" s="97"/>
-      <c r="R5" s="97"/>
-      <c r="S5" s="97"/>
-      <c r="T5" s="97"/>
-      <c r="U5" s="97"/>
-      <c r="V5" s="97"/>
-      <c r="W5" s="99"/>
+      <c r="K5" s="56"/>
+      <c r="L5" s="56"/>
+      <c r="M5" s="56"/>
+      <c r="N5" s="60"/>
+      <c r="O5" s="60"/>
+      <c r="P5" s="60"/>
+      <c r="Q5" s="60"/>
+      <c r="R5" s="60"/>
+      <c r="S5" s="60"/>
+      <c r="T5" s="60"/>
+      <c r="U5" s="60"/>
+      <c r="V5" s="60"/>
+      <c r="W5" s="64"/>
     </row>
     <row r="6" spans="1:23" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="116" t="s">
+      <c r="A6" s="72" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="117"/>
-      <c r="C6" s="117"/>
-      <c r="D6" s="102"/>
-      <c r="E6" s="102"/>
-      <c r="F6" s="102"/>
-      <c r="G6" s="102"/>
-      <c r="H6" s="102"/>
-      <c r="I6" s="102"/>
+      <c r="B6" s="73"/>
+      <c r="C6" s="73"/>
+      <c r="D6" s="66"/>
+      <c r="E6" s="66"/>
+      <c r="F6" s="66"/>
+      <c r="G6" s="66"/>
+      <c r="H6" s="66"/>
+      <c r="I6" s="66"/>
       <c r="J6" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="K6" s="76"/>
-      <c r="L6" s="76"/>
-      <c r="M6" s="76"/>
-      <c r="N6" s="97"/>
-      <c r="O6" s="97"/>
-      <c r="P6" s="97"/>
-      <c r="Q6" s="97"/>
-      <c r="R6" s="97"/>
-      <c r="S6" s="97"/>
-      <c r="T6" s="97"/>
-      <c r="U6" s="97"/>
-      <c r="V6" s="97"/>
-      <c r="W6" s="99"/>
+      <c r="K6" s="56"/>
+      <c r="L6" s="56"/>
+      <c r="M6" s="56"/>
+      <c r="N6" s="60"/>
+      <c r="O6" s="60"/>
+      <c r="P6" s="60"/>
+      <c r="Q6" s="60"/>
+      <c r="R6" s="60"/>
+      <c r="S6" s="60"/>
+      <c r="T6" s="60"/>
+      <c r="U6" s="60"/>
+      <c r="V6" s="60"/>
+      <c r="W6" s="64"/>
     </row>
     <row r="7" spans="1:23" ht="21" x14ac:dyDescent="0.25">
-      <c r="A7" s="116" t="s">
+      <c r="A7" s="72" t="s">
         <v>75</v>
       </c>
-      <c r="B7" s="117"/>
-      <c r="C7" s="117"/>
-      <c r="D7" s="102"/>
-      <c r="E7" s="102"/>
-      <c r="F7" s="102"/>
-      <c r="G7" s="102"/>
-      <c r="H7" s="102"/>
-      <c r="I7" s="102"/>
+      <c r="B7" s="73"/>
+      <c r="C7" s="73"/>
+      <c r="D7" s="66"/>
+      <c r="E7" s="66"/>
+      <c r="F7" s="66"/>
+      <c r="G7" s="66"/>
+      <c r="H7" s="66"/>
+      <c r="I7" s="66"/>
       <c r="J7" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K7" s="76"/>
-      <c r="L7" s="76"/>
-      <c r="M7" s="76"/>
-      <c r="N7" s="97"/>
-      <c r="O7" s="97"/>
-      <c r="P7" s="97"/>
-      <c r="Q7" s="97"/>
-      <c r="R7" s="97"/>
-      <c r="S7" s="97"/>
-      <c r="T7" s="97"/>
-      <c r="U7" s="97"/>
-      <c r="V7" s="97"/>
-      <c r="W7" s="99"/>
+      <c r="K7" s="56"/>
+      <c r="L7" s="56"/>
+      <c r="M7" s="56"/>
+      <c r="N7" s="60"/>
+      <c r="O7" s="60"/>
+      <c r="P7" s="60"/>
+      <c r="Q7" s="60"/>
+      <c r="R7" s="60"/>
+      <c r="S7" s="60"/>
+      <c r="T7" s="60"/>
+      <c r="U7" s="60"/>
+      <c r="V7" s="60"/>
+      <c r="W7" s="64"/>
     </row>
     <row r="8" spans="1:23" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="69" t="s">
+      <c r="A8" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="70"/>
-      <c r="C8" s="70"/>
-      <c r="D8" s="112"/>
-      <c r="E8" s="112"/>
-      <c r="F8" s="112"/>
-      <c r="G8" s="112"/>
-      <c r="H8" s="112"/>
-      <c r="I8" s="112"/>
+      <c r="B8" s="75"/>
+      <c r="C8" s="75"/>
+      <c r="D8" s="67"/>
+      <c r="E8" s="67"/>
+      <c r="F8" s="67"/>
+      <c r="G8" s="67"/>
+      <c r="H8" s="67"/>
+      <c r="I8" s="67"/>
       <c r="J8" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="K8" s="131"/>
-      <c r="L8" s="131"/>
-      <c r="M8" s="131"/>
-      <c r="N8" s="88"/>
-      <c r="O8" s="88"/>
-      <c r="P8" s="88"/>
-      <c r="Q8" s="88"/>
-      <c r="R8" s="88"/>
-      <c r="S8" s="88"/>
-      <c r="T8" s="88"/>
-      <c r="U8" s="88"/>
-      <c r="V8" s="88"/>
-      <c r="W8" s="89"/>
+      <c r="K8" s="92"/>
+      <c r="L8" s="92"/>
+      <c r="M8" s="92"/>
+      <c r="N8" s="61"/>
+      <c r="O8" s="61"/>
+      <c r="P8" s="61"/>
+      <c r="Q8" s="61"/>
+      <c r="R8" s="61"/>
+      <c r="S8" s="61"/>
+      <c r="T8" s="61"/>
+      <c r="U8" s="61"/>
+      <c r="V8" s="61"/>
+      <c r="W8" s="65"/>
     </row>
     <row r="9" spans="1:23" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="85" t="s">
+      <c r="A9" s="81" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="87"/>
+      <c r="B9" s="57"/>
       <c r="C9" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="124" t="s">
+      <c r="D9" s="84" t="s">
         <v>76</v>
       </c>
-      <c r="E9" s="127" t="s">
+      <c r="E9" s="87" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="85" t="s">
+      <c r="F9" s="81" t="s">
         <v>16</v>
       </c>
-      <c r="G9" s="86"/>
+      <c r="G9" s="55"/>
       <c r="H9" s="42" t="s">
         <v>85</v>
       </c>
@@ -2117,7 +2110,7 @@
       <c r="K9" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="L9" s="87" t="s">
+      <c r="L9" s="57" t="s">
         <v>24</v>
       </c>
       <c r="M9" s="28" t="s">
@@ -2126,34 +2119,34 @@
       <c r="N9" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="O9" s="86" t="s">
+      <c r="O9" s="55" t="s">
         <v>33</v>
       </c>
-      <c r="P9" s="86"/>
+      <c r="P9" s="55"/>
       <c r="Q9" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="R9" s="85" t="s">
+      <c r="R9" s="81" t="s">
         <v>38</v>
       </c>
-      <c r="S9" s="86"/>
-      <c r="T9" s="115" t="s">
+      <c r="S9" s="55"/>
+      <c r="T9" s="98" t="s">
         <v>67</v>
       </c>
-      <c r="U9" s="86"/>
-      <c r="V9" s="86" t="s">
+      <c r="U9" s="55"/>
+      <c r="V9" s="55" t="s">
         <v>39</v>
       </c>
-      <c r="W9" s="87"/>
+      <c r="W9" s="57"/>
     </row>
     <row r="10" spans="1:23" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="122"/>
-      <c r="B10" s="123"/>
+      <c r="A10" s="82"/>
+      <c r="B10" s="58"/>
       <c r="C10" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="125"/>
-      <c r="E10" s="128"/>
+      <c r="D10" s="85"/>
+      <c r="E10" s="88"/>
       <c r="F10" s="9" t="s">
         <v>17</v>
       </c>
@@ -2163,58 +2156,58 @@
       <c r="H10" s="43" t="s">
         <v>84</v>
       </c>
-      <c r="I10" s="118" t="s">
+      <c r="I10" s="76" t="s">
         <v>25</v>
       </c>
-      <c r="J10" s="118" t="s">
+      <c r="J10" s="76" t="s">
         <v>26</v>
       </c>
-      <c r="K10" s="120" t="s">
+      <c r="K10" s="78" t="s">
         <v>27</v>
       </c>
-      <c r="L10" s="123"/>
+      <c r="L10" s="58"/>
       <c r="M10" s="9" t="s">
         <v>28</v>
       </c>
       <c r="N10" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="O10" s="76"/>
-      <c r="P10" s="76"/>
+      <c r="O10" s="56"/>
+      <c r="P10" s="56"/>
       <c r="Q10" s="41" t="str">
         <f>IF(ISNUMBER(I34),I34,"")</f>
         <v/>
       </c>
-      <c r="R10" s="80"/>
-      <c r="S10" s="81"/>
-      <c r="T10" s="81"/>
-      <c r="U10" s="81"/>
-      <c r="V10" s="81"/>
-      <c r="W10" s="95"/>
+      <c r="R10" s="83"/>
+      <c r="S10" s="97"/>
+      <c r="T10" s="97"/>
+      <c r="U10" s="97"/>
+      <c r="V10" s="97"/>
+      <c r="W10" s="59"/>
     </row>
     <row r="11" spans="1:23" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="80"/>
-      <c r="B11" s="95"/>
+      <c r="A11" s="83"/>
+      <c r="B11" s="59"/>
       <c r="C11" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="125"/>
-      <c r="E11" s="128"/>
-      <c r="F11" s="98" t="s">
+      <c r="D11" s="85"/>
+      <c r="E11" s="88"/>
+      <c r="F11" s="71" t="s">
         <v>19</v>
       </c>
-      <c r="G11" s="97"/>
-      <c r="H11" s="63" t="s">
+      <c r="G11" s="60"/>
+      <c r="H11" s="130" t="s">
         <v>20</v>
       </c>
-      <c r="I11" s="118"/>
-      <c r="J11" s="118"/>
-      <c r="K11" s="120"/>
-      <c r="L11" s="123"/>
+      <c r="I11" s="76"/>
+      <c r="J11" s="76"/>
+      <c r="K11" s="78"/>
+      <c r="L11" s="58"/>
       <c r="M11" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="N11" s="97" t="s">
+      <c r="N11" s="60" t="s">
         <v>32</v>
       </c>
       <c r="O11" s="10" t="s">
@@ -2226,30 +2219,30 @@
       <c r="Q11" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="R11" s="82"/>
-      <c r="S11" s="83"/>
-      <c r="T11" s="96" t="s">
+      <c r="R11" s="114"/>
+      <c r="S11" s="115"/>
+      <c r="T11" s="62" t="s">
         <v>40</v>
       </c>
-      <c r="U11" s="96"/>
-      <c r="V11" s="83"/>
-      <c r="W11" s="84"/>
+      <c r="U11" s="62"/>
+      <c r="V11" s="115"/>
+      <c r="W11" s="118"/>
     </row>
     <row r="12" spans="1:23" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="110"/>
-      <c r="B12" s="132"/>
+      <c r="A12" s="93"/>
+      <c r="B12" s="63"/>
       <c r="C12" s="13"/>
-      <c r="D12" s="126"/>
-      <c r="E12" s="129"/>
-      <c r="F12" s="114"/>
-      <c r="G12" s="88"/>
-      <c r="H12" s="64"/>
-      <c r="I12" s="119"/>
-      <c r="J12" s="119"/>
-      <c r="K12" s="121"/>
-      <c r="L12" s="95"/>
+      <c r="D12" s="86"/>
+      <c r="E12" s="89"/>
+      <c r="F12" s="80"/>
+      <c r="G12" s="61"/>
+      <c r="H12" s="131"/>
+      <c r="I12" s="77"/>
+      <c r="J12" s="77"/>
+      <c r="K12" s="79"/>
+      <c r="L12" s="59"/>
       <c r="M12" s="36"/>
-      <c r="N12" s="88"/>
+      <c r="N12" s="61"/>
       <c r="O12" s="14" t="s">
         <v>34</v>
       </c>
@@ -2259,38 +2252,38 @@
       <c r="Q12" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="R12" s="93"/>
-      <c r="S12" s="76"/>
-      <c r="T12" s="97" t="s">
+      <c r="R12" s="116"/>
+      <c r="S12" s="56"/>
+      <c r="T12" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="U12" s="97"/>
-      <c r="V12" s="76"/>
-      <c r="W12" s="77"/>
+      <c r="U12" s="60"/>
+      <c r="V12" s="56"/>
+      <c r="W12" s="119"/>
     </row>
     <row r="13" spans="1:23" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="98"/>
-      <c r="B13" s="99"/>
+      <c r="A13" s="71"/>
+      <c r="B13" s="64"/>
       <c r="C13" s="30"/>
-      <c r="D13" s="73" t="str">
-        <f t="shared" ref="D13:D15" si="0">IF(I13&lt;&gt;"",I13+J14,"")</f>
-        <v/>
-      </c>
-      <c r="E13" s="92"/>
+      <c r="D13" s="108" t="str">
+        <f>IF(I13&lt;&gt;"",MOD(I13+J14,360),"")</f>
+        <v/>
+      </c>
+      <c r="E13" s="125"/>
       <c r="F13" s="34"/>
       <c r="G13" s="31"/>
-      <c r="H13" s="109"/>
+      <c r="H13" s="111"/>
       <c r="I13" s="31"/>
-      <c r="J13" s="49" t="str">
-        <f>IF(I13&lt;&gt;"",IF(ISNUMBER(I14),I13+I14,I13),"")</f>
-        <v/>
-      </c>
-      <c r="K13" s="49" t="str">
-        <f>IF(J13&lt;&gt;"",J13+J14,"")</f>
-        <v/>
-      </c>
-      <c r="L13" s="59" t="str">
-        <f>IF(K13&lt;&gt;"",K13+K14,"")</f>
+      <c r="J13" s="47" t="str">
+        <f>IF(I13&lt;&gt;"",IF(ISNUMBER(I14),MOD(I13+I14,360),I13),"")</f>
+        <v/>
+      </c>
+      <c r="K13" s="47" t="str">
+        <f>IF(J13&lt;&gt;"",MOD(J13+J14,360),"")</f>
+        <v/>
+      </c>
+      <c r="L13" s="128" t="str">
+        <f>IF(K13&lt;&gt;"",MOD(K13+K14,360),"")</f>
         <v/>
       </c>
       <c r="M13" s="34"/>
@@ -2307,31 +2300,31 @@
         <f>IF(ISNUMBER(O13),$L$34+O13*$Q$10/60,"")</f>
         <v/>
       </c>
-      <c r="R13" s="93"/>
-      <c r="S13" s="76"/>
-      <c r="T13" s="97" t="s">
+      <c r="R13" s="116"/>
+      <c r="S13" s="56"/>
+      <c r="T13" s="60" t="s">
         <v>41</v>
       </c>
-      <c r="U13" s="97"/>
-      <c r="V13" s="76"/>
-      <c r="W13" s="77"/>
+      <c r="U13" s="60"/>
+      <c r="V13" s="56"/>
+      <c r="W13" s="119"/>
     </row>
-    <row r="14" spans="1:23" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="98"/>
-      <c r="B14" s="99"/>
+    <row r="14" spans="1:23" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="71"/>
+      <c r="B14" s="64"/>
       <c r="C14" s="30"/>
-      <c r="D14" s="74"/>
-      <c r="E14" s="75"/>
-      <c r="F14" s="101"/>
-      <c r="G14" s="102"/>
-      <c r="H14" s="58"/>
+      <c r="D14" s="109"/>
+      <c r="E14" s="110"/>
+      <c r="F14" s="99"/>
+      <c r="G14" s="66"/>
+      <c r="H14" s="91"/>
       <c r="I14" s="47" t="str">
         <f>IF(F13&lt;&gt;"",DEGREES(ASIN(G13/H13*SIN(RADIANS(F13-I13)))),"")</f>
         <v/>
       </c>
       <c r="J14" s="32"/>
       <c r="K14" s="32"/>
-      <c r="L14" s="60"/>
+      <c r="L14" s="129"/>
       <c r="M14" s="44" t="str">
         <f>IF(ISNUMBER(M13),M12-M13,"")</f>
         <v/>
@@ -2343,38 +2336,38 @@
         <f>IF(AND(ISNUMBER(Q34),ISNUMBER(Q13)),Q34-L34-Q13,"")</f>
         <v/>
       </c>
-      <c r="R14" s="93"/>
-      <c r="S14" s="76"/>
-      <c r="T14" s="97" t="s">
+      <c r="R14" s="116"/>
+      <c r="S14" s="56"/>
+      <c r="T14" s="60" t="s">
         <v>42</v>
       </c>
-      <c r="U14" s="97"/>
-      <c r="V14" s="76"/>
-      <c r="W14" s="77"/>
+      <c r="U14" s="60"/>
+      <c r="V14" s="56"/>
+      <c r="W14" s="119"/>
     </row>
     <row r="15" spans="1:23" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="98"/>
-      <c r="B15" s="99"/>
+      <c r="A15" s="71"/>
+      <c r="B15" s="64"/>
       <c r="C15" s="30"/>
-      <c r="D15" s="73" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E15" s="75"/>
+      <c r="D15" s="108" t="str">
+        <f>IF(I15&lt;&gt;"",MOD(I15+J16,360),"")</f>
+        <v/>
+      </c>
+      <c r="E15" s="110"/>
       <c r="F15" s="35"/>
       <c r="G15" s="32"/>
-      <c r="H15" s="57"/>
+      <c r="H15" s="90"/>
       <c r="I15" s="32"/>
       <c r="J15" s="47" t="str">
-        <f>IF(I15&lt;&gt;"",IF(ISNUMBER(I16),I15+I16,I15),"")</f>
+        <f>IF(I15&lt;&gt;"",IF(ISNUMBER(I16),MOD(I15+I16,360),I15),"")</f>
         <v/>
       </c>
       <c r="K15" s="47" t="str">
-        <f>IF(J15&lt;&gt;"",J15+J16,"")</f>
-        <v/>
-      </c>
-      <c r="L15" s="61" t="str">
-        <f>IF(K15&lt;&gt;"",K15+K16,"")</f>
+        <f>IF(J15&lt;&gt;"",MOD(J15+J16,360),"")</f>
+        <v/>
+      </c>
+      <c r="L15" s="128" t="str">
+        <f>IF(K15&lt;&gt;"",MOD(K15+K16,360),"")</f>
         <v/>
       </c>
       <c r="M15" s="35"/>
@@ -2391,31 +2384,31 @@
         <f>IF(ISNUMBER(O15),O15*$Q$10/60,"")</f>
         <v/>
       </c>
-      <c r="R15" s="93"/>
-      <c r="S15" s="76"/>
-      <c r="T15" s="97" t="s">
+      <c r="R15" s="116"/>
+      <c r="S15" s="56"/>
+      <c r="T15" s="60" t="s">
         <v>43</v>
       </c>
-      <c r="U15" s="97"/>
-      <c r="V15" s="76"/>
-      <c r="W15" s="77"/>
+      <c r="U15" s="60"/>
+      <c r="V15" s="56"/>
+      <c r="W15" s="119"/>
     </row>
-    <row r="16" spans="1:23" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="98"/>
-      <c r="B16" s="99"/>
+    <row r="16" spans="1:23" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="71"/>
+      <c r="B16" s="64"/>
       <c r="C16" s="30"/>
-      <c r="D16" s="74"/>
-      <c r="E16" s="75"/>
-      <c r="F16" s="101"/>
-      <c r="G16" s="102"/>
-      <c r="H16" s="58"/>
+      <c r="D16" s="109"/>
+      <c r="E16" s="110"/>
+      <c r="F16" s="99"/>
+      <c r="G16" s="66"/>
+      <c r="H16" s="91"/>
       <c r="I16" s="47" t="str">
         <f>IF(F15&lt;&gt;"",DEGREES(ASIN(G15/H15*SIN(RADIANS(F15-I15)))),"")</f>
         <v/>
       </c>
       <c r="J16" s="32"/>
       <c r="K16" s="32"/>
-      <c r="L16" s="60"/>
+      <c r="L16" s="129"/>
       <c r="M16" s="44" t="str">
         <f>IF(ISNUMBER(M15),M14-M15,"")</f>
         <v/>
@@ -2427,38 +2420,38 @@
         <f>IF(AND(ISNUMBER(Q14),ISNUMBER(Q15)),Q14-Q15,"")</f>
         <v/>
       </c>
-      <c r="R16" s="93"/>
-      <c r="S16" s="76"/>
-      <c r="T16" s="97" t="s">
+      <c r="R16" s="116"/>
+      <c r="S16" s="56"/>
+      <c r="T16" s="60" t="s">
         <v>44</v>
       </c>
-      <c r="U16" s="97"/>
-      <c r="V16" s="76"/>
-      <c r="W16" s="77"/>
+      <c r="U16" s="60"/>
+      <c r="V16" s="56"/>
+      <c r="W16" s="119"/>
     </row>
     <row r="17" spans="1:23" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="98"/>
-      <c r="B17" s="99"/>
+      <c r="A17" s="71"/>
+      <c r="B17" s="64"/>
       <c r="C17" s="30"/>
-      <c r="D17" s="73" t="str">
-        <f>IF(I17&lt;&gt;"",I17+J18,"")</f>
-        <v/>
-      </c>
-      <c r="E17" s="75"/>
+      <c r="D17" s="108" t="str">
+        <f>IF(I17&lt;&gt;"",MOD(I17+J18,360),"")</f>
+        <v/>
+      </c>
+      <c r="E17" s="110"/>
       <c r="F17" s="35"/>
       <c r="G17" s="32"/>
-      <c r="H17" s="57"/>
+      <c r="H17" s="90"/>
       <c r="I17" s="32"/>
       <c r="J17" s="47" t="str">
-        <f>IF(I17&lt;&gt;"",IF(ISNUMBER(I18),I17+I18,I17),"")</f>
+        <f>IF(I17&lt;&gt;"",IF(ISNUMBER(I18),MOD(I17+I18,360),I17),"")</f>
         <v/>
       </c>
       <c r="K17" s="47" t="str">
-        <f>IF(J17&lt;&gt;"",J17+J18,"")</f>
-        <v/>
-      </c>
-      <c r="L17" s="61" t="str">
-        <f>IF(K17&lt;&gt;"",K17+K18,"")</f>
+        <f>IF(J17&lt;&gt;"",MOD(J17+J18,360),"")</f>
+        <v/>
+      </c>
+      <c r="L17" s="128" t="str">
+        <f>IF(K17&lt;&gt;"",MOD(K17+K18,360),"")</f>
         <v/>
       </c>
       <c r="M17" s="35"/>
@@ -2475,31 +2468,31 @@
         <f>IF(ISNUMBER(O17),O17*$Q$10/60,"")</f>
         <v/>
       </c>
-      <c r="R17" s="94"/>
-      <c r="S17" s="78"/>
+      <c r="R17" s="117"/>
+      <c r="S17" s="112"/>
       <c r="T17" s="100" t="s">
         <v>45</v>
       </c>
       <c r="U17" s="100"/>
-      <c r="V17" s="78"/>
-      <c r="W17" s="79"/>
+      <c r="V17" s="112"/>
+      <c r="W17" s="113"/>
     </row>
-    <row r="18" spans="1:23" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="98"/>
-      <c r="B18" s="99"/>
+    <row r="18" spans="1:23" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="71"/>
+      <c r="B18" s="64"/>
       <c r="C18" s="30"/>
-      <c r="D18" s="74"/>
-      <c r="E18" s="75"/>
-      <c r="F18" s="101"/>
-      <c r="G18" s="102"/>
-      <c r="H18" s="58"/>
+      <c r="D18" s="109"/>
+      <c r="E18" s="110"/>
+      <c r="F18" s="99"/>
+      <c r="G18" s="66"/>
+      <c r="H18" s="91"/>
       <c r="I18" s="47" t="str">
         <f>IF(F17&lt;&gt;"",DEGREES(ASIN(G17/H17*SIN(RADIANS(F17-I17)))),"")</f>
         <v/>
       </c>
       <c r="J18" s="32"/>
       <c r="K18" s="32"/>
-      <c r="L18" s="60"/>
+      <c r="L18" s="129"/>
       <c r="M18" s="44" t="str">
         <f>IF(ISNUMBER(M17),M16-M17,"")</f>
         <v/>
@@ -2519,28 +2512,28 @@
       <c r="W18" s="17"/>
     </row>
     <row r="19" spans="1:23" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="98"/>
-      <c r="B19" s="99"/>
+      <c r="A19" s="71"/>
+      <c r="B19" s="64"/>
       <c r="C19" s="30"/>
-      <c r="D19" s="73" t="str">
-        <f>IF(I19&lt;&gt;"",I19+J20,"")</f>
-        <v/>
-      </c>
-      <c r="E19" s="75"/>
+      <c r="D19" s="108" t="str">
+        <f>IF(I19&lt;&gt;"",MOD(I19+J20,360),"")</f>
+        <v/>
+      </c>
+      <c r="E19" s="110"/>
       <c r="F19" s="35"/>
       <c r="G19" s="32"/>
-      <c r="H19" s="57"/>
+      <c r="H19" s="90"/>
       <c r="I19" s="32"/>
       <c r="J19" s="47" t="str">
-        <f>IF(I19&lt;&gt;"",IF(ISNUMBER(I20),I19+I20,I19),"")</f>
+        <f>IF(I19&lt;&gt;"",IF(ISNUMBER(I20),MOD(I19+I20,360),I19),"")</f>
         <v/>
       </c>
       <c r="K19" s="47" t="str">
-        <f>IF(J19&lt;&gt;"",J19+J20,"")</f>
-        <v/>
-      </c>
-      <c r="L19" s="61" t="str">
-        <f>IF(K19&lt;&gt;"",K19+K20,"")</f>
+        <f>IF(J19&lt;&gt;"",MOD(J19+J20,360),"")</f>
+        <v/>
+      </c>
+      <c r="L19" s="128" t="str">
+        <f>IF(K19&lt;&gt;"",MOD(K19+K20,360),"")</f>
         <v/>
       </c>
       <c r="M19" s="35"/>
@@ -2565,21 +2558,21 @@
       <c r="W19" s="19"/>
     </row>
     <row r="20" spans="1:23" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="98"/>
-      <c r="B20" s="99"/>
+      <c r="A20" s="71"/>
+      <c r="B20" s="64"/>
       <c r="C20" s="30"/>
-      <c r="D20" s="74"/>
-      <c r="E20" s="75"/>
-      <c r="F20" s="101"/>
-      <c r="G20" s="102"/>
-      <c r="H20" s="58"/>
+      <c r="D20" s="109"/>
+      <c r="E20" s="110"/>
+      <c r="F20" s="99"/>
+      <c r="G20" s="66"/>
+      <c r="H20" s="91"/>
       <c r="I20" s="47" t="str">
         <f>IF(F19&lt;&gt;"",DEGREES(ASIN(G19/H19*SIN(RADIANS(F19-I19)))),"")</f>
         <v/>
       </c>
       <c r="J20" s="32"/>
       <c r="K20" s="32"/>
-      <c r="L20" s="60"/>
+      <c r="L20" s="129"/>
       <c r="M20" s="44" t="str">
         <f>IF(ISNUMBER(M19),M18-M19,"")</f>
         <v/>
@@ -2599,28 +2592,28 @@
       <c r="W20" s="19"/>
     </row>
     <row r="21" spans="1:23" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="98"/>
-      <c r="B21" s="99"/>
+      <c r="A21" s="71"/>
+      <c r="B21" s="64"/>
       <c r="C21" s="30"/>
-      <c r="D21" s="73" t="str">
-        <f t="shared" ref="D21" si="1">IF(I21&lt;&gt;"",I21+J22,"")</f>
-        <v/>
-      </c>
-      <c r="E21" s="75"/>
+      <c r="D21" s="108" t="str">
+        <f>IF(I21&lt;&gt;"",MOD(I21+J22,360),"")</f>
+        <v/>
+      </c>
+      <c r="E21" s="110"/>
       <c r="F21" s="35"/>
       <c r="G21" s="32"/>
-      <c r="H21" s="57"/>
+      <c r="H21" s="90"/>
       <c r="I21" s="32"/>
       <c r="J21" s="47" t="str">
-        <f>IF(I21&lt;&gt;"",IF(ISNUMBER(I22),I21+I22,I21),"")</f>
+        <f>IF(I21&lt;&gt;"",IF(ISNUMBER(I22),MOD(I21+I22,360),I21),"")</f>
         <v/>
       </c>
       <c r="K21" s="47" t="str">
-        <f>IF(J21&lt;&gt;"",J21+J22,"")</f>
-        <v/>
-      </c>
-      <c r="L21" s="61" t="str">
-        <f t="shared" ref="L21" si="2">IF(K21&lt;&gt;"",K21+K22,"")</f>
+        <f>IF(J21&lt;&gt;"",MOD(J21+J22,360),"")</f>
+        <v/>
+      </c>
+      <c r="L21" s="128" t="str">
+        <f>IF(K21&lt;&gt;"",MOD(K21+K22,360),"")</f>
         <v/>
       </c>
       <c r="M21" s="35"/>
@@ -2637,31 +2630,31 @@
         <f>IF(ISNUMBER(O21),O21*$Q$10/60,"")</f>
         <v/>
       </c>
-      <c r="R21" s="85" t="s">
+      <c r="R21" s="81" t="s">
         <v>56</v>
       </c>
-      <c r="S21" s="86"/>
-      <c r="T21" s="86"/>
-      <c r="U21" s="86"/>
-      <c r="V21" s="86"/>
-      <c r="W21" s="87"/>
+      <c r="S21" s="55"/>
+      <c r="T21" s="55"/>
+      <c r="U21" s="55"/>
+      <c r="V21" s="55"/>
+      <c r="W21" s="57"/>
     </row>
     <row r="22" spans="1:23" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="98"/>
-      <c r="B22" s="99"/>
+      <c r="A22" s="71"/>
+      <c r="B22" s="64"/>
       <c r="C22" s="30"/>
-      <c r="D22" s="74"/>
-      <c r="E22" s="75"/>
-      <c r="F22" s="101"/>
-      <c r="G22" s="102"/>
-      <c r="H22" s="58"/>
+      <c r="D22" s="109"/>
+      <c r="E22" s="110"/>
+      <c r="F22" s="99"/>
+      <c r="G22" s="66"/>
+      <c r="H22" s="91"/>
       <c r="I22" s="47" t="str">
         <f>IF(F21&lt;&gt;"",DEGREES(ASIN(G21/H21*SIN(RADIANS(F21-I21)))),"")</f>
         <v/>
       </c>
       <c r="J22" s="32"/>
       <c r="K22" s="32"/>
-      <c r="L22" s="60"/>
+      <c r="L22" s="129"/>
       <c r="M22" s="44" t="str">
         <f>IF(ISNUMBER(M21),M20-M21,"")</f>
         <v/>
@@ -2673,40 +2666,40 @@
         <f>IF(AND(ISNUMBER(Q20),ISNUMBER(Q21)),Q20-Q21,"")</f>
         <v/>
       </c>
-      <c r="R22" s="80" t="s">
+      <c r="R22" s="83" t="s">
         <v>38</v>
       </c>
-      <c r="S22" s="81"/>
-      <c r="T22" s="81"/>
-      <c r="U22" s="81" t="s">
+      <c r="S22" s="97"/>
+      <c r="T22" s="97"/>
+      <c r="U22" s="97" t="s">
         <v>39</v>
       </c>
-      <c r="V22" s="81"/>
-      <c r="W22" s="95"/>
+      <c r="V22" s="97"/>
+      <c r="W22" s="59"/>
     </row>
     <row r="23" spans="1:23" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="98"/>
-      <c r="B23" s="99"/>
+      <c r="A23" s="71"/>
+      <c r="B23" s="64"/>
       <c r="C23" s="30"/>
-      <c r="D23" s="73" t="str">
-        <f t="shared" ref="D23" si="3">IF(I23&lt;&gt;"",I23+J24,"")</f>
-        <v/>
-      </c>
-      <c r="E23" s="75"/>
+      <c r="D23" s="108" t="str">
+        <f>IF(I23&lt;&gt;"",MOD(I23+J24,360),"")</f>
+        <v/>
+      </c>
+      <c r="E23" s="110"/>
       <c r="F23" s="35"/>
       <c r="G23" s="32"/>
-      <c r="H23" s="57"/>
+      <c r="H23" s="90"/>
       <c r="I23" s="32"/>
       <c r="J23" s="47" t="str">
-        <f>IF(I23&lt;&gt;"",IF(ISNUMBER(I24),I23+I24,I23),"")</f>
+        <f>IF(I23&lt;&gt;"",IF(ISNUMBER(I24),MOD(I23+I24,360),I23),"")</f>
         <v/>
       </c>
       <c r="K23" s="47" t="str">
-        <f>IF(J23&lt;&gt;"",J23+J24,"")</f>
-        <v/>
-      </c>
-      <c r="L23" s="61" t="str">
-        <f t="shared" ref="L23" si="4">IF(K23&lt;&gt;"",K23+K24,"")</f>
+        <f>IF(J23&lt;&gt;"",MOD(J23+J24,360),"")</f>
+        <v/>
+      </c>
+      <c r="L23" s="128" t="str">
+        <f>IF(K23&lt;&gt;"",MOD(K23+K24,360),"")</f>
         <v/>
       </c>
       <c r="M23" s="35"/>
@@ -2723,29 +2716,29 @@
         <f>IF(ISNUMBER(O23),O23*$Q$10/60,"")</f>
         <v/>
       </c>
-      <c r="R23" s="82"/>
-      <c r="S23" s="83"/>
-      <c r="T23" s="83"/>
-      <c r="U23" s="83"/>
-      <c r="V23" s="83"/>
-      <c r="W23" s="84"/>
+      <c r="R23" s="114"/>
+      <c r="S23" s="115"/>
+      <c r="T23" s="115"/>
+      <c r="U23" s="115"/>
+      <c r="V23" s="115"/>
+      <c r="W23" s="118"/>
     </row>
-    <row r="24" spans="1:23" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="98"/>
-      <c r="B24" s="99"/>
+    <row r="24" spans="1:23" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="71"/>
+      <c r="B24" s="64"/>
       <c r="C24" s="30"/>
-      <c r="D24" s="74"/>
-      <c r="E24" s="75"/>
-      <c r="F24" s="101"/>
-      <c r="G24" s="102"/>
-      <c r="H24" s="58"/>
+      <c r="D24" s="109"/>
+      <c r="E24" s="110"/>
+      <c r="F24" s="99"/>
+      <c r="G24" s="66"/>
+      <c r="H24" s="91"/>
       <c r="I24" s="47" t="str">
         <f>IF(F23&lt;&gt;"",DEGREES(ASIN(G23/H23*SIN(RADIANS(F23-I23)))),"")</f>
         <v/>
       </c>
       <c r="J24" s="32"/>
       <c r="K24" s="32"/>
-      <c r="L24" s="60"/>
+      <c r="L24" s="129"/>
       <c r="M24" s="44" t="str">
         <f>IF(ISNUMBER(M23),M22-M23,"")</f>
         <v/>
@@ -2760,37 +2753,37 @@
       <c r="R24" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="S24" s="76"/>
-      <c r="T24" s="76"/>
+      <c r="S24" s="134"/>
+      <c r="T24" s="134"/>
       <c r="U24" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="V24" s="76"/>
-      <c r="W24" s="77"/>
+      <c r="V24" s="134"/>
+      <c r="W24" s="136"/>
     </row>
     <row r="25" spans="1:23" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="98"/>
-      <c r="B25" s="99"/>
+      <c r="A25" s="71"/>
+      <c r="B25" s="64"/>
       <c r="C25" s="30"/>
-      <c r="D25" s="73" t="str">
-        <f t="shared" ref="D25" si="5">IF(I25&lt;&gt;"",I25+J26,"")</f>
-        <v/>
-      </c>
-      <c r="E25" s="75"/>
+      <c r="D25" s="108" t="str">
+        <f>IF(I25&lt;&gt;"",MOD(I25+J26,360),"")</f>
+        <v/>
+      </c>
+      <c r="E25" s="110"/>
       <c r="F25" s="35"/>
       <c r="G25" s="32"/>
-      <c r="H25" s="57"/>
+      <c r="H25" s="90"/>
       <c r="I25" s="32"/>
       <c r="J25" s="47" t="str">
-        <f>IF(I25&lt;&gt;"",IF(ISNUMBER(I26),I25+I26,I25),"")</f>
+        <f>IF(I25&lt;&gt;"",IF(ISNUMBER(I26),MOD(I25+I26,360),I25),"")</f>
         <v/>
       </c>
       <c r="K25" s="47" t="str">
-        <f>IF(J25&lt;&gt;"",J25+J26,"")</f>
-        <v/>
-      </c>
-      <c r="L25" s="61" t="str">
-        <f t="shared" ref="L25" si="6">IF(K25&lt;&gt;"",K25+K26,"")</f>
+        <f>IF(J25&lt;&gt;"",MOD(J25+J26,360),"")</f>
+        <v/>
+      </c>
+      <c r="L25" s="128" t="str">
+        <f>IF(K25&lt;&gt;"",MOD(K25+K26,360),"")</f>
         <v/>
       </c>
       <c r="M25" s="35"/>
@@ -2810,30 +2803,30 @@
       <c r="R25" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="S25" s="76"/>
-      <c r="T25" s="76"/>
+      <c r="S25" s="134"/>
+      <c r="T25" s="134"/>
       <c r="U25" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="V25" s="76"/>
-      <c r="W25" s="77"/>
+      <c r="V25" s="134"/>
+      <c r="W25" s="136"/>
     </row>
-    <row r="26" spans="1:23" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="98"/>
-      <c r="B26" s="99"/>
+    <row r="26" spans="1:23" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="71"/>
+      <c r="B26" s="64"/>
       <c r="C26" s="30"/>
-      <c r="D26" s="74"/>
-      <c r="E26" s="75"/>
-      <c r="F26" s="101"/>
-      <c r="G26" s="102"/>
-      <c r="H26" s="58"/>
+      <c r="D26" s="109"/>
+      <c r="E26" s="110"/>
+      <c r="F26" s="99"/>
+      <c r="G26" s="66"/>
+      <c r="H26" s="91"/>
       <c r="I26" s="47" t="str">
         <f>IF(F25&lt;&gt;"",DEGREES(ASIN(G25/H25*SIN(RADIANS(F25-I25)))),"")</f>
         <v/>
       </c>
       <c r="J26" s="32"/>
       <c r="K26" s="32"/>
-      <c r="L26" s="60"/>
+      <c r="L26" s="129"/>
       <c r="M26" s="44" t="str">
         <f>IF(ISNUMBER(M25),M24-M25,"")</f>
         <v/>
@@ -2848,37 +2841,37 @@
       <c r="R26" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="S26" s="76"/>
-      <c r="T26" s="76"/>
+      <c r="S26" s="134"/>
+      <c r="T26" s="134"/>
       <c r="U26" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="V26" s="76"/>
-      <c r="W26" s="77"/>
+      <c r="V26" s="134"/>
+      <c r="W26" s="136"/>
     </row>
     <row r="27" spans="1:23" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="98"/>
-      <c r="B27" s="99"/>
+      <c r="A27" s="71"/>
+      <c r="B27" s="64"/>
       <c r="C27" s="30"/>
-      <c r="D27" s="73" t="str">
-        <f t="shared" ref="D27" si="7">IF(I27&lt;&gt;"",I27+J28,"")</f>
-        <v/>
-      </c>
-      <c r="E27" s="75"/>
+      <c r="D27" s="108" t="str">
+        <f>IF(I27&lt;&gt;"",MOD(I27+J28,360),"")</f>
+        <v/>
+      </c>
+      <c r="E27" s="110"/>
       <c r="F27" s="35"/>
       <c r="G27" s="32"/>
-      <c r="H27" s="57"/>
+      <c r="H27" s="90"/>
       <c r="I27" s="32"/>
       <c r="J27" s="47" t="str">
-        <f>IF(I27&lt;&gt;"",IF(ISNUMBER(I28),I27+I28,I27),"")</f>
+        <f>IF(I27&lt;&gt;"",IF(ISNUMBER(I28),MOD(I27+I28,360),I27),"")</f>
         <v/>
       </c>
       <c r="K27" s="47" t="str">
-        <f>IF(J27&lt;&gt;"",J27+J28,"")</f>
-        <v/>
-      </c>
-      <c r="L27" s="61" t="str">
-        <f t="shared" ref="L27" si="8">IF(K27&lt;&gt;"",K27+K28,"")</f>
+        <f>IF(J27&lt;&gt;"",MOD(J27+J28,360),"")</f>
+        <v/>
+      </c>
+      <c r="L27" s="128" t="str">
+        <f>IF(K27&lt;&gt;"",MOD(K27+K28,360),"")</f>
         <v/>
       </c>
       <c r="M27" s="35"/>
@@ -2898,30 +2891,30 @@
       <c r="R27" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="S27" s="76"/>
-      <c r="T27" s="76"/>
+      <c r="S27" s="134"/>
+      <c r="T27" s="134"/>
       <c r="U27" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="V27" s="76"/>
-      <c r="W27" s="77"/>
+      <c r="V27" s="134"/>
+      <c r="W27" s="136"/>
     </row>
-    <row r="28" spans="1:23" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="98"/>
-      <c r="B28" s="99"/>
+    <row r="28" spans="1:23" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="71"/>
+      <c r="B28" s="64"/>
       <c r="C28" s="30"/>
-      <c r="D28" s="74"/>
-      <c r="E28" s="75"/>
-      <c r="F28" s="101"/>
-      <c r="G28" s="102"/>
-      <c r="H28" s="58"/>
+      <c r="D28" s="109"/>
+      <c r="E28" s="110"/>
+      <c r="F28" s="99"/>
+      <c r="G28" s="66"/>
+      <c r="H28" s="91"/>
       <c r="I28" s="47" t="str">
         <f>IF(F27&lt;&gt;"",DEGREES(ASIN(G27/H27*SIN(RADIANS(F27-I27)))),"")</f>
         <v/>
       </c>
       <c r="J28" s="32"/>
       <c r="K28" s="32"/>
-      <c r="L28" s="60"/>
+      <c r="L28" s="129"/>
       <c r="M28" s="44" t="str">
         <f>IF(ISNUMBER(M27),M26-M27,"")</f>
         <v/>
@@ -2936,37 +2929,37 @@
       <c r="R28" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="S28" s="76"/>
-      <c r="T28" s="76"/>
+      <c r="S28" s="134"/>
+      <c r="T28" s="134"/>
       <c r="U28" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="V28" s="76"/>
-      <c r="W28" s="77"/>
+      <c r="V28" s="134"/>
+      <c r="W28" s="136"/>
     </row>
     <row r="29" spans="1:23" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="98"/>
-      <c r="B29" s="99"/>
+      <c r="A29" s="71"/>
+      <c r="B29" s="64"/>
       <c r="C29" s="30"/>
-      <c r="D29" s="73" t="str">
-        <f t="shared" ref="D29" si="9">IF(I29&lt;&gt;"",I29+J30,"")</f>
-        <v/>
-      </c>
-      <c r="E29" s="75"/>
+      <c r="D29" s="108" t="str">
+        <f>IF(I29&lt;&gt;"",MOD(I29+J30,360),"")</f>
+        <v/>
+      </c>
+      <c r="E29" s="110"/>
       <c r="F29" s="35"/>
       <c r="G29" s="32"/>
-      <c r="H29" s="57"/>
+      <c r="H29" s="90"/>
       <c r="I29" s="32"/>
       <c r="J29" s="47" t="str">
-        <f>IF(I29&lt;&gt;"",IF(ISNUMBER(I30),I29+I30,I29),"")</f>
+        <f>IF(I29&lt;&gt;"",IF(ISNUMBER(I30),MOD(I29+I30,360),I29),"")</f>
         <v/>
       </c>
       <c r="K29" s="47" t="str">
-        <f>IF(J29&lt;&gt;"",J29+J30,"")</f>
-        <v/>
-      </c>
-      <c r="L29" s="61" t="str">
-        <f t="shared" ref="L29" si="10">IF(K29&lt;&gt;"",K29+K30,"")</f>
+        <f>IF(J29&lt;&gt;"",MOD(J29+J30,360),"")</f>
+        <v/>
+      </c>
+      <c r="L29" s="128" t="str">
+        <f>IF(K29&lt;&gt;"",MOD(K29+K30,360),"")</f>
         <v/>
       </c>
       <c r="M29" s="35"/>
@@ -2986,30 +2979,30 @@
       <c r="R29" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="S29" s="76"/>
-      <c r="T29" s="76"/>
+      <c r="S29" s="134"/>
+      <c r="T29" s="134"/>
       <c r="U29" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="V29" s="76"/>
-      <c r="W29" s="77"/>
+      <c r="V29" s="134"/>
+      <c r="W29" s="136"/>
     </row>
-    <row r="30" spans="1:23" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="98"/>
-      <c r="B30" s="99"/>
+    <row r="30" spans="1:23" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="71"/>
+      <c r="B30" s="64"/>
       <c r="C30" s="30"/>
-      <c r="D30" s="74"/>
-      <c r="E30" s="75"/>
-      <c r="F30" s="101"/>
-      <c r="G30" s="102"/>
-      <c r="H30" s="58"/>
+      <c r="D30" s="109"/>
+      <c r="E30" s="110"/>
+      <c r="F30" s="99"/>
+      <c r="G30" s="66"/>
+      <c r="H30" s="91"/>
       <c r="I30" s="47" t="str">
         <f>IF(F29&lt;&gt;"",DEGREES(ASIN(G29/H29*SIN(RADIANS(F29-I29)))),"")</f>
         <v/>
       </c>
       <c r="J30" s="32"/>
       <c r="K30" s="32"/>
-      <c r="L30" s="60"/>
+      <c r="L30" s="129"/>
       <c r="M30" s="44" t="str">
         <f>IF(ISNUMBER(M29),M28-M29,"")</f>
         <v/>
@@ -3024,37 +3017,37 @@
       <c r="R30" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="S30" s="76"/>
-      <c r="T30" s="76"/>
+      <c r="S30" s="134"/>
+      <c r="T30" s="134"/>
       <c r="U30" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="V30" s="76"/>
-      <c r="W30" s="77"/>
+      <c r="V30" s="134"/>
+      <c r="W30" s="136"/>
     </row>
     <row r="31" spans="1:23" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="98"/>
-      <c r="B31" s="99"/>
+      <c r="A31" s="71"/>
+      <c r="B31" s="64"/>
       <c r="C31" s="30"/>
-      <c r="D31" s="73" t="str">
-        <f t="shared" ref="D31" si="11">IF(I31&lt;&gt;"",I31+J32,"")</f>
-        <v/>
-      </c>
-      <c r="E31" s="75"/>
+      <c r="D31" s="108" t="str">
+        <f>IF(I31&lt;&gt;"",MOD(I31+J32,360),"")</f>
+        <v/>
+      </c>
+      <c r="E31" s="110"/>
       <c r="F31" s="35"/>
       <c r="G31" s="32"/>
-      <c r="H31" s="65"/>
+      <c r="H31" s="132"/>
       <c r="I31" s="32"/>
       <c r="J31" s="47" t="str">
-        <f>IF(I31&lt;&gt;"",IF(ISNUMBER(I32),I31+I32,I31),"")</f>
+        <f>IF(I31&lt;&gt;"",IF(ISNUMBER(I32),MOD(I31+I32,360),I31),"")</f>
         <v/>
       </c>
       <c r="K31" s="47" t="str">
-        <f>IF(J31&lt;&gt;"",J31+J32,"")</f>
-        <v/>
-      </c>
-      <c r="L31" s="61" t="str">
-        <f>IF(K31&lt;&gt;"",K31+K32,"")</f>
+        <f>IF(J31&lt;&gt;"",MOD(J31+J32,360),"")</f>
+        <v/>
+      </c>
+      <c r="L31" s="128" t="str">
+        <f>IF(K31&lt;&gt;"",MOD(K31+K32,360),"")</f>
         <v/>
       </c>
       <c r="M31" s="35"/>
@@ -3074,27 +3067,27 @@
       <c r="R31" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="S31" s="78"/>
-      <c r="T31" s="78"/>
+      <c r="S31" s="135"/>
+      <c r="T31" s="135"/>
       <c r="U31" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="V31" s="78"/>
-      <c r="W31" s="79"/>
+      <c r="V31" s="135"/>
+      <c r="W31" s="137"/>
     </row>
     <row r="32" spans="1:23" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="98"/>
-      <c r="B32" s="99"/>
+      <c r="A32" s="71"/>
+      <c r="B32" s="64"/>
       <c r="C32" s="30"/>
-      <c r="D32" s="74"/>
-      <c r="E32" s="91"/>
-      <c r="F32" s="111"/>
-      <c r="G32" s="112"/>
-      <c r="H32" s="66"/>
+      <c r="D32" s="109"/>
+      <c r="E32" s="124"/>
+      <c r="F32" s="94"/>
+      <c r="G32" s="67"/>
+      <c r="H32" s="133"/>
       <c r="I32" s="48"/>
       <c r="J32" s="33"/>
       <c r="K32" s="33"/>
-      <c r="L32" s="62"/>
+      <c r="L32" s="129"/>
       <c r="M32" s="44" t="str">
         <f>IF(ISNUMBER(M31),M30-M31,"")</f>
         <v/>
@@ -3106,32 +3099,32 @@
         <f>IF(AND(ISNUMBER(Q30),ISNUMBER(Q31)),Q30-Q31,"")</f>
         <v/>
       </c>
-      <c r="R32" s="67" t="s">
+      <c r="R32" s="120" t="s">
         <v>65</v>
       </c>
-      <c r="S32" s="68"/>
-      <c r="T32" s="90"/>
-      <c r="U32" s="90"/>
-      <c r="V32" s="90" t="s">
+      <c r="S32" s="121"/>
+      <c r="T32" s="95"/>
+      <c r="U32" s="95"/>
+      <c r="V32" s="95" t="s">
         <v>46</v>
       </c>
-      <c r="W32" s="113"/>
+      <c r="W32" s="96"/>
     </row>
     <row r="33" spans="1:23" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="114"/>
-      <c r="B33" s="89"/>
+      <c r="A33" s="80"/>
+      <c r="B33" s="65"/>
       <c r="C33" s="23"/>
-      <c r="D33" s="71" t="s">
+      <c r="D33" s="122" t="s">
         <v>69</v>
       </c>
-      <c r="E33" s="71"/>
-      <c r="F33" s="71"/>
-      <c r="G33" s="71"/>
-      <c r="H33" s="71"/>
-      <c r="I33" s="71"/>
-      <c r="J33" s="71"/>
-      <c r="K33" s="71"/>
-      <c r="L33" s="72"/>
+      <c r="E33" s="122"/>
+      <c r="F33" s="122"/>
+      <c r="G33" s="122"/>
+      <c r="H33" s="122"/>
+      <c r="I33" s="122"/>
+      <c r="J33" s="122"/>
+      <c r="K33" s="122"/>
+      <c r="L33" s="123"/>
       <c r="M33" s="24">
         <f>SUM(M13,M15,M17,M19,M21,M23,M25,M27,M29,M31)</f>
         <v>0</v>
@@ -3146,14 +3139,14 @@
         <f>SUM(Q13,Q15,Q17,Q19,Q21,Q23,Q25,Q27,Q29,Q31)</f>
         <v>0</v>
       </c>
-      <c r="R33" s="69" t="s">
+      <c r="R33" s="74" t="s">
         <v>66</v>
       </c>
-      <c r="S33" s="70"/>
-      <c r="T33" s="88"/>
-      <c r="U33" s="88"/>
-      <c r="V33" s="88"/>
-      <c r="W33" s="89"/>
+      <c r="S33" s="75"/>
+      <c r="T33" s="61"/>
+      <c r="U33" s="61"/>
+      <c r="V33" s="61"/>
+      <c r="W33" s="65"/>
     </row>
     <row r="34" spans="1:23" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A34" s="26" t="s">
@@ -3219,46 +3212,96 @@
     </row>
   </sheetData>
   <mergeCells count="156">
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="L9:L12"/>
-    <mergeCell ref="N11:N12"/>
-    <mergeCell ref="N2:W8"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F3:I3"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="F5:I5"/>
-    <mergeCell ref="F6:I6"/>
-    <mergeCell ref="F7:I7"/>
-    <mergeCell ref="A16:B17"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="J10:J12"/>
-    <mergeCell ref="K10:K12"/>
-    <mergeCell ref="F11:G12"/>
-    <mergeCell ref="A9:B11"/>
-    <mergeCell ref="D9:D12"/>
-    <mergeCell ref="E9:E12"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="I10:I12"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="F8:I8"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="K5:M5"/>
-    <mergeCell ref="K6:M6"/>
-    <mergeCell ref="K7:M7"/>
-    <mergeCell ref="K8:M8"/>
-    <mergeCell ref="A12:B13"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="L13:L14"/>
+    <mergeCell ref="L31:L32"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="H25:H26"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="H29:H30"/>
+    <mergeCell ref="H31:H32"/>
+    <mergeCell ref="L15:L16"/>
+    <mergeCell ref="L17:L18"/>
+    <mergeCell ref="L19:L20"/>
+    <mergeCell ref="L21:L22"/>
+    <mergeCell ref="L23:L24"/>
+    <mergeCell ref="L25:L26"/>
+    <mergeCell ref="L27:L28"/>
+    <mergeCell ref="L29:L30"/>
+    <mergeCell ref="R32:S32"/>
+    <mergeCell ref="R33:S33"/>
+    <mergeCell ref="D33:L33"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="V13:W13"/>
+    <mergeCell ref="V14:W14"/>
+    <mergeCell ref="V15:W15"/>
+    <mergeCell ref="V16:W16"/>
+    <mergeCell ref="V17:W17"/>
+    <mergeCell ref="R22:T22"/>
+    <mergeCell ref="R23:T23"/>
+    <mergeCell ref="U23:W23"/>
+    <mergeCell ref="R21:W21"/>
+    <mergeCell ref="S24:T24"/>
+    <mergeCell ref="V33:W33"/>
+    <mergeCell ref="T32:U32"/>
+    <mergeCell ref="T33:U33"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="V31:W31"/>
+    <mergeCell ref="R11:S11"/>
+    <mergeCell ref="R12:S12"/>
+    <mergeCell ref="R13:S13"/>
+    <mergeCell ref="R14:S14"/>
+    <mergeCell ref="R15:S15"/>
+    <mergeCell ref="R16:S16"/>
+    <mergeCell ref="R17:S17"/>
+    <mergeCell ref="V11:W11"/>
+    <mergeCell ref="V12:W12"/>
+    <mergeCell ref="S29:T29"/>
+    <mergeCell ref="S30:T30"/>
+    <mergeCell ref="S31:T31"/>
+    <mergeCell ref="V24:W24"/>
+    <mergeCell ref="V25:W25"/>
+    <mergeCell ref="V26:W26"/>
+    <mergeCell ref="V27:W27"/>
+    <mergeCell ref="V28:W28"/>
+    <mergeCell ref="V29:W29"/>
+    <mergeCell ref="V30:W30"/>
+    <mergeCell ref="U22:W22"/>
+    <mergeCell ref="T11:U11"/>
+    <mergeCell ref="T12:U12"/>
+    <mergeCell ref="T15:U15"/>
+    <mergeCell ref="A28:B29"/>
+    <mergeCell ref="T13:U13"/>
+    <mergeCell ref="T14:U14"/>
+    <mergeCell ref="T17:U17"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="R1:W1"/>
+    <mergeCell ref="G1:P1"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="H13:H14"/>
     <mergeCell ref="T16:U16"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="F32:G32"/>
@@ -3283,97 +3326,47 @@
     <mergeCell ref="A24:B25"/>
     <mergeCell ref="A26:B27"/>
     <mergeCell ref="A14:B15"/>
-    <mergeCell ref="A28:B29"/>
-    <mergeCell ref="T13:U13"/>
-    <mergeCell ref="T14:U14"/>
-    <mergeCell ref="T17:U17"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="R1:W1"/>
-    <mergeCell ref="G1:P1"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="V31:W31"/>
-    <mergeCell ref="R11:S11"/>
-    <mergeCell ref="R12:S12"/>
-    <mergeCell ref="R13:S13"/>
-    <mergeCell ref="R14:S14"/>
-    <mergeCell ref="R15:S15"/>
-    <mergeCell ref="R16:S16"/>
-    <mergeCell ref="R17:S17"/>
-    <mergeCell ref="V11:W11"/>
-    <mergeCell ref="V12:W12"/>
-    <mergeCell ref="S29:T29"/>
-    <mergeCell ref="S30:T30"/>
-    <mergeCell ref="S31:T31"/>
-    <mergeCell ref="V24:W24"/>
-    <mergeCell ref="V25:W25"/>
-    <mergeCell ref="V26:W26"/>
-    <mergeCell ref="V27:W27"/>
-    <mergeCell ref="V28:W28"/>
-    <mergeCell ref="V29:W29"/>
-    <mergeCell ref="V30:W30"/>
-    <mergeCell ref="U22:W22"/>
-    <mergeCell ref="T11:U11"/>
-    <mergeCell ref="T12:U12"/>
-    <mergeCell ref="T15:U15"/>
-    <mergeCell ref="R32:S32"/>
-    <mergeCell ref="R33:S33"/>
-    <mergeCell ref="D33:L33"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="V13:W13"/>
-    <mergeCell ref="V14:W14"/>
-    <mergeCell ref="V15:W15"/>
-    <mergeCell ref="V16:W16"/>
-    <mergeCell ref="V17:W17"/>
-    <mergeCell ref="R22:T22"/>
-    <mergeCell ref="R23:T23"/>
-    <mergeCell ref="U23:W23"/>
-    <mergeCell ref="R21:W21"/>
-    <mergeCell ref="S24:T24"/>
-    <mergeCell ref="V33:W33"/>
-    <mergeCell ref="T32:U32"/>
-    <mergeCell ref="T33:U33"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="A16:B17"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="J10:J12"/>
+    <mergeCell ref="K10:K12"/>
+    <mergeCell ref="F11:G12"/>
+    <mergeCell ref="A9:B11"/>
+    <mergeCell ref="D9:D12"/>
+    <mergeCell ref="E9:E12"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="I10:I12"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="F8:I8"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="K5:M5"/>
+    <mergeCell ref="K6:M6"/>
+    <mergeCell ref="K7:M7"/>
+    <mergeCell ref="K8:M8"/>
+    <mergeCell ref="A12:B13"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="L9:L12"/>
+    <mergeCell ref="N11:N12"/>
+    <mergeCell ref="N2:W8"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="F5:I5"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="F7:I7"/>
     <mergeCell ref="L2:M2"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="L13:L14"/>
-    <mergeCell ref="L31:L32"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="H25:H26"/>
-    <mergeCell ref="H27:H28"/>
-    <mergeCell ref="H29:H30"/>
-    <mergeCell ref="H31:H32"/>
-    <mergeCell ref="L15:L16"/>
-    <mergeCell ref="L17:L18"/>
-    <mergeCell ref="L19:L20"/>
-    <mergeCell ref="L21:L22"/>
-    <mergeCell ref="L23:L24"/>
-    <mergeCell ref="L25:L26"/>
-    <mergeCell ref="L27:L28"/>
-    <mergeCell ref="L29:L30"/>
     <mergeCell ref="J3:M3"/>
   </mergeCells>
   <hyperlinks>

--- a/vaayuyaana/jagiNavLog.xlsx
+++ b/vaayuyaana/jagiNavLog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jagadishn\Documents\jagi\haaru\aerodynamic\stage03\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8D4C16C6-AC4E-45AC-B7E6-F7A5DA191AF2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F9723CC-F314-4FDA-8891-82A4B29020AD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{E3DE2A8C-E23C-4F63-95E8-9AD5B4E402C0}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="90">
   <si>
     <t>Weight</t>
   </si>
@@ -381,16 +381,13 @@
     <t>https://github.com/jkanasu/utilities</t>
   </si>
   <si>
-    <t>N54102</t>
-  </si>
-  <si>
     <t>Std Temp °C</t>
   </si>
   <si>
     <t>Temp °C</t>
   </si>
   <si>
-    <t>TODO : fix the GS calculator, seems like headwind calculation is wrong</t>
+    <t>Tail No:</t>
   </si>
 </sst>
 </file>
@@ -501,7 +498,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="51">
+  <borders count="57">
     <border>
       <left/>
       <right/>
@@ -827,21 +824,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -898,7 +880,86 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right/>
@@ -909,7 +970,135 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right/>
@@ -922,43 +1111,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -966,33 +1118,37 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right style="medium">
+      <right style="thin">
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color indexed="64"/>
       </left>
       <right/>
@@ -1005,19 +1161,10 @@
         <color indexed="64"/>
       </left>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -1039,59 +1186,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
       <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
         <color indexed="64"/>
       </right>
       <top/>
@@ -1102,39 +1197,7 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -1148,38 +1211,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="181">
+  <cellXfs count="186">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1188,9 +1230,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1273,55 +1312,61 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1330,359 +1375,392 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2081,7 +2159,7 @@
   <dimension ref="A1:X35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="AB10" sqref="AB10"/>
+      <selection activeCell="AF13" sqref="AF13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2099,1439 +2177,1437 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="81" t="s">
+      <c r="A1" s="50" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="105"/>
+      <c r="B1" s="51"/>
+      <c r="C1" s="52" t="s">
+        <v>89</v>
+      </c>
+      <c r="D1" s="52"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
       <c r="G1" s="1"/>
-      <c r="H1" s="87" t="s">
+      <c r="H1" s="120" t="s">
         <v>56</v>
       </c>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
+      <c r="I1" s="120"/>
+      <c r="J1" s="120"/>
+      <c r="K1" s="120"/>
+      <c r="L1" s="120"/>
+      <c r="M1" s="120"/>
+      <c r="N1" s="120"/>
+      <c r="O1" s="120"/>
+      <c r="P1" s="120"/>
+      <c r="Q1" s="120"/>
       <c r="R1" s="1"/>
-      <c r="S1" s="84" t="s">
+      <c r="S1" s="117" t="s">
         <v>86</v>
       </c>
-      <c r="T1" s="85"/>
-      <c r="U1" s="85"/>
-      <c r="V1" s="85"/>
-      <c r="W1" s="85"/>
-      <c r="X1" s="86"/>
+      <c r="T1" s="118"/>
+      <c r="U1" s="118"/>
+      <c r="V1" s="118"/>
+      <c r="W1" s="118"/>
+      <c r="X1" s="119"/>
     </row>
-    <row r="2" spans="1:24" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:24" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="166" t="s">
         <v>69</v>
       </c>
-      <c r="B2" s="44"/>
-      <c r="C2" s="3" t="s">
+      <c r="B2" s="167"/>
+      <c r="C2" s="168" t="s">
         <v>70</v>
       </c>
-      <c r="D2" s="44"/>
-      <c r="E2" s="3" t="s">
+      <c r="D2" s="167"/>
+      <c r="E2" s="168" t="s">
         <v>71</v>
       </c>
-      <c r="F2" s="58"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="3" t="s">
+      <c r="F2" s="169"/>
+      <c r="G2" s="170"/>
+      <c r="H2" s="168" t="s">
         <v>72</v>
       </c>
-      <c r="I2" s="114"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="4" t="s">
+      <c r="I2" s="171"/>
+      <c r="J2" s="170"/>
+      <c r="K2" s="177" t="s">
         <v>73</v>
       </c>
-      <c r="L2" s="3"/>
-      <c r="M2" s="58"/>
-      <c r="N2" s="59"/>
-      <c r="O2" s="167" t="s">
-        <v>90</v>
-      </c>
-      <c r="P2" s="167"/>
-      <c r="Q2" s="167"/>
-      <c r="R2" s="167"/>
-      <c r="S2" s="167"/>
-      <c r="T2" s="167"/>
-      <c r="U2" s="167"/>
-      <c r="V2" s="167"/>
-      <c r="W2" s="167"/>
-      <c r="X2" s="168"/>
+      <c r="L2" s="168"/>
+      <c r="M2" s="169"/>
+      <c r="N2" s="169"/>
+      <c r="O2" s="181"/>
+      <c r="P2" s="182"/>
+      <c r="Q2" s="182"/>
+      <c r="R2" s="182"/>
+      <c r="S2" s="182"/>
+      <c r="T2" s="182"/>
+      <c r="U2" s="182"/>
+      <c r="V2" s="182"/>
+      <c r="W2" s="182"/>
+      <c r="X2" s="183"/>
     </row>
     <row r="3" spans="1:24" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="72" t="s">
-        <v>87</v>
-      </c>
-      <c r="B3" s="52"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="115" t="s">
+      <c r="A3" s="172"/>
+      <c r="B3" s="173"/>
+      <c r="C3" s="174"/>
+      <c r="D3" s="175" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="116"/>
-      <c r="F3" s="117"/>
-      <c r="G3" s="56" t="s">
+      <c r="E3" s="123"/>
+      <c r="F3" s="98"/>
+      <c r="G3" s="99" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="56"/>
-      <c r="I3" s="56"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="56" t="s">
+      <c r="H3" s="99"/>
+      <c r="I3" s="99"/>
+      <c r="J3" s="100"/>
+      <c r="K3" s="128" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="56"/>
-      <c r="M3" s="56"/>
-      <c r="N3" s="56"/>
-      <c r="O3" s="169"/>
-      <c r="P3" s="169"/>
-      <c r="Q3" s="169"/>
-      <c r="R3" s="169"/>
-      <c r="S3" s="169"/>
-      <c r="T3" s="169"/>
-      <c r="U3" s="169"/>
-      <c r="V3" s="169"/>
-      <c r="W3" s="169"/>
-      <c r="X3" s="170"/>
+      <c r="L3" s="99"/>
+      <c r="M3" s="99"/>
+      <c r="N3" s="175"/>
+      <c r="O3" s="184"/>
+      <c r="P3" s="150"/>
+      <c r="Q3" s="150"/>
+      <c r="R3" s="150"/>
+      <c r="S3" s="150"/>
+      <c r="T3" s="150"/>
+      <c r="U3" s="150"/>
+      <c r="V3" s="150"/>
+      <c r="W3" s="150"/>
+      <c r="X3" s="151"/>
     </row>
     <row r="4" spans="1:24" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="61" t="s">
+      <c r="A4" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="62"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="118"/>
-      <c r="E4" s="106"/>
-      <c r="F4" s="112"/>
-      <c r="G4" s="54"/>
-      <c r="H4" s="54"/>
-      <c r="I4" s="54"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="176" t="s">
+      <c r="B4" s="56"/>
+      <c r="C4" s="56"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="127"/>
+      <c r="H4" s="127"/>
+      <c r="I4" s="127"/>
+      <c r="J4" s="80"/>
+      <c r="K4" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="L4" s="110"/>
-      <c r="M4" s="178"/>
-      <c r="N4" s="93"/>
-      <c r="O4" s="169"/>
-      <c r="P4" s="169"/>
-      <c r="Q4" s="169"/>
-      <c r="R4" s="169"/>
-      <c r="S4" s="169"/>
-      <c r="T4" s="169"/>
-      <c r="U4" s="169"/>
-      <c r="V4" s="169"/>
-      <c r="W4" s="169"/>
-      <c r="X4" s="170"/>
+      <c r="L4" s="54"/>
+      <c r="M4" s="154"/>
+      <c r="N4" s="179"/>
+      <c r="O4" s="184"/>
+      <c r="P4" s="150"/>
+      <c r="Q4" s="150"/>
+      <c r="R4" s="150"/>
+      <c r="S4" s="150"/>
+      <c r="T4" s="150"/>
+      <c r="U4" s="150"/>
+      <c r="V4" s="150"/>
+      <c r="W4" s="150"/>
+      <c r="X4" s="151"/>
     </row>
     <row r="5" spans="1:24" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="61" t="s">
+      <c r="A5" s="55" t="s">
         <v>85</v>
       </c>
-      <c r="B5" s="62"/>
-      <c r="C5" s="62"/>
-      <c r="D5" s="118"/>
-      <c r="E5" s="106"/>
-      <c r="F5" s="112"/>
-      <c r="G5" s="54"/>
-      <c r="H5" s="54"/>
-      <c r="I5" s="54"/>
-      <c r="J5" s="54"/>
-      <c r="K5" s="176" t="s">
+      <c r="B5" s="56"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="67"/>
+      <c r="E5" s="68"/>
+      <c r="F5" s="69"/>
+      <c r="G5" s="127"/>
+      <c r="H5" s="127"/>
+      <c r="I5" s="127"/>
+      <c r="J5" s="80"/>
+      <c r="K5" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="L5" s="110"/>
-      <c r="M5" s="178"/>
-      <c r="N5" s="93"/>
-      <c r="O5" s="169"/>
-      <c r="P5" s="169"/>
-      <c r="Q5" s="169"/>
-      <c r="R5" s="169"/>
-      <c r="S5" s="169"/>
-      <c r="T5" s="169"/>
-      <c r="U5" s="169"/>
-      <c r="V5" s="169"/>
-      <c r="W5" s="169"/>
-      <c r="X5" s="170"/>
+      <c r="L5" s="54"/>
+      <c r="M5" s="154"/>
+      <c r="N5" s="179"/>
+      <c r="O5" s="184"/>
+      <c r="P5" s="150"/>
+      <c r="Q5" s="150"/>
+      <c r="R5" s="150"/>
+      <c r="S5" s="150"/>
+      <c r="T5" s="150"/>
+      <c r="U5" s="150"/>
+      <c r="V5" s="150"/>
+      <c r="W5" s="150"/>
+      <c r="X5" s="151"/>
     </row>
     <row r="6" spans="1:24" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="61" t="s">
+      <c r="A6" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="62"/>
-      <c r="C6" s="62"/>
-      <c r="D6" s="118"/>
-      <c r="E6" s="106"/>
-      <c r="F6" s="112"/>
-      <c r="G6" s="54"/>
-      <c r="H6" s="54"/>
-      <c r="I6" s="54"/>
-      <c r="J6" s="54"/>
-      <c r="K6" s="176" t="s">
+      <c r="B6" s="56"/>
+      <c r="C6" s="56"/>
+      <c r="D6" s="67"/>
+      <c r="E6" s="68"/>
+      <c r="F6" s="69"/>
+      <c r="G6" s="127"/>
+      <c r="H6" s="127"/>
+      <c r="I6" s="127"/>
+      <c r="J6" s="80"/>
+      <c r="K6" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="L6" s="110"/>
-      <c r="M6" s="178"/>
-      <c r="N6" s="93"/>
-      <c r="O6" s="169"/>
-      <c r="P6" s="169"/>
-      <c r="Q6" s="169"/>
-      <c r="R6" s="169"/>
-      <c r="S6" s="169"/>
-      <c r="T6" s="169"/>
-      <c r="U6" s="169"/>
-      <c r="V6" s="169"/>
-      <c r="W6" s="169"/>
-      <c r="X6" s="170"/>
+      <c r="L6" s="54"/>
+      <c r="M6" s="154"/>
+      <c r="N6" s="179"/>
+      <c r="O6" s="184"/>
+      <c r="P6" s="150"/>
+      <c r="Q6" s="150"/>
+      <c r="R6" s="150"/>
+      <c r="S6" s="150"/>
+      <c r="T6" s="150"/>
+      <c r="U6" s="150"/>
+      <c r="V6" s="150"/>
+      <c r="W6" s="150"/>
+      <c r="X6" s="151"/>
     </row>
     <row r="7" spans="1:24" ht="21" x14ac:dyDescent="0.25">
-      <c r="A7" s="61" t="s">
+      <c r="A7" s="55" t="s">
         <v>74</v>
       </c>
-      <c r="B7" s="62"/>
-      <c r="C7" s="62"/>
-      <c r="D7" s="118"/>
-      <c r="E7" s="106"/>
-      <c r="F7" s="112"/>
-      <c r="G7" s="54"/>
-      <c r="H7" s="54"/>
-      <c r="I7" s="54"/>
-      <c r="J7" s="54"/>
-      <c r="K7" s="176" t="s">
+      <c r="B7" s="56"/>
+      <c r="C7" s="56"/>
+      <c r="D7" s="67"/>
+      <c r="E7" s="68"/>
+      <c r="F7" s="69"/>
+      <c r="G7" s="127"/>
+      <c r="H7" s="127"/>
+      <c r="I7" s="127"/>
+      <c r="J7" s="80"/>
+      <c r="K7" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="L7" s="110"/>
-      <c r="M7" s="178"/>
-      <c r="N7" s="93"/>
-      <c r="O7" s="169"/>
-      <c r="P7" s="169"/>
-      <c r="Q7" s="169"/>
-      <c r="R7" s="169"/>
-      <c r="S7" s="169"/>
-      <c r="T7" s="169"/>
-      <c r="U7" s="169"/>
-      <c r="V7" s="169"/>
-      <c r="W7" s="169"/>
-      <c r="X7" s="170"/>
+      <c r="L7" s="54"/>
+      <c r="M7" s="154"/>
+      <c r="N7" s="179"/>
+      <c r="O7" s="184"/>
+      <c r="P7" s="150"/>
+      <c r="Q7" s="150"/>
+      <c r="R7" s="150"/>
+      <c r="S7" s="150"/>
+      <c r="T7" s="150"/>
+      <c r="U7" s="150"/>
+      <c r="V7" s="150"/>
+      <c r="W7" s="150"/>
+      <c r="X7" s="151"/>
     </row>
     <row r="8" spans="1:24" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="63" t="s">
+      <c r="A8" s="85" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="64"/>
-      <c r="C8" s="64"/>
-      <c r="D8" s="119"/>
-      <c r="E8" s="120"/>
-      <c r="F8" s="113"/>
-      <c r="G8" s="55"/>
-      <c r="H8" s="55"/>
-      <c r="I8" s="55"/>
-      <c r="J8" s="55"/>
-      <c r="K8" s="177" t="s">
+      <c r="B8" s="86"/>
+      <c r="C8" s="86"/>
+      <c r="D8" s="70"/>
+      <c r="E8" s="71"/>
+      <c r="F8" s="72"/>
+      <c r="G8" s="75"/>
+      <c r="H8" s="75"/>
+      <c r="I8" s="75"/>
+      <c r="J8" s="176"/>
+      <c r="K8" s="178" t="s">
         <v>10</v>
       </c>
-      <c r="L8" s="111"/>
-      <c r="M8" s="179"/>
+      <c r="L8" s="61"/>
+      <c r="M8" s="155"/>
       <c r="N8" s="180"/>
-      <c r="O8" s="171"/>
-      <c r="P8" s="171"/>
-      <c r="Q8" s="171"/>
-      <c r="R8" s="171"/>
-      <c r="S8" s="172"/>
-      <c r="T8" s="172"/>
-      <c r="U8" s="172"/>
-      <c r="V8" s="172"/>
-      <c r="W8" s="172"/>
-      <c r="X8" s="173"/>
+      <c r="O8" s="185"/>
+      <c r="P8" s="152"/>
+      <c r="Q8" s="152"/>
+      <c r="R8" s="152"/>
+      <c r="S8" s="152"/>
+      <c r="T8" s="152"/>
+      <c r="U8" s="152"/>
+      <c r="V8" s="152"/>
+      <c r="W8" s="152"/>
+      <c r="X8" s="153"/>
     </row>
     <row r="9" spans="1:24" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="66" t="s">
+      <c r="A9" s="128" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="47"/>
-      <c r="C9" s="107" t="s">
+      <c r="B9" s="100"/>
+      <c r="C9" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="164" t="s">
+      <c r="D9" s="132" t="s">
         <v>75</v>
       </c>
-      <c r="E9" s="161" t="s">
+      <c r="E9" s="135" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="69" t="s">
-        <v>88</v>
-      </c>
-      <c r="G9" s="66" t="s">
+      <c r="F9" s="140" t="s">
+        <v>87</v>
+      </c>
+      <c r="G9" s="128" t="s">
         <v>16</v>
       </c>
-      <c r="H9" s="45"/>
-      <c r="I9" s="130" t="s">
+      <c r="H9" s="99"/>
+      <c r="I9" s="42" t="s">
         <v>84</v>
       </c>
-      <c r="J9" s="29" t="s">
+      <c r="J9" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="K9" s="30" t="s">
+      <c r="K9" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="L9" s="31" t="s">
+      <c r="L9" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="M9" s="143" t="s">
+      <c r="M9" s="123" t="s">
         <v>23</v>
       </c>
-      <c r="N9" s="29" t="s">
+      <c r="N9" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="O9" s="30" t="s">
+      <c r="O9" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="P9" s="45" t="s">
+      <c r="P9" s="99" t="s">
         <v>32</v>
       </c>
-      <c r="Q9" s="45"/>
-      <c r="R9" s="31" t="s">
+      <c r="Q9" s="99"/>
+      <c r="R9" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="S9" s="109" t="s">
+      <c r="S9" s="98" t="s">
         <v>37</v>
       </c>
-      <c r="T9" s="45"/>
-      <c r="U9" s="78" t="s">
+      <c r="T9" s="99"/>
+      <c r="U9" s="144" t="s">
         <v>66</v>
       </c>
-      <c r="V9" s="45"/>
-      <c r="W9" s="45" t="s">
+      <c r="V9" s="99"/>
+      <c r="W9" s="99" t="s">
         <v>38</v>
       </c>
-      <c r="X9" s="47"/>
+      <c r="X9" s="100"/>
     </row>
     <row r="10" spans="1:24" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="67"/>
-      <c r="B10" s="48"/>
-      <c r="C10" s="16" t="s">
+      <c r="A10" s="129"/>
+      <c r="B10" s="130"/>
+      <c r="C10" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="165"/>
-      <c r="E10" s="162"/>
-      <c r="F10" s="70"/>
-      <c r="G10" s="37" t="s">
+      <c r="D10" s="133"/>
+      <c r="E10" s="136"/>
+      <c r="F10" s="141"/>
+      <c r="G10" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="H10" s="36" t="s">
+      <c r="H10" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="I10" s="131" t="s">
+      <c r="I10" s="43" t="s">
         <v>83</v>
       </c>
-      <c r="J10" s="137" t="s">
+      <c r="J10" s="138" t="s">
         <v>24</v>
       </c>
-      <c r="K10" s="65" t="s">
+      <c r="K10" s="156" t="s">
         <v>25</v>
       </c>
-      <c r="L10" s="138" t="s">
+      <c r="L10" s="158" t="s">
         <v>26</v>
       </c>
-      <c r="M10" s="116"/>
-      <c r="N10" s="37" t="s">
+      <c r="M10" s="66"/>
+      <c r="N10" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="O10" s="36" t="s">
+      <c r="O10" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="P10" s="46"/>
-      <c r="Q10" s="46"/>
-      <c r="R10" s="26" t="str">
+      <c r="P10" s="89"/>
+      <c r="Q10" s="89"/>
+      <c r="R10" s="18" t="str">
         <f>IF(ISNUMBER(J34),J34,"")</f>
         <v/>
       </c>
-      <c r="S10" s="148"/>
-      <c r="T10" s="77"/>
-      <c r="U10" s="77"/>
-      <c r="V10" s="77"/>
-      <c r="W10" s="77"/>
-      <c r="X10" s="49"/>
+      <c r="S10" s="93"/>
+      <c r="T10" s="94"/>
+      <c r="U10" s="94"/>
+      <c r="V10" s="94"/>
+      <c r="W10" s="94"/>
+      <c r="X10" s="114"/>
     </row>
     <row r="11" spans="1:24" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="68"/>
-      <c r="B11" s="49"/>
-      <c r="C11" s="108" t="s">
+      <c r="A11" s="131"/>
+      <c r="B11" s="114"/>
+      <c r="C11" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="165"/>
-      <c r="E11" s="162"/>
-      <c r="F11" s="70"/>
-      <c r="G11" s="60" t="s">
-        <v>89</v>
-      </c>
-      <c r="H11" s="50"/>
-      <c r="I11" s="125" t="s">
+      <c r="D11" s="133"/>
+      <c r="E11" s="136"/>
+      <c r="F11" s="141"/>
+      <c r="G11" s="160" t="s">
+        <v>88</v>
+      </c>
+      <c r="H11" s="116"/>
+      <c r="I11" s="78" t="s">
         <v>19</v>
       </c>
-      <c r="J11" s="137"/>
-      <c r="K11" s="65"/>
-      <c r="L11" s="138"/>
-      <c r="M11" s="116"/>
-      <c r="N11" s="37" t="s">
+      <c r="J11" s="138"/>
+      <c r="K11" s="156"/>
+      <c r="L11" s="158"/>
+      <c r="M11" s="66"/>
+      <c r="N11" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="O11" s="50" t="s">
+      <c r="O11" s="116" t="s">
         <v>31</v>
       </c>
-      <c r="P11" s="36" t="s">
+      <c r="P11" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="Q11" s="36" t="s">
+      <c r="Q11" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="R11" s="38" t="s">
+      <c r="R11" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="S11" s="91"/>
-      <c r="T11" s="92"/>
-      <c r="U11" s="52" t="s">
+      <c r="S11" s="95"/>
+      <c r="T11" s="96"/>
+      <c r="U11" s="115" t="s">
         <v>39</v>
       </c>
-      <c r="V11" s="52"/>
-      <c r="W11" s="92"/>
-      <c r="X11" s="96"/>
+      <c r="V11" s="115"/>
+      <c r="W11" s="96"/>
+      <c r="X11" s="97"/>
     </row>
     <row r="12" spans="1:24" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="156"/>
-      <c r="B12" s="157"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="166"/>
-      <c r="E12" s="163"/>
-      <c r="F12" s="71"/>
-      <c r="G12" s="132"/>
-      <c r="H12" s="80"/>
-      <c r="I12" s="133"/>
+      <c r="A12" s="62"/>
+      <c r="B12" s="63"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="134"/>
+      <c r="E12" s="137"/>
+      <c r="F12" s="142"/>
+      <c r="G12" s="161"/>
+      <c r="H12" s="125"/>
+      <c r="I12" s="79"/>
       <c r="J12" s="139"/>
-      <c r="K12" s="124"/>
-      <c r="L12" s="140"/>
-      <c r="M12" s="144"/>
-      <c r="N12" s="41"/>
-      <c r="O12" s="51"/>
-      <c r="P12" s="32" t="s">
+      <c r="K12" s="157"/>
+      <c r="L12" s="159"/>
+      <c r="M12" s="124"/>
+      <c r="N12" s="33"/>
+      <c r="O12" s="102"/>
+      <c r="P12" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="Q12" s="32" t="s">
+      <c r="Q12" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="R12" s="33" t="s">
+      <c r="R12" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="S12" s="93"/>
-      <c r="T12" s="46"/>
-      <c r="U12" s="50" t="s">
+      <c r="S12" s="109"/>
+      <c r="T12" s="89"/>
+      <c r="U12" s="116" t="s">
         <v>16</v>
       </c>
-      <c r="V12" s="50"/>
-      <c r="W12" s="46"/>
-      <c r="X12" s="97"/>
+      <c r="V12" s="116"/>
+      <c r="W12" s="89"/>
+      <c r="X12" s="90"/>
     </row>
     <row r="13" spans="1:24" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="152"/>
-      <c r="B13" s="153"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="158" t="str">
+      <c r="A13" s="48"/>
+      <c r="B13" s="49"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="87" t="str">
         <f>IF(J13&lt;&gt;"",MOD(J13+K14,360),"")</f>
         <v/>
       </c>
-      <c r="E13" s="57"/>
-      <c r="F13" s="121" t="str">
+      <c r="E13" s="106"/>
+      <c r="F13" s="73" t="str">
         <f>IF(ISNUMBER(E13),15-E13/1000*2,"")</f>
         <v/>
       </c>
-      <c r="G13" s="127"/>
-      <c r="H13" s="128"/>
-      <c r="I13" s="134"/>
-      <c r="J13" s="127"/>
-      <c r="K13" s="129" t="str">
+      <c r="G13" s="39"/>
+      <c r="H13" s="40"/>
+      <c r="I13" s="121"/>
+      <c r="J13" s="39"/>
+      <c r="K13" s="41" t="str">
         <f>IF(J13&lt;&gt;"",IF(ISNUMBER(J14),MOD(J13+J14,360),J13),"")</f>
         <v/>
       </c>
-      <c r="L13" s="141" t="str">
+      <c r="L13" s="44" t="str">
         <f>IF(K13&lt;&gt;"",MOD(K13+K14,360),"")</f>
         <v/>
       </c>
-      <c r="M13" s="145" t="str">
+      <c r="M13" s="122" t="str">
         <f>IF(L13&lt;&gt;"",MOD(L13+L14,360),"")</f>
         <v/>
       </c>
-      <c r="N13" s="17"/>
-      <c r="O13" s="23" t="str">
-        <f>IF(ISNUMBER(I13),SQRT((H13^2) + (I13^2) - (2*H13*I13*COS( RADIANS(ABS(180-ABS(IF(ISNUMBER(J14),J14,0))-ABS(DEGREES(ASIN(SIN(RADIANS(G13-J13)))))))) ) ),"")</f>
-        <v/>
-      </c>
-      <c r="P13" s="23" t="str">
+      <c r="N13" s="9"/>
+      <c r="O13" s="15" t="str">
+        <f>IF(ISNUMBER(I13),SQRT((H13^2) + (I13^2) - (2*H13*I13*COS(   ACOS(COS(RADIANS(J13-G13)))   ) ) ),"")</f>
+        <v/>
+      </c>
+      <c r="P13" s="15" t="str">
         <f>IF(ISNUMBER(O13),ROUND(N13/O13*60,0),"")</f>
         <v/>
       </c>
-      <c r="Q13" s="28"/>
-      <c r="R13" s="35" t="str">
+      <c r="Q13" s="20"/>
+      <c r="R13" s="27" t="str">
         <f>IF(ISNUMBER(P13),P13*$R$10/60,"")</f>
         <v/>
       </c>
-      <c r="S13" s="93"/>
-      <c r="T13" s="46"/>
-      <c r="U13" s="50" t="s">
+      <c r="S13" s="109"/>
+      <c r="T13" s="89"/>
+      <c r="U13" s="116" t="s">
         <v>40</v>
       </c>
-      <c r="V13" s="50"/>
-      <c r="W13" s="46"/>
-      <c r="X13" s="97"/>
+      <c r="V13" s="116"/>
+      <c r="W13" s="89"/>
+      <c r="X13" s="90"/>
     </row>
     <row r="14" spans="1:24" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="154"/>
-      <c r="B14" s="155"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="159"/>
-      <c r="E14" s="112"/>
-      <c r="F14" s="122"/>
-      <c r="G14" s="79"/>
-      <c r="H14" s="54"/>
-      <c r="I14" s="88"/>
-      <c r="J14" s="25" t="str">
+      <c r="A14" s="57"/>
+      <c r="B14" s="58"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="88"/>
+      <c r="E14" s="69"/>
+      <c r="F14" s="64"/>
+      <c r="G14" s="126"/>
+      <c r="H14" s="127"/>
+      <c r="I14" s="80"/>
+      <c r="J14" s="17" t="str">
         <f>IF(G13&lt;&gt;"",DEGREES(ASIN(H13/I13*SIN(RADIANS(G13-J13)))),"")</f>
         <v/>
       </c>
-      <c r="K14" s="40"/>
-      <c r="L14" s="26"/>
-      <c r="M14" s="146"/>
-      <c r="N14" s="25" t="str">
+      <c r="K14" s="32"/>
+      <c r="L14" s="18"/>
+      <c r="M14" s="76"/>
+      <c r="N14" s="17" t="str">
         <f>IF(ISNUMBER(N13),N12-N13,"")</f>
         <v/>
       </c>
-      <c r="O14" s="27"/>
-      <c r="P14" s="27"/>
-      <c r="Q14" s="27"/>
-      <c r="R14" s="21" t="str">
-        <f>IF(AND(ISNUMBER(R34),ISNUMBER(R13)),R34-M34-R13,"")</f>
-        <v/>
-      </c>
-      <c r="S14" s="93"/>
-      <c r="T14" s="46"/>
-      <c r="U14" s="50" t="s">
+      <c r="O14" s="19"/>
+      <c r="P14" s="19"/>
+      <c r="Q14" s="19"/>
+      <c r="R14" s="13" t="str">
+        <f>IF(AND(ISNUMBER(R34),ISNUMBER(R13)),R34-$M$34-R13,"")</f>
+        <v/>
+      </c>
+      <c r="S14" s="109"/>
+      <c r="T14" s="89"/>
+      <c r="U14" s="116" t="s">
         <v>41</v>
       </c>
-      <c r="V14" s="50"/>
-      <c r="W14" s="46"/>
-      <c r="X14" s="97"/>
+      <c r="V14" s="116"/>
+      <c r="W14" s="89"/>
+      <c r="X14" s="90"/>
     </row>
     <row r="15" spans="1:24" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="152"/>
-      <c r="B15" s="153"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="159" t="str">
+      <c r="A15" s="48"/>
+      <c r="B15" s="49"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="88" t="str">
         <f>IF(J15&lt;&gt;"",MOD(J15+K16,360),"")</f>
         <v/>
       </c>
-      <c r="E15" s="112"/>
-      <c r="F15" s="121" t="str">
+      <c r="E15" s="69"/>
+      <c r="F15" s="73" t="str">
         <f t="shared" ref="F15" si="0">IF(ISNUMBER(E15),15-E15/1000*2,"")</f>
         <v/>
       </c>
-      <c r="G15" s="39"/>
-      <c r="H15" s="40"/>
-      <c r="I15" s="88"/>
-      <c r="J15" s="39"/>
-      <c r="K15" s="22" t="str">
+      <c r="G15" s="31"/>
+      <c r="H15" s="32"/>
+      <c r="I15" s="80"/>
+      <c r="J15" s="31"/>
+      <c r="K15" s="14" t="str">
         <f>IF(J15&lt;&gt;"",IF(ISNUMBER(J16),MOD(J15+J16,360),J15),"")</f>
         <v/>
       </c>
-      <c r="L15" s="21" t="str">
+      <c r="L15" s="13" t="str">
         <f>IF(K15&lt;&gt;"",MOD(K15+K16,360),"")</f>
         <v/>
       </c>
-      <c r="M15" s="146" t="str">
+      <c r="M15" s="76" t="str">
         <f>IF(L15&lt;&gt;"",MOD(L15+L16,360),"")</f>
         <v/>
       </c>
-      <c r="N15" s="39"/>
-      <c r="O15" s="22" t="str">
-        <f>IF(ISNUMBER(I15),SQRT((H15^2) + (I15^2) - (2*H15*I15*COS( RADIANS(ABS(180-ABS(IF(ISNUMBER(J16),J16,0))-ABS(DEGREES(ASIN(SIN(RADIANS(G15-J15)))))))) ) ),"")</f>
-        <v/>
-      </c>
-      <c r="P15" s="22" t="str">
+      <c r="N15" s="31"/>
+      <c r="O15" s="14" t="str">
+        <f>IF(ISNUMBER(I15),SQRT((H15^2) + (I15^2) - (2*H15*I15*COS(   ACOS(COS(RADIANS(J15-G15)))   ) ) ),"")</f>
+        <v/>
+      </c>
+      <c r="P15" s="14" t="str">
         <f>IF(ISNUMBER(O15),ROUND(N15/O15*60,0),"")</f>
         <v/>
       </c>
-      <c r="Q15" s="27"/>
-      <c r="R15" s="26" t="str">
+      <c r="Q15" s="19"/>
+      <c r="R15" s="18" t="str">
         <f>IF(ISNUMBER(P15),P15*$R$10/60,"")</f>
         <v/>
       </c>
-      <c r="S15" s="93"/>
-      <c r="T15" s="46"/>
-      <c r="U15" s="50" t="s">
+      <c r="S15" s="109"/>
+      <c r="T15" s="89"/>
+      <c r="U15" s="116" t="s">
         <v>42</v>
       </c>
-      <c r="V15" s="50"/>
-      <c r="W15" s="46"/>
-      <c r="X15" s="97"/>
+      <c r="V15" s="116"/>
+      <c r="W15" s="89"/>
+      <c r="X15" s="90"/>
     </row>
     <row r="16" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="154"/>
-      <c r="B16" s="155"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="159"/>
-      <c r="E16" s="112"/>
-      <c r="F16" s="122"/>
-      <c r="G16" s="79"/>
-      <c r="H16" s="54"/>
-      <c r="I16" s="88"/>
-      <c r="J16" s="25" t="str">
+      <c r="A16" s="57"/>
+      <c r="B16" s="58"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="88"/>
+      <c r="E16" s="69"/>
+      <c r="F16" s="64"/>
+      <c r="G16" s="126"/>
+      <c r="H16" s="127"/>
+      <c r="I16" s="80"/>
+      <c r="J16" s="17" t="str">
         <f>IF(G15&lt;&gt;"",DEGREES(ASIN(H15/I15*SIN(RADIANS(G15-J15)))),"")</f>
         <v/>
       </c>
-      <c r="K16" s="40"/>
-      <c r="L16" s="26"/>
-      <c r="M16" s="146"/>
-      <c r="N16" s="25" t="str">
+      <c r="K16" s="32"/>
+      <c r="L16" s="18"/>
+      <c r="M16" s="76"/>
+      <c r="N16" s="17" t="str">
         <f>IF(ISNUMBER(N15),N14-N15,"")</f>
         <v/>
       </c>
-      <c r="O16" s="27"/>
-      <c r="P16" s="27"/>
-      <c r="Q16" s="27"/>
-      <c r="R16" s="21" t="str">
+      <c r="O16" s="19"/>
+      <c r="P16" s="19"/>
+      <c r="Q16" s="19"/>
+      <c r="R16" s="13" t="str">
         <f>IF(AND(ISNUMBER(R14),ISNUMBER(R15)),R14-R15,"")</f>
         <v/>
       </c>
-      <c r="S16" s="93"/>
-      <c r="T16" s="46"/>
-      <c r="U16" s="50" t="s">
+      <c r="S16" s="109"/>
+      <c r="T16" s="89"/>
+      <c r="U16" s="116" t="s">
         <v>43</v>
       </c>
-      <c r="V16" s="50"/>
-      <c r="W16" s="46"/>
-      <c r="X16" s="97"/>
+      <c r="V16" s="116"/>
+      <c r="W16" s="89"/>
+      <c r="X16" s="90"/>
     </row>
     <row r="17" spans="1:24" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="152"/>
-      <c r="B17" s="153"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="159" t="str">
+      <c r="A17" s="48"/>
+      <c r="B17" s="49"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="88" t="str">
         <f>IF(J17&lt;&gt;"",MOD(J17+K18,360),"")</f>
         <v/>
       </c>
-      <c r="E17" s="112"/>
-      <c r="F17" s="121" t="str">
+      <c r="E17" s="69"/>
+      <c r="F17" s="73" t="str">
         <f t="shared" ref="F17" si="1">IF(ISNUMBER(E17),15-E17/1000*2,"")</f>
         <v/>
       </c>
-      <c r="G17" s="39"/>
-      <c r="H17" s="40"/>
-      <c r="I17" s="88"/>
-      <c r="J17" s="39"/>
-      <c r="K17" s="22" t="str">
+      <c r="G17" s="31"/>
+      <c r="H17" s="32"/>
+      <c r="I17" s="80"/>
+      <c r="J17" s="31"/>
+      <c r="K17" s="14" t="str">
         <f>IF(J17&lt;&gt;"",IF(ISNUMBER(J18),MOD(J17+J18,360),J17),"")</f>
         <v/>
       </c>
-      <c r="L17" s="21" t="str">
+      <c r="L17" s="13" t="str">
         <f>IF(K17&lt;&gt;"",MOD(K17+K18,360),"")</f>
         <v/>
       </c>
-      <c r="M17" s="146" t="str">
+      <c r="M17" s="76" t="str">
         <f>IF(L17&lt;&gt;"",MOD(L17+L18,360),"")</f>
         <v/>
       </c>
-      <c r="N17" s="39"/>
-      <c r="O17" s="22" t="str">
-        <f>IF(ISNUMBER(I17),SQRT((H17^2) + (I17^2) - (2*H17*I17*COS( RADIANS(ABS(180-ABS(IF(ISNUMBER(J18),J18,0))-ABS(DEGREES(ASIN(SIN(RADIANS(G17-J17)))))))) ) ),"")</f>
-        <v/>
-      </c>
-      <c r="P17" s="22" t="str">
+      <c r="N17" s="31"/>
+      <c r="O17" s="14" t="str">
+        <f>IF(ISNUMBER(I17),SQRT((H17^2) + (I17^2) - (2*H17*I17*COS(   ACOS(COS(RADIANS(J17-G17)))   ) ) ),"")</f>
+        <v/>
+      </c>
+      <c r="P17" s="14" t="str">
         <f>IF(ISNUMBER(O17),ROUND(N17/O17*60,0),"")</f>
         <v/>
       </c>
-      <c r="Q17" s="27"/>
-      <c r="R17" s="26" t="str">
+      <c r="Q17" s="19"/>
+      <c r="R17" s="18" t="str">
         <f>IF(ISNUMBER(P17),P17*$R$10/60,"")</f>
         <v/>
       </c>
-      <c r="S17" s="94"/>
-      <c r="T17" s="95"/>
-      <c r="U17" s="80" t="s">
+      <c r="S17" s="110"/>
+      <c r="T17" s="91"/>
+      <c r="U17" s="125" t="s">
         <v>44</v>
       </c>
-      <c r="V17" s="80"/>
-      <c r="W17" s="95"/>
-      <c r="X17" s="104"/>
+      <c r="V17" s="125"/>
+      <c r="W17" s="91"/>
+      <c r="X17" s="92"/>
     </row>
     <row r="18" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="154"/>
-      <c r="B18" s="155"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="159"/>
-      <c r="E18" s="112"/>
-      <c r="F18" s="122"/>
-      <c r="G18" s="79"/>
-      <c r="H18" s="54"/>
-      <c r="I18" s="88"/>
-      <c r="J18" s="25" t="str">
+      <c r="A18" s="57"/>
+      <c r="B18" s="58"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="88"/>
+      <c r="E18" s="69"/>
+      <c r="F18" s="64"/>
+      <c r="G18" s="126"/>
+      <c r="H18" s="127"/>
+      <c r="I18" s="80"/>
+      <c r="J18" s="17" t="str">
         <f>IF(G17&lt;&gt;"",DEGREES(ASIN(H17/I17*SIN(RADIANS(G17-J17)))),"")</f>
         <v/>
       </c>
-      <c r="K18" s="40"/>
-      <c r="L18" s="26"/>
-      <c r="M18" s="146"/>
-      <c r="N18" s="25" t="str">
+      <c r="K18" s="32"/>
+      <c r="L18" s="18"/>
+      <c r="M18" s="76"/>
+      <c r="N18" s="17" t="str">
         <f>IF(ISNUMBER(N17),N16-N17,"")</f>
         <v/>
       </c>
-      <c r="O18" s="27"/>
-      <c r="P18" s="27"/>
-      <c r="Q18" s="27"/>
-      <c r="R18" s="21" t="str">
+      <c r="O18" s="19"/>
+      <c r="P18" s="19"/>
+      <c r="Q18" s="19"/>
+      <c r="R18" s="13" t="str">
         <f>IF(AND(ISNUMBER(R16),ISNUMBER(R17)),R16-R17,"")</f>
         <v/>
       </c>
-      <c r="S18" s="7"/>
-      <c r="T18" s="7"/>
-      <c r="U18" s="7"/>
-      <c r="V18" s="7"/>
-      <c r="W18" s="7"/>
-      <c r="X18" s="8"/>
+      <c r="S18" s="57"/>
+      <c r="T18" s="145"/>
+      <c r="U18" s="145"/>
+      <c r="V18" s="145"/>
+      <c r="W18" s="145"/>
+      <c r="X18" s="58"/>
     </row>
     <row r="19" spans="1:24" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="152"/>
-      <c r="B19" s="153"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="159" t="str">
+      <c r="A19" s="48"/>
+      <c r="B19" s="49"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="88" t="str">
         <f>IF(J19&lt;&gt;"",MOD(J19+K20,360),"")</f>
         <v/>
       </c>
-      <c r="E19" s="112"/>
-      <c r="F19" s="121" t="str">
+      <c r="E19" s="69"/>
+      <c r="F19" s="73" t="str">
         <f t="shared" ref="F19" si="2">IF(ISNUMBER(E19),15-E19/1000*2,"")</f>
         <v/>
       </c>
-      <c r="G19" s="39"/>
-      <c r="H19" s="40"/>
-      <c r="I19" s="88"/>
-      <c r="J19" s="39"/>
-      <c r="K19" s="22" t="str">
+      <c r="G19" s="31"/>
+      <c r="H19" s="32"/>
+      <c r="I19" s="80"/>
+      <c r="J19" s="31"/>
+      <c r="K19" s="14" t="str">
         <f>IF(J19&lt;&gt;"",IF(ISNUMBER(J20),MOD(J19+J20,360),J19),"")</f>
         <v/>
       </c>
-      <c r="L19" s="21" t="str">
+      <c r="L19" s="13" t="str">
         <f>IF(K19&lt;&gt;"",MOD(K19+K20,360),"")</f>
         <v/>
       </c>
-      <c r="M19" s="146" t="str">
+      <c r="M19" s="76" t="str">
         <f>IF(L19&lt;&gt;"",MOD(L19+L20,360),"")</f>
         <v/>
       </c>
-      <c r="N19" s="39"/>
-      <c r="O19" s="22" t="str">
-        <f>IF(ISNUMBER(I19),SQRT((H19^2) + (I19^2) - (2*H19*I19*COS( RADIANS(ABS(180-ABS(IF(ISNUMBER(J20),J20,0))-ABS(DEGREES(ASIN(SIN(RADIANS(G19-J19)))))))) ) ),"")</f>
-        <v/>
-      </c>
-      <c r="P19" s="22" t="str">
+      <c r="N19" s="31"/>
+      <c r="O19" s="14" t="str">
+        <f>IF(ISNUMBER(I19),SQRT((H19^2) + (I19^2) - (2*H19*I19*COS(   ACOS(COS(RADIANS(J19-G19)))   ) ) ),"")</f>
+        <v/>
+      </c>
+      <c r="P19" s="14" t="str">
         <f>IF(ISNUMBER(O19),ROUND(N19/O19*60,0),"")</f>
         <v/>
       </c>
-      <c r="Q19" s="27"/>
-      <c r="R19" s="26" t="str">
+      <c r="Q19" s="19"/>
+      <c r="R19" s="18" t="str">
         <f>IF(ISNUMBER(P19),P19*$R$10/60,"")</f>
         <v/>
       </c>
-      <c r="S19" s="9"/>
-      <c r="T19" s="9"/>
-      <c r="U19" s="9"/>
-      <c r="V19" s="9"/>
-      <c r="W19" s="9"/>
-      <c r="X19" s="10"/>
+      <c r="S19" s="146"/>
+      <c r="T19" s="147"/>
+      <c r="U19" s="147"/>
+      <c r="V19" s="147"/>
+      <c r="W19" s="147"/>
+      <c r="X19" s="148"/>
     </row>
     <row r="20" spans="1:24" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="154"/>
-      <c r="B20" s="155"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="159"/>
-      <c r="E20" s="112"/>
-      <c r="F20" s="122"/>
-      <c r="G20" s="79"/>
-      <c r="H20" s="54"/>
-      <c r="I20" s="88"/>
-      <c r="J20" s="25" t="str">
+      <c r="A20" s="57"/>
+      <c r="B20" s="58"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="88"/>
+      <c r="E20" s="69"/>
+      <c r="F20" s="64"/>
+      <c r="G20" s="126"/>
+      <c r="H20" s="127"/>
+      <c r="I20" s="80"/>
+      <c r="J20" s="17" t="str">
         <f>IF(G19&lt;&gt;"",DEGREES(ASIN(H19/I19*SIN(RADIANS(G19-J19)))),"")</f>
         <v/>
       </c>
-      <c r="K20" s="40"/>
-      <c r="L20" s="26"/>
-      <c r="M20" s="146"/>
-      <c r="N20" s="25" t="str">
+      <c r="K20" s="32"/>
+      <c r="L20" s="18"/>
+      <c r="M20" s="76"/>
+      <c r="N20" s="17" t="str">
         <f>IF(ISNUMBER(N19),N18-N19,"")</f>
         <v/>
       </c>
-      <c r="O20" s="27"/>
-      <c r="P20" s="27"/>
-      <c r="Q20" s="27"/>
-      <c r="R20" s="21" t="str">
+      <c r="O20" s="19"/>
+      <c r="P20" s="19"/>
+      <c r="Q20" s="19"/>
+      <c r="R20" s="13" t="str">
         <f>IF(AND(ISNUMBER(R18),ISNUMBER(R19)),R18-R19,"")</f>
         <v/>
       </c>
-      <c r="S20" s="9"/>
-      <c r="T20" s="9"/>
-      <c r="U20" s="9"/>
-      <c r="V20" s="9"/>
-      <c r="W20" s="9"/>
-      <c r="X20" s="10"/>
+      <c r="S20" s="59"/>
+      <c r="T20" s="149"/>
+      <c r="U20" s="149"/>
+      <c r="V20" s="149"/>
+      <c r="W20" s="149"/>
+      <c r="X20" s="60"/>
     </row>
     <row r="21" spans="1:24" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="152"/>
-      <c r="B21" s="153"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="159" t="str">
+      <c r="A21" s="48"/>
+      <c r="B21" s="49"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="88" t="str">
         <f>IF(J21&lt;&gt;"",MOD(J21+K22,360),"")</f>
         <v/>
       </c>
-      <c r="E21" s="112"/>
-      <c r="F21" s="121" t="str">
+      <c r="E21" s="69"/>
+      <c r="F21" s="73" t="str">
         <f t="shared" ref="F21" si="3">IF(ISNUMBER(E21),15-E21/1000*2,"")</f>
         <v/>
       </c>
-      <c r="G21" s="39"/>
-      <c r="H21" s="40"/>
-      <c r="I21" s="88"/>
-      <c r="J21" s="39"/>
-      <c r="K21" s="22" t="str">
+      <c r="G21" s="31"/>
+      <c r="H21" s="32"/>
+      <c r="I21" s="80"/>
+      <c r="J21" s="31"/>
+      <c r="K21" s="14" t="str">
         <f>IF(J21&lt;&gt;"",IF(ISNUMBER(J22),MOD(J21+J22,360),J21),"")</f>
         <v/>
       </c>
-      <c r="L21" s="21" t="str">
+      <c r="L21" s="13" t="str">
         <f>IF(K21&lt;&gt;"",MOD(K21+K22,360),"")</f>
         <v/>
       </c>
-      <c r="M21" s="146" t="str">
+      <c r="M21" s="76" t="str">
         <f>IF(L21&lt;&gt;"",MOD(L21+L22,360),"")</f>
         <v/>
       </c>
-      <c r="N21" s="39"/>
-      <c r="O21" s="22" t="str">
-        <f>IF(ISNUMBER(I21),SQRT((H21^2) + (I21^2) - (2*H21*I21*COS( RADIANS(ABS(180-ABS(IF(ISNUMBER(J22),J22,0))-ABS(DEGREES(ASIN(SIN(RADIANS(G21-J21)))))))) ) ),"")</f>
-        <v/>
-      </c>
-      <c r="P21" s="22" t="str">
+      <c r="N21" s="31"/>
+      <c r="O21" s="14" t="str">
+        <f>IF(ISNUMBER(I21),SQRT((H21^2) + (I21^2) - (2*H21*I21*COS(   ACOS(COS(RADIANS(J21-G21)))   ) ) ),"")</f>
+        <v/>
+      </c>
+      <c r="P21" s="14" t="str">
         <f>IF(ISNUMBER(O21),ROUND(N21/O21*60,0),"")</f>
         <v/>
       </c>
-      <c r="Q21" s="27"/>
-      <c r="R21" s="26" t="str">
+      <c r="Q21" s="19"/>
+      <c r="R21" s="18" t="str">
         <f>IF(ISNUMBER(P21),P21*$R$10/60,"")</f>
         <v/>
       </c>
-      <c r="S21" s="109" t="s">
+      <c r="S21" s="98" t="s">
         <v>55</v>
       </c>
-      <c r="T21" s="45"/>
-      <c r="U21" s="45"/>
-      <c r="V21" s="45"/>
-      <c r="W21" s="45"/>
-      <c r="X21" s="47"/>
+      <c r="T21" s="99"/>
+      <c r="U21" s="99"/>
+      <c r="V21" s="99"/>
+      <c r="W21" s="99"/>
+      <c r="X21" s="100"/>
     </row>
     <row r="22" spans="1:24" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="154"/>
-      <c r="B22" s="155"/>
-      <c r="C22" s="16"/>
-      <c r="D22" s="159"/>
-      <c r="E22" s="112"/>
-      <c r="F22" s="122"/>
-      <c r="G22" s="79"/>
-      <c r="H22" s="54"/>
-      <c r="I22" s="88"/>
-      <c r="J22" s="25" t="str">
+      <c r="A22" s="57"/>
+      <c r="B22" s="58"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="88"/>
+      <c r="E22" s="69"/>
+      <c r="F22" s="64"/>
+      <c r="G22" s="126"/>
+      <c r="H22" s="127"/>
+      <c r="I22" s="80"/>
+      <c r="J22" s="17" t="str">
         <f>IF(G21&lt;&gt;"",DEGREES(ASIN(H21/I21*SIN(RADIANS(G21-J21)))),"")</f>
         <v/>
       </c>
-      <c r="K22" s="40"/>
-      <c r="L22" s="26"/>
-      <c r="M22" s="146"/>
-      <c r="N22" s="25" t="str">
+      <c r="K22" s="32"/>
+      <c r="L22" s="18"/>
+      <c r="M22" s="76"/>
+      <c r="N22" s="17" t="str">
         <f>IF(ISNUMBER(N21),N20-N21,"")</f>
         <v/>
       </c>
-      <c r="O22" s="27"/>
-      <c r="P22" s="27"/>
-      <c r="Q22" s="27"/>
-      <c r="R22" s="21" t="str">
+      <c r="O22" s="19"/>
+      <c r="P22" s="19"/>
+      <c r="Q22" s="19"/>
+      <c r="R22" s="13" t="str">
         <f>IF(AND(ISNUMBER(R20),ISNUMBER(R21)),R20-R21,"")</f>
         <v/>
       </c>
-      <c r="S22" s="148" t="s">
+      <c r="S22" s="93" t="s">
         <v>37</v>
       </c>
-      <c r="T22" s="77"/>
-      <c r="U22" s="77"/>
-      <c r="V22" s="77" t="s">
+      <c r="T22" s="94"/>
+      <c r="U22" s="94"/>
+      <c r="V22" s="94" t="s">
         <v>38</v>
       </c>
-      <c r="W22" s="77"/>
-      <c r="X22" s="49"/>
+      <c r="W22" s="94"/>
+      <c r="X22" s="114"/>
     </row>
     <row r="23" spans="1:24" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="152"/>
-      <c r="B23" s="153"/>
-      <c r="C23" s="16"/>
-      <c r="D23" s="159" t="str">
+      <c r="A23" s="48"/>
+      <c r="B23" s="49"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="88" t="str">
         <f>IF(J23&lt;&gt;"",MOD(J23+K24,360),"")</f>
         <v/>
       </c>
-      <c r="E23" s="112"/>
-      <c r="F23" s="121" t="str">
+      <c r="E23" s="69"/>
+      <c r="F23" s="73" t="str">
         <f t="shared" ref="F23" si="4">IF(ISNUMBER(E23),15-E23/1000*2,"")</f>
         <v/>
       </c>
-      <c r="G23" s="39"/>
-      <c r="H23" s="40"/>
-      <c r="I23" s="88"/>
-      <c r="J23" s="39"/>
-      <c r="K23" s="22" t="str">
+      <c r="G23" s="31"/>
+      <c r="H23" s="32"/>
+      <c r="I23" s="80"/>
+      <c r="J23" s="31"/>
+      <c r="K23" s="14" t="str">
         <f>IF(J23&lt;&gt;"",IF(ISNUMBER(J24),MOD(J23+J24,360),J23),"")</f>
         <v/>
       </c>
-      <c r="L23" s="21" t="str">
+      <c r="L23" s="13" t="str">
         <f>IF(K23&lt;&gt;"",MOD(K23+K24,360),"")</f>
         <v/>
       </c>
-      <c r="M23" s="146" t="str">
+      <c r="M23" s="76" t="str">
         <f>IF(L23&lt;&gt;"",MOD(L23+L24,360),"")</f>
         <v/>
       </c>
-      <c r="N23" s="39"/>
-      <c r="O23" s="22" t="str">
-        <f>IF(ISNUMBER(I23),SQRT((H23^2) + (I23^2) - (2*H23*I23*COS( RADIANS(ABS(180-ABS(IF(ISNUMBER(J24),J24,0))-ABS(DEGREES(ASIN(SIN(RADIANS(G23-J23)))))))) ) ),"")</f>
-        <v/>
-      </c>
-      <c r="P23" s="22" t="str">
+      <c r="N23" s="31"/>
+      <c r="O23" s="14" t="str">
+        <f>IF(ISNUMBER(I23),SQRT((H23^2) + (I23^2) - (2*H23*I23*COS(   ACOS(COS(RADIANS(J23-G23)))   ) ) ),"")</f>
+        <v/>
+      </c>
+      <c r="P23" s="14" t="str">
         <f>IF(ISNUMBER(O23),ROUND(N23/O23*60,0),"")</f>
         <v/>
       </c>
-      <c r="Q23" s="27"/>
-      <c r="R23" s="26" t="str">
+      <c r="Q23" s="19"/>
+      <c r="R23" s="18" t="str">
         <f>IF(ISNUMBER(P23),P23*$R$10/60,"")</f>
         <v/>
       </c>
-      <c r="S23" s="91"/>
-      <c r="T23" s="92"/>
-      <c r="U23" s="92"/>
-      <c r="V23" s="92"/>
-      <c r="W23" s="92"/>
-      <c r="X23" s="96"/>
+      <c r="S23" s="95"/>
+      <c r="T23" s="96"/>
+      <c r="U23" s="96"/>
+      <c r="V23" s="96"/>
+      <c r="W23" s="96"/>
+      <c r="X23" s="97"/>
     </row>
     <row r="24" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="154"/>
-      <c r="B24" s="155"/>
-      <c r="C24" s="16"/>
-      <c r="D24" s="159"/>
-      <c r="E24" s="112"/>
-      <c r="F24" s="122"/>
-      <c r="G24" s="79"/>
-      <c r="H24" s="54"/>
-      <c r="I24" s="88"/>
-      <c r="J24" s="25" t="str">
+      <c r="A24" s="57"/>
+      <c r="B24" s="58"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="88"/>
+      <c r="E24" s="69"/>
+      <c r="F24" s="64"/>
+      <c r="G24" s="126"/>
+      <c r="H24" s="127"/>
+      <c r="I24" s="80"/>
+      <c r="J24" s="17" t="str">
         <f>IF(G23&lt;&gt;"",DEGREES(ASIN(H23/I23*SIN(RADIANS(G23-J23)))),"")</f>
         <v/>
       </c>
-      <c r="K24" s="40"/>
-      <c r="L24" s="26"/>
-      <c r="M24" s="146"/>
-      <c r="N24" s="25" t="str">
+      <c r="K24" s="32"/>
+      <c r="L24" s="18"/>
+      <c r="M24" s="76"/>
+      <c r="N24" s="17" t="str">
         <f>IF(ISNUMBER(N23),N22-N23,"")</f>
         <v/>
       </c>
-      <c r="O24" s="27"/>
-      <c r="P24" s="27"/>
-      <c r="Q24" s="27"/>
-      <c r="R24" s="21" t="str">
+      <c r="O24" s="19"/>
+      <c r="P24" s="19"/>
+      <c r="Q24" s="19"/>
+      <c r="R24" s="13" t="str">
         <f>IF(AND(ISNUMBER(R22),ISNUMBER(R23)),R22-R23,"")</f>
         <v/>
       </c>
-      <c r="S24" s="11" t="s">
+      <c r="S24" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="T24" s="76"/>
-      <c r="U24" s="76"/>
-      <c r="V24" s="5" t="s">
+      <c r="T24" s="101"/>
+      <c r="U24" s="101"/>
+      <c r="V24" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="W24" s="76"/>
-      <c r="X24" s="98"/>
+      <c r="W24" s="101"/>
+      <c r="X24" s="111"/>
     </row>
     <row r="25" spans="1:24" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="152"/>
-      <c r="B25" s="153"/>
-      <c r="C25" s="16"/>
-      <c r="D25" s="159" t="str">
+      <c r="A25" s="48"/>
+      <c r="B25" s="49"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="88" t="str">
         <f>IF(J25&lt;&gt;"",MOD(J25+K26,360),"")</f>
         <v/>
       </c>
-      <c r="E25" s="112"/>
-      <c r="F25" s="121" t="str">
+      <c r="E25" s="69"/>
+      <c r="F25" s="73" t="str">
         <f t="shared" ref="F25" si="5">IF(ISNUMBER(E25),15-E25/1000*2,"")</f>
         <v/>
       </c>
-      <c r="G25" s="39"/>
-      <c r="H25" s="40"/>
-      <c r="I25" s="88"/>
-      <c r="J25" s="39"/>
-      <c r="K25" s="22" t="str">
+      <c r="G25" s="31"/>
+      <c r="H25" s="32"/>
+      <c r="I25" s="80"/>
+      <c r="J25" s="31"/>
+      <c r="K25" s="14" t="str">
         <f>IF(J25&lt;&gt;"",IF(ISNUMBER(J26),MOD(J25+J26,360),J25),"")</f>
         <v/>
       </c>
-      <c r="L25" s="21" t="str">
+      <c r="L25" s="13" t="str">
         <f>IF(K25&lt;&gt;"",MOD(K25+K26,360),"")</f>
         <v/>
       </c>
-      <c r="M25" s="146" t="str">
+      <c r="M25" s="76" t="str">
         <f>IF(L25&lt;&gt;"",MOD(L25+L26,360),"")</f>
         <v/>
       </c>
-      <c r="N25" s="39"/>
-      <c r="O25" s="22" t="str">
-        <f>IF(ISNUMBER(I25),SQRT((H25^2) + (I25^2) - (2*H25*I25*COS( RADIANS(ABS(180-ABS(IF(ISNUMBER(J26),J26,0))-ABS(DEGREES(ASIN(SIN(RADIANS(G25-J25)))))))) ) ),"")</f>
-        <v/>
-      </c>
-      <c r="P25" s="22" t="str">
+      <c r="N25" s="31"/>
+      <c r="O25" s="14" t="str">
+        <f>IF(ISNUMBER(I25),SQRT((H25^2) + (I25^2) - (2*H25*I25*COS(   ACOS(COS(RADIANS(J25-G25)))   ) ) ),"")</f>
+        <v/>
+      </c>
+      <c r="P25" s="14" t="str">
         <f>IF(ISNUMBER(O25),ROUND(N25/O25*60,0),"")</f>
         <v/>
       </c>
-      <c r="Q25" s="27"/>
-      <c r="R25" s="26" t="str">
+      <c r="Q25" s="19"/>
+      <c r="R25" s="18" t="str">
         <f>IF(ISNUMBER(P25),P25*$R$10/60,"")</f>
         <v/>
       </c>
-      <c r="S25" s="11" t="s">
+      <c r="S25" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="T25" s="76"/>
-      <c r="U25" s="76"/>
-      <c r="V25" s="5" t="s">
+      <c r="T25" s="101"/>
+      <c r="U25" s="101"/>
+      <c r="V25" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="W25" s="99"/>
-      <c r="X25" s="100"/>
+      <c r="W25" s="112"/>
+      <c r="X25" s="113"/>
     </row>
     <row r="26" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="154"/>
-      <c r="B26" s="155"/>
-      <c r="C26" s="16"/>
-      <c r="D26" s="159"/>
-      <c r="E26" s="112"/>
-      <c r="F26" s="122"/>
-      <c r="G26" s="79"/>
-      <c r="H26" s="54"/>
-      <c r="I26" s="88"/>
-      <c r="J26" s="25" t="str">
+      <c r="A26" s="57"/>
+      <c r="B26" s="58"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="88"/>
+      <c r="E26" s="69"/>
+      <c r="F26" s="64"/>
+      <c r="G26" s="126"/>
+      <c r="H26" s="127"/>
+      <c r="I26" s="80"/>
+      <c r="J26" s="17" t="str">
         <f>IF(G25&lt;&gt;"",DEGREES(ASIN(H25/I25*SIN(RADIANS(G25-J25)))),"")</f>
         <v/>
       </c>
-      <c r="K26" s="40"/>
-      <c r="L26" s="26"/>
-      <c r="M26" s="146"/>
-      <c r="N26" s="25" t="str">
+      <c r="K26" s="32"/>
+      <c r="L26" s="18"/>
+      <c r="M26" s="76"/>
+      <c r="N26" s="17" t="str">
         <f>IF(ISNUMBER(N25),N24-N25,"")</f>
         <v/>
       </c>
-      <c r="O26" s="27"/>
-      <c r="P26" s="27"/>
-      <c r="Q26" s="27"/>
-      <c r="R26" s="21" t="str">
+      <c r="O26" s="19"/>
+      <c r="P26" s="19"/>
+      <c r="Q26" s="19"/>
+      <c r="R26" s="13" t="str">
         <f>IF(AND(ISNUMBER(R24),ISNUMBER(R25)),R24-R25,"")</f>
         <v/>
       </c>
-      <c r="S26" s="11" t="s">
+      <c r="S26" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="T26" s="76"/>
-      <c r="U26" s="76"/>
-      <c r="V26" s="5" t="s">
+      <c r="T26" s="101"/>
+      <c r="U26" s="101"/>
+      <c r="V26" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="W26" s="76"/>
-      <c r="X26" s="98"/>
+      <c r="W26" s="101"/>
+      <c r="X26" s="111"/>
     </row>
     <row r="27" spans="1:24" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="152"/>
-      <c r="B27" s="153"/>
-      <c r="C27" s="16"/>
-      <c r="D27" s="159" t="str">
+      <c r="A27" s="48"/>
+      <c r="B27" s="49"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="88" t="str">
         <f>IF(J27&lt;&gt;"",MOD(J27+K28,360),"")</f>
         <v/>
       </c>
-      <c r="E27" s="112"/>
-      <c r="F27" s="121" t="str">
+      <c r="E27" s="69"/>
+      <c r="F27" s="73" t="str">
         <f t="shared" ref="F27" si="6">IF(ISNUMBER(E27),15-E27/1000*2,"")</f>
         <v/>
       </c>
-      <c r="G27" s="39"/>
-      <c r="H27" s="40"/>
-      <c r="I27" s="88"/>
-      <c r="J27" s="39"/>
-      <c r="K27" s="22" t="str">
+      <c r="G27" s="31"/>
+      <c r="H27" s="32"/>
+      <c r="I27" s="80"/>
+      <c r="J27" s="31"/>
+      <c r="K27" s="14" t="str">
         <f>IF(J27&lt;&gt;"",IF(ISNUMBER(J28),MOD(J27+J28,360),J27),"")</f>
         <v/>
       </c>
-      <c r="L27" s="21" t="str">
+      <c r="L27" s="13" t="str">
         <f>IF(K27&lt;&gt;"",MOD(K27+K28,360),"")</f>
         <v/>
       </c>
-      <c r="M27" s="146" t="str">
+      <c r="M27" s="76" t="str">
         <f>IF(L27&lt;&gt;"",MOD(L27+L28,360),"")</f>
         <v/>
       </c>
-      <c r="N27" s="39"/>
-      <c r="O27" s="22" t="str">
-        <f>IF(ISNUMBER(I27),SQRT((H27^2) + (I27^2) - (2*H27*I27*COS( RADIANS(ABS(180-ABS(IF(ISNUMBER(J28),J28,0))-ABS(DEGREES(ASIN(SIN(RADIANS(G27-J27)))))))) ) ),"")</f>
-        <v/>
-      </c>
-      <c r="P27" s="22" t="str">
+      <c r="N27" s="31"/>
+      <c r="O27" s="14" t="str">
+        <f>IF(ISNUMBER(I27),SQRT((H27^2) + (I27^2) - (2*H27*I27*COS(   ACOS(COS(RADIANS(J27-G27)))   ) ) ),"")</f>
+        <v/>
+      </c>
+      <c r="P27" s="14" t="str">
         <f>IF(ISNUMBER(O27),ROUND(N27/O27*60,0),"")</f>
         <v/>
       </c>
-      <c r="Q27" s="27"/>
-      <c r="R27" s="26" t="str">
+      <c r="Q27" s="19"/>
+      <c r="R27" s="18" t="str">
         <f>IF(ISNUMBER(P27),P27*$R$10/60,"")</f>
         <v/>
       </c>
-      <c r="S27" s="11" t="s">
+      <c r="S27" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="T27" s="76"/>
-      <c r="U27" s="76"/>
-      <c r="V27" s="5" t="s">
+      <c r="T27" s="101"/>
+      <c r="U27" s="101"/>
+      <c r="V27" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="W27" s="76"/>
-      <c r="X27" s="98"/>
+      <c r="W27" s="101"/>
+      <c r="X27" s="111"/>
     </row>
     <row r="28" spans="1:24" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="154"/>
-      <c r="B28" s="155"/>
-      <c r="C28" s="16"/>
-      <c r="D28" s="159"/>
-      <c r="E28" s="112"/>
-      <c r="F28" s="122"/>
-      <c r="G28" s="79"/>
-      <c r="H28" s="54"/>
-      <c r="I28" s="88"/>
-      <c r="J28" s="25" t="str">
+      <c r="A28" s="57"/>
+      <c r="B28" s="58"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="88"/>
+      <c r="E28" s="69"/>
+      <c r="F28" s="64"/>
+      <c r="G28" s="126"/>
+      <c r="H28" s="127"/>
+      <c r="I28" s="80"/>
+      <c r="J28" s="17" t="str">
         <f>IF(G27&lt;&gt;"",DEGREES(ASIN(H27/I27*SIN(RADIANS(G27-J27)))),"")</f>
         <v/>
       </c>
-      <c r="K28" s="40"/>
-      <c r="L28" s="26"/>
-      <c r="M28" s="146"/>
-      <c r="N28" s="25" t="str">
+      <c r="K28" s="32"/>
+      <c r="L28" s="18"/>
+      <c r="M28" s="76"/>
+      <c r="N28" s="17" t="str">
         <f>IF(ISNUMBER(N27),N26-N27,"")</f>
         <v/>
       </c>
-      <c r="O28" s="27"/>
-      <c r="P28" s="27"/>
-      <c r="Q28" s="27"/>
-      <c r="R28" s="21" t="str">
+      <c r="O28" s="19"/>
+      <c r="P28" s="19"/>
+      <c r="Q28" s="19"/>
+      <c r="R28" s="13" t="str">
         <f>IF(AND(ISNUMBER(R26),ISNUMBER(R27)),R26-R27,"")</f>
         <v/>
       </c>
-      <c r="S28" s="11" t="s">
+      <c r="S28" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="T28" s="76"/>
-      <c r="U28" s="76"/>
-      <c r="V28" s="5" t="s">
+      <c r="T28" s="101"/>
+      <c r="U28" s="101"/>
+      <c r="V28" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="W28" s="76"/>
-      <c r="X28" s="98"/>
+      <c r="W28" s="101"/>
+      <c r="X28" s="111"/>
     </row>
     <row r="29" spans="1:24" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="152"/>
-      <c r="B29" s="153"/>
-      <c r="C29" s="16"/>
-      <c r="D29" s="159" t="str">
+      <c r="A29" s="48"/>
+      <c r="B29" s="49"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="88" t="str">
         <f>IF(J29&lt;&gt;"",MOD(J29+K30,360),"")</f>
         <v/>
       </c>
-      <c r="E29" s="112"/>
-      <c r="F29" s="121" t="str">
+      <c r="E29" s="69"/>
+      <c r="F29" s="73" t="str">
         <f>IF(ISNUMBER(E29),15-E29/1000*2,"")</f>
         <v/>
       </c>
-      <c r="G29" s="39"/>
-      <c r="H29" s="40"/>
-      <c r="I29" s="88"/>
-      <c r="J29" s="39"/>
-      <c r="K29" s="22" t="str">
+      <c r="G29" s="31"/>
+      <c r="H29" s="32"/>
+      <c r="I29" s="80"/>
+      <c r="J29" s="31"/>
+      <c r="K29" s="14" t="str">
         <f>IF(J29&lt;&gt;"",IF(ISNUMBER(J30),MOD(J29+J30,360),J29),"")</f>
         <v/>
       </c>
-      <c r="L29" s="21" t="str">
+      <c r="L29" s="13" t="str">
         <f>IF(K29&lt;&gt;"",MOD(K29+K30,360),"")</f>
         <v/>
       </c>
-      <c r="M29" s="146" t="str">
+      <c r="M29" s="76" t="str">
         <f>IF(L29&lt;&gt;"",MOD(L29+L30,360),"")</f>
         <v/>
       </c>
-      <c r="N29" s="39"/>
-      <c r="O29" s="22" t="str">
-        <f>IF(ISNUMBER(I29),SQRT((H29^2) + (I29^2) - (2*H29*I29*COS( RADIANS(ABS(180-ABS(IF(ISNUMBER(J30),J30,0))-ABS(DEGREES(ASIN(SIN(RADIANS(G29-J29)))))))) ) ),"")</f>
-        <v/>
-      </c>
-      <c r="P29" s="22" t="str">
+      <c r="N29" s="31"/>
+      <c r="O29" s="14" t="str">
+        <f>IF(ISNUMBER(I29),SQRT((H29^2) + (I29^2) - (2*H29*I29*COS(   ACOS(COS(RADIANS(J29-G29)))   ) ) ),"")</f>
+        <v/>
+      </c>
+      <c r="P29" s="14" t="str">
         <f>IF(ISNUMBER(O29),ROUND(N29/O29*60,0),"")</f>
         <v/>
       </c>
-      <c r="Q29" s="27"/>
-      <c r="R29" s="26" t="str">
+      <c r="Q29" s="19"/>
+      <c r="R29" s="18" t="str">
         <f>IF(ISNUMBER(P29),P29*$R$10/60,"")</f>
         <v/>
       </c>
-      <c r="S29" s="11" t="s">
+      <c r="S29" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="T29" s="76"/>
-      <c r="U29" s="76"/>
-      <c r="V29" s="5" t="s">
+      <c r="T29" s="101"/>
+      <c r="U29" s="101"/>
+      <c r="V29" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="W29" s="76"/>
-      <c r="X29" s="98"/>
+      <c r="W29" s="101"/>
+      <c r="X29" s="111"/>
     </row>
     <row r="30" spans="1:24" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="154"/>
-      <c r="B30" s="155"/>
-      <c r="C30" s="16"/>
-      <c r="D30" s="159"/>
-      <c r="E30" s="112"/>
-      <c r="F30" s="122"/>
-      <c r="G30" s="79"/>
-      <c r="H30" s="54"/>
-      <c r="I30" s="88"/>
-      <c r="J30" s="25" t="str">
+      <c r="A30" s="57"/>
+      <c r="B30" s="58"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="88"/>
+      <c r="E30" s="69"/>
+      <c r="F30" s="64"/>
+      <c r="G30" s="126"/>
+      <c r="H30" s="127"/>
+      <c r="I30" s="80"/>
+      <c r="J30" s="17" t="str">
         <f>IF(G29&lt;&gt;"",DEGREES(ASIN(H29/I29*SIN(RADIANS(G29-J29)))),"")</f>
         <v/>
       </c>
-      <c r="K30" s="40"/>
-      <c r="L30" s="26"/>
-      <c r="M30" s="146"/>
-      <c r="N30" s="25" t="str">
+      <c r="K30" s="32"/>
+      <c r="L30" s="18"/>
+      <c r="M30" s="76"/>
+      <c r="N30" s="17" t="str">
         <f>IF(ISNUMBER(N29),N28-N29,"")</f>
         <v/>
       </c>
-      <c r="O30" s="27"/>
-      <c r="P30" s="27"/>
-      <c r="Q30" s="27"/>
-      <c r="R30" s="21" t="str">
+      <c r="O30" s="19"/>
+      <c r="P30" s="19"/>
+      <c r="Q30" s="19"/>
+      <c r="R30" s="13" t="str">
         <f>IF(AND(ISNUMBER(R28),ISNUMBER(R29)),R28-R29,"")</f>
         <v/>
       </c>
-      <c r="S30" s="11" t="s">
+      <c r="S30" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="T30" s="76"/>
-      <c r="U30" s="76"/>
-      <c r="V30" s="5" t="s">
+      <c r="T30" s="101"/>
+      <c r="U30" s="101"/>
+      <c r="V30" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="W30" s="76"/>
-      <c r="X30" s="98"/>
+      <c r="W30" s="101"/>
+      <c r="X30" s="111"/>
     </row>
     <row r="31" spans="1:24" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="152"/>
-      <c r="B31" s="153"/>
-      <c r="C31" s="16"/>
-      <c r="D31" s="159" t="str">
+      <c r="A31" s="48"/>
+      <c r="B31" s="49"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="88" t="str">
         <f>IF(J31&lt;&gt;"",MOD(J31+K32,360),"")</f>
         <v/>
       </c>
-      <c r="E31" s="112"/>
-      <c r="F31" s="122"/>
-      <c r="G31" s="39"/>
-      <c r="H31" s="40"/>
-      <c r="I31" s="135"/>
-      <c r="J31" s="39"/>
-      <c r="K31" s="22" t="str">
+      <c r="E31" s="69"/>
+      <c r="F31" s="64"/>
+      <c r="G31" s="31"/>
+      <c r="H31" s="32"/>
+      <c r="I31" s="81"/>
+      <c r="J31" s="31"/>
+      <c r="K31" s="14" t="str">
         <f>IF(J31&lt;&gt;"",IF(ISNUMBER(J32),MOD(J31+J32,360),J31),"")</f>
         <v/>
       </c>
-      <c r="L31" s="21" t="str">
+      <c r="L31" s="13" t="str">
         <f>IF(K31&lt;&gt;"",MOD(K31+K32,360),"")</f>
         <v/>
       </c>
-      <c r="M31" s="146" t="str">
+      <c r="M31" s="76" t="str">
         <f>IF(L31&lt;&gt;"",MOD(L31+L32,360),"")</f>
         <v/>
       </c>
-      <c r="N31" s="39"/>
-      <c r="O31" s="22" t="str">
-        <f>IF(ISNUMBER(I31),SQRT((H31^2) + (I31^2) - (2*H31*I31*COS( RADIANS(ABS(180-ABS(IF(ISNUMBER(J32),J32,0))-ABS(DEGREES(ASIN(SIN(RADIANS(G31-J31)))))))) ) ),"")</f>
-        <v/>
-      </c>
-      <c r="P31" s="22" t="str">
+      <c r="N31" s="31"/>
+      <c r="O31" s="14" t="str">
+        <f>IF(ISNUMBER(I31),SQRT((H31^2) + (I31^2) - (2*H31*I31*COS(   ACOS(COS(RADIANS(J31-G31)))   ) ) ),"")</f>
+        <v/>
+      </c>
+      <c r="P31" s="14" t="str">
         <f>IF(ISNUMBER(O31),ROUND(N31/O31*60,0),"")</f>
         <v/>
       </c>
-      <c r="Q31" s="27"/>
-      <c r="R31" s="26" t="str">
+      <c r="Q31" s="19"/>
+      <c r="R31" s="18" t="str">
         <f>IF(ISNUMBER(P31),P31*$R$10/60,"")</f>
         <v/>
       </c>
-      <c r="S31" s="12" t="s">
+      <c r="S31" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="T31" s="89"/>
-      <c r="U31" s="89"/>
-      <c r="V31" s="13" t="s">
+      <c r="T31" s="107"/>
+      <c r="U31" s="107"/>
+      <c r="V31" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="W31" s="89"/>
-      <c r="X31" s="90"/>
+      <c r="W31" s="107"/>
+      <c r="X31" s="108"/>
     </row>
     <row r="32" spans="1:24" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="154"/>
-      <c r="B32" s="155"/>
-      <c r="C32" s="16"/>
-      <c r="D32" s="160"/>
-      <c r="E32" s="113"/>
-      <c r="F32" s="123"/>
-      <c r="G32" s="73"/>
-      <c r="H32" s="55"/>
-      <c r="I32" s="136"/>
-      <c r="J32" s="142"/>
-      <c r="K32" s="42"/>
-      <c r="L32" s="34"/>
-      <c r="M32" s="147"/>
-      <c r="N32" s="142" t="str">
+      <c r="A32" s="57"/>
+      <c r="B32" s="58"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="105"/>
+      <c r="E32" s="72"/>
+      <c r="F32" s="65"/>
+      <c r="G32" s="74"/>
+      <c r="H32" s="75"/>
+      <c r="I32" s="82"/>
+      <c r="J32" s="45"/>
+      <c r="K32" s="34"/>
+      <c r="L32" s="26"/>
+      <c r="M32" s="77"/>
+      <c r="N32" s="45" t="str">
         <f>IF(ISNUMBER(N31),N30-N31,"")</f>
         <v/>
       </c>
-      <c r="O32" s="43"/>
-      <c r="P32" s="43"/>
-      <c r="Q32" s="43"/>
-      <c r="R32" s="151" t="str">
+      <c r="O32" s="35"/>
+      <c r="P32" s="35"/>
+      <c r="Q32" s="35"/>
+      <c r="R32" s="47" t="str">
         <f>IF(AND(ISNUMBER(R30),ISNUMBER(R31)),R30-R31,"")</f>
         <v/>
       </c>
-      <c r="S32" s="149" t="s">
+      <c r="S32" s="83" t="s">
         <v>64</v>
       </c>
-      <c r="T32" s="101"/>
-      <c r="U32" s="74"/>
-      <c r="V32" s="74"/>
-      <c r="W32" s="74" t="s">
+      <c r="T32" s="84"/>
+      <c r="U32" s="104"/>
+      <c r="V32" s="104"/>
+      <c r="W32" s="104" t="s">
         <v>45</v>
       </c>
-      <c r="X32" s="75"/>
+      <c r="X32" s="143"/>
     </row>
     <row r="33" spans="1:24" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="174"/>
-      <c r="B33" s="175"/>
-      <c r="C33" s="14"/>
-      <c r="D33" s="102" t="s">
+      <c r="A33" s="59"/>
+      <c r="B33" s="60"/>
+      <c r="C33" s="162"/>
+      <c r="D33" s="163" t="s">
         <v>68</v>
       </c>
-      <c r="E33" s="102"/>
-      <c r="F33" s="102"/>
-      <c r="G33" s="102"/>
-      <c r="H33" s="102"/>
-      <c r="I33" s="102"/>
-      <c r="J33" s="102"/>
-      <c r="K33" s="102"/>
-      <c r="L33" s="102"/>
-      <c r="M33" s="103"/>
-      <c r="N33" s="126">
+      <c r="E33" s="164"/>
+      <c r="F33" s="164"/>
+      <c r="G33" s="164"/>
+      <c r="H33" s="164"/>
+      <c r="I33" s="164"/>
+      <c r="J33" s="164"/>
+      <c r="K33" s="164"/>
+      <c r="L33" s="164"/>
+      <c r="M33" s="165"/>
+      <c r="N33" s="38">
         <f>SUM(N13,N15,N17,N19,N21,N23,N25,N27,N29,N31)</f>
         <v>0</v>
       </c>
-      <c r="O33" s="150"/>
-      <c r="P33" s="150">
+      <c r="O33" s="46"/>
+      <c r="P33" s="46">
         <f>SUM(P13,P15,P17,P19,P21,P23,P25,P27,P29,P31)</f>
         <v>0</v>
       </c>
-      <c r="Q33" s="150"/>
-      <c r="R33" s="126">
+      <c r="Q33" s="46"/>
+      <c r="R33" s="38">
         <f>SUM(R13,R15,R17,R19,R21,R23,R25,R27,R29,R31)+$M$34</f>
         <v>0</v>
       </c>
-      <c r="S33" s="63" t="s">
+      <c r="S33" s="85" t="s">
         <v>65</v>
       </c>
-      <c r="T33" s="64"/>
-      <c r="U33" s="51"/>
-      <c r="V33" s="51"/>
-      <c r="W33" s="51"/>
-      <c r="X33" s="53"/>
+      <c r="T33" s="86"/>
+      <c r="U33" s="102"/>
+      <c r="V33" s="102"/>
+      <c r="W33" s="102"/>
+      <c r="X33" s="103"/>
     </row>
     <row r="34" spans="1:24" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="15" t="s">
+      <c r="A34" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="B34" s="15"/>
-      <c r="C34" s="15" t="s">
+      <c r="B34" s="7"/>
+      <c r="C34" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="D34" s="24"/>
-      <c r="E34" s="15" t="s">
+      <c r="D34" s="16"/>
+      <c r="E34" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="F34" s="15"/>
-      <c r="G34" s="24"/>
-      <c r="H34" s="15" t="s">
+      <c r="F34" s="7"/>
+      <c r="G34" s="16"/>
+      <c r="H34" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="I34" s="15"/>
-      <c r="J34" s="24"/>
-      <c r="K34" s="15" t="s">
+      <c r="I34" s="7"/>
+      <c r="J34" s="16"/>
+      <c r="K34" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="L34" s="15"/>
-      <c r="M34" s="24"/>
-      <c r="N34" s="15"/>
-      <c r="O34" s="15"/>
-      <c r="P34" s="15" t="s">
+      <c r="L34" s="7"/>
+      <c r="M34" s="16"/>
+      <c r="N34" s="7"/>
+      <c r="O34" s="7"/>
+      <c r="P34" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="Q34" s="15"/>
-      <c r="R34" s="24"/>
-      <c r="S34" s="15"/>
-      <c r="T34" s="15"/>
-      <c r="U34" s="15" t="s">
+      <c r="Q34" s="7"/>
+      <c r="R34" s="16"/>
+      <c r="S34" s="7"/>
+      <c r="T34" s="7"/>
+      <c r="U34" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="V34" s="15"/>
-      <c r="W34" s="15"/>
-      <c r="X34" s="15"/>
+      <c r="V34" s="7"/>
+      <c r="W34" s="7"/>
+      <c r="X34" s="7"/>
     </row>
     <row r="35" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>77</v>
       </c>
-      <c r="B35" s="18" t="s">
+      <c r="B35" s="10" t="s">
         <v>76</v>
       </c>
       <c r="C35" t="s">
         <v>78</v>
       </c>
-      <c r="E35" s="19" t="s">
+      <c r="E35" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="F35" s="19"/>
+      <c r="F35" s="11"/>
       <c r="G35" t="s">
         <v>82</v>
       </c>
-      <c r="L35" s="20" t="s">
+      <c r="L35" s="12" t="s">
         <v>80</v>
       </c>
       <c r="M35" t="s">
@@ -3539,69 +3615,109 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="184">
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
+  <mergeCells count="189">
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="K10:K12"/>
+    <mergeCell ref="L10:L12"/>
+    <mergeCell ref="G11:H12"/>
+    <mergeCell ref="W32:X32"/>
+    <mergeCell ref="T25:U25"/>
+    <mergeCell ref="T26:U26"/>
+    <mergeCell ref="T27:U27"/>
+    <mergeCell ref="T28:U28"/>
+    <mergeCell ref="S9:T10"/>
+    <mergeCell ref="U9:V10"/>
+    <mergeCell ref="W9:X10"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="S18:X18"/>
+    <mergeCell ref="S19:X19"/>
+    <mergeCell ref="S20:X20"/>
     <mergeCell ref="A19:B19"/>
     <mergeCell ref="A20:B20"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="M9:M12"/>
+    <mergeCell ref="O11:O12"/>
+    <mergeCell ref="U13:V13"/>
+    <mergeCell ref="U14:V14"/>
+    <mergeCell ref="U17:V17"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="A9:B11"/>
+    <mergeCell ref="D9:D12"/>
+    <mergeCell ref="E9:E12"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="J10:J12"/>
+    <mergeCell ref="G8:J8"/>
+    <mergeCell ref="F9:F12"/>
+    <mergeCell ref="O2:X8"/>
+    <mergeCell ref="G3:J3"/>
+    <mergeCell ref="G4:J4"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="G5:J5"/>
+    <mergeCell ref="G6:J6"/>
+    <mergeCell ref="G7:J7"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="S1:X1"/>
+    <mergeCell ref="H1:Q1"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="U16:V16"/>
     <mergeCell ref="I19:I20"/>
     <mergeCell ref="I21:I22"/>
     <mergeCell ref="M13:M14"/>
-    <mergeCell ref="M31:M32"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="I25:I26"/>
-    <mergeCell ref="I27:I28"/>
-    <mergeCell ref="I29:I30"/>
-    <mergeCell ref="I31:I32"/>
-    <mergeCell ref="M15:M16"/>
-    <mergeCell ref="M17:M18"/>
-    <mergeCell ref="M19:M20"/>
-    <mergeCell ref="M21:M22"/>
-    <mergeCell ref="M23:M24"/>
-    <mergeCell ref="M25:M26"/>
-    <mergeCell ref="M27:M28"/>
-    <mergeCell ref="M29:M30"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="K3:N3"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="W31:X31"/>
+    <mergeCell ref="S11:T11"/>
+    <mergeCell ref="S12:T12"/>
+    <mergeCell ref="S13:T13"/>
+    <mergeCell ref="S14:T14"/>
+    <mergeCell ref="S15:T15"/>
+    <mergeCell ref="S16:T16"/>
+    <mergeCell ref="S17:T17"/>
+    <mergeCell ref="W11:X11"/>
+    <mergeCell ref="W12:X12"/>
+    <mergeCell ref="T29:U29"/>
+    <mergeCell ref="T30:U30"/>
+    <mergeCell ref="T31:U31"/>
+    <mergeCell ref="W24:X24"/>
+    <mergeCell ref="W25:X25"/>
+    <mergeCell ref="W26:X26"/>
+    <mergeCell ref="W27:X27"/>
+    <mergeCell ref="W28:X28"/>
+    <mergeCell ref="W29:X29"/>
+    <mergeCell ref="W30:X30"/>
+    <mergeCell ref="V22:X22"/>
+    <mergeCell ref="U11:V11"/>
+    <mergeCell ref="U12:V12"/>
+    <mergeCell ref="U15:V15"/>
     <mergeCell ref="S32:T32"/>
     <mergeCell ref="S33:T33"/>
     <mergeCell ref="D33:M33"/>
@@ -3626,104 +3742,69 @@
     <mergeCell ref="D31:D32"/>
     <mergeCell ref="E31:E32"/>
     <mergeCell ref="E13:E14"/>
-    <mergeCell ref="W31:X31"/>
-    <mergeCell ref="S11:T11"/>
-    <mergeCell ref="S12:T12"/>
-    <mergeCell ref="S13:T13"/>
-    <mergeCell ref="S14:T14"/>
-    <mergeCell ref="S15:T15"/>
-    <mergeCell ref="S16:T16"/>
-    <mergeCell ref="S17:T17"/>
-    <mergeCell ref="W11:X11"/>
-    <mergeCell ref="W12:X12"/>
-    <mergeCell ref="T29:U29"/>
-    <mergeCell ref="T30:U30"/>
-    <mergeCell ref="T31:U31"/>
-    <mergeCell ref="W24:X24"/>
-    <mergeCell ref="W25:X25"/>
-    <mergeCell ref="W26:X26"/>
-    <mergeCell ref="W27:X27"/>
-    <mergeCell ref="W28:X28"/>
-    <mergeCell ref="W29:X29"/>
-    <mergeCell ref="W30:X30"/>
-    <mergeCell ref="V22:X22"/>
-    <mergeCell ref="U11:V11"/>
-    <mergeCell ref="U12:V12"/>
-    <mergeCell ref="U15:V15"/>
-    <mergeCell ref="U13:V13"/>
-    <mergeCell ref="U14:V14"/>
-    <mergeCell ref="U17:V17"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="S1:X1"/>
-    <mergeCell ref="H1:Q1"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="U16:V16"/>
+    <mergeCell ref="M31:M32"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="I25:I26"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="I29:I30"/>
+    <mergeCell ref="I31:I32"/>
+    <mergeCell ref="M15:M16"/>
+    <mergeCell ref="M17:M18"/>
+    <mergeCell ref="M19:M20"/>
+    <mergeCell ref="M21:M22"/>
+    <mergeCell ref="M23:M24"/>
+    <mergeCell ref="M25:M26"/>
+    <mergeCell ref="M27:M28"/>
+    <mergeCell ref="M29:M30"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
     <mergeCell ref="A3:C3"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="F29:F30"/>
     <mergeCell ref="G32:H32"/>
-    <mergeCell ref="W32:X32"/>
-    <mergeCell ref="T25:U25"/>
-    <mergeCell ref="T26:U26"/>
-    <mergeCell ref="T27:U27"/>
-    <mergeCell ref="T28:U28"/>
-    <mergeCell ref="S9:T10"/>
-    <mergeCell ref="U9:V10"/>
-    <mergeCell ref="W9:X10"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="K10:K12"/>
-    <mergeCell ref="L10:L12"/>
-    <mergeCell ref="G11:H12"/>
-    <mergeCell ref="A9:B11"/>
-    <mergeCell ref="D9:D12"/>
-    <mergeCell ref="E9:E12"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="J10:J12"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="G8:J8"/>
-    <mergeCell ref="F9:F12"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="M9:M12"/>
-    <mergeCell ref="O11:O12"/>
-    <mergeCell ref="O2:X8"/>
-    <mergeCell ref="G3:J3"/>
-    <mergeCell ref="G4:J4"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="G5:J5"/>
-    <mergeCell ref="G6:J6"/>
-    <mergeCell ref="G7:J7"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="K3:N3"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="A18:B18"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="S1" r:id="rId1" xr:uid="{4CB369A6-77F4-405A-899E-4A055FEAF5A6}"/>

--- a/vaayuyaana/jagiNavLog.xlsx
+++ b/vaayuyaana/jagiNavLog.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jagadishn\Documents\jagi\haaru\aerodynamic\stage03\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\hanchu\code\github.com\jkanasu\utilities\vaayuyaana\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F9723CC-F314-4FDA-8891-82A4B29020AD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8F5A7AF-6D42-4954-9E8C-623D44FF5F12}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{E3DE2A8C-E23C-4F63-95E8-9AD5B4E402C0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E3DE2A8C-E23C-4F63-95E8-9AD5B4E402C0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="92">
   <si>
     <t>Weight</t>
   </si>
@@ -344,10 +344,6 @@
     </r>
   </si>
   <si>
-    <t>MC
-(TC +/- VAR)</t>
-  </si>
-  <si>
     <t>Green</t>
   </si>
   <si>
@@ -378,9 +374,6 @@
     <t>Moment / C.G</t>
   </si>
   <si>
-    <t>https://github.com/jkanasu/utilities</t>
-  </si>
-  <si>
     <t>Std Temp °C</t>
   </si>
   <si>
@@ -388,13 +381,38 @@
   </si>
   <si>
     <t>Tail No:</t>
+  </si>
+  <si>
+    <t>https://github.com/jkanasu/utilities/tree/main/vaayuyaana</t>
+  </si>
+  <si>
+    <t>TOC</t>
+  </si>
+  <si>
+    <t>TOD</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">MC
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(TC +/- VAR)</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -464,13 +482,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -498,7 +509,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="57">
+  <borders count="63">
     <border>
       <left/>
       <right/>
@@ -600,19 +611,6 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -867,10 +865,98 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
+      <left/>
       <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top/>
@@ -880,66 +966,22 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
+      <left style="thin">
         <color indexed="64"/>
       </left>
       <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right/>
       <top style="thin">
         <color indexed="64"/>
@@ -953,63 +995,6 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -1017,19 +1002,6 @@
         <color indexed="64"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1124,21 +1096,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color indexed="64"/>
@@ -1204,6 +1161,130 @@
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -1211,7 +1292,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="186">
+  <cellXfs count="203">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1219,25 +1300,19 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -1252,10 +1327,7 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1267,94 +1339,499 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1366,401 +1843,56 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1799,7 +1931,7 @@
           <xdr:col>23</xdr:col>
           <xdr:colOff>381000</xdr:colOff>
           <xdr:row>34</xdr:row>
-          <xdr:rowOff>38100</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2159,12 +2291,13 @@
   <dimension ref="A1:X35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="AF13" sqref="AF13"/>
+      <selection activeCell="AB8" sqref="AB8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="5" width="9" customWidth="1"/>
+    <col min="4" max="4" width="5.7109375" customWidth="1"/>
+    <col min="5" max="5" width="9" customWidth="1"/>
     <col min="6" max="6" width="6.140625" customWidth="1"/>
     <col min="7" max="7" width="5.5703125" customWidth="1"/>
     <col min="8" max="18" width="5.7109375" customWidth="1"/>
@@ -2177,1547 +2310,1515 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="182" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="52" t="s">
-        <v>89</v>
-      </c>
-      <c r="D1" s="52"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
+      <c r="B1" s="183"/>
+      <c r="C1" s="184" t="s">
+        <v>87</v>
+      </c>
+      <c r="D1" s="184"/>
+      <c r="E1" s="188"/>
+      <c r="F1" s="188"/>
       <c r="G1" s="1"/>
-      <c r="H1" s="120" t="s">
+      <c r="H1" s="138" t="s">
         <v>56</v>
       </c>
-      <c r="I1" s="120"/>
-      <c r="J1" s="120"/>
-      <c r="K1" s="120"/>
-      <c r="L1" s="120"/>
-      <c r="M1" s="120"/>
-      <c r="N1" s="120"/>
-      <c r="O1" s="120"/>
-      <c r="P1" s="120"/>
-      <c r="Q1" s="120"/>
-      <c r="R1" s="1"/>
-      <c r="S1" s="117" t="s">
-        <v>86</v>
-      </c>
-      <c r="T1" s="118"/>
-      <c r="U1" s="118"/>
-      <c r="V1" s="118"/>
-      <c r="W1" s="118"/>
-      <c r="X1" s="119"/>
+      <c r="I1" s="138"/>
+      <c r="J1" s="138"/>
+      <c r="K1" s="138"/>
+      <c r="L1" s="138"/>
+      <c r="M1" s="138"/>
+      <c r="N1" s="138"/>
+      <c r="O1" s="138"/>
+      <c r="P1" s="138"/>
+      <c r="Q1" s="138"/>
+      <c r="R1" s="63" t="s">
+        <v>88</v>
+      </c>
+      <c r="S1" s="64"/>
+      <c r="T1" s="65"/>
+      <c r="U1" s="65"/>
+      <c r="V1" s="65"/>
+      <c r="W1" s="65"/>
+      <c r="X1" s="66"/>
     </row>
     <row r="2" spans="1:24" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="166" t="s">
+      <c r="A2" s="45" t="s">
         <v>69</v>
       </c>
-      <c r="B2" s="167"/>
-      <c r="C2" s="168" t="s">
+      <c r="B2" s="46"/>
+      <c r="C2" s="62" t="s">
         <v>70</v>
       </c>
-      <c r="D2" s="167"/>
-      <c r="E2" s="168" t="s">
+      <c r="D2" s="48"/>
+      <c r="E2" s="62" t="s">
         <v>71</v>
       </c>
-      <c r="F2" s="169"/>
-      <c r="G2" s="170"/>
-      <c r="H2" s="168" t="s">
+      <c r="F2" s="125"/>
+      <c r="G2" s="189"/>
+      <c r="H2" s="62" t="s">
         <v>72</v>
       </c>
-      <c r="I2" s="171"/>
-      <c r="J2" s="170"/>
-      <c r="K2" s="177" t="s">
+      <c r="I2" s="123"/>
+      <c r="J2" s="124"/>
+      <c r="K2" s="49" t="s">
         <v>73</v>
       </c>
-      <c r="L2" s="168"/>
-      <c r="M2" s="169"/>
-      <c r="N2" s="169"/>
-      <c r="O2" s="181"/>
-      <c r="P2" s="182"/>
-      <c r="Q2" s="182"/>
-      <c r="R2" s="182"/>
-      <c r="S2" s="182"/>
-      <c r="T2" s="182"/>
-      <c r="U2" s="182"/>
-      <c r="V2" s="182"/>
-      <c r="W2" s="182"/>
-      <c r="X2" s="183"/>
+      <c r="L2" s="47"/>
+      <c r="M2" s="125"/>
+      <c r="N2" s="125"/>
+      <c r="O2" s="114"/>
+      <c r="P2" s="115"/>
+      <c r="Q2" s="115"/>
+      <c r="R2" s="115"/>
+      <c r="S2" s="115"/>
+      <c r="T2" s="115"/>
+      <c r="U2" s="115"/>
+      <c r="V2" s="115"/>
+      <c r="W2" s="115"/>
+      <c r="X2" s="116"/>
     </row>
     <row r="3" spans="1:24" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="172"/>
-      <c r="B3" s="173"/>
-      <c r="C3" s="174"/>
-      <c r="D3" s="175" t="s">
+      <c r="A3" s="185"/>
+      <c r="B3" s="186"/>
+      <c r="C3" s="187"/>
+      <c r="D3" s="144" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="123"/>
-      <c r="F3" s="98"/>
-      <c r="G3" s="99" t="s">
+      <c r="E3" s="145"/>
+      <c r="F3" s="72"/>
+      <c r="G3" s="73" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="99"/>
-      <c r="I3" s="99"/>
-      <c r="J3" s="100"/>
-      <c r="K3" s="128" t="s">
+      <c r="H3" s="73"/>
+      <c r="I3" s="73"/>
+      <c r="J3" s="77"/>
+      <c r="K3" s="97" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="99"/>
-      <c r="M3" s="99"/>
-      <c r="N3" s="175"/>
-      <c r="O3" s="184"/>
-      <c r="P3" s="150"/>
-      <c r="Q3" s="150"/>
-      <c r="R3" s="150"/>
-      <c r="S3" s="150"/>
-      <c r="T3" s="150"/>
-      <c r="U3" s="150"/>
-      <c r="V3" s="150"/>
-      <c r="W3" s="150"/>
-      <c r="X3" s="151"/>
+      <c r="L3" s="73"/>
+      <c r="M3" s="73"/>
+      <c r="N3" s="144"/>
+      <c r="O3" s="117"/>
+      <c r="P3" s="118"/>
+      <c r="Q3" s="118"/>
+      <c r="R3" s="118"/>
+      <c r="S3" s="118"/>
+      <c r="T3" s="118"/>
+      <c r="U3" s="118"/>
+      <c r="V3" s="118"/>
+      <c r="W3" s="118"/>
+      <c r="X3" s="119"/>
     </row>
     <row r="4" spans="1:24" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="55" t="s">
+      <c r="A4" s="130" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="56"/>
-      <c r="C4" s="56"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="68"/>
-      <c r="F4" s="69"/>
-      <c r="G4" s="127"/>
-      <c r="H4" s="127"/>
-      <c r="I4" s="127"/>
-      <c r="J4" s="80"/>
-      <c r="K4" s="53" t="s">
+      <c r="B4" s="131"/>
+      <c r="C4" s="131"/>
+      <c r="D4" s="178"/>
+      <c r="E4" s="179"/>
+      <c r="F4" s="140"/>
+      <c r="G4" s="80"/>
+      <c r="H4" s="80"/>
+      <c r="I4" s="80"/>
+      <c r="J4" s="81"/>
+      <c r="K4" s="172" t="s">
         <v>6</v>
       </c>
-      <c r="L4" s="54"/>
-      <c r="M4" s="154"/>
-      <c r="N4" s="179"/>
-      <c r="O4" s="184"/>
-      <c r="P4" s="150"/>
-      <c r="Q4" s="150"/>
-      <c r="R4" s="150"/>
-      <c r="S4" s="150"/>
-      <c r="T4" s="150"/>
-      <c r="U4" s="150"/>
-      <c r="V4" s="150"/>
-      <c r="W4" s="150"/>
-      <c r="X4" s="151"/>
+      <c r="L4" s="173"/>
+      <c r="M4" s="126"/>
+      <c r="N4" s="127"/>
+      <c r="O4" s="117"/>
+      <c r="P4" s="118"/>
+      <c r="Q4" s="118"/>
+      <c r="R4" s="118"/>
+      <c r="S4" s="118"/>
+      <c r="T4" s="118"/>
+      <c r="U4" s="118"/>
+      <c r="V4" s="118"/>
+      <c r="W4" s="118"/>
+      <c r="X4" s="119"/>
     </row>
     <row r="5" spans="1:24" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="55" t="s">
-        <v>85</v>
-      </c>
-      <c r="B5" s="56"/>
-      <c r="C5" s="56"/>
-      <c r="D5" s="67"/>
-      <c r="E5" s="68"/>
-      <c r="F5" s="69"/>
-      <c r="G5" s="127"/>
-      <c r="H5" s="127"/>
-      <c r="I5" s="127"/>
-      <c r="J5" s="80"/>
-      <c r="K5" s="53" t="s">
+      <c r="A5" s="130" t="s">
+        <v>84</v>
+      </c>
+      <c r="B5" s="131"/>
+      <c r="C5" s="131"/>
+      <c r="D5" s="178"/>
+      <c r="E5" s="179"/>
+      <c r="F5" s="140"/>
+      <c r="G5" s="80"/>
+      <c r="H5" s="80"/>
+      <c r="I5" s="80"/>
+      <c r="J5" s="81"/>
+      <c r="K5" s="172" t="s">
         <v>7</v>
       </c>
-      <c r="L5" s="54"/>
-      <c r="M5" s="154"/>
-      <c r="N5" s="179"/>
-      <c r="O5" s="184"/>
-      <c r="P5" s="150"/>
-      <c r="Q5" s="150"/>
-      <c r="R5" s="150"/>
-      <c r="S5" s="150"/>
-      <c r="T5" s="150"/>
-      <c r="U5" s="150"/>
-      <c r="V5" s="150"/>
-      <c r="W5" s="150"/>
-      <c r="X5" s="151"/>
+      <c r="L5" s="173"/>
+      <c r="M5" s="126"/>
+      <c r="N5" s="127"/>
+      <c r="O5" s="117"/>
+      <c r="P5" s="118"/>
+      <c r="Q5" s="118"/>
+      <c r="R5" s="118"/>
+      <c r="S5" s="118"/>
+      <c r="T5" s="118"/>
+      <c r="U5" s="118"/>
+      <c r="V5" s="118"/>
+      <c r="W5" s="118"/>
+      <c r="X5" s="119"/>
     </row>
     <row r="6" spans="1:24" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="55" t="s">
+      <c r="A6" s="130" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="56"/>
-      <c r="C6" s="56"/>
-      <c r="D6" s="67"/>
-      <c r="E6" s="68"/>
-      <c r="F6" s="69"/>
-      <c r="G6" s="127"/>
-      <c r="H6" s="127"/>
-      <c r="I6" s="127"/>
-      <c r="J6" s="80"/>
-      <c r="K6" s="53" t="s">
+      <c r="B6" s="131"/>
+      <c r="C6" s="131"/>
+      <c r="D6" s="178"/>
+      <c r="E6" s="179"/>
+      <c r="F6" s="140"/>
+      <c r="G6" s="80"/>
+      <c r="H6" s="80"/>
+      <c r="I6" s="80"/>
+      <c r="J6" s="81"/>
+      <c r="K6" s="172" t="s">
         <v>8</v>
       </c>
-      <c r="L6" s="54"/>
-      <c r="M6" s="154"/>
-      <c r="N6" s="179"/>
-      <c r="O6" s="184"/>
-      <c r="P6" s="150"/>
-      <c r="Q6" s="150"/>
-      <c r="R6" s="150"/>
-      <c r="S6" s="150"/>
-      <c r="T6" s="150"/>
-      <c r="U6" s="150"/>
-      <c r="V6" s="150"/>
-      <c r="W6" s="150"/>
-      <c r="X6" s="151"/>
+      <c r="L6" s="173"/>
+      <c r="M6" s="126"/>
+      <c r="N6" s="127"/>
+      <c r="O6" s="117"/>
+      <c r="P6" s="118"/>
+      <c r="Q6" s="118"/>
+      <c r="R6" s="118"/>
+      <c r="S6" s="118"/>
+      <c r="T6" s="118"/>
+      <c r="U6" s="118"/>
+      <c r="V6" s="118"/>
+      <c r="W6" s="118"/>
+      <c r="X6" s="119"/>
     </row>
     <row r="7" spans="1:24" ht="21" x14ac:dyDescent="0.25">
-      <c r="A7" s="55" t="s">
+      <c r="A7" s="130" t="s">
         <v>74</v>
       </c>
-      <c r="B7" s="56"/>
-      <c r="C7" s="56"/>
-      <c r="D7" s="67"/>
-      <c r="E7" s="68"/>
-      <c r="F7" s="69"/>
-      <c r="G7" s="127"/>
-      <c r="H7" s="127"/>
-      <c r="I7" s="127"/>
-      <c r="J7" s="80"/>
-      <c r="K7" s="53" t="s">
+      <c r="B7" s="131"/>
+      <c r="C7" s="131"/>
+      <c r="D7" s="178"/>
+      <c r="E7" s="179"/>
+      <c r="F7" s="140"/>
+      <c r="G7" s="80"/>
+      <c r="H7" s="80"/>
+      <c r="I7" s="80"/>
+      <c r="J7" s="81"/>
+      <c r="K7" s="172" t="s">
         <v>9</v>
       </c>
-      <c r="L7" s="54"/>
-      <c r="M7" s="154"/>
-      <c r="N7" s="179"/>
-      <c r="O7" s="184"/>
-      <c r="P7" s="150"/>
-      <c r="Q7" s="150"/>
-      <c r="R7" s="150"/>
-      <c r="S7" s="150"/>
-      <c r="T7" s="150"/>
-      <c r="U7" s="150"/>
-      <c r="V7" s="150"/>
-      <c r="W7" s="150"/>
-      <c r="X7" s="151"/>
+      <c r="L7" s="173"/>
+      <c r="M7" s="126"/>
+      <c r="N7" s="127"/>
+      <c r="O7" s="117"/>
+      <c r="P7" s="118"/>
+      <c r="Q7" s="118"/>
+      <c r="R7" s="118"/>
+      <c r="S7" s="118"/>
+      <c r="T7" s="118"/>
+      <c r="U7" s="118"/>
+      <c r="V7" s="118"/>
+      <c r="W7" s="118"/>
+      <c r="X7" s="119"/>
     </row>
     <row r="8" spans="1:24" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="85" t="s">
+      <c r="A8" s="132" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="86"/>
-      <c r="C8" s="86"/>
-      <c r="D8" s="70"/>
-      <c r="E8" s="71"/>
-      <c r="F8" s="72"/>
-      <c r="G8" s="75"/>
-      <c r="H8" s="75"/>
-      <c r="I8" s="75"/>
-      <c r="J8" s="176"/>
-      <c r="K8" s="178" t="s">
+      <c r="B8" s="133"/>
+      <c r="C8" s="133"/>
+      <c r="D8" s="190"/>
+      <c r="E8" s="191"/>
+      <c r="F8" s="167"/>
+      <c r="G8" s="109"/>
+      <c r="H8" s="109"/>
+      <c r="I8" s="109"/>
+      <c r="J8" s="110"/>
+      <c r="K8" s="174" t="s">
         <v>10</v>
       </c>
-      <c r="L8" s="61"/>
-      <c r="M8" s="155"/>
-      <c r="N8" s="180"/>
-      <c r="O8" s="185"/>
-      <c r="P8" s="152"/>
-      <c r="Q8" s="152"/>
-      <c r="R8" s="152"/>
-      <c r="S8" s="152"/>
-      <c r="T8" s="152"/>
-      <c r="U8" s="152"/>
-      <c r="V8" s="152"/>
-      <c r="W8" s="152"/>
-      <c r="X8" s="153"/>
+      <c r="L8" s="175"/>
+      <c r="M8" s="128"/>
+      <c r="N8" s="129"/>
+      <c r="O8" s="120"/>
+      <c r="P8" s="121"/>
+      <c r="Q8" s="121"/>
+      <c r="R8" s="121"/>
+      <c r="S8" s="121"/>
+      <c r="T8" s="121"/>
+      <c r="U8" s="121"/>
+      <c r="V8" s="121"/>
+      <c r="W8" s="121"/>
+      <c r="X8" s="122"/>
     </row>
     <row r="9" spans="1:24" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="128" t="s">
+      <c r="A9" s="97" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="100"/>
-      <c r="C9" s="36" t="s">
+      <c r="B9" s="77"/>
+      <c r="C9" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="132" t="s">
-        <v>75</v>
-      </c>
-      <c r="E9" s="135" t="s">
+      <c r="D9" s="101" t="s">
+        <v>91</v>
+      </c>
+      <c r="E9" s="104" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="140" t="s">
-        <v>87</v>
-      </c>
-      <c r="G9" s="128" t="s">
+      <c r="F9" s="111" t="s">
+        <v>85</v>
+      </c>
+      <c r="G9" s="97" t="s">
         <v>16</v>
       </c>
-      <c r="H9" s="99"/>
-      <c r="I9" s="42" t="s">
-        <v>84</v>
-      </c>
-      <c r="J9" s="21" t="s">
+      <c r="H9" s="73"/>
+      <c r="I9" s="38" t="s">
+        <v>83</v>
+      </c>
+      <c r="J9" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="K9" s="22" t="s">
+      <c r="K9" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="L9" s="23" t="s">
+      <c r="L9" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="M9" s="123" t="s">
+      <c r="M9" s="145" t="s">
         <v>23</v>
       </c>
-      <c r="N9" s="21" t="s">
+      <c r="N9" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="O9" s="22" t="s">
+      <c r="O9" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="P9" s="99" t="s">
+      <c r="P9" s="73" t="s">
         <v>32</v>
       </c>
-      <c r="Q9" s="99"/>
-      <c r="R9" s="23" t="s">
+      <c r="Q9" s="73"/>
+      <c r="R9" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="S9" s="98" t="s">
+      <c r="S9" s="72" t="s">
         <v>37</v>
       </c>
-      <c r="T9" s="99"/>
-      <c r="U9" s="144" t="s">
+      <c r="T9" s="73"/>
+      <c r="U9" s="76" t="s">
         <v>66</v>
       </c>
-      <c r="V9" s="99"/>
-      <c r="W9" s="99" t="s">
+      <c r="V9" s="73"/>
+      <c r="W9" s="73" t="s">
         <v>38</v>
       </c>
-      <c r="X9" s="100"/>
+      <c r="X9" s="77"/>
     </row>
     <row r="10" spans="1:24" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="129"/>
-      <c r="B10" s="130"/>
-      <c r="C10" s="8" t="s">
+      <c r="A10" s="98"/>
+      <c r="B10" s="99"/>
+      <c r="C10" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="133"/>
-      <c r="E10" s="136"/>
-      <c r="F10" s="141"/>
-      <c r="G10" s="29" t="s">
+      <c r="D10" s="102"/>
+      <c r="E10" s="105"/>
+      <c r="F10" s="112"/>
+      <c r="G10" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="H10" s="28" t="s">
+      <c r="H10" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="I10" s="43" t="s">
-        <v>83</v>
-      </c>
-      <c r="J10" s="138" t="s">
+      <c r="I10" s="39" t="s">
+        <v>82</v>
+      </c>
+      <c r="J10" s="107" t="s">
         <v>24</v>
       </c>
-      <c r="K10" s="156" t="s">
+      <c r="K10" s="134" t="s">
         <v>25</v>
       </c>
-      <c r="L10" s="158" t="s">
+      <c r="L10" s="136" t="s">
         <v>26</v>
       </c>
-      <c r="M10" s="66"/>
-      <c r="N10" s="29" t="s">
+      <c r="M10" s="146"/>
+      <c r="N10" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="O10" s="28" t="s">
+      <c r="O10" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="P10" s="89"/>
-      <c r="Q10" s="89"/>
-      <c r="R10" s="18" t="str">
+      <c r="P10" s="82"/>
+      <c r="Q10" s="82"/>
+      <c r="R10" s="15" t="str">
         <f>IF(ISNUMBER(J34),J34,"")</f>
         <v/>
       </c>
-      <c r="S10" s="93"/>
-      <c r="T10" s="94"/>
-      <c r="U10" s="94"/>
-      <c r="V10" s="94"/>
-      <c r="W10" s="94"/>
-      <c r="X10" s="114"/>
+      <c r="S10" s="74"/>
+      <c r="T10" s="75"/>
+      <c r="U10" s="75"/>
+      <c r="V10" s="75"/>
+      <c r="W10" s="75"/>
+      <c r="X10" s="78"/>
     </row>
     <row r="11" spans="1:24" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="131"/>
-      <c r="B11" s="114"/>
-      <c r="C11" s="37" t="s">
+      <c r="A11" s="100"/>
+      <c r="B11" s="78"/>
+      <c r="C11" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="133"/>
-      <c r="E11" s="136"/>
-      <c r="F11" s="141"/>
-      <c r="G11" s="160" t="s">
-        <v>88</v>
-      </c>
-      <c r="H11" s="116"/>
-      <c r="I11" s="78" t="s">
+      <c r="D11" s="102"/>
+      <c r="E11" s="105"/>
+      <c r="F11" s="112"/>
+      <c r="G11" s="180" t="s">
+        <v>86</v>
+      </c>
+      <c r="H11" s="148"/>
+      <c r="I11" s="170" t="s">
         <v>19</v>
       </c>
-      <c r="J11" s="138"/>
-      <c r="K11" s="156"/>
-      <c r="L11" s="158"/>
-      <c r="M11" s="66"/>
-      <c r="N11" s="29" t="s">
+      <c r="J11" s="107"/>
+      <c r="K11" s="134"/>
+      <c r="L11" s="136"/>
+      <c r="M11" s="146"/>
+      <c r="N11" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="O11" s="116" t="s">
+      <c r="O11" s="148" t="s">
         <v>31</v>
       </c>
-      <c r="P11" s="28" t="s">
+      <c r="P11" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="Q11" s="28" t="s">
+      <c r="Q11" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="R11" s="30" t="s">
+      <c r="R11" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="S11" s="95"/>
-      <c r="T11" s="96"/>
-      <c r="U11" s="115" t="s">
+      <c r="S11" s="94"/>
+      <c r="T11" s="95"/>
+      <c r="U11" s="155" t="s">
         <v>39</v>
       </c>
-      <c r="V11" s="115"/>
-      <c r="W11" s="96"/>
-      <c r="X11" s="97"/>
+      <c r="V11" s="155"/>
+      <c r="W11" s="95"/>
+      <c r="X11" s="152"/>
     </row>
     <row r="12" spans="1:24" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="62"/>
-      <c r="B12" s="63"/>
+      <c r="A12" s="193" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" s="194"/>
       <c r="C12" s="3"/>
-      <c r="D12" s="134"/>
-      <c r="E12" s="137"/>
-      <c r="F12" s="142"/>
-      <c r="G12" s="161"/>
-      <c r="H12" s="125"/>
-      <c r="I12" s="79"/>
-      <c r="J12" s="139"/>
-      <c r="K12" s="157"/>
-      <c r="L12" s="159"/>
-      <c r="M12" s="124"/>
-      <c r="N12" s="33"/>
-      <c r="O12" s="102"/>
-      <c r="P12" s="24" t="s">
+      <c r="D12" s="103"/>
+      <c r="E12" s="106"/>
+      <c r="F12" s="113"/>
+      <c r="G12" s="181"/>
+      <c r="H12" s="156"/>
+      <c r="I12" s="171"/>
+      <c r="J12" s="108"/>
+      <c r="K12" s="135"/>
+      <c r="L12" s="137"/>
+      <c r="M12" s="147"/>
+      <c r="N12" s="30"/>
+      <c r="O12" s="149"/>
+      <c r="P12" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="Q12" s="24" t="s">
+      <c r="Q12" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="R12" s="25" t="s">
+      <c r="R12" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="S12" s="109"/>
-      <c r="T12" s="89"/>
-      <c r="U12" s="116" t="s">
+      <c r="S12" s="96"/>
+      <c r="T12" s="82"/>
+      <c r="U12" s="148" t="s">
         <v>16</v>
       </c>
-      <c r="V12" s="116"/>
-      <c r="W12" s="89"/>
-      <c r="X12" s="90"/>
+      <c r="V12" s="148"/>
+      <c r="W12" s="82"/>
+      <c r="X12" s="153"/>
     </row>
     <row r="13" spans="1:24" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="48"/>
-      <c r="B13" s="49"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="87" t="str">
+      <c r="A13" s="195"/>
+      <c r="B13" s="196"/>
+      <c r="C13" s="44"/>
+      <c r="D13" s="139" t="str">
         <f>IF(J13&lt;&gt;"",MOD(J13+K14,360),"")</f>
         <v/>
       </c>
-      <c r="E13" s="106"/>
-      <c r="F13" s="73" t="str">
+      <c r="E13" s="168"/>
+      <c r="F13" s="201" t="str">
         <f>IF(ISNUMBER(E13),15-E13/1000*2,"")</f>
         <v/>
       </c>
-      <c r="G13" s="39"/>
-      <c r="H13" s="40"/>
-      <c r="I13" s="121"/>
-      <c r="J13" s="39"/>
-      <c r="K13" s="41" t="str">
+      <c r="G13" s="35"/>
+      <c r="H13" s="36"/>
+      <c r="I13" s="141"/>
+      <c r="J13" s="35"/>
+      <c r="K13" s="37" t="str">
         <f>IF(J13&lt;&gt;"",IF(ISNUMBER(J14),MOD(J13+J14,360),J13),"")</f>
         <v/>
       </c>
-      <c r="L13" s="44" t="str">
+      <c r="L13" s="40" t="str">
         <f>IF(K13&lt;&gt;"",MOD(K13+K14,360),"")</f>
         <v/>
       </c>
-      <c r="M13" s="122" t="str">
+      <c r="M13" s="142" t="str">
         <f>IF(L13&lt;&gt;"",MOD(L13+L14,360),"")</f>
         <v/>
       </c>
-      <c r="N13" s="9"/>
-      <c r="O13" s="15" t="str">
+      <c r="N13" s="14" t="str">
+        <f>IF(AND(ISNUMBER(O13),ISNUMBER(P13)),ROUND(P13*O13/60,0),"")</f>
+        <v/>
+      </c>
+      <c r="O13" s="13" t="str">
         <f>IF(ISNUMBER(I13),SQRT((H13^2) + (I13^2) - (2*H13*I13*COS(   ACOS(COS(RADIANS(J13-G13)))   ) ) ),"")</f>
         <v/>
       </c>
-      <c r="P13" s="15" t="str">
-        <f>IF(ISNUMBER(O13),ROUND(N13/O13*60,0),"")</f>
-        <v/>
-      </c>
-      <c r="Q13" s="20"/>
-      <c r="R13" s="27" t="str">
+      <c r="P13" s="67"/>
+      <c r="Q13" s="17"/>
+      <c r="R13" s="24" t="str">
         <f>IF(ISNUMBER(P13),P13*$R$10/60,"")</f>
         <v/>
       </c>
-      <c r="S13" s="109"/>
-      <c r="T13" s="89"/>
-      <c r="U13" s="116" t="s">
+      <c r="S13" s="96"/>
+      <c r="T13" s="82"/>
+      <c r="U13" s="148" t="s">
         <v>40</v>
       </c>
-      <c r="V13" s="116"/>
-      <c r="W13" s="89"/>
-      <c r="X13" s="90"/>
+      <c r="V13" s="148"/>
+      <c r="W13" s="82"/>
+      <c r="X13" s="153"/>
     </row>
     <row r="14" spans="1:24" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="57"/>
-      <c r="B14" s="58"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="88"/>
-      <c r="E14" s="69"/>
-      <c r="F14" s="64"/>
-      <c r="G14" s="126"/>
-      <c r="H14" s="127"/>
-      <c r="I14" s="80"/>
-      <c r="J14" s="17" t="str">
+      <c r="A14" s="197" t="s">
+        <v>89</v>
+      </c>
+      <c r="B14" s="198"/>
+      <c r="C14" s="60"/>
+      <c r="D14" s="139"/>
+      <c r="E14" s="140"/>
+      <c r="F14" s="176"/>
+      <c r="G14" s="79"/>
+      <c r="H14" s="80"/>
+      <c r="I14" s="81"/>
+      <c r="J14" s="14" t="str">
         <f>IF(G13&lt;&gt;"",DEGREES(ASIN(H13/I13*SIN(RADIANS(G13-J13)))),"")</f>
         <v/>
       </c>
-      <c r="K14" s="32"/>
-      <c r="L14" s="18"/>
-      <c r="M14" s="76"/>
-      <c r="N14" s="17" t="str">
+      <c r="K14" s="29"/>
+      <c r="L14" s="15"/>
+      <c r="M14" s="143"/>
+      <c r="N14" s="14" t="str">
         <f>IF(ISNUMBER(N13),N12-N13,"")</f>
         <v/>
       </c>
-      <c r="O14" s="19"/>
-      <c r="P14" s="19"/>
-      <c r="Q14" s="19"/>
-      <c r="R14" s="13" t="str">
+      <c r="O14" s="16"/>
+      <c r="P14" s="16"/>
+      <c r="Q14" s="16"/>
+      <c r="R14" s="11" t="str">
         <f>IF(AND(ISNUMBER(R34),ISNUMBER(R13)),R34-$M$34-R13,"")</f>
         <v/>
       </c>
-      <c r="S14" s="109"/>
-      <c r="T14" s="89"/>
-      <c r="U14" s="116" t="s">
+      <c r="S14" s="96"/>
+      <c r="T14" s="82"/>
+      <c r="U14" s="148" t="s">
         <v>41</v>
       </c>
-      <c r="V14" s="116"/>
-      <c r="W14" s="89"/>
-      <c r="X14" s="90"/>
+      <c r="V14" s="148"/>
+      <c r="W14" s="82"/>
+      <c r="X14" s="153"/>
     </row>
     <row r="15" spans="1:24" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="48"/>
-      <c r="B15" s="49"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="88" t="str">
+      <c r="A15" s="195"/>
+      <c r="B15" s="196"/>
+      <c r="C15" s="44"/>
+      <c r="D15" s="139" t="str">
         <f>IF(J15&lt;&gt;"",MOD(J15+K16,360),"")</f>
         <v/>
       </c>
-      <c r="E15" s="69"/>
-      <c r="F15" s="73" t="str">
+      <c r="E15" s="140"/>
+      <c r="F15" s="201" t="str">
         <f t="shared" ref="F15" si="0">IF(ISNUMBER(E15),15-E15/1000*2,"")</f>
         <v/>
       </c>
-      <c r="G15" s="31"/>
-      <c r="H15" s="32"/>
-      <c r="I15" s="80"/>
-      <c r="J15" s="31"/>
-      <c r="K15" s="14" t="str">
+      <c r="G15" s="28"/>
+      <c r="H15" s="29"/>
+      <c r="I15" s="81"/>
+      <c r="J15" s="28"/>
+      <c r="K15" s="12" t="str">
         <f>IF(J15&lt;&gt;"",IF(ISNUMBER(J16),MOD(J15+J16,360),J15),"")</f>
         <v/>
       </c>
-      <c r="L15" s="13" t="str">
+      <c r="L15" s="11" t="str">
         <f>IF(K15&lt;&gt;"",MOD(K15+K16,360),"")</f>
         <v/>
       </c>
-      <c r="M15" s="76" t="str">
+      <c r="M15" s="143" t="str">
         <f>IF(L15&lt;&gt;"",MOD(L15+L16,360),"")</f>
         <v/>
       </c>
-      <c r="N15" s="31"/>
-      <c r="O15" s="14" t="str">
+      <c r="N15" s="28"/>
+      <c r="O15" s="12" t="str">
         <f>IF(ISNUMBER(I15),SQRT((H15^2) + (I15^2) - (2*H15*I15*COS(   ACOS(COS(RADIANS(J15-G15)))   ) ) ),"")</f>
         <v/>
       </c>
-      <c r="P15" s="14" t="str">
+      <c r="P15" s="12" t="str">
         <f>IF(ISNUMBER(O15),ROUND(N15/O15*60,0),"")</f>
         <v/>
       </c>
-      <c r="Q15" s="19"/>
-      <c r="R15" s="18" t="str">
+      <c r="Q15" s="16"/>
+      <c r="R15" s="15" t="str">
         <f>IF(ISNUMBER(P15),P15*$R$10/60,"")</f>
         <v/>
       </c>
-      <c r="S15" s="109"/>
-      <c r="T15" s="89"/>
-      <c r="U15" s="116" t="s">
+      <c r="S15" s="96"/>
+      <c r="T15" s="82"/>
+      <c r="U15" s="148" t="s">
         <v>42</v>
       </c>
-      <c r="V15" s="116"/>
-      <c r="W15" s="89"/>
-      <c r="X15" s="90"/>
+      <c r="V15" s="148"/>
+      <c r="W15" s="82"/>
+      <c r="X15" s="153"/>
     </row>
     <row r="16" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="57"/>
-      <c r="B16" s="58"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="88"/>
-      <c r="E16" s="69"/>
-      <c r="F16" s="64"/>
-      <c r="G16" s="126"/>
-      <c r="H16" s="127"/>
-      <c r="I16" s="80"/>
-      <c r="J16" s="17" t="str">
+      <c r="A16" s="197"/>
+      <c r="B16" s="198"/>
+      <c r="C16" s="60"/>
+      <c r="D16" s="139"/>
+      <c r="E16" s="140"/>
+      <c r="F16" s="176"/>
+      <c r="G16" s="79"/>
+      <c r="H16" s="80"/>
+      <c r="I16" s="81"/>
+      <c r="J16" s="14" t="str">
         <f>IF(G15&lt;&gt;"",DEGREES(ASIN(H15/I15*SIN(RADIANS(G15-J15)))),"")</f>
         <v/>
       </c>
-      <c r="K16" s="32"/>
-      <c r="L16" s="18"/>
-      <c r="M16" s="76"/>
-      <c r="N16" s="17" t="str">
+      <c r="K16" s="29"/>
+      <c r="L16" s="15"/>
+      <c r="M16" s="143"/>
+      <c r="N16" s="14" t="str">
         <f>IF(ISNUMBER(N15),N14-N15,"")</f>
         <v/>
       </c>
-      <c r="O16" s="19"/>
-      <c r="P16" s="19"/>
-      <c r="Q16" s="19"/>
-      <c r="R16" s="13" t="str">
+      <c r="O16" s="16"/>
+      <c r="P16" s="16"/>
+      <c r="Q16" s="16"/>
+      <c r="R16" s="11" t="str">
         <f>IF(AND(ISNUMBER(R14),ISNUMBER(R15)),R14-R15,"")</f>
         <v/>
       </c>
-      <c r="S16" s="109"/>
-      <c r="T16" s="89"/>
-      <c r="U16" s="116" t="s">
+      <c r="S16" s="96"/>
+      <c r="T16" s="82"/>
+      <c r="U16" s="148" t="s">
         <v>43</v>
       </c>
-      <c r="V16" s="116"/>
-      <c r="W16" s="89"/>
-      <c r="X16" s="90"/>
+      <c r="V16" s="148"/>
+      <c r="W16" s="82"/>
+      <c r="X16" s="153"/>
     </row>
     <row r="17" spans="1:24" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="48"/>
-      <c r="B17" s="49"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="88" t="str">
+      <c r="A17" s="195"/>
+      <c r="B17" s="196"/>
+      <c r="C17" s="61"/>
+      <c r="D17" s="139" t="str">
         <f>IF(J17&lt;&gt;"",MOD(J17+K18,360),"")</f>
         <v/>
       </c>
-      <c r="E17" s="69"/>
-      <c r="F17" s="73" t="str">
+      <c r="E17" s="140"/>
+      <c r="F17" s="201" t="str">
         <f t="shared" ref="F17" si="1">IF(ISNUMBER(E17),15-E17/1000*2,"")</f>
         <v/>
       </c>
-      <c r="G17" s="31"/>
-      <c r="H17" s="32"/>
-      <c r="I17" s="80"/>
-      <c r="J17" s="31"/>
-      <c r="K17" s="14" t="str">
+      <c r="G17" s="28"/>
+      <c r="H17" s="29"/>
+      <c r="I17" s="81"/>
+      <c r="J17" s="28"/>
+      <c r="K17" s="12" t="str">
         <f>IF(J17&lt;&gt;"",IF(ISNUMBER(J18),MOD(J17+J18,360),J17),"")</f>
         <v/>
       </c>
-      <c r="L17" s="13" t="str">
+      <c r="L17" s="11" t="str">
         <f>IF(K17&lt;&gt;"",MOD(K17+K18,360),"")</f>
         <v/>
       </c>
-      <c r="M17" s="76" t="str">
+      <c r="M17" s="143" t="str">
         <f>IF(L17&lt;&gt;"",MOD(L17+L18,360),"")</f>
         <v/>
       </c>
-      <c r="N17" s="31"/>
-      <c r="O17" s="14" t="str">
+      <c r="N17" s="28"/>
+      <c r="O17" s="12" t="str">
         <f>IF(ISNUMBER(I17),SQRT((H17^2) + (I17^2) - (2*H17*I17*COS(   ACOS(COS(RADIANS(J17-G17)))   ) ) ),"")</f>
         <v/>
       </c>
-      <c r="P17" s="14" t="str">
+      <c r="P17" s="12" t="str">
         <f>IF(ISNUMBER(O17),ROUND(N17/O17*60,0),"")</f>
         <v/>
       </c>
-      <c r="Q17" s="19"/>
-      <c r="R17" s="18" t="str">
+      <c r="Q17" s="16"/>
+      <c r="R17" s="15" t="str">
         <f>IF(ISNUMBER(P17),P17*$R$10/60,"")</f>
         <v/>
       </c>
-      <c r="S17" s="110"/>
-      <c r="T17" s="91"/>
-      <c r="U17" s="125" t="s">
+      <c r="S17" s="150"/>
+      <c r="T17" s="151"/>
+      <c r="U17" s="156" t="s">
         <v>44</v>
       </c>
-      <c r="V17" s="125"/>
-      <c r="W17" s="91"/>
-      <c r="X17" s="92"/>
+      <c r="V17" s="156"/>
+      <c r="W17" s="151"/>
+      <c r="X17" s="164"/>
     </row>
     <row r="18" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="57"/>
-      <c r="B18" s="58"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="88"/>
-      <c r="E18" s="69"/>
-      <c r="F18" s="64"/>
-      <c r="G18" s="126"/>
-      <c r="H18" s="127"/>
-      <c r="I18" s="80"/>
-      <c r="J18" s="17" t="str">
+      <c r="A18" s="197"/>
+      <c r="B18" s="198"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="139"/>
+      <c r="E18" s="140"/>
+      <c r="F18" s="176"/>
+      <c r="G18" s="79"/>
+      <c r="H18" s="80"/>
+      <c r="I18" s="81"/>
+      <c r="J18" s="14" t="str">
         <f>IF(G17&lt;&gt;"",DEGREES(ASIN(H17/I17*SIN(RADIANS(G17-J17)))),"")</f>
         <v/>
       </c>
-      <c r="K18" s="32"/>
-      <c r="L18" s="18"/>
-      <c r="M18" s="76"/>
-      <c r="N18" s="17" t="str">
+      <c r="K18" s="29"/>
+      <c r="L18" s="15"/>
+      <c r="M18" s="143"/>
+      <c r="N18" s="14" t="str">
         <f>IF(ISNUMBER(N17),N16-N17,"")</f>
         <v/>
       </c>
-      <c r="O18" s="19"/>
-      <c r="P18" s="19"/>
-      <c r="Q18" s="19"/>
-      <c r="R18" s="13" t="str">
+      <c r="O18" s="16"/>
+      <c r="P18" s="16"/>
+      <c r="Q18" s="16"/>
+      <c r="R18" s="11" t="str">
         <f>IF(AND(ISNUMBER(R16),ISNUMBER(R17)),R16-R17,"")</f>
         <v/>
       </c>
-      <c r="S18" s="57"/>
-      <c r="T18" s="145"/>
-      <c r="U18" s="145"/>
-      <c r="V18" s="145"/>
-      <c r="W18" s="145"/>
-      <c r="X18" s="58"/>
+      <c r="S18" s="83"/>
+      <c r="T18" s="84"/>
+      <c r="U18" s="84"/>
+      <c r="V18" s="84"/>
+      <c r="W18" s="84"/>
+      <c r="X18" s="85"/>
     </row>
     <row r="19" spans="1:24" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="48"/>
-      <c r="B19" s="49"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="88" t="str">
+      <c r="A19" s="195"/>
+      <c r="B19" s="196"/>
+      <c r="C19" s="61"/>
+      <c r="D19" s="139" t="str">
         <f>IF(J19&lt;&gt;"",MOD(J19+K20,360),"")</f>
         <v/>
       </c>
-      <c r="E19" s="69"/>
-      <c r="F19" s="73" t="str">
+      <c r="E19" s="140"/>
+      <c r="F19" s="201" t="str">
         <f t="shared" ref="F19" si="2">IF(ISNUMBER(E19),15-E19/1000*2,"")</f>
         <v/>
       </c>
-      <c r="G19" s="31"/>
-      <c r="H19" s="32"/>
-      <c r="I19" s="80"/>
-      <c r="J19" s="31"/>
-      <c r="K19" s="14" t="str">
+      <c r="G19" s="28"/>
+      <c r="H19" s="29"/>
+      <c r="I19" s="81"/>
+      <c r="J19" s="28"/>
+      <c r="K19" s="12" t="str">
         <f>IF(J19&lt;&gt;"",IF(ISNUMBER(J20),MOD(J19+J20,360),J19),"")</f>
         <v/>
       </c>
-      <c r="L19" s="13" t="str">
+      <c r="L19" s="11" t="str">
         <f>IF(K19&lt;&gt;"",MOD(K19+K20,360),"")</f>
         <v/>
       </c>
-      <c r="M19" s="76" t="str">
+      <c r="M19" s="143" t="str">
         <f>IF(L19&lt;&gt;"",MOD(L19+L20,360),"")</f>
         <v/>
       </c>
-      <c r="N19" s="31"/>
-      <c r="O19" s="14" t="str">
+      <c r="N19" s="28"/>
+      <c r="O19" s="12" t="str">
         <f>IF(ISNUMBER(I19),SQRT((H19^2) + (I19^2) - (2*H19*I19*COS(   ACOS(COS(RADIANS(J19-G19)))   ) ) ),"")</f>
         <v/>
       </c>
-      <c r="P19" s="14" t="str">
+      <c r="P19" s="12" t="str">
         <f>IF(ISNUMBER(O19),ROUND(N19/O19*60,0),"")</f>
         <v/>
       </c>
-      <c r="Q19" s="19"/>
-      <c r="R19" s="18" t="str">
+      <c r="Q19" s="16"/>
+      <c r="R19" s="15" t="str">
         <f>IF(ISNUMBER(P19),P19*$R$10/60,"")</f>
         <v/>
       </c>
-      <c r="S19" s="146"/>
-      <c r="T19" s="147"/>
-      <c r="U19" s="147"/>
-      <c r="V19" s="147"/>
-      <c r="W19" s="147"/>
-      <c r="X19" s="148"/>
+      <c r="S19" s="86"/>
+      <c r="T19" s="87"/>
+      <c r="U19" s="87"/>
+      <c r="V19" s="87"/>
+      <c r="W19" s="87"/>
+      <c r="X19" s="88"/>
     </row>
     <row r="20" spans="1:24" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="57"/>
-      <c r="B20" s="58"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="88"/>
-      <c r="E20" s="69"/>
-      <c r="F20" s="64"/>
-      <c r="G20" s="126"/>
-      <c r="H20" s="127"/>
-      <c r="I20" s="80"/>
-      <c r="J20" s="17" t="str">
+      <c r="A20" s="197"/>
+      <c r="B20" s="198"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="139"/>
+      <c r="E20" s="140"/>
+      <c r="F20" s="176"/>
+      <c r="G20" s="79"/>
+      <c r="H20" s="80"/>
+      <c r="I20" s="81"/>
+      <c r="J20" s="14" t="str">
         <f>IF(G19&lt;&gt;"",DEGREES(ASIN(H19/I19*SIN(RADIANS(G19-J19)))),"")</f>
         <v/>
       </c>
-      <c r="K20" s="32"/>
-      <c r="L20" s="18"/>
-      <c r="M20" s="76"/>
-      <c r="N20" s="17" t="str">
+      <c r="K20" s="29"/>
+      <c r="L20" s="15"/>
+      <c r="M20" s="143"/>
+      <c r="N20" s="14" t="str">
         <f>IF(ISNUMBER(N19),N18-N19,"")</f>
         <v/>
       </c>
-      <c r="O20" s="19"/>
-      <c r="P20" s="19"/>
-      <c r="Q20" s="19"/>
-      <c r="R20" s="13" t="str">
+      <c r="O20" s="16"/>
+      <c r="P20" s="16"/>
+      <c r="Q20" s="16"/>
+      <c r="R20" s="11" t="str">
         <f>IF(AND(ISNUMBER(R18),ISNUMBER(R19)),R18-R19,"")</f>
         <v/>
       </c>
-      <c r="S20" s="59"/>
-      <c r="T20" s="149"/>
-      <c r="U20" s="149"/>
-      <c r="V20" s="149"/>
-      <c r="W20" s="149"/>
-      <c r="X20" s="60"/>
+      <c r="S20" s="89"/>
+      <c r="T20" s="90"/>
+      <c r="U20" s="90"/>
+      <c r="V20" s="90"/>
+      <c r="W20" s="90"/>
+      <c r="X20" s="91"/>
     </row>
     <row r="21" spans="1:24" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="48"/>
-      <c r="B21" s="49"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="88" t="str">
+      <c r="A21" s="195"/>
+      <c r="B21" s="196"/>
+      <c r="C21" s="61"/>
+      <c r="D21" s="139" t="str">
         <f>IF(J21&lt;&gt;"",MOD(J21+K22,360),"")</f>
         <v/>
       </c>
-      <c r="E21" s="69"/>
-      <c r="F21" s="73" t="str">
+      <c r="E21" s="140"/>
+      <c r="F21" s="201" t="str">
         <f t="shared" ref="F21" si="3">IF(ISNUMBER(E21),15-E21/1000*2,"")</f>
         <v/>
       </c>
-      <c r="G21" s="31"/>
-      <c r="H21" s="32"/>
-      <c r="I21" s="80"/>
-      <c r="J21" s="31"/>
-      <c r="K21" s="14" t="str">
+      <c r="G21" s="28"/>
+      <c r="H21" s="29"/>
+      <c r="I21" s="81"/>
+      <c r="J21" s="28"/>
+      <c r="K21" s="12" t="str">
         <f>IF(J21&lt;&gt;"",IF(ISNUMBER(J22),MOD(J21+J22,360),J21),"")</f>
         <v/>
       </c>
-      <c r="L21" s="13" t="str">
+      <c r="L21" s="11" t="str">
         <f>IF(K21&lt;&gt;"",MOD(K21+K22,360),"")</f>
         <v/>
       </c>
-      <c r="M21" s="76" t="str">
+      <c r="M21" s="143" t="str">
         <f>IF(L21&lt;&gt;"",MOD(L21+L22,360),"")</f>
         <v/>
       </c>
-      <c r="N21" s="31"/>
-      <c r="O21" s="14" t="str">
+      <c r="N21" s="28"/>
+      <c r="O21" s="12" t="str">
         <f>IF(ISNUMBER(I21),SQRT((H21^2) + (I21^2) - (2*H21*I21*COS(   ACOS(COS(RADIANS(J21-G21)))   ) ) ),"")</f>
         <v/>
       </c>
-      <c r="P21" s="14" t="str">
+      <c r="P21" s="12" t="str">
         <f>IF(ISNUMBER(O21),ROUND(N21/O21*60,0),"")</f>
         <v/>
       </c>
-      <c r="Q21" s="19"/>
-      <c r="R21" s="18" t="str">
+      <c r="Q21" s="16"/>
+      <c r="R21" s="15" t="str">
         <f>IF(ISNUMBER(P21),P21*$R$10/60,"")</f>
         <v/>
       </c>
-      <c r="S21" s="98" t="s">
+      <c r="S21" s="72" t="s">
         <v>55</v>
       </c>
-      <c r="T21" s="99"/>
-      <c r="U21" s="99"/>
-      <c r="V21" s="99"/>
-      <c r="W21" s="99"/>
-      <c r="X21" s="100"/>
+      <c r="T21" s="73"/>
+      <c r="U21" s="73"/>
+      <c r="V21" s="73"/>
+      <c r="W21" s="73"/>
+      <c r="X21" s="77"/>
     </row>
     <row r="22" spans="1:24" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="57"/>
-      <c r="B22" s="58"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="88"/>
-      <c r="E22" s="69"/>
-      <c r="F22" s="64"/>
-      <c r="G22" s="126"/>
-      <c r="H22" s="127"/>
-      <c r="I22" s="80"/>
-      <c r="J22" s="17" t="str">
+      <c r="A22" s="197"/>
+      <c r="B22" s="198"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="139"/>
+      <c r="E22" s="140"/>
+      <c r="F22" s="176"/>
+      <c r="G22" s="79"/>
+      <c r="H22" s="80"/>
+      <c r="I22" s="81"/>
+      <c r="J22" s="14" t="str">
         <f>IF(G21&lt;&gt;"",DEGREES(ASIN(H21/I21*SIN(RADIANS(G21-J21)))),"")</f>
         <v/>
       </c>
-      <c r="K22" s="32"/>
-      <c r="L22" s="18"/>
-      <c r="M22" s="76"/>
-      <c r="N22" s="17" t="str">
+      <c r="K22" s="29"/>
+      <c r="L22" s="15"/>
+      <c r="M22" s="143"/>
+      <c r="N22" s="14" t="str">
         <f>IF(ISNUMBER(N21),N20-N21,"")</f>
         <v/>
       </c>
-      <c r="O22" s="19"/>
-      <c r="P22" s="19"/>
-      <c r="Q22" s="19"/>
-      <c r="R22" s="13" t="str">
+      <c r="O22" s="16"/>
+      <c r="P22" s="16"/>
+      <c r="Q22" s="16"/>
+      <c r="R22" s="11" t="str">
         <f>IF(AND(ISNUMBER(R20),ISNUMBER(R21)),R20-R21,"")</f>
         <v/>
       </c>
-      <c r="S22" s="93" t="s">
+      <c r="S22" s="74" t="s">
         <v>37</v>
       </c>
-      <c r="T22" s="94"/>
-      <c r="U22" s="94"/>
-      <c r="V22" s="94" t="s">
+      <c r="T22" s="75"/>
+      <c r="U22" s="75"/>
+      <c r="V22" s="75" t="s">
         <v>38</v>
       </c>
-      <c r="W22" s="94"/>
-      <c r="X22" s="114"/>
+      <c r="W22" s="75"/>
+      <c r="X22" s="78"/>
     </row>
     <row r="23" spans="1:24" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="48"/>
-      <c r="B23" s="49"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="88" t="str">
+      <c r="A23" s="195"/>
+      <c r="B23" s="196"/>
+      <c r="C23" s="44"/>
+      <c r="D23" s="139" t="str">
         <f>IF(J23&lt;&gt;"",MOD(J23+K24,360),"")</f>
         <v/>
       </c>
-      <c r="E23" s="69"/>
-      <c r="F23" s="73" t="str">
+      <c r="E23" s="140"/>
+      <c r="F23" s="201" t="str">
         <f t="shared" ref="F23" si="4">IF(ISNUMBER(E23),15-E23/1000*2,"")</f>
         <v/>
       </c>
-      <c r="G23" s="31"/>
-      <c r="H23" s="32"/>
-      <c r="I23" s="80"/>
-      <c r="J23" s="31"/>
-      <c r="K23" s="14" t="str">
+      <c r="G23" s="28"/>
+      <c r="H23" s="29"/>
+      <c r="I23" s="81"/>
+      <c r="J23" s="28"/>
+      <c r="K23" s="12" t="str">
         <f>IF(J23&lt;&gt;"",IF(ISNUMBER(J24),MOD(J23+J24,360),J23),"")</f>
         <v/>
       </c>
-      <c r="L23" s="13" t="str">
+      <c r="L23" s="11" t="str">
         <f>IF(K23&lt;&gt;"",MOD(K23+K24,360),"")</f>
         <v/>
       </c>
-      <c r="M23" s="76" t="str">
+      <c r="M23" s="143" t="str">
         <f>IF(L23&lt;&gt;"",MOD(L23+L24,360),"")</f>
         <v/>
       </c>
-      <c r="N23" s="31"/>
-      <c r="O23" s="14" t="str">
+      <c r="N23" s="28"/>
+      <c r="O23" s="12" t="str">
         <f>IF(ISNUMBER(I23),SQRT((H23^2) + (I23^2) - (2*H23*I23*COS(   ACOS(COS(RADIANS(J23-G23)))   ) ) ),"")</f>
         <v/>
       </c>
-      <c r="P23" s="14" t="str">
+      <c r="P23" s="12" t="str">
         <f>IF(ISNUMBER(O23),ROUND(N23/O23*60,0),"")</f>
         <v/>
       </c>
-      <c r="Q23" s="19"/>
-      <c r="R23" s="18" t="str">
+      <c r="Q23" s="16"/>
+      <c r="R23" s="15" t="str">
         <f>IF(ISNUMBER(P23),P23*$R$10/60,"")</f>
         <v/>
       </c>
-      <c r="S23" s="95"/>
-      <c r="T23" s="96"/>
-      <c r="U23" s="96"/>
-      <c r="V23" s="96"/>
-      <c r="W23" s="96"/>
-      <c r="X23" s="97"/>
+      <c r="S23" s="94"/>
+      <c r="T23" s="95"/>
+      <c r="U23" s="95"/>
+      <c r="V23" s="95"/>
+      <c r="W23" s="95"/>
+      <c r="X23" s="152"/>
     </row>
     <row r="24" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="57"/>
-      <c r="B24" s="58"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="88"/>
-      <c r="E24" s="69"/>
-      <c r="F24" s="64"/>
-      <c r="G24" s="126"/>
-      <c r="H24" s="127"/>
-      <c r="I24" s="80"/>
-      <c r="J24" s="17" t="str">
+      <c r="A24" s="197"/>
+      <c r="B24" s="198"/>
+      <c r="C24" s="60"/>
+      <c r="D24" s="139"/>
+      <c r="E24" s="140"/>
+      <c r="F24" s="176"/>
+      <c r="G24" s="79"/>
+      <c r="H24" s="80"/>
+      <c r="I24" s="81"/>
+      <c r="J24" s="14" t="str">
         <f>IF(G23&lt;&gt;"",DEGREES(ASIN(H23/I23*SIN(RADIANS(G23-J23)))),"")</f>
         <v/>
       </c>
-      <c r="K24" s="32"/>
-      <c r="L24" s="18"/>
-      <c r="M24" s="76"/>
-      <c r="N24" s="17" t="str">
+      <c r="K24" s="29"/>
+      <c r="L24" s="15"/>
+      <c r="M24" s="143"/>
+      <c r="N24" s="14" t="str">
         <f>IF(ISNUMBER(N23),N22-N23,"")</f>
         <v/>
       </c>
-      <c r="O24" s="19"/>
-      <c r="P24" s="19"/>
-      <c r="Q24" s="19"/>
-      <c r="R24" s="13" t="str">
+      <c r="O24" s="16"/>
+      <c r="P24" s="16"/>
+      <c r="Q24" s="16"/>
+      <c r="R24" s="11" t="str">
         <f>IF(AND(ISNUMBER(R22),ISNUMBER(R23)),R22-R23,"")</f>
         <v/>
       </c>
       <c r="S24" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="T24" s="101"/>
-      <c r="U24" s="101"/>
+      <c r="T24" s="71"/>
+      <c r="U24" s="71"/>
       <c r="V24" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="W24" s="101"/>
-      <c r="X24" s="111"/>
+      <c r="W24" s="71"/>
+      <c r="X24" s="154"/>
     </row>
     <row r="25" spans="1:24" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="48"/>
-      <c r="B25" s="49"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="88" t="str">
+      <c r="A25" s="195"/>
+      <c r="B25" s="196"/>
+      <c r="C25" s="61"/>
+      <c r="D25" s="139" t="str">
         <f>IF(J25&lt;&gt;"",MOD(J25+K26,360),"")</f>
         <v/>
       </c>
-      <c r="E25" s="69"/>
-      <c r="F25" s="73" t="str">
+      <c r="E25" s="140"/>
+      <c r="F25" s="201" t="str">
         <f t="shared" ref="F25" si="5">IF(ISNUMBER(E25),15-E25/1000*2,"")</f>
         <v/>
       </c>
-      <c r="G25" s="31"/>
-      <c r="H25" s="32"/>
-      <c r="I25" s="80"/>
-      <c r="J25" s="31"/>
-      <c r="K25" s="14" t="str">
+      <c r="G25" s="28"/>
+      <c r="H25" s="29"/>
+      <c r="I25" s="81"/>
+      <c r="J25" s="28"/>
+      <c r="K25" s="12" t="str">
         <f>IF(J25&lt;&gt;"",IF(ISNUMBER(J26),MOD(J25+J26,360),J25),"")</f>
         <v/>
       </c>
-      <c r="L25" s="13" t="str">
+      <c r="L25" s="11" t="str">
         <f>IF(K25&lt;&gt;"",MOD(K25+K26,360),"")</f>
         <v/>
       </c>
-      <c r="M25" s="76" t="str">
+      <c r="M25" s="143" t="str">
         <f>IF(L25&lt;&gt;"",MOD(L25+L26,360),"")</f>
         <v/>
       </c>
-      <c r="N25" s="31"/>
-      <c r="O25" s="14" t="str">
+      <c r="N25" s="28"/>
+      <c r="O25" s="12" t="str">
         <f>IF(ISNUMBER(I25),SQRT((H25^2) + (I25^2) - (2*H25*I25*COS(   ACOS(COS(RADIANS(J25-G25)))   ) ) ),"")</f>
         <v/>
       </c>
-      <c r="P25" s="14" t="str">
+      <c r="P25" s="12" t="str">
         <f>IF(ISNUMBER(O25),ROUND(N25/O25*60,0),"")</f>
         <v/>
       </c>
-      <c r="Q25" s="19"/>
-      <c r="R25" s="18" t="str">
+      <c r="Q25" s="16"/>
+      <c r="R25" s="15" t="str">
         <f>IF(ISNUMBER(P25),P25*$R$10/60,"")</f>
         <v/>
       </c>
       <c r="S25" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="T25" s="101"/>
-      <c r="U25" s="101"/>
+      <c r="T25" s="71"/>
+      <c r="U25" s="71"/>
       <c r="V25" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="W25" s="112"/>
-      <c r="X25" s="113"/>
+      <c r="W25" s="71"/>
+      <c r="X25" s="154"/>
     </row>
     <row r="26" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="57"/>
-      <c r="B26" s="58"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="88"/>
-      <c r="E26" s="69"/>
-      <c r="F26" s="64"/>
-      <c r="G26" s="126"/>
-      <c r="H26" s="127"/>
-      <c r="I26" s="80"/>
-      <c r="J26" s="17" t="str">
+      <c r="A26" s="197"/>
+      <c r="B26" s="198"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="139"/>
+      <c r="E26" s="140"/>
+      <c r="F26" s="176"/>
+      <c r="G26" s="79"/>
+      <c r="H26" s="80"/>
+      <c r="I26" s="81"/>
+      <c r="J26" s="14" t="str">
         <f>IF(G25&lt;&gt;"",DEGREES(ASIN(H25/I25*SIN(RADIANS(G25-J25)))),"")</f>
         <v/>
       </c>
-      <c r="K26" s="32"/>
-      <c r="L26" s="18"/>
-      <c r="M26" s="76"/>
-      <c r="N26" s="17" t="str">
+      <c r="K26" s="29"/>
+      <c r="L26" s="15"/>
+      <c r="M26" s="143"/>
+      <c r="N26" s="14" t="str">
         <f>IF(ISNUMBER(N25),N24-N25,"")</f>
         <v/>
       </c>
-      <c r="O26" s="19"/>
-      <c r="P26" s="19"/>
-      <c r="Q26" s="19"/>
-      <c r="R26" s="13" t="str">
+      <c r="O26" s="16"/>
+      <c r="P26" s="16"/>
+      <c r="Q26" s="16"/>
+      <c r="R26" s="11" t="str">
         <f>IF(AND(ISNUMBER(R24),ISNUMBER(R25)),R24-R25,"")</f>
         <v/>
       </c>
       <c r="S26" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="T26" s="101"/>
-      <c r="U26" s="101"/>
+      <c r="T26" s="71"/>
+      <c r="U26" s="71"/>
       <c r="V26" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="W26" s="101"/>
-      <c r="X26" s="111"/>
+      <c r="W26" s="71"/>
+      <c r="X26" s="154"/>
     </row>
     <row r="27" spans="1:24" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="48"/>
-      <c r="B27" s="49"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="88" t="str">
+      <c r="A27" s="195"/>
+      <c r="B27" s="196"/>
+      <c r="C27" s="44"/>
+      <c r="D27" s="139" t="str">
         <f>IF(J27&lt;&gt;"",MOD(J27+K28,360),"")</f>
         <v/>
       </c>
-      <c r="E27" s="69"/>
-      <c r="F27" s="73" t="str">
+      <c r="E27" s="140"/>
+      <c r="F27" s="201" t="str">
         <f t="shared" ref="F27" si="6">IF(ISNUMBER(E27),15-E27/1000*2,"")</f>
         <v/>
       </c>
-      <c r="G27" s="31"/>
-      <c r="H27" s="32"/>
-      <c r="I27" s="80"/>
-      <c r="J27" s="31"/>
-      <c r="K27" s="14" t="str">
+      <c r="G27" s="28"/>
+      <c r="H27" s="29"/>
+      <c r="I27" s="81"/>
+      <c r="J27" s="28"/>
+      <c r="K27" s="12" t="str">
         <f>IF(J27&lt;&gt;"",IF(ISNUMBER(J28),MOD(J27+J28,360),J27),"")</f>
         <v/>
       </c>
-      <c r="L27" s="13" t="str">
+      <c r="L27" s="11" t="str">
         <f>IF(K27&lt;&gt;"",MOD(K27+K28,360),"")</f>
         <v/>
       </c>
-      <c r="M27" s="76" t="str">
+      <c r="M27" s="143" t="str">
         <f>IF(L27&lt;&gt;"",MOD(L27+L28,360),"")</f>
         <v/>
       </c>
-      <c r="N27" s="31"/>
-      <c r="O27" s="14" t="str">
+      <c r="N27" s="28"/>
+      <c r="O27" s="12" t="str">
         <f>IF(ISNUMBER(I27),SQRT((H27^2) + (I27^2) - (2*H27*I27*COS(   ACOS(COS(RADIANS(J27-G27)))   ) ) ),"")</f>
         <v/>
       </c>
-      <c r="P27" s="14" t="str">
+      <c r="P27" s="12" t="str">
         <f>IF(ISNUMBER(O27),ROUND(N27/O27*60,0),"")</f>
         <v/>
       </c>
-      <c r="Q27" s="19"/>
-      <c r="R27" s="18" t="str">
+      <c r="Q27" s="16"/>
+      <c r="R27" s="15" t="str">
         <f>IF(ISNUMBER(P27),P27*$R$10/60,"")</f>
         <v/>
       </c>
       <c r="S27" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="T27" s="101"/>
-      <c r="U27" s="101"/>
+      <c r="T27" s="71"/>
+      <c r="U27" s="71"/>
       <c r="V27" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="W27" s="101"/>
-      <c r="X27" s="111"/>
+      <c r="W27" s="71"/>
+      <c r="X27" s="154"/>
     </row>
     <row r="28" spans="1:24" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="57"/>
-      <c r="B28" s="58"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="88"/>
-      <c r="E28" s="69"/>
-      <c r="F28" s="64"/>
-      <c r="G28" s="126"/>
-      <c r="H28" s="127"/>
-      <c r="I28" s="80"/>
-      <c r="J28" s="17" t="str">
+      <c r="A28" s="197"/>
+      <c r="B28" s="198"/>
+      <c r="C28" s="60"/>
+      <c r="D28" s="139"/>
+      <c r="E28" s="140"/>
+      <c r="F28" s="176"/>
+      <c r="G28" s="79"/>
+      <c r="H28" s="80"/>
+      <c r="I28" s="81"/>
+      <c r="J28" s="14" t="str">
         <f>IF(G27&lt;&gt;"",DEGREES(ASIN(H27/I27*SIN(RADIANS(G27-J27)))),"")</f>
         <v/>
       </c>
-      <c r="K28" s="32"/>
-      <c r="L28" s="18"/>
-      <c r="M28" s="76"/>
-      <c r="N28" s="17" t="str">
+      <c r="K28" s="29"/>
+      <c r="L28" s="15"/>
+      <c r="M28" s="143"/>
+      <c r="N28" s="14" t="str">
         <f>IF(ISNUMBER(N27),N26-N27,"")</f>
         <v/>
       </c>
-      <c r="O28" s="19"/>
-      <c r="P28" s="19"/>
-      <c r="Q28" s="19"/>
-      <c r="R28" s="13" t="str">
+      <c r="O28" s="16"/>
+      <c r="P28" s="16"/>
+      <c r="Q28" s="16"/>
+      <c r="R28" s="11" t="str">
         <f>IF(AND(ISNUMBER(R26),ISNUMBER(R27)),R26-R27,"")</f>
         <v/>
       </c>
       <c r="S28" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="T28" s="101"/>
-      <c r="U28" s="101"/>
+      <c r="T28" s="71"/>
+      <c r="U28" s="71"/>
       <c r="V28" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="W28" s="101"/>
-      <c r="X28" s="111"/>
+      <c r="W28" s="71"/>
+      <c r="X28" s="154"/>
     </row>
     <row r="29" spans="1:24" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="48"/>
-      <c r="B29" s="49"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="88" t="str">
+      <c r="A29" s="195"/>
+      <c r="B29" s="196"/>
+      <c r="C29" s="61"/>
+      <c r="D29" s="139" t="str">
         <f>IF(J29&lt;&gt;"",MOD(J29+K30,360),"")</f>
         <v/>
       </c>
-      <c r="E29" s="69"/>
-      <c r="F29" s="73" t="str">
+      <c r="E29" s="140"/>
+      <c r="F29" s="201" t="str">
         <f>IF(ISNUMBER(E29),15-E29/1000*2,"")</f>
         <v/>
       </c>
-      <c r="G29" s="31"/>
-      <c r="H29" s="32"/>
-      <c r="I29" s="80"/>
-      <c r="J29" s="31"/>
-      <c r="K29" s="14" t="str">
+      <c r="G29" s="28"/>
+      <c r="H29" s="29"/>
+      <c r="I29" s="81"/>
+      <c r="J29" s="28"/>
+      <c r="K29" s="12" t="str">
         <f>IF(J29&lt;&gt;"",IF(ISNUMBER(J30),MOD(J29+J30,360),J29),"")</f>
         <v/>
       </c>
-      <c r="L29" s="13" t="str">
+      <c r="L29" s="11" t="str">
         <f>IF(K29&lt;&gt;"",MOD(K29+K30,360),"")</f>
         <v/>
       </c>
-      <c r="M29" s="76" t="str">
+      <c r="M29" s="143" t="str">
         <f>IF(L29&lt;&gt;"",MOD(L29+L30,360),"")</f>
         <v/>
       </c>
-      <c r="N29" s="31"/>
-      <c r="O29" s="14" t="str">
+      <c r="N29" s="28"/>
+      <c r="O29" s="12" t="str">
         <f>IF(ISNUMBER(I29),SQRT((H29^2) + (I29^2) - (2*H29*I29*COS(   ACOS(COS(RADIANS(J29-G29)))   ) ) ),"")</f>
         <v/>
       </c>
-      <c r="P29" s="14" t="str">
+      <c r="P29" s="12" t="str">
         <f>IF(ISNUMBER(O29),ROUND(N29/O29*60,0),"")</f>
         <v/>
       </c>
-      <c r="Q29" s="19"/>
-      <c r="R29" s="18" t="str">
+      <c r="Q29" s="16"/>
+      <c r="R29" s="15" t="str">
         <f>IF(ISNUMBER(P29),P29*$R$10/60,"")</f>
         <v/>
       </c>
       <c r="S29" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="T29" s="101"/>
-      <c r="U29" s="101"/>
+      <c r="T29" s="71"/>
+      <c r="U29" s="71"/>
       <c r="V29" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="W29" s="101"/>
-      <c r="X29" s="111"/>
+      <c r="W29" s="71"/>
+      <c r="X29" s="154"/>
     </row>
     <row r="30" spans="1:24" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="57"/>
-      <c r="B30" s="58"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="88"/>
-      <c r="E30" s="69"/>
-      <c r="F30" s="64"/>
-      <c r="G30" s="126"/>
-      <c r="H30" s="127"/>
-      <c r="I30" s="80"/>
-      <c r="J30" s="17" t="str">
+      <c r="A30" s="197" t="s">
+        <v>90</v>
+      </c>
+      <c r="B30" s="198"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="139"/>
+      <c r="E30" s="140"/>
+      <c r="F30" s="176"/>
+      <c r="G30" s="79"/>
+      <c r="H30" s="80"/>
+      <c r="I30" s="81"/>
+      <c r="J30" s="14" t="str">
         <f>IF(G29&lt;&gt;"",DEGREES(ASIN(H29/I29*SIN(RADIANS(G29-J29)))),"")</f>
         <v/>
       </c>
-      <c r="K30" s="32"/>
-      <c r="L30" s="18"/>
-      <c r="M30" s="76"/>
-      <c r="N30" s="17" t="str">
+      <c r="K30" s="29"/>
+      <c r="L30" s="15"/>
+      <c r="M30" s="143"/>
+      <c r="N30" s="14" t="str">
         <f>IF(ISNUMBER(N29),N28-N29,"")</f>
         <v/>
       </c>
-      <c r="O30" s="19"/>
-      <c r="P30" s="19"/>
-      <c r="Q30" s="19"/>
-      <c r="R30" s="13" t="str">
+      <c r="O30" s="16"/>
+      <c r="P30" s="16"/>
+      <c r="Q30" s="16"/>
+      <c r="R30" s="11" t="str">
         <f>IF(AND(ISNUMBER(R28),ISNUMBER(R29)),R28-R29,"")</f>
         <v/>
       </c>
       <c r="S30" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="T30" s="101"/>
-      <c r="U30" s="101"/>
+      <c r="T30" s="71"/>
+      <c r="U30" s="71"/>
       <c r="V30" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="W30" s="101"/>
-      <c r="X30" s="111"/>
+      <c r="W30" s="71"/>
+      <c r="X30" s="154"/>
     </row>
     <row r="31" spans="1:24" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="48"/>
-      <c r="B31" s="49"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="88" t="str">
+      <c r="A31" s="195"/>
+      <c r="B31" s="196"/>
+      <c r="C31" s="44"/>
+      <c r="D31" s="139" t="str">
         <f>IF(J31&lt;&gt;"",MOD(J31+K32,360),"")</f>
         <v/>
       </c>
-      <c r="E31" s="69"/>
-      <c r="F31" s="64"/>
-      <c r="G31" s="31"/>
-      <c r="H31" s="32"/>
+      <c r="E31" s="140"/>
+      <c r="F31" s="176"/>
+      <c r="G31" s="28"/>
+      <c r="H31" s="29"/>
       <c r="I31" s="81"/>
-      <c r="J31" s="31"/>
-      <c r="K31" s="14" t="str">
+      <c r="J31" s="28"/>
+      <c r="K31" s="12" t="str">
         <f>IF(J31&lt;&gt;"",IF(ISNUMBER(J32),MOD(J31+J32,360),J31),"")</f>
         <v/>
       </c>
-      <c r="L31" s="13" t="str">
+      <c r="L31" s="11" t="str">
         <f>IF(K31&lt;&gt;"",MOD(K31+K32,360),"")</f>
         <v/>
       </c>
-      <c r="M31" s="76" t="str">
+      <c r="M31" s="143" t="str">
         <f>IF(L31&lt;&gt;"",MOD(L31+L32,360),"")</f>
         <v/>
       </c>
-      <c r="N31" s="31"/>
-      <c r="O31" s="14" t="str">
+      <c r="N31" s="14" t="str">
+        <f>IF(AND(ISNUMBER(O31),ISNUMBER(P31)),ROUND(P31*O31/60,0),"")</f>
+        <v/>
+      </c>
+      <c r="O31" s="12" t="str">
         <f>IF(ISNUMBER(I31),SQRT((H31^2) + (I31^2) - (2*H31*I31*COS(   ACOS(COS(RADIANS(J31-G31)))   ) ) ),"")</f>
         <v/>
       </c>
-      <c r="P31" s="14" t="str">
-        <f>IF(ISNUMBER(O31),ROUND(N31/O31*60,0),"")</f>
-        <v/>
-      </c>
-      <c r="Q31" s="19"/>
-      <c r="R31" s="18" t="str">
+      <c r="P31" s="43"/>
+      <c r="Q31" s="16"/>
+      <c r="R31" s="15" t="str">
         <f>IF(ISNUMBER(P31),P31*$R$10/60,"")</f>
         <v/>
       </c>
       <c r="S31" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="T31" s="107"/>
-      <c r="U31" s="107"/>
+      <c r="T31" s="92"/>
+      <c r="U31" s="92"/>
       <c r="V31" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="W31" s="107"/>
-      <c r="X31" s="108"/>
+      <c r="W31" s="92"/>
+      <c r="X31" s="93"/>
     </row>
     <row r="32" spans="1:24" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="57"/>
-      <c r="B32" s="58"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="105"/>
-      <c r="E32" s="72"/>
-      <c r="F32" s="65"/>
-      <c r="G32" s="74"/>
-      <c r="H32" s="75"/>
-      <c r="I32" s="82"/>
-      <c r="J32" s="45"/>
-      <c r="K32" s="34"/>
-      <c r="L32" s="26"/>
-      <c r="M32" s="77"/>
-      <c r="N32" s="45" t="str">
-        <f>IF(ISNUMBER(N31),N30-N31,"")</f>
-        <v/>
-      </c>
-      <c r="O32" s="35"/>
-      <c r="P32" s="35"/>
-      <c r="Q32" s="35"/>
-      <c r="R32" s="47" t="str">
+      <c r="A32" s="197" t="s">
+        <v>38</v>
+      </c>
+      <c r="B32" s="198"/>
+      <c r="C32" s="60"/>
+      <c r="D32" s="166"/>
+      <c r="E32" s="167"/>
+      <c r="F32" s="177"/>
+      <c r="G32" s="202"/>
+      <c r="H32" s="109"/>
+      <c r="I32" s="110"/>
+      <c r="J32" s="14" t="str">
+        <f>IF(G31&lt;&gt;"",DEGREES(ASIN(H31/I31*SIN(RADIANS(G31-J31)))),"")</f>
+        <v/>
+      </c>
+      <c r="K32" s="31"/>
+      <c r="L32" s="23"/>
+      <c r="M32" s="169"/>
+      <c r="N32" s="41" t="str">
+        <f>IF(ISNUMBER(N31),N12-SUM(N13,N15,N17,N19,N21,N23,N25,N27,N29,N31),"")</f>
+        <v/>
+      </c>
+      <c r="O32" s="32"/>
+      <c r="P32" s="32"/>
+      <c r="Q32" s="32"/>
+      <c r="R32" s="42" t="str">
         <f>IF(AND(ISNUMBER(R30),ISNUMBER(R31)),R30-R31,"")</f>
         <v/>
       </c>
-      <c r="S32" s="83" t="s">
+      <c r="S32" s="157" t="s">
         <v>64</v>
       </c>
-      <c r="T32" s="84"/>
-      <c r="U32" s="104"/>
-      <c r="V32" s="104"/>
-      <c r="W32" s="104" t="s">
+      <c r="T32" s="158"/>
+      <c r="U32" s="69"/>
+      <c r="V32" s="69"/>
+      <c r="W32" s="69" t="s">
         <v>45</v>
       </c>
-      <c r="X32" s="143"/>
+      <c r="X32" s="70"/>
     </row>
     <row r="33" spans="1:24" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="59"/>
-      <c r="B33" s="60"/>
-      <c r="C33" s="162"/>
-      <c r="D33" s="163" t="s">
+      <c r="A33" s="199"/>
+      <c r="B33" s="200"/>
+      <c r="C33" s="53"/>
+      <c r="D33" s="161" t="s">
         <v>68</v>
       </c>
-      <c r="E33" s="164"/>
-      <c r="F33" s="164"/>
-      <c r="G33" s="164"/>
-      <c r="H33" s="164"/>
-      <c r="I33" s="164"/>
-      <c r="J33" s="164"/>
-      <c r="K33" s="164"/>
-      <c r="L33" s="164"/>
-      <c r="M33" s="165"/>
-      <c r="N33" s="38">
+      <c r="E33" s="162"/>
+      <c r="F33" s="162"/>
+      <c r="G33" s="162"/>
+      <c r="H33" s="162"/>
+      <c r="I33" s="162"/>
+      <c r="J33" s="162"/>
+      <c r="K33" s="162"/>
+      <c r="L33" s="162"/>
+      <c r="M33" s="163"/>
+      <c r="N33" s="54">
         <f>SUM(N13,N15,N17,N19,N21,N23,N25,N27,N29,N31)</f>
         <v>0</v>
       </c>
-      <c r="O33" s="46"/>
-      <c r="P33" s="46">
+      <c r="O33" s="49"/>
+      <c r="P33" s="49">
         <f>SUM(P13,P15,P17,P19,P21,P23,P25,P27,P29,P31)</f>
         <v>0</v>
       </c>
-      <c r="Q33" s="46"/>
-      <c r="R33" s="38">
+      <c r="Q33" s="49"/>
+      <c r="R33" s="54">
         <f>SUM(R13,R15,R17,R19,R21,R23,R25,R27,R29,R31)+$M$34</f>
         <v>0</v>
       </c>
-      <c r="S33" s="85" t="s">
+      <c r="S33" s="159" t="s">
         <v>65</v>
       </c>
-      <c r="T33" s="86"/>
-      <c r="U33" s="102"/>
-      <c r="V33" s="102"/>
-      <c r="W33" s="102"/>
-      <c r="X33" s="103"/>
+      <c r="T33" s="160"/>
+      <c r="U33" s="156"/>
+      <c r="V33" s="156"/>
+      <c r="W33" s="156"/>
+      <c r="X33" s="165"/>
     </row>
-    <row r="34" spans="1:24" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="7" t="s">
+    <row r="34" spans="1:24" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="50" t="s">
         <v>57</v>
       </c>
-      <c r="B34" s="7"/>
-      <c r="C34" s="7" t="s">
+      <c r="B34" s="55"/>
+      <c r="C34" s="56" t="s">
         <v>60</v>
       </c>
-      <c r="D34" s="16"/>
-      <c r="E34" s="7" t="s">
+      <c r="D34" s="68"/>
+      <c r="E34" s="184" t="s">
         <v>59</v>
       </c>
-      <c r="F34" s="7"/>
-      <c r="G34" s="16"/>
-      <c r="H34" s="7" t="s">
+      <c r="F34" s="184"/>
+      <c r="G34" s="51"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="58" t="s">
         <v>58</v>
       </c>
-      <c r="I34" s="7"/>
-      <c r="J34" s="16"/>
-      <c r="K34" s="7" t="s">
+      <c r="J34" s="57"/>
+      <c r="K34" s="192" t="s">
         <v>61</v>
       </c>
-      <c r="L34" s="7"/>
-      <c r="M34" s="16"/>
-      <c r="N34" s="7"/>
-      <c r="O34" s="7"/>
-      <c r="P34" s="7" t="s">
+      <c r="L34" s="184"/>
+      <c r="M34" s="57"/>
+      <c r="N34" s="1"/>
+      <c r="O34" s="1"/>
+      <c r="P34" s="59" t="s">
         <v>62</v>
       </c>
-      <c r="Q34" s="7"/>
-      <c r="R34" s="16"/>
-      <c r="S34" s="7"/>
-      <c r="T34" s="7"/>
-      <c r="U34" s="7" t="s">
+      <c r="Q34" s="1"/>
+      <c r="R34" s="57"/>
+      <c r="S34" s="1"/>
+      <c r="T34" s="1"/>
+      <c r="U34" s="59" t="s">
         <v>63</v>
       </c>
-      <c r="V34" s="7"/>
-      <c r="W34" s="7"/>
-      <c r="X34" s="7"/>
+      <c r="V34" s="1"/>
+      <c r="W34" s="1"/>
+      <c r="X34" s="52"/>
     </row>
     <row r="35" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
+        <v>76</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C35" t="s">
         <v>77</v>
       </c>
-      <c r="B35" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="C35" t="s">
+      <c r="E35" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="E35" s="11" t="s">
+      <c r="F35" s="9"/>
+      <c r="G35" t="s">
+        <v>81</v>
+      </c>
+      <c r="L35" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="F35" s="11"/>
-      <c r="G35" t="s">
-        <v>82</v>
-      </c>
-      <c r="L35" s="12" t="s">
+      <c r="M35" t="s">
         <v>80</v>
-      </c>
-      <c r="M35" t="s">
-        <v>81</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="189">
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="K10:K12"/>
-    <mergeCell ref="L10:L12"/>
+  <mergeCells count="179">
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="A12:B13"/>
+    <mergeCell ref="A14:B15"/>
+    <mergeCell ref="A16:B17"/>
+    <mergeCell ref="A18:B19"/>
+    <mergeCell ref="A20:B21"/>
+    <mergeCell ref="A22:B23"/>
+    <mergeCell ref="A24:B25"/>
+    <mergeCell ref="A26:B27"/>
+    <mergeCell ref="A28:B29"/>
+    <mergeCell ref="A30:B31"/>
+    <mergeCell ref="A32:B33"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="G24:H24"/>
     <mergeCell ref="G11:H12"/>
-    <mergeCell ref="W32:X32"/>
-    <mergeCell ref="T25:U25"/>
-    <mergeCell ref="T26:U26"/>
-    <mergeCell ref="T27:U27"/>
-    <mergeCell ref="T28:U28"/>
-    <mergeCell ref="S9:T10"/>
-    <mergeCell ref="U9:V10"/>
-    <mergeCell ref="W9:X10"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="S18:X18"/>
-    <mergeCell ref="S19:X19"/>
-    <mergeCell ref="S20:X20"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="M9:M12"/>
-    <mergeCell ref="O11:O12"/>
-    <mergeCell ref="U13:V13"/>
-    <mergeCell ref="U14:V14"/>
-    <mergeCell ref="U17:V17"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="A9:B11"/>
-    <mergeCell ref="D9:D12"/>
-    <mergeCell ref="E9:E12"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="J10:J12"/>
-    <mergeCell ref="G8:J8"/>
-    <mergeCell ref="F9:F12"/>
-    <mergeCell ref="O2:X8"/>
-    <mergeCell ref="G3:J3"/>
-    <mergeCell ref="G4:J4"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="G5:J5"/>
-    <mergeCell ref="G6:J6"/>
-    <mergeCell ref="G7:J7"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="S1:X1"/>
-    <mergeCell ref="H1:Q1"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="U16:V16"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="M13:M14"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="K3:N3"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="W31:X31"/>
-    <mergeCell ref="S11:T11"/>
-    <mergeCell ref="S12:T12"/>
-    <mergeCell ref="S13:T13"/>
-    <mergeCell ref="S14:T14"/>
-    <mergeCell ref="S15:T15"/>
-    <mergeCell ref="S16:T16"/>
-    <mergeCell ref="S17:T17"/>
-    <mergeCell ref="W11:X11"/>
-    <mergeCell ref="W12:X12"/>
-    <mergeCell ref="T29:U29"/>
-    <mergeCell ref="T30:U30"/>
-    <mergeCell ref="T31:U31"/>
-    <mergeCell ref="W24:X24"/>
-    <mergeCell ref="W25:X25"/>
-    <mergeCell ref="W26:X26"/>
-    <mergeCell ref="W27:X27"/>
-    <mergeCell ref="W28:X28"/>
-    <mergeCell ref="W29:X29"/>
-    <mergeCell ref="W30:X30"/>
-    <mergeCell ref="V22:X22"/>
-    <mergeCell ref="U11:V11"/>
-    <mergeCell ref="U12:V12"/>
-    <mergeCell ref="U15:V15"/>
+    <mergeCell ref="M31:M32"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="I25:I26"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="I29:I30"/>
+    <mergeCell ref="I31:I32"/>
+    <mergeCell ref="M15:M16"/>
+    <mergeCell ref="M17:M18"/>
+    <mergeCell ref="M19:M20"/>
+    <mergeCell ref="M21:M22"/>
+    <mergeCell ref="M23:M24"/>
+    <mergeCell ref="M25:M26"/>
+    <mergeCell ref="M27:M28"/>
+    <mergeCell ref="M29:M30"/>
     <mergeCell ref="S32:T32"/>
     <mergeCell ref="S33:T33"/>
     <mergeCell ref="D33:M33"/>
@@ -3742,72 +3843,105 @@
     <mergeCell ref="D31:D32"/>
     <mergeCell ref="E31:E32"/>
     <mergeCell ref="E13:E14"/>
-    <mergeCell ref="M31:M32"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="I25:I26"/>
-    <mergeCell ref="I27:I28"/>
-    <mergeCell ref="I29:I30"/>
-    <mergeCell ref="I31:I32"/>
-    <mergeCell ref="M15:M16"/>
-    <mergeCell ref="M17:M18"/>
-    <mergeCell ref="M19:M20"/>
-    <mergeCell ref="M21:M22"/>
-    <mergeCell ref="M23:M24"/>
-    <mergeCell ref="M25:M26"/>
-    <mergeCell ref="M27:M28"/>
-    <mergeCell ref="M29:M30"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="S14:T14"/>
+    <mergeCell ref="S15:T15"/>
+    <mergeCell ref="S16:T16"/>
+    <mergeCell ref="S17:T17"/>
+    <mergeCell ref="W11:X11"/>
+    <mergeCell ref="W12:X12"/>
+    <mergeCell ref="T29:U29"/>
+    <mergeCell ref="T30:U30"/>
+    <mergeCell ref="T31:U31"/>
+    <mergeCell ref="W24:X24"/>
+    <mergeCell ref="W25:X25"/>
+    <mergeCell ref="W26:X26"/>
+    <mergeCell ref="W27:X27"/>
+    <mergeCell ref="W28:X28"/>
+    <mergeCell ref="W29:X29"/>
+    <mergeCell ref="W30:X30"/>
+    <mergeCell ref="V22:X22"/>
+    <mergeCell ref="U11:V11"/>
+    <mergeCell ref="U12:V12"/>
+    <mergeCell ref="U15:V15"/>
+    <mergeCell ref="U16:V16"/>
+    <mergeCell ref="U13:V13"/>
+    <mergeCell ref="U14:V14"/>
+    <mergeCell ref="U17:V17"/>
+    <mergeCell ref="H1:Q1"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="M13:M14"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="K3:N3"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="M9:M12"/>
+    <mergeCell ref="O11:O12"/>
+    <mergeCell ref="A9:B11"/>
+    <mergeCell ref="D9:D12"/>
+    <mergeCell ref="E9:E12"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="J10:J12"/>
+    <mergeCell ref="G8:J8"/>
+    <mergeCell ref="F9:F12"/>
+    <mergeCell ref="O2:X8"/>
+    <mergeCell ref="G3:J3"/>
+    <mergeCell ref="G4:J4"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="G5:J5"/>
+    <mergeCell ref="G6:J6"/>
+    <mergeCell ref="G7:J7"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="K10:K12"/>
+    <mergeCell ref="L10:L12"/>
+    <mergeCell ref="W32:X32"/>
+    <mergeCell ref="T25:U25"/>
+    <mergeCell ref="T26:U26"/>
+    <mergeCell ref="T27:U27"/>
+    <mergeCell ref="T28:U28"/>
+    <mergeCell ref="S9:T10"/>
+    <mergeCell ref="U9:V10"/>
+    <mergeCell ref="W9:X10"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="S18:X18"/>
+    <mergeCell ref="S19:X19"/>
+    <mergeCell ref="S20:X20"/>
+    <mergeCell ref="W31:X31"/>
+    <mergeCell ref="S11:T11"/>
+    <mergeCell ref="S12:T12"/>
+    <mergeCell ref="S13:T13"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="S1" r:id="rId1" xr:uid="{4CB369A6-77F4-405A-899E-4A055FEAF5A6}"/>
+    <hyperlink ref="R1" r:id="rId1" xr:uid="{A3AF2B82-9261-4E31-AF70-31D3D7157CB2}"/>
   </hyperlinks>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="78" orientation="landscape" r:id="rId2"/>
@@ -3831,7 +3965,7 @@
                     <xdr:col>23</xdr:col>
                     <xdr:colOff>381000</xdr:colOff>
                     <xdr:row>34</xdr:row>
-                    <xdr:rowOff>38100</xdr:rowOff>
+                    <xdr:rowOff>28575</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>

--- a/vaayuyaana/jagiNavLog.xlsx
+++ b/vaayuyaana/jagiNavLog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\hanchu\code\github.com\jkanasu\utilities\vaayuyaana\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8F5A7AF-6D42-4954-9E8C-623D44FF5F12}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{778DC308-82AC-4B0E-A337-F2B3219C6E3D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E3DE2A8C-E23C-4F63-95E8-9AD5B4E402C0}"/>
   </bookViews>
@@ -492,19 +492,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B0F0"/>
+        <fgColor theme="8" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1292,7 +1292,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="203">
+  <cellXfs count="201">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1315,30 +1315,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1354,12 +1330,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1369,34 +1339,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1405,493 +1351,541 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1901,6 +1895,12 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFFFCC"/>
+      <color rgb="FFFFFF99"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -2291,7 +2291,7 @@
   <dimension ref="A1:X35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="AB8" sqref="AB8"/>
+      <selection activeCell="Z13" sqref="Z13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2310,1448 +2310,1448 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="182" t="s">
+      <c r="A1" s="49" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="183"/>
-      <c r="C1" s="184" t="s">
+      <c r="B1" s="50"/>
+      <c r="C1" s="39" t="s">
         <v>87</v>
       </c>
-      <c r="D1" s="184"/>
-      <c r="E1" s="188"/>
-      <c r="F1" s="188"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
       <c r="G1" s="1"/>
-      <c r="H1" s="138" t="s">
+      <c r="H1" s="85" t="s">
         <v>56</v>
       </c>
-      <c r="I1" s="138"/>
-      <c r="J1" s="138"/>
-      <c r="K1" s="138"/>
-      <c r="L1" s="138"/>
-      <c r="M1" s="138"/>
-      <c r="N1" s="138"/>
-      <c r="O1" s="138"/>
-      <c r="P1" s="138"/>
-      <c r="Q1" s="138"/>
-      <c r="R1" s="63" t="s">
+      <c r="I1" s="85"/>
+      <c r="J1" s="85"/>
+      <c r="K1" s="85"/>
+      <c r="L1" s="85"/>
+      <c r="M1" s="85"/>
+      <c r="N1" s="85"/>
+      <c r="O1" s="85"/>
+      <c r="P1" s="85"/>
+      <c r="Q1" s="85"/>
+      <c r="R1" s="35" t="s">
         <v>88</v>
       </c>
-      <c r="S1" s="64"/>
-      <c r="T1" s="65"/>
-      <c r="U1" s="65"/>
-      <c r="V1" s="65"/>
-      <c r="W1" s="65"/>
-      <c r="X1" s="66"/>
+      <c r="S1" s="36"/>
+      <c r="T1" s="37"/>
+      <c r="U1" s="37"/>
+      <c r="V1" s="37"/>
+      <c r="W1" s="37"/>
+      <c r="X1" s="38"/>
     </row>
     <row r="2" spans="1:24" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="B2" s="46"/>
-      <c r="C2" s="62" t="s">
+      <c r="B2" s="130"/>
+      <c r="C2" s="34" t="s">
         <v>70</v>
       </c>
-      <c r="D2" s="48"/>
-      <c r="E2" s="62" t="s">
+      <c r="D2" s="130"/>
+      <c r="E2" s="34" t="s">
         <v>71</v>
       </c>
-      <c r="F2" s="125"/>
-      <c r="G2" s="189"/>
-      <c r="H2" s="62" t="s">
+      <c r="F2" s="131"/>
+      <c r="G2" s="132"/>
+      <c r="H2" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="I2" s="123"/>
-      <c r="J2" s="124"/>
-      <c r="K2" s="49" t="s">
+      <c r="I2" s="133"/>
+      <c r="J2" s="134"/>
+      <c r="K2" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="L2" s="47"/>
-      <c r="M2" s="125"/>
-      <c r="N2" s="125"/>
-      <c r="O2" s="114"/>
-      <c r="P2" s="115"/>
-      <c r="Q2" s="115"/>
-      <c r="R2" s="115"/>
-      <c r="S2" s="115"/>
-      <c r="T2" s="115"/>
-      <c r="U2" s="115"/>
-      <c r="V2" s="115"/>
-      <c r="W2" s="115"/>
-      <c r="X2" s="116"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="131"/>
+      <c r="N2" s="131"/>
+      <c r="O2" s="104"/>
+      <c r="P2" s="105"/>
+      <c r="Q2" s="105"/>
+      <c r="R2" s="105"/>
+      <c r="S2" s="105"/>
+      <c r="T2" s="105"/>
+      <c r="U2" s="105"/>
+      <c r="V2" s="105"/>
+      <c r="W2" s="105"/>
+      <c r="X2" s="106"/>
     </row>
     <row r="3" spans="1:24" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="185"/>
-      <c r="B3" s="186"/>
-      <c r="C3" s="187"/>
-      <c r="D3" s="144" t="s">
+      <c r="A3" s="51"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="145"/>
-      <c r="F3" s="72"/>
-      <c r="G3" s="73" t="s">
+      <c r="E3" s="58"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="79" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="73"/>
-      <c r="I3" s="73"/>
-      <c r="J3" s="77"/>
-      <c r="K3" s="97" t="s">
+      <c r="H3" s="79"/>
+      <c r="I3" s="79"/>
+      <c r="J3" s="80"/>
+      <c r="K3" s="86" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="73"/>
-      <c r="M3" s="73"/>
-      <c r="N3" s="144"/>
-      <c r="O3" s="117"/>
-      <c r="P3" s="118"/>
-      <c r="Q3" s="118"/>
-      <c r="R3" s="118"/>
-      <c r="S3" s="118"/>
-      <c r="T3" s="118"/>
-      <c r="U3" s="118"/>
-      <c r="V3" s="118"/>
-      <c r="W3" s="118"/>
-      <c r="X3" s="119"/>
+      <c r="L3" s="79"/>
+      <c r="M3" s="79"/>
+      <c r="N3" s="57"/>
+      <c r="O3" s="107"/>
+      <c r="P3" s="108"/>
+      <c r="Q3" s="108"/>
+      <c r="R3" s="108"/>
+      <c r="S3" s="108"/>
+      <c r="T3" s="108"/>
+      <c r="U3" s="108"/>
+      <c r="V3" s="108"/>
+      <c r="W3" s="108"/>
+      <c r="X3" s="109"/>
     </row>
     <row r="4" spans="1:24" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="130" t="s">
+      <c r="A4" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="131"/>
-      <c r="C4" s="131"/>
-      <c r="D4" s="178"/>
-      <c r="E4" s="179"/>
-      <c r="F4" s="140"/>
-      <c r="G4" s="80"/>
-      <c r="H4" s="80"/>
-      <c r="I4" s="80"/>
-      <c r="J4" s="81"/>
-      <c r="K4" s="172" t="s">
+      <c r="B4" s="56"/>
+      <c r="C4" s="56"/>
+      <c r="D4" s="135"/>
+      <c r="E4" s="136"/>
+      <c r="F4" s="137"/>
+      <c r="G4" s="138"/>
+      <c r="H4" s="138"/>
+      <c r="I4" s="138"/>
+      <c r="J4" s="139"/>
+      <c r="K4" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="L4" s="173"/>
-      <c r="M4" s="126"/>
-      <c r="N4" s="127"/>
-      <c r="O4" s="117"/>
-      <c r="P4" s="118"/>
-      <c r="Q4" s="118"/>
-      <c r="R4" s="118"/>
-      <c r="S4" s="118"/>
-      <c r="T4" s="118"/>
-      <c r="U4" s="118"/>
-      <c r="V4" s="118"/>
-      <c r="W4" s="118"/>
-      <c r="X4" s="119"/>
+      <c r="L4" s="61"/>
+      <c r="M4" s="163"/>
+      <c r="N4" s="164"/>
+      <c r="O4" s="107"/>
+      <c r="P4" s="108"/>
+      <c r="Q4" s="108"/>
+      <c r="R4" s="108"/>
+      <c r="S4" s="108"/>
+      <c r="T4" s="108"/>
+      <c r="U4" s="108"/>
+      <c r="V4" s="108"/>
+      <c r="W4" s="108"/>
+      <c r="X4" s="109"/>
     </row>
     <row r="5" spans="1:24" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="130" t="s">
+      <c r="A5" s="55" t="s">
         <v>84</v>
       </c>
-      <c r="B5" s="131"/>
-      <c r="C5" s="131"/>
-      <c r="D5" s="178"/>
-      <c r="E5" s="179"/>
-      <c r="F5" s="140"/>
-      <c r="G5" s="80"/>
-      <c r="H5" s="80"/>
-      <c r="I5" s="80"/>
-      <c r="J5" s="81"/>
-      <c r="K5" s="172" t="s">
+      <c r="B5" s="56"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="135"/>
+      <c r="E5" s="136"/>
+      <c r="F5" s="137"/>
+      <c r="G5" s="138"/>
+      <c r="H5" s="138"/>
+      <c r="I5" s="138"/>
+      <c r="J5" s="139"/>
+      <c r="K5" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="L5" s="173"/>
-      <c r="M5" s="126"/>
-      <c r="N5" s="127"/>
-      <c r="O5" s="117"/>
-      <c r="P5" s="118"/>
-      <c r="Q5" s="118"/>
-      <c r="R5" s="118"/>
-      <c r="S5" s="118"/>
-      <c r="T5" s="118"/>
-      <c r="U5" s="118"/>
-      <c r="V5" s="118"/>
-      <c r="W5" s="118"/>
-      <c r="X5" s="119"/>
+      <c r="L5" s="61"/>
+      <c r="M5" s="163"/>
+      <c r="N5" s="164"/>
+      <c r="O5" s="107"/>
+      <c r="P5" s="108"/>
+      <c r="Q5" s="108"/>
+      <c r="R5" s="108"/>
+      <c r="S5" s="108"/>
+      <c r="T5" s="108"/>
+      <c r="U5" s="108"/>
+      <c r="V5" s="108"/>
+      <c r="W5" s="108"/>
+      <c r="X5" s="109"/>
     </row>
     <row r="6" spans="1:24" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="130" t="s">
+      <c r="A6" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="131"/>
-      <c r="C6" s="131"/>
-      <c r="D6" s="178"/>
-      <c r="E6" s="179"/>
-      <c r="F6" s="140"/>
-      <c r="G6" s="80"/>
-      <c r="H6" s="80"/>
-      <c r="I6" s="80"/>
-      <c r="J6" s="81"/>
-      <c r="K6" s="172" t="s">
+      <c r="B6" s="56"/>
+      <c r="C6" s="56"/>
+      <c r="D6" s="135"/>
+      <c r="E6" s="136"/>
+      <c r="F6" s="137"/>
+      <c r="G6" s="138"/>
+      <c r="H6" s="138"/>
+      <c r="I6" s="138"/>
+      <c r="J6" s="139"/>
+      <c r="K6" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="L6" s="173"/>
-      <c r="M6" s="126"/>
-      <c r="N6" s="127"/>
-      <c r="O6" s="117"/>
-      <c r="P6" s="118"/>
-      <c r="Q6" s="118"/>
-      <c r="R6" s="118"/>
-      <c r="S6" s="118"/>
-      <c r="T6" s="118"/>
-      <c r="U6" s="118"/>
-      <c r="V6" s="118"/>
-      <c r="W6" s="118"/>
-      <c r="X6" s="119"/>
+      <c r="L6" s="61"/>
+      <c r="M6" s="163"/>
+      <c r="N6" s="164"/>
+      <c r="O6" s="107"/>
+      <c r="P6" s="108"/>
+      <c r="Q6" s="108"/>
+      <c r="R6" s="108"/>
+      <c r="S6" s="108"/>
+      <c r="T6" s="108"/>
+      <c r="U6" s="108"/>
+      <c r="V6" s="108"/>
+      <c r="W6" s="108"/>
+      <c r="X6" s="109"/>
     </row>
     <row r="7" spans="1:24" ht="21" x14ac:dyDescent="0.25">
-      <c r="A7" s="130" t="s">
+      <c r="A7" s="55" t="s">
         <v>74</v>
       </c>
-      <c r="B7" s="131"/>
-      <c r="C7" s="131"/>
-      <c r="D7" s="178"/>
-      <c r="E7" s="179"/>
-      <c r="F7" s="140"/>
-      <c r="G7" s="80"/>
-      <c r="H7" s="80"/>
-      <c r="I7" s="80"/>
-      <c r="J7" s="81"/>
-      <c r="K7" s="172" t="s">
+      <c r="B7" s="56"/>
+      <c r="C7" s="56"/>
+      <c r="D7" s="135"/>
+      <c r="E7" s="136"/>
+      <c r="F7" s="137"/>
+      <c r="G7" s="138"/>
+      <c r="H7" s="138"/>
+      <c r="I7" s="138"/>
+      <c r="J7" s="139"/>
+      <c r="K7" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="L7" s="173"/>
-      <c r="M7" s="126"/>
-      <c r="N7" s="127"/>
-      <c r="O7" s="117"/>
-      <c r="P7" s="118"/>
-      <c r="Q7" s="118"/>
-      <c r="R7" s="118"/>
-      <c r="S7" s="118"/>
-      <c r="T7" s="118"/>
-      <c r="U7" s="118"/>
-      <c r="V7" s="118"/>
-      <c r="W7" s="118"/>
-      <c r="X7" s="119"/>
+      <c r="L7" s="61"/>
+      <c r="M7" s="163"/>
+      <c r="N7" s="164"/>
+      <c r="O7" s="107"/>
+      <c r="P7" s="108"/>
+      <c r="Q7" s="108"/>
+      <c r="R7" s="108"/>
+      <c r="S7" s="108"/>
+      <c r="T7" s="108"/>
+      <c r="U7" s="108"/>
+      <c r="V7" s="108"/>
+      <c r="W7" s="108"/>
+      <c r="X7" s="109"/>
     </row>
     <row r="8" spans="1:24" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="132" t="s">
+      <c r="A8" s="113" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="133"/>
-      <c r="C8" s="133"/>
-      <c r="D8" s="190"/>
-      <c r="E8" s="191"/>
-      <c r="F8" s="167"/>
-      <c r="G8" s="109"/>
-      <c r="H8" s="109"/>
-      <c r="I8" s="109"/>
-      <c r="J8" s="110"/>
-      <c r="K8" s="174" t="s">
+      <c r="B8" s="114"/>
+      <c r="C8" s="114"/>
+      <c r="D8" s="140"/>
+      <c r="E8" s="141"/>
+      <c r="F8" s="142"/>
+      <c r="G8" s="143"/>
+      <c r="H8" s="143"/>
+      <c r="I8" s="143"/>
+      <c r="J8" s="144"/>
+      <c r="K8" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="L8" s="175"/>
-      <c r="M8" s="128"/>
-      <c r="N8" s="129"/>
-      <c r="O8" s="120"/>
-      <c r="P8" s="121"/>
-      <c r="Q8" s="121"/>
-      <c r="R8" s="121"/>
-      <c r="S8" s="121"/>
-      <c r="T8" s="121"/>
-      <c r="U8" s="121"/>
-      <c r="V8" s="121"/>
-      <c r="W8" s="121"/>
-      <c r="X8" s="122"/>
+      <c r="L8" s="63"/>
+      <c r="M8" s="165"/>
+      <c r="N8" s="166"/>
+      <c r="O8" s="110"/>
+      <c r="P8" s="111"/>
+      <c r="Q8" s="111"/>
+      <c r="R8" s="111"/>
+      <c r="S8" s="111"/>
+      <c r="T8" s="111"/>
+      <c r="U8" s="111"/>
+      <c r="V8" s="111"/>
+      <c r="W8" s="111"/>
+      <c r="X8" s="112"/>
     </row>
     <row r="9" spans="1:24" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="97" t="s">
+      <c r="A9" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="77"/>
-      <c r="C9" s="33" t="s">
+      <c r="B9" s="80"/>
+      <c r="C9" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="101" t="s">
+      <c r="D9" s="93" t="s">
         <v>91</v>
       </c>
-      <c r="E9" s="104" t="s">
+      <c r="E9" s="96" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="111" t="s">
+      <c r="F9" s="101" t="s">
         <v>85</v>
       </c>
-      <c r="G9" s="97" t="s">
+      <c r="G9" s="86" t="s">
         <v>16</v>
       </c>
-      <c r="H9" s="73"/>
-      <c r="I9" s="38" t="s">
+      <c r="H9" s="79"/>
+      <c r="I9" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="J9" s="18" t="s">
+      <c r="J9" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="K9" s="19" t="s">
+      <c r="K9" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="L9" s="20" t="s">
+      <c r="L9" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="M9" s="145" t="s">
+      <c r="M9" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="N9" s="18" t="s">
+      <c r="N9" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="O9" s="19" t="s">
+      <c r="O9" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="P9" s="73" t="s">
+      <c r="P9" s="79" t="s">
         <v>32</v>
       </c>
-      <c r="Q9" s="73"/>
-      <c r="R9" s="20" t="s">
+      <c r="Q9" s="79"/>
+      <c r="R9" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="S9" s="72" t="s">
+      <c r="S9" s="59" t="s">
         <v>37</v>
       </c>
-      <c r="T9" s="73"/>
-      <c r="U9" s="76" t="s">
+      <c r="T9" s="79"/>
+      <c r="U9" s="120" t="s">
         <v>66</v>
       </c>
-      <c r="V9" s="73"/>
-      <c r="W9" s="73" t="s">
+      <c r="V9" s="79"/>
+      <c r="W9" s="79" t="s">
         <v>38</v>
       </c>
-      <c r="X9" s="77"/>
+      <c r="X9" s="80"/>
     </row>
     <row r="10" spans="1:24" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="98"/>
-      <c r="B10" s="99"/>
+      <c r="A10" s="90"/>
+      <c r="B10" s="91"/>
       <c r="C10" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="102"/>
-      <c r="E10" s="105"/>
-      <c r="F10" s="112"/>
-      <c r="G10" s="26" t="s">
+      <c r="D10" s="94"/>
+      <c r="E10" s="97"/>
+      <c r="F10" s="102"/>
+      <c r="G10" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="H10" s="25" t="s">
+      <c r="H10" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="I10" s="39" t="s">
+      <c r="I10" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="J10" s="107" t="s">
+      <c r="J10" s="99" t="s">
         <v>24</v>
       </c>
-      <c r="K10" s="134" t="s">
+      <c r="K10" s="115" t="s">
         <v>25</v>
       </c>
-      <c r="L10" s="136" t="s">
+      <c r="L10" s="117" t="s">
         <v>26</v>
       </c>
-      <c r="M10" s="146"/>
-      <c r="N10" s="26" t="s">
+      <c r="M10" s="87"/>
+      <c r="N10" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="O10" s="25" t="s">
+      <c r="O10" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="P10" s="82"/>
-      <c r="Q10" s="82"/>
-      <c r="R10" s="15" t="str">
+      <c r="P10" s="170"/>
+      <c r="Q10" s="170"/>
+      <c r="R10" s="153" t="str">
         <f>IF(ISNUMBER(J34),J34,"")</f>
         <v/>
       </c>
-      <c r="S10" s="74"/>
-      <c r="T10" s="75"/>
-      <c r="U10" s="75"/>
-      <c r="V10" s="75"/>
-      <c r="W10" s="75"/>
-      <c r="X10" s="78"/>
+      <c r="S10" s="77"/>
+      <c r="T10" s="78"/>
+      <c r="U10" s="78"/>
+      <c r="V10" s="78"/>
+      <c r="W10" s="78"/>
+      <c r="X10" s="83"/>
     </row>
     <row r="11" spans="1:24" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="100"/>
-      <c r="B11" s="78"/>
-      <c r="C11" s="34" t="s">
+      <c r="A11" s="92"/>
+      <c r="B11" s="83"/>
+      <c r="C11" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="102"/>
-      <c r="E11" s="105"/>
-      <c r="F11" s="112"/>
-      <c r="G11" s="180" t="s">
+      <c r="D11" s="94"/>
+      <c r="E11" s="97"/>
+      <c r="F11" s="102"/>
+      <c r="G11" s="64" t="s">
         <v>86</v>
       </c>
-      <c r="H11" s="148"/>
-      <c r="I11" s="170" t="s">
+      <c r="H11" s="65"/>
+      <c r="I11" s="68" t="s">
         <v>19</v>
       </c>
-      <c r="J11" s="107"/>
-      <c r="K11" s="134"/>
-      <c r="L11" s="136"/>
-      <c r="M11" s="146"/>
-      <c r="N11" s="26" t="s">
+      <c r="J11" s="99"/>
+      <c r="K11" s="115"/>
+      <c r="L11" s="117"/>
+      <c r="M11" s="87"/>
+      <c r="N11" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="O11" s="148" t="s">
+      <c r="O11" s="65" t="s">
         <v>31</v>
       </c>
-      <c r="P11" s="25" t="s">
+      <c r="P11" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="Q11" s="25" t="s">
+      <c r="Q11" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="R11" s="27" t="s">
+      <c r="R11" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="S11" s="94"/>
-      <c r="T11" s="95"/>
-      <c r="U11" s="155" t="s">
+      <c r="S11" s="167"/>
+      <c r="T11" s="168"/>
+      <c r="U11" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="V11" s="155"/>
-      <c r="W11" s="95"/>
-      <c r="X11" s="152"/>
+      <c r="V11" s="84"/>
+      <c r="W11" s="168"/>
+      <c r="X11" s="173"/>
     </row>
     <row r="12" spans="1:24" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="193" t="s">
+      <c r="A12" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="B12" s="194"/>
+      <c r="B12" s="42"/>
       <c r="C12" s="3"/>
-      <c r="D12" s="103"/>
-      <c r="E12" s="106"/>
-      <c r="F12" s="113"/>
-      <c r="G12" s="181"/>
-      <c r="H12" s="156"/>
-      <c r="I12" s="171"/>
-      <c r="J12" s="108"/>
-      <c r="K12" s="135"/>
-      <c r="L12" s="137"/>
-      <c r="M12" s="147"/>
-      <c r="N12" s="30"/>
-      <c r="O12" s="149"/>
-      <c r="P12" s="21" t="s">
+      <c r="D12" s="95"/>
+      <c r="E12" s="98"/>
+      <c r="F12" s="103"/>
+      <c r="G12" s="66"/>
+      <c r="H12" s="67"/>
+      <c r="I12" s="69"/>
+      <c r="J12" s="100"/>
+      <c r="K12" s="116"/>
+      <c r="L12" s="118"/>
+      <c r="M12" s="88"/>
+      <c r="N12" s="160"/>
+      <c r="O12" s="89"/>
+      <c r="P12" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="Q12" s="21" t="s">
+      <c r="Q12" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="R12" s="22" t="s">
+      <c r="R12" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="S12" s="96"/>
-      <c r="T12" s="82"/>
-      <c r="U12" s="148" t="s">
+      <c r="S12" s="169"/>
+      <c r="T12" s="170"/>
+      <c r="U12" s="65" t="s">
         <v>16</v>
       </c>
-      <c r="V12" s="148"/>
-      <c r="W12" s="82"/>
-      <c r="X12" s="153"/>
+      <c r="V12" s="65"/>
+      <c r="W12" s="170"/>
+      <c r="X12" s="174"/>
     </row>
     <row r="13" spans="1:24" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="195"/>
-      <c r="B13" s="196"/>
-      <c r="C13" s="44"/>
-      <c r="D13" s="139" t="str">
+      <c r="A13" s="43"/>
+      <c r="B13" s="44"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="184" t="str">
         <f>IF(J13&lt;&gt;"",MOD(J13+K14,360),"")</f>
         <v/>
       </c>
-      <c r="E13" s="168"/>
-      <c r="F13" s="201" t="str">
+      <c r="E13" s="145"/>
+      <c r="F13" s="186" t="str">
         <f>IF(ISNUMBER(E13),15-E13/1000*2,"")</f>
         <v/>
       </c>
-      <c r="G13" s="35"/>
-      <c r="H13" s="36"/>
-      <c r="I13" s="141"/>
-      <c r="J13" s="35"/>
-      <c r="K13" s="37" t="str">
+      <c r="G13" s="146"/>
+      <c r="H13" s="147"/>
+      <c r="I13" s="148"/>
+      <c r="J13" s="146"/>
+      <c r="K13" s="190" t="str">
         <f>IF(J13&lt;&gt;"",IF(ISNUMBER(J14),MOD(J13+J14,360),J13),"")</f>
         <v/>
       </c>
-      <c r="L13" s="40" t="str">
+      <c r="L13" s="191" t="str">
         <f>IF(K13&lt;&gt;"",MOD(K13+K14,360),"")</f>
         <v/>
       </c>
-      <c r="M13" s="142" t="str">
+      <c r="M13" s="192" t="str">
         <f>IF(L13&lt;&gt;"",MOD(L13+L14,360),"")</f>
         <v/>
       </c>
-      <c r="N13" s="14" t="str">
+      <c r="N13" s="189" t="str">
         <f>IF(AND(ISNUMBER(O13),ISNUMBER(P13)),ROUND(P13*O13/60,0),"")</f>
         <v/>
       </c>
-      <c r="O13" s="13" t="str">
+      <c r="O13" s="198" t="str">
         <f>IF(ISNUMBER(I13),SQRT((H13^2) + (I13^2) - (2*H13*I13*COS(   ACOS(COS(RADIANS(J13-G13)))   ) ) ),"")</f>
         <v/>
       </c>
-      <c r="P13" s="67"/>
-      <c r="Q13" s="17"/>
-      <c r="R13" s="24" t="str">
+      <c r="P13" s="161"/>
+      <c r="Q13" s="180"/>
+      <c r="R13" s="162" t="str">
         <f>IF(ISNUMBER(P13),P13*$R$10/60,"")</f>
         <v/>
       </c>
-      <c r="S13" s="96"/>
-      <c r="T13" s="82"/>
-      <c r="U13" s="148" t="s">
+      <c r="S13" s="169"/>
+      <c r="T13" s="170"/>
+      <c r="U13" s="65" t="s">
         <v>40</v>
       </c>
-      <c r="V13" s="148"/>
-      <c r="W13" s="82"/>
-      <c r="X13" s="153"/>
+      <c r="V13" s="65"/>
+      <c r="W13" s="170"/>
+      <c r="X13" s="174"/>
     </row>
     <row r="14" spans="1:24" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="197" t="s">
+      <c r="A14" s="45" t="s">
         <v>89</v>
       </c>
-      <c r="B14" s="198"/>
-      <c r="C14" s="60"/>
-      <c r="D14" s="139"/>
-      <c r="E14" s="140"/>
-      <c r="F14" s="176"/>
-      <c r="G14" s="79"/>
-      <c r="H14" s="80"/>
-      <c r="I14" s="81"/>
-      <c r="J14" s="14" t="str">
+      <c r="B14" s="46"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="184"/>
+      <c r="E14" s="137"/>
+      <c r="F14" s="187"/>
+      <c r="G14" s="149"/>
+      <c r="H14" s="138"/>
+      <c r="I14" s="139"/>
+      <c r="J14" s="189" t="str">
         <f>IF(G13&lt;&gt;"",DEGREES(ASIN(H13/I13*SIN(RADIANS(G13-J13)))),"")</f>
         <v/>
       </c>
-      <c r="K14" s="29"/>
-      <c r="L14" s="15"/>
-      <c r="M14" s="143"/>
-      <c r="N14" s="14" t="str">
+      <c r="K14" s="151"/>
+      <c r="L14" s="153"/>
+      <c r="M14" s="193"/>
+      <c r="N14" s="189" t="str">
         <f>IF(ISNUMBER(N13),N12-N13,"")</f>
         <v/>
       </c>
-      <c r="O14" s="16"/>
-      <c r="P14" s="16"/>
-      <c r="Q14" s="16"/>
-      <c r="R14" s="11" t="str">
+      <c r="O14" s="181"/>
+      <c r="P14" s="181"/>
+      <c r="Q14" s="181"/>
+      <c r="R14" s="197" t="str">
         <f>IF(AND(ISNUMBER(R34),ISNUMBER(R13)),R34-$M$34-R13,"")</f>
         <v/>
       </c>
-      <c r="S14" s="96"/>
-      <c r="T14" s="82"/>
-      <c r="U14" s="148" t="s">
+      <c r="S14" s="169"/>
+      <c r="T14" s="170"/>
+      <c r="U14" s="65" t="s">
         <v>41</v>
       </c>
-      <c r="V14" s="148"/>
-      <c r="W14" s="82"/>
-      <c r="X14" s="153"/>
+      <c r="V14" s="65"/>
+      <c r="W14" s="170"/>
+      <c r="X14" s="174"/>
     </row>
     <row r="15" spans="1:24" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="195"/>
-      <c r="B15" s="196"/>
-      <c r="C15" s="44"/>
-      <c r="D15" s="139" t="str">
+      <c r="A15" s="43"/>
+      <c r="B15" s="44"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="184" t="str">
         <f>IF(J15&lt;&gt;"",MOD(J15+K16,360),"")</f>
         <v/>
       </c>
-      <c r="E15" s="140"/>
-      <c r="F15" s="201" t="str">
+      <c r="E15" s="137"/>
+      <c r="F15" s="186" t="str">
         <f t="shared" ref="F15" si="0">IF(ISNUMBER(E15),15-E15/1000*2,"")</f>
         <v/>
       </c>
-      <c r="G15" s="28"/>
-      <c r="H15" s="29"/>
-      <c r="I15" s="81"/>
-      <c r="J15" s="28"/>
-      <c r="K15" s="12" t="str">
+      <c r="G15" s="150"/>
+      <c r="H15" s="151"/>
+      <c r="I15" s="139"/>
+      <c r="J15" s="150"/>
+      <c r="K15" s="196" t="str">
         <f>IF(J15&lt;&gt;"",IF(ISNUMBER(J16),MOD(J15+J16,360),J15),"")</f>
         <v/>
       </c>
-      <c r="L15" s="11" t="str">
+      <c r="L15" s="197" t="str">
         <f>IF(K15&lt;&gt;"",MOD(K15+K16,360),"")</f>
         <v/>
       </c>
-      <c r="M15" s="143" t="str">
+      <c r="M15" s="193" t="str">
         <f>IF(L15&lt;&gt;"",MOD(L15+L16,360),"")</f>
         <v/>
       </c>
-      <c r="N15" s="28"/>
-      <c r="O15" s="12" t="str">
+      <c r="N15" s="150"/>
+      <c r="O15" s="196" t="str">
         <f>IF(ISNUMBER(I15),SQRT((H15^2) + (I15^2) - (2*H15*I15*COS(   ACOS(COS(RADIANS(J15-G15)))   ) ) ),"")</f>
         <v/>
       </c>
-      <c r="P15" s="12" t="str">
+      <c r="P15" s="196" t="str">
         <f>IF(ISNUMBER(O15),ROUND(N15/O15*60,0),"")</f>
         <v/>
       </c>
-      <c r="Q15" s="16"/>
-      <c r="R15" s="15" t="str">
+      <c r="Q15" s="181"/>
+      <c r="R15" s="153" t="str">
         <f>IF(ISNUMBER(P15),P15*$R$10/60,"")</f>
         <v/>
       </c>
-      <c r="S15" s="96"/>
-      <c r="T15" s="82"/>
-      <c r="U15" s="148" t="s">
+      <c r="S15" s="169"/>
+      <c r="T15" s="170"/>
+      <c r="U15" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="V15" s="148"/>
-      <c r="W15" s="82"/>
-      <c r="X15" s="153"/>
+      <c r="V15" s="65"/>
+      <c r="W15" s="170"/>
+      <c r="X15" s="174"/>
     </row>
     <row r="16" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="197"/>
-      <c r="B16" s="198"/>
-      <c r="C16" s="60"/>
-      <c r="D16" s="139"/>
-      <c r="E16" s="140"/>
-      <c r="F16" s="176"/>
-      <c r="G16" s="79"/>
-      <c r="H16" s="80"/>
-      <c r="I16" s="81"/>
-      <c r="J16" s="14" t="str">
+      <c r="A16" s="45"/>
+      <c r="B16" s="46"/>
+      <c r="C16" s="32"/>
+      <c r="D16" s="184"/>
+      <c r="E16" s="137"/>
+      <c r="F16" s="187"/>
+      <c r="G16" s="149"/>
+      <c r="H16" s="138"/>
+      <c r="I16" s="139"/>
+      <c r="J16" s="189" t="str">
         <f>IF(G15&lt;&gt;"",DEGREES(ASIN(H15/I15*SIN(RADIANS(G15-J15)))),"")</f>
         <v/>
       </c>
-      <c r="K16" s="29"/>
-      <c r="L16" s="15"/>
-      <c r="M16" s="143"/>
-      <c r="N16" s="14" t="str">
+      <c r="K16" s="151"/>
+      <c r="L16" s="153"/>
+      <c r="M16" s="193"/>
+      <c r="N16" s="189" t="str">
         <f>IF(ISNUMBER(N15),N14-N15,"")</f>
         <v/>
       </c>
-      <c r="O16" s="16"/>
-      <c r="P16" s="16"/>
-      <c r="Q16" s="16"/>
-      <c r="R16" s="11" t="str">
+      <c r="O16" s="181"/>
+      <c r="P16" s="181"/>
+      <c r="Q16" s="181"/>
+      <c r="R16" s="197" t="str">
         <f>IF(AND(ISNUMBER(R14),ISNUMBER(R15)),R14-R15,"")</f>
         <v/>
       </c>
-      <c r="S16" s="96"/>
-      <c r="T16" s="82"/>
-      <c r="U16" s="148" t="s">
+      <c r="S16" s="169"/>
+      <c r="T16" s="170"/>
+      <c r="U16" s="65" t="s">
         <v>43</v>
       </c>
-      <c r="V16" s="148"/>
-      <c r="W16" s="82"/>
-      <c r="X16" s="153"/>
+      <c r="V16" s="65"/>
+      <c r="W16" s="170"/>
+      <c r="X16" s="174"/>
     </row>
     <row r="17" spans="1:24" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="195"/>
-      <c r="B17" s="196"/>
-      <c r="C17" s="61"/>
-      <c r="D17" s="139" t="str">
+      <c r="A17" s="43"/>
+      <c r="B17" s="44"/>
+      <c r="C17" s="33"/>
+      <c r="D17" s="184" t="str">
         <f>IF(J17&lt;&gt;"",MOD(J17+K18,360),"")</f>
         <v/>
       </c>
-      <c r="E17" s="140"/>
-      <c r="F17" s="201" t="str">
+      <c r="E17" s="137"/>
+      <c r="F17" s="186" t="str">
         <f t="shared" ref="F17" si="1">IF(ISNUMBER(E17),15-E17/1000*2,"")</f>
         <v/>
       </c>
-      <c r="G17" s="28"/>
-      <c r="H17" s="29"/>
-      <c r="I17" s="81"/>
-      <c r="J17" s="28"/>
-      <c r="K17" s="12" t="str">
+      <c r="G17" s="150"/>
+      <c r="H17" s="151"/>
+      <c r="I17" s="139"/>
+      <c r="J17" s="150"/>
+      <c r="K17" s="196" t="str">
         <f>IF(J17&lt;&gt;"",IF(ISNUMBER(J18),MOD(J17+J18,360),J17),"")</f>
         <v/>
       </c>
-      <c r="L17" s="11" t="str">
+      <c r="L17" s="197" t="str">
         <f>IF(K17&lt;&gt;"",MOD(K17+K18,360),"")</f>
         <v/>
       </c>
-      <c r="M17" s="143" t="str">
+      <c r="M17" s="193" t="str">
         <f>IF(L17&lt;&gt;"",MOD(L17+L18,360),"")</f>
         <v/>
       </c>
-      <c r="N17" s="28"/>
-      <c r="O17" s="12" t="str">
+      <c r="N17" s="150"/>
+      <c r="O17" s="196" t="str">
         <f>IF(ISNUMBER(I17),SQRT((H17^2) + (I17^2) - (2*H17*I17*COS(   ACOS(COS(RADIANS(J17-G17)))   ) ) ),"")</f>
         <v/>
       </c>
-      <c r="P17" s="12" t="str">
+      <c r="P17" s="196" t="str">
         <f>IF(ISNUMBER(O17),ROUND(N17/O17*60,0),"")</f>
         <v/>
       </c>
-      <c r="Q17" s="16"/>
-      <c r="R17" s="15" t="str">
+      <c r="Q17" s="181"/>
+      <c r="R17" s="153" t="str">
         <f>IF(ISNUMBER(P17),P17*$R$10/60,"")</f>
         <v/>
       </c>
-      <c r="S17" s="150"/>
-      <c r="T17" s="151"/>
-      <c r="U17" s="156" t="s">
+      <c r="S17" s="171"/>
+      <c r="T17" s="172"/>
+      <c r="U17" s="67" t="s">
         <v>44</v>
       </c>
-      <c r="V17" s="156"/>
-      <c r="W17" s="151"/>
-      <c r="X17" s="164"/>
+      <c r="V17" s="67"/>
+      <c r="W17" s="172"/>
+      <c r="X17" s="175"/>
     </row>
     <row r="18" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="197"/>
-      <c r="B18" s="198"/>
+      <c r="A18" s="45"/>
+      <c r="B18" s="46"/>
       <c r="C18" s="3"/>
-      <c r="D18" s="139"/>
-      <c r="E18" s="140"/>
-      <c r="F18" s="176"/>
-      <c r="G18" s="79"/>
-      <c r="H18" s="80"/>
-      <c r="I18" s="81"/>
-      <c r="J18" s="14" t="str">
+      <c r="D18" s="184"/>
+      <c r="E18" s="137"/>
+      <c r="F18" s="187"/>
+      <c r="G18" s="149"/>
+      <c r="H18" s="138"/>
+      <c r="I18" s="139"/>
+      <c r="J18" s="189" t="str">
         <f>IF(G17&lt;&gt;"",DEGREES(ASIN(H17/I17*SIN(RADIANS(G17-J17)))),"")</f>
         <v/>
       </c>
-      <c r="K18" s="29"/>
-      <c r="L18" s="15"/>
-      <c r="M18" s="143"/>
-      <c r="N18" s="14" t="str">
+      <c r="K18" s="151"/>
+      <c r="L18" s="153"/>
+      <c r="M18" s="193"/>
+      <c r="N18" s="189" t="str">
         <f>IF(ISNUMBER(N17),N16-N17,"")</f>
         <v/>
       </c>
-      <c r="O18" s="16"/>
-      <c r="P18" s="16"/>
-      <c r="Q18" s="16"/>
-      <c r="R18" s="11" t="str">
+      <c r="O18" s="181"/>
+      <c r="P18" s="181"/>
+      <c r="Q18" s="181"/>
+      <c r="R18" s="197" t="str">
         <f>IF(AND(ISNUMBER(R16),ISNUMBER(R17)),R16-R17,"")</f>
         <v/>
       </c>
-      <c r="S18" s="83"/>
-      <c r="T18" s="84"/>
-      <c r="U18" s="84"/>
-      <c r="V18" s="84"/>
-      <c r="W18" s="84"/>
-      <c r="X18" s="85"/>
+      <c r="S18" s="121"/>
+      <c r="T18" s="122"/>
+      <c r="U18" s="122"/>
+      <c r="V18" s="122"/>
+      <c r="W18" s="122"/>
+      <c r="X18" s="123"/>
     </row>
     <row r="19" spans="1:24" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="195"/>
-      <c r="B19" s="196"/>
-      <c r="C19" s="61"/>
-      <c r="D19" s="139" t="str">
+      <c r="A19" s="43"/>
+      <c r="B19" s="44"/>
+      <c r="C19" s="33"/>
+      <c r="D19" s="184" t="str">
         <f>IF(J19&lt;&gt;"",MOD(J19+K20,360),"")</f>
         <v/>
       </c>
-      <c r="E19" s="140"/>
-      <c r="F19" s="201" t="str">
+      <c r="E19" s="137"/>
+      <c r="F19" s="186" t="str">
         <f t="shared" ref="F19" si="2">IF(ISNUMBER(E19),15-E19/1000*2,"")</f>
         <v/>
       </c>
-      <c r="G19" s="28"/>
-      <c r="H19" s="29"/>
-      <c r="I19" s="81"/>
-      <c r="J19" s="28"/>
-      <c r="K19" s="12" t="str">
+      <c r="G19" s="150"/>
+      <c r="H19" s="151"/>
+      <c r="I19" s="139"/>
+      <c r="J19" s="150"/>
+      <c r="K19" s="196" t="str">
         <f>IF(J19&lt;&gt;"",IF(ISNUMBER(J20),MOD(J19+J20,360),J19),"")</f>
         <v/>
       </c>
-      <c r="L19" s="11" t="str">
+      <c r="L19" s="197" t="str">
         <f>IF(K19&lt;&gt;"",MOD(K19+K20,360),"")</f>
         <v/>
       </c>
-      <c r="M19" s="143" t="str">
+      <c r="M19" s="193" t="str">
         <f>IF(L19&lt;&gt;"",MOD(L19+L20,360),"")</f>
         <v/>
       </c>
-      <c r="N19" s="28"/>
-      <c r="O19" s="12" t="str">
+      <c r="N19" s="150"/>
+      <c r="O19" s="196" t="str">
         <f>IF(ISNUMBER(I19),SQRT((H19^2) + (I19^2) - (2*H19*I19*COS(   ACOS(COS(RADIANS(J19-G19)))   ) ) ),"")</f>
         <v/>
       </c>
-      <c r="P19" s="12" t="str">
+      <c r="P19" s="196" t="str">
         <f>IF(ISNUMBER(O19),ROUND(N19/O19*60,0),"")</f>
         <v/>
       </c>
-      <c r="Q19" s="16"/>
-      <c r="R19" s="15" t="str">
+      <c r="Q19" s="181"/>
+      <c r="R19" s="153" t="str">
         <f>IF(ISNUMBER(P19),P19*$R$10/60,"")</f>
         <v/>
       </c>
-      <c r="S19" s="86"/>
-      <c r="T19" s="87"/>
-      <c r="U19" s="87"/>
-      <c r="V19" s="87"/>
-      <c r="W19" s="87"/>
-      <c r="X19" s="88"/>
+      <c r="S19" s="124"/>
+      <c r="T19" s="125"/>
+      <c r="U19" s="125"/>
+      <c r="V19" s="125"/>
+      <c r="W19" s="125"/>
+      <c r="X19" s="126"/>
     </row>
     <row r="20" spans="1:24" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="197"/>
-      <c r="B20" s="198"/>
+      <c r="A20" s="45"/>
+      <c r="B20" s="46"/>
       <c r="C20" s="3"/>
-      <c r="D20" s="139"/>
-      <c r="E20" s="140"/>
-      <c r="F20" s="176"/>
-      <c r="G20" s="79"/>
-      <c r="H20" s="80"/>
-      <c r="I20" s="81"/>
-      <c r="J20" s="14" t="str">
+      <c r="D20" s="184"/>
+      <c r="E20" s="137"/>
+      <c r="F20" s="187"/>
+      <c r="G20" s="149"/>
+      <c r="H20" s="138"/>
+      <c r="I20" s="139"/>
+      <c r="J20" s="189" t="str">
         <f>IF(G19&lt;&gt;"",DEGREES(ASIN(H19/I19*SIN(RADIANS(G19-J19)))),"")</f>
         <v/>
       </c>
-      <c r="K20" s="29"/>
-      <c r="L20" s="15"/>
-      <c r="M20" s="143"/>
-      <c r="N20" s="14" t="str">
+      <c r="K20" s="151"/>
+      <c r="L20" s="153"/>
+      <c r="M20" s="193"/>
+      <c r="N20" s="189" t="str">
         <f>IF(ISNUMBER(N19),N18-N19,"")</f>
         <v/>
       </c>
-      <c r="O20" s="16"/>
-      <c r="P20" s="16"/>
-      <c r="Q20" s="16"/>
-      <c r="R20" s="11" t="str">
+      <c r="O20" s="181"/>
+      <c r="P20" s="181"/>
+      <c r="Q20" s="181"/>
+      <c r="R20" s="197" t="str">
         <f>IF(AND(ISNUMBER(R18),ISNUMBER(R19)),R18-R19,"")</f>
         <v/>
       </c>
-      <c r="S20" s="89"/>
-      <c r="T20" s="90"/>
-      <c r="U20" s="90"/>
-      <c r="V20" s="90"/>
-      <c r="W20" s="90"/>
-      <c r="X20" s="91"/>
+      <c r="S20" s="127"/>
+      <c r="T20" s="128"/>
+      <c r="U20" s="128"/>
+      <c r="V20" s="128"/>
+      <c r="W20" s="128"/>
+      <c r="X20" s="129"/>
     </row>
     <row r="21" spans="1:24" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="195"/>
-      <c r="B21" s="196"/>
-      <c r="C21" s="61"/>
-      <c r="D21" s="139" t="str">
+      <c r="A21" s="43"/>
+      <c r="B21" s="44"/>
+      <c r="C21" s="33"/>
+      <c r="D21" s="184" t="str">
         <f>IF(J21&lt;&gt;"",MOD(J21+K22,360),"")</f>
         <v/>
       </c>
-      <c r="E21" s="140"/>
-      <c r="F21" s="201" t="str">
+      <c r="E21" s="137"/>
+      <c r="F21" s="186" t="str">
         <f t="shared" ref="F21" si="3">IF(ISNUMBER(E21),15-E21/1000*2,"")</f>
         <v/>
       </c>
-      <c r="G21" s="28"/>
-      <c r="H21" s="29"/>
-      <c r="I21" s="81"/>
-      <c r="J21" s="28"/>
-      <c r="K21" s="12" t="str">
+      <c r="G21" s="150"/>
+      <c r="H21" s="151"/>
+      <c r="I21" s="139"/>
+      <c r="J21" s="150"/>
+      <c r="K21" s="196" t="str">
         <f>IF(J21&lt;&gt;"",IF(ISNUMBER(J22),MOD(J21+J22,360),J21),"")</f>
         <v/>
       </c>
-      <c r="L21" s="11" t="str">
+      <c r="L21" s="197" t="str">
         <f>IF(K21&lt;&gt;"",MOD(K21+K22,360),"")</f>
         <v/>
       </c>
-      <c r="M21" s="143" t="str">
+      <c r="M21" s="193" t="str">
         <f>IF(L21&lt;&gt;"",MOD(L21+L22,360),"")</f>
         <v/>
       </c>
-      <c r="N21" s="28"/>
-      <c r="O21" s="12" t="str">
+      <c r="N21" s="150"/>
+      <c r="O21" s="196" t="str">
         <f>IF(ISNUMBER(I21),SQRT((H21^2) + (I21^2) - (2*H21*I21*COS(   ACOS(COS(RADIANS(J21-G21)))   ) ) ),"")</f>
         <v/>
       </c>
-      <c r="P21" s="12" t="str">
+      <c r="P21" s="196" t="str">
         <f>IF(ISNUMBER(O21),ROUND(N21/O21*60,0),"")</f>
         <v/>
       </c>
-      <c r="Q21" s="16"/>
-      <c r="R21" s="15" t="str">
+      <c r="Q21" s="181"/>
+      <c r="R21" s="153" t="str">
         <f>IF(ISNUMBER(P21),P21*$R$10/60,"")</f>
         <v/>
       </c>
-      <c r="S21" s="72" t="s">
+      <c r="S21" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="T21" s="73"/>
-      <c r="U21" s="73"/>
-      <c r="V21" s="73"/>
-      <c r="W21" s="73"/>
-      <c r="X21" s="77"/>
+      <c r="T21" s="79"/>
+      <c r="U21" s="79"/>
+      <c r="V21" s="79"/>
+      <c r="W21" s="79"/>
+      <c r="X21" s="80"/>
     </row>
     <row r="22" spans="1:24" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="197"/>
-      <c r="B22" s="198"/>
+      <c r="A22" s="45"/>
+      <c r="B22" s="46"/>
       <c r="C22" s="3"/>
-      <c r="D22" s="139"/>
-      <c r="E22" s="140"/>
-      <c r="F22" s="176"/>
-      <c r="G22" s="79"/>
-      <c r="H22" s="80"/>
-      <c r="I22" s="81"/>
-      <c r="J22" s="14" t="str">
+      <c r="D22" s="184"/>
+      <c r="E22" s="137"/>
+      <c r="F22" s="187"/>
+      <c r="G22" s="149"/>
+      <c r="H22" s="138"/>
+      <c r="I22" s="139"/>
+      <c r="J22" s="189" t="str">
         <f>IF(G21&lt;&gt;"",DEGREES(ASIN(H21/I21*SIN(RADIANS(G21-J21)))),"")</f>
         <v/>
       </c>
-      <c r="K22" s="29"/>
-      <c r="L22" s="15"/>
-      <c r="M22" s="143"/>
-      <c r="N22" s="14" t="str">
+      <c r="K22" s="151"/>
+      <c r="L22" s="153"/>
+      <c r="M22" s="193"/>
+      <c r="N22" s="189" t="str">
         <f>IF(ISNUMBER(N21),N20-N21,"")</f>
         <v/>
       </c>
-      <c r="O22" s="16"/>
-      <c r="P22" s="16"/>
-      <c r="Q22" s="16"/>
-      <c r="R22" s="11" t="str">
+      <c r="O22" s="181"/>
+      <c r="P22" s="181"/>
+      <c r="Q22" s="181"/>
+      <c r="R22" s="197" t="str">
         <f>IF(AND(ISNUMBER(R20),ISNUMBER(R21)),R20-R21,"")</f>
         <v/>
       </c>
-      <c r="S22" s="74" t="s">
+      <c r="S22" s="77" t="s">
         <v>37</v>
       </c>
-      <c r="T22" s="75"/>
-      <c r="U22" s="75"/>
-      <c r="V22" s="75" t="s">
+      <c r="T22" s="78"/>
+      <c r="U22" s="78"/>
+      <c r="V22" s="78" t="s">
         <v>38</v>
       </c>
-      <c r="W22" s="75"/>
-      <c r="X22" s="78"/>
+      <c r="W22" s="78"/>
+      <c r="X22" s="83"/>
     </row>
     <row r="23" spans="1:24" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="195"/>
-      <c r="B23" s="196"/>
-      <c r="C23" s="44"/>
-      <c r="D23" s="139" t="str">
+      <c r="A23" s="43"/>
+      <c r="B23" s="44"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="184" t="str">
         <f>IF(J23&lt;&gt;"",MOD(J23+K24,360),"")</f>
         <v/>
       </c>
-      <c r="E23" s="140"/>
-      <c r="F23" s="201" t="str">
+      <c r="E23" s="137"/>
+      <c r="F23" s="186" t="str">
         <f t="shared" ref="F23" si="4">IF(ISNUMBER(E23),15-E23/1000*2,"")</f>
         <v/>
       </c>
-      <c r="G23" s="28"/>
-      <c r="H23" s="29"/>
-      <c r="I23" s="81"/>
-      <c r="J23" s="28"/>
-      <c r="K23" s="12" t="str">
+      <c r="G23" s="150"/>
+      <c r="H23" s="151"/>
+      <c r="I23" s="139"/>
+      <c r="J23" s="150"/>
+      <c r="K23" s="196" t="str">
         <f>IF(J23&lt;&gt;"",IF(ISNUMBER(J24),MOD(J23+J24,360),J23),"")</f>
         <v/>
       </c>
-      <c r="L23" s="11" t="str">
+      <c r="L23" s="197" t="str">
         <f>IF(K23&lt;&gt;"",MOD(K23+K24,360),"")</f>
         <v/>
       </c>
-      <c r="M23" s="143" t="str">
+      <c r="M23" s="193" t="str">
         <f>IF(L23&lt;&gt;"",MOD(L23+L24,360),"")</f>
         <v/>
       </c>
-      <c r="N23" s="28"/>
-      <c r="O23" s="12" t="str">
+      <c r="N23" s="150"/>
+      <c r="O23" s="196" t="str">
         <f>IF(ISNUMBER(I23),SQRT((H23^2) + (I23^2) - (2*H23*I23*COS(   ACOS(COS(RADIANS(J23-G23)))   ) ) ),"")</f>
         <v/>
       </c>
-      <c r="P23" s="12" t="str">
+      <c r="P23" s="196" t="str">
         <f>IF(ISNUMBER(O23),ROUND(N23/O23*60,0),"")</f>
         <v/>
       </c>
-      <c r="Q23" s="16"/>
-      <c r="R23" s="15" t="str">
+      <c r="Q23" s="181"/>
+      <c r="R23" s="153" t="str">
         <f>IF(ISNUMBER(P23),P23*$R$10/60,"")</f>
         <v/>
       </c>
-      <c r="S23" s="94"/>
-      <c r="T23" s="95"/>
-      <c r="U23" s="95"/>
-      <c r="V23" s="95"/>
-      <c r="W23" s="95"/>
-      <c r="X23" s="152"/>
+      <c r="S23" s="167"/>
+      <c r="T23" s="168"/>
+      <c r="U23" s="168"/>
+      <c r="V23" s="168"/>
+      <c r="W23" s="168"/>
+      <c r="X23" s="173"/>
     </row>
     <row r="24" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="197"/>
-      <c r="B24" s="198"/>
-      <c r="C24" s="60"/>
-      <c r="D24" s="139"/>
-      <c r="E24" s="140"/>
-      <c r="F24" s="176"/>
-      <c r="G24" s="79"/>
-      <c r="H24" s="80"/>
-      <c r="I24" s="81"/>
-      <c r="J24" s="14" t="str">
+      <c r="A24" s="45"/>
+      <c r="B24" s="46"/>
+      <c r="C24" s="32"/>
+      <c r="D24" s="184"/>
+      <c r="E24" s="137"/>
+      <c r="F24" s="187"/>
+      <c r="G24" s="149"/>
+      <c r="H24" s="138"/>
+      <c r="I24" s="139"/>
+      <c r="J24" s="189" t="str">
         <f>IF(G23&lt;&gt;"",DEGREES(ASIN(H23/I23*SIN(RADIANS(G23-J23)))),"")</f>
         <v/>
       </c>
-      <c r="K24" s="29"/>
-      <c r="L24" s="15"/>
-      <c r="M24" s="143"/>
-      <c r="N24" s="14" t="str">
+      <c r="K24" s="151"/>
+      <c r="L24" s="153"/>
+      <c r="M24" s="193"/>
+      <c r="N24" s="189" t="str">
         <f>IF(ISNUMBER(N23),N22-N23,"")</f>
         <v/>
       </c>
-      <c r="O24" s="16"/>
-      <c r="P24" s="16"/>
-      <c r="Q24" s="16"/>
-      <c r="R24" s="11" t="str">
+      <c r="O24" s="181"/>
+      <c r="P24" s="181"/>
+      <c r="Q24" s="181"/>
+      <c r="R24" s="197" t="str">
         <f>IF(AND(ISNUMBER(R22),ISNUMBER(R23)),R22-R23,"")</f>
         <v/>
       </c>
       <c r="S24" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="T24" s="71"/>
-      <c r="U24" s="71"/>
+      <c r="T24" s="176"/>
+      <c r="U24" s="176"/>
       <c r="V24" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="W24" s="71"/>
-      <c r="X24" s="154"/>
+      <c r="W24" s="176"/>
+      <c r="X24" s="177"/>
     </row>
     <row r="25" spans="1:24" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="195"/>
-      <c r="B25" s="196"/>
-      <c r="C25" s="61"/>
-      <c r="D25" s="139" t="str">
+      <c r="A25" s="43"/>
+      <c r="B25" s="44"/>
+      <c r="C25" s="33"/>
+      <c r="D25" s="184" t="str">
         <f>IF(J25&lt;&gt;"",MOD(J25+K26,360),"")</f>
         <v/>
       </c>
-      <c r="E25" s="140"/>
-      <c r="F25" s="201" t="str">
+      <c r="E25" s="137"/>
+      <c r="F25" s="186" t="str">
         <f t="shared" ref="F25" si="5">IF(ISNUMBER(E25),15-E25/1000*2,"")</f>
         <v/>
       </c>
-      <c r="G25" s="28"/>
-      <c r="H25" s="29"/>
-      <c r="I25" s="81"/>
-      <c r="J25" s="28"/>
-      <c r="K25" s="12" t="str">
+      <c r="G25" s="150"/>
+      <c r="H25" s="151"/>
+      <c r="I25" s="139"/>
+      <c r="J25" s="150"/>
+      <c r="K25" s="196" t="str">
         <f>IF(J25&lt;&gt;"",IF(ISNUMBER(J26),MOD(J25+J26,360),J25),"")</f>
         <v/>
       </c>
-      <c r="L25" s="11" t="str">
+      <c r="L25" s="197" t="str">
         <f>IF(K25&lt;&gt;"",MOD(K25+K26,360),"")</f>
         <v/>
       </c>
-      <c r="M25" s="143" t="str">
+      <c r="M25" s="193" t="str">
         <f>IF(L25&lt;&gt;"",MOD(L25+L26,360),"")</f>
         <v/>
       </c>
-      <c r="N25" s="28"/>
-      <c r="O25" s="12" t="str">
+      <c r="N25" s="150"/>
+      <c r="O25" s="196" t="str">
         <f>IF(ISNUMBER(I25),SQRT((H25^2) + (I25^2) - (2*H25*I25*COS(   ACOS(COS(RADIANS(J25-G25)))   ) ) ),"")</f>
         <v/>
       </c>
-      <c r="P25" s="12" t="str">
+      <c r="P25" s="196" t="str">
         <f>IF(ISNUMBER(O25),ROUND(N25/O25*60,0),"")</f>
         <v/>
       </c>
-      <c r="Q25" s="16"/>
-      <c r="R25" s="15" t="str">
+      <c r="Q25" s="181"/>
+      <c r="R25" s="153" t="str">
         <f>IF(ISNUMBER(P25),P25*$R$10/60,"")</f>
         <v/>
       </c>
       <c r="S25" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="T25" s="71"/>
-      <c r="U25" s="71"/>
+      <c r="T25" s="176"/>
+      <c r="U25" s="176"/>
       <c r="V25" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="W25" s="71"/>
-      <c r="X25" s="154"/>
+      <c r="W25" s="176"/>
+      <c r="X25" s="177"/>
     </row>
     <row r="26" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="197"/>
-      <c r="B26" s="198"/>
+      <c r="A26" s="45"/>
+      <c r="B26" s="46"/>
       <c r="C26" s="3"/>
-      <c r="D26" s="139"/>
-      <c r="E26" s="140"/>
-      <c r="F26" s="176"/>
-      <c r="G26" s="79"/>
-      <c r="H26" s="80"/>
-      <c r="I26" s="81"/>
-      <c r="J26" s="14" t="str">
+      <c r="D26" s="184"/>
+      <c r="E26" s="137"/>
+      <c r="F26" s="187"/>
+      <c r="G26" s="149"/>
+      <c r="H26" s="138"/>
+      <c r="I26" s="139"/>
+      <c r="J26" s="189" t="str">
         <f>IF(G25&lt;&gt;"",DEGREES(ASIN(H25/I25*SIN(RADIANS(G25-J25)))),"")</f>
         <v/>
       </c>
-      <c r="K26" s="29"/>
-      <c r="L26" s="15"/>
-      <c r="M26" s="143"/>
-      <c r="N26" s="14" t="str">
+      <c r="K26" s="151"/>
+      <c r="L26" s="153"/>
+      <c r="M26" s="193"/>
+      <c r="N26" s="189" t="str">
         <f>IF(ISNUMBER(N25),N24-N25,"")</f>
         <v/>
       </c>
-      <c r="O26" s="16"/>
-      <c r="P26" s="16"/>
-      <c r="Q26" s="16"/>
-      <c r="R26" s="11" t="str">
+      <c r="O26" s="181"/>
+      <c r="P26" s="181"/>
+      <c r="Q26" s="181"/>
+      <c r="R26" s="197" t="str">
         <f>IF(AND(ISNUMBER(R24),ISNUMBER(R25)),R24-R25,"")</f>
         <v/>
       </c>
       <c r="S26" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="T26" s="71"/>
-      <c r="U26" s="71"/>
+      <c r="T26" s="176"/>
+      <c r="U26" s="176"/>
       <c r="V26" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="W26" s="71"/>
-      <c r="X26" s="154"/>
+      <c r="W26" s="176"/>
+      <c r="X26" s="177"/>
     </row>
     <row r="27" spans="1:24" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="195"/>
-      <c r="B27" s="196"/>
-      <c r="C27" s="44"/>
-      <c r="D27" s="139" t="str">
+      <c r="A27" s="43"/>
+      <c r="B27" s="44"/>
+      <c r="C27" s="20"/>
+      <c r="D27" s="184" t="str">
         <f>IF(J27&lt;&gt;"",MOD(J27+K28,360),"")</f>
         <v/>
       </c>
-      <c r="E27" s="140"/>
-      <c r="F27" s="201" t="str">
+      <c r="E27" s="137"/>
+      <c r="F27" s="186" t="str">
         <f t="shared" ref="F27" si="6">IF(ISNUMBER(E27),15-E27/1000*2,"")</f>
         <v/>
       </c>
-      <c r="G27" s="28"/>
-      <c r="H27" s="29"/>
-      <c r="I27" s="81"/>
-      <c r="J27" s="28"/>
-      <c r="K27" s="12" t="str">
+      <c r="G27" s="150"/>
+      <c r="H27" s="151"/>
+      <c r="I27" s="139"/>
+      <c r="J27" s="150"/>
+      <c r="K27" s="196" t="str">
         <f>IF(J27&lt;&gt;"",IF(ISNUMBER(J28),MOD(J27+J28,360),J27),"")</f>
         <v/>
       </c>
-      <c r="L27" s="11" t="str">
+      <c r="L27" s="197" t="str">
         <f>IF(K27&lt;&gt;"",MOD(K27+K28,360),"")</f>
         <v/>
       </c>
-      <c r="M27" s="143" t="str">
+      <c r="M27" s="193" t="str">
         <f>IF(L27&lt;&gt;"",MOD(L27+L28,360),"")</f>
         <v/>
       </c>
-      <c r="N27" s="28"/>
-      <c r="O27" s="12" t="str">
+      <c r="N27" s="150"/>
+      <c r="O27" s="196" t="str">
         <f>IF(ISNUMBER(I27),SQRT((H27^2) + (I27^2) - (2*H27*I27*COS(   ACOS(COS(RADIANS(J27-G27)))   ) ) ),"")</f>
         <v/>
       </c>
-      <c r="P27" s="12" t="str">
+      <c r="P27" s="196" t="str">
         <f>IF(ISNUMBER(O27),ROUND(N27/O27*60,0),"")</f>
         <v/>
       </c>
-      <c r="Q27" s="16"/>
-      <c r="R27" s="15" t="str">
+      <c r="Q27" s="181"/>
+      <c r="R27" s="153" t="str">
         <f>IF(ISNUMBER(P27),P27*$R$10/60,"")</f>
         <v/>
       </c>
       <c r="S27" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="T27" s="71"/>
-      <c r="U27" s="71"/>
+      <c r="T27" s="176"/>
+      <c r="U27" s="176"/>
       <c r="V27" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="W27" s="71"/>
-      <c r="X27" s="154"/>
+      <c r="W27" s="176"/>
+      <c r="X27" s="177"/>
     </row>
     <row r="28" spans="1:24" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="197"/>
-      <c r="B28" s="198"/>
-      <c r="C28" s="60"/>
-      <c r="D28" s="139"/>
-      <c r="E28" s="140"/>
-      <c r="F28" s="176"/>
-      <c r="G28" s="79"/>
-      <c r="H28" s="80"/>
-      <c r="I28" s="81"/>
-      <c r="J28" s="14" t="str">
+      <c r="A28" s="45"/>
+      <c r="B28" s="46"/>
+      <c r="C28" s="32"/>
+      <c r="D28" s="184"/>
+      <c r="E28" s="137"/>
+      <c r="F28" s="187"/>
+      <c r="G28" s="149"/>
+      <c r="H28" s="138"/>
+      <c r="I28" s="139"/>
+      <c r="J28" s="189" t="str">
         <f>IF(G27&lt;&gt;"",DEGREES(ASIN(H27/I27*SIN(RADIANS(G27-J27)))),"")</f>
         <v/>
       </c>
-      <c r="K28" s="29"/>
-      <c r="L28" s="15"/>
-      <c r="M28" s="143"/>
-      <c r="N28" s="14" t="str">
+      <c r="K28" s="151"/>
+      <c r="L28" s="153"/>
+      <c r="M28" s="193"/>
+      <c r="N28" s="189" t="str">
         <f>IF(ISNUMBER(N27),N26-N27,"")</f>
         <v/>
       </c>
-      <c r="O28" s="16"/>
-      <c r="P28" s="16"/>
-      <c r="Q28" s="16"/>
-      <c r="R28" s="11" t="str">
+      <c r="O28" s="181"/>
+      <c r="P28" s="181"/>
+      <c r="Q28" s="181"/>
+      <c r="R28" s="197" t="str">
         <f>IF(AND(ISNUMBER(R26),ISNUMBER(R27)),R26-R27,"")</f>
         <v/>
       </c>
       <c r="S28" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="T28" s="71"/>
-      <c r="U28" s="71"/>
+      <c r="T28" s="176"/>
+      <c r="U28" s="176"/>
       <c r="V28" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="W28" s="71"/>
-      <c r="X28" s="154"/>
+      <c r="W28" s="176"/>
+      <c r="X28" s="177"/>
     </row>
     <row r="29" spans="1:24" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="195"/>
-      <c r="B29" s="196"/>
-      <c r="C29" s="61"/>
-      <c r="D29" s="139" t="str">
+      <c r="A29" s="43"/>
+      <c r="B29" s="44"/>
+      <c r="C29" s="33"/>
+      <c r="D29" s="184" t="str">
         <f>IF(J29&lt;&gt;"",MOD(J29+K30,360),"")</f>
         <v/>
       </c>
-      <c r="E29" s="140"/>
-      <c r="F29" s="201" t="str">
+      <c r="E29" s="137"/>
+      <c r="F29" s="186" t="str">
         <f>IF(ISNUMBER(E29),15-E29/1000*2,"")</f>
         <v/>
       </c>
-      <c r="G29" s="28"/>
-      <c r="H29" s="29"/>
-      <c r="I29" s="81"/>
-      <c r="J29" s="28"/>
-      <c r="K29" s="12" t="str">
+      <c r="G29" s="150"/>
+      <c r="H29" s="151"/>
+      <c r="I29" s="139"/>
+      <c r="J29" s="150"/>
+      <c r="K29" s="196" t="str">
         <f>IF(J29&lt;&gt;"",IF(ISNUMBER(J30),MOD(J29+J30,360),J29),"")</f>
         <v/>
       </c>
-      <c r="L29" s="11" t="str">
+      <c r="L29" s="197" t="str">
         <f>IF(K29&lt;&gt;"",MOD(K29+K30,360),"")</f>
         <v/>
       </c>
-      <c r="M29" s="143" t="str">
+      <c r="M29" s="193" t="str">
         <f>IF(L29&lt;&gt;"",MOD(L29+L30,360),"")</f>
         <v/>
       </c>
-      <c r="N29" s="28"/>
-      <c r="O29" s="12" t="str">
+      <c r="N29" s="150"/>
+      <c r="O29" s="196" t="str">
         <f>IF(ISNUMBER(I29),SQRT((H29^2) + (I29^2) - (2*H29*I29*COS(   ACOS(COS(RADIANS(J29-G29)))   ) ) ),"")</f>
         <v/>
       </c>
-      <c r="P29" s="12" t="str">
+      <c r="P29" s="196" t="str">
         <f>IF(ISNUMBER(O29),ROUND(N29/O29*60,0),"")</f>
         <v/>
       </c>
-      <c r="Q29" s="16"/>
-      <c r="R29" s="15" t="str">
+      <c r="Q29" s="181"/>
+      <c r="R29" s="153" t="str">
         <f>IF(ISNUMBER(P29),P29*$R$10/60,"")</f>
         <v/>
       </c>
       <c r="S29" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="T29" s="71"/>
-      <c r="U29" s="71"/>
+      <c r="T29" s="176"/>
+      <c r="U29" s="176"/>
       <c r="V29" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="W29" s="71"/>
-      <c r="X29" s="154"/>
+      <c r="W29" s="176"/>
+      <c r="X29" s="177"/>
     </row>
     <row r="30" spans="1:24" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="197" t="s">
+      <c r="A30" s="45" t="s">
         <v>90</v>
       </c>
-      <c r="B30" s="198"/>
+      <c r="B30" s="46"/>
       <c r="C30" s="3"/>
-      <c r="D30" s="139"/>
-      <c r="E30" s="140"/>
-      <c r="F30" s="176"/>
-      <c r="G30" s="79"/>
-      <c r="H30" s="80"/>
-      <c r="I30" s="81"/>
-      <c r="J30" s="14" t="str">
+      <c r="D30" s="184"/>
+      <c r="E30" s="137"/>
+      <c r="F30" s="187"/>
+      <c r="G30" s="149"/>
+      <c r="H30" s="138"/>
+      <c r="I30" s="139"/>
+      <c r="J30" s="189" t="str">
         <f>IF(G29&lt;&gt;"",DEGREES(ASIN(H29/I29*SIN(RADIANS(G29-J29)))),"")</f>
         <v/>
       </c>
-      <c r="K30" s="29"/>
-      <c r="L30" s="15"/>
-      <c r="M30" s="143"/>
-      <c r="N30" s="14" t="str">
+      <c r="K30" s="151"/>
+      <c r="L30" s="153"/>
+      <c r="M30" s="193"/>
+      <c r="N30" s="189" t="str">
         <f>IF(ISNUMBER(N29),N28-N29,"")</f>
         <v/>
       </c>
-      <c r="O30" s="16"/>
-      <c r="P30" s="16"/>
-      <c r="Q30" s="16"/>
-      <c r="R30" s="11" t="str">
+      <c r="O30" s="181"/>
+      <c r="P30" s="181"/>
+      <c r="Q30" s="181"/>
+      <c r="R30" s="197" t="str">
         <f>IF(AND(ISNUMBER(R28),ISNUMBER(R29)),R28-R29,"")</f>
         <v/>
       </c>
       <c r="S30" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="T30" s="71"/>
-      <c r="U30" s="71"/>
+      <c r="T30" s="176"/>
+      <c r="U30" s="176"/>
       <c r="V30" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="W30" s="71"/>
-      <c r="X30" s="154"/>
+      <c r="W30" s="176"/>
+      <c r="X30" s="177"/>
     </row>
     <row r="31" spans="1:24" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="195"/>
-      <c r="B31" s="196"/>
-      <c r="C31" s="44"/>
-      <c r="D31" s="139" t="str">
+      <c r="A31" s="43"/>
+      <c r="B31" s="44"/>
+      <c r="C31" s="20"/>
+      <c r="D31" s="184" t="str">
         <f>IF(J31&lt;&gt;"",MOD(J31+K32,360),"")</f>
         <v/>
       </c>
-      <c r="E31" s="140"/>
-      <c r="F31" s="176"/>
-      <c r="G31" s="28"/>
-      <c r="H31" s="29"/>
-      <c r="I31" s="81"/>
-      <c r="J31" s="28"/>
-      <c r="K31" s="12" t="str">
+      <c r="E31" s="137"/>
+      <c r="F31" s="187"/>
+      <c r="G31" s="150"/>
+      <c r="H31" s="151"/>
+      <c r="I31" s="139"/>
+      <c r="J31" s="150"/>
+      <c r="K31" s="196" t="str">
         <f>IF(J31&lt;&gt;"",IF(ISNUMBER(J32),MOD(J31+J32,360),J31),"")</f>
         <v/>
       </c>
-      <c r="L31" s="11" t="str">
+      <c r="L31" s="197" t="str">
         <f>IF(K31&lt;&gt;"",MOD(K31+K32,360),"")</f>
         <v/>
       </c>
-      <c r="M31" s="143" t="str">
+      <c r="M31" s="193" t="str">
         <f>IF(L31&lt;&gt;"",MOD(L31+L32,360),"")</f>
         <v/>
       </c>
-      <c r="N31" s="14" t="str">
+      <c r="N31" s="189" t="str">
         <f>IF(AND(ISNUMBER(O31),ISNUMBER(P31)),ROUND(P31*O31/60,0),"")</f>
         <v/>
       </c>
-      <c r="O31" s="12" t="str">
+      <c r="O31" s="196" t="str">
         <f>IF(ISNUMBER(I31),SQRT((H31^2) + (I31^2) - (2*H31*I31*COS(   ACOS(COS(RADIANS(J31-G31)))   ) ) ),"")</f>
         <v/>
       </c>
-      <c r="P31" s="43"/>
-      <c r="Q31" s="16"/>
-      <c r="R31" s="15" t="str">
+      <c r="P31" s="151"/>
+      <c r="Q31" s="181"/>
+      <c r="R31" s="153" t="str">
         <f>IF(ISNUMBER(P31),P31*$R$10/60,"")</f>
         <v/>
       </c>
       <c r="S31" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="T31" s="92"/>
-      <c r="U31" s="92"/>
+      <c r="T31" s="178"/>
+      <c r="U31" s="178"/>
       <c r="V31" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="W31" s="92"/>
-      <c r="X31" s="93"/>
+      <c r="W31" s="178"/>
+      <c r="X31" s="179"/>
     </row>
     <row r="32" spans="1:24" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="197" t="s">
+      <c r="A32" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="B32" s="198"/>
-      <c r="C32" s="60"/>
-      <c r="D32" s="166"/>
-      <c r="E32" s="167"/>
-      <c r="F32" s="177"/>
-      <c r="G32" s="202"/>
-      <c r="H32" s="109"/>
-      <c r="I32" s="110"/>
-      <c r="J32" s="14" t="str">
+      <c r="B32" s="46"/>
+      <c r="C32" s="32"/>
+      <c r="D32" s="185"/>
+      <c r="E32" s="142"/>
+      <c r="F32" s="188"/>
+      <c r="G32" s="152"/>
+      <c r="H32" s="143"/>
+      <c r="I32" s="144"/>
+      <c r="J32" s="189" t="str">
         <f>IF(G31&lt;&gt;"",DEGREES(ASIN(H31/I31*SIN(RADIANS(G31-J31)))),"")</f>
         <v/>
       </c>
-      <c r="K32" s="31"/>
-      <c r="L32" s="23"/>
-      <c r="M32" s="169"/>
-      <c r="N32" s="41" t="str">
+      <c r="K32" s="154"/>
+      <c r="L32" s="155"/>
+      <c r="M32" s="194"/>
+      <c r="N32" s="200" t="str">
         <f>IF(ISNUMBER(N31),N12-SUM(N13,N15,N17,N19,N21,N23,N25,N27,N29,N31),"")</f>
         <v/>
       </c>
-      <c r="O32" s="32"/>
-      <c r="P32" s="32"/>
-      <c r="Q32" s="32"/>
-      <c r="R32" s="42" t="str">
+      <c r="O32" s="182"/>
+      <c r="P32" s="182"/>
+      <c r="Q32" s="182"/>
+      <c r="R32" s="199" t="str">
         <f>IF(AND(ISNUMBER(R30),ISNUMBER(R31)),R30-R31,"")</f>
         <v/>
       </c>
-      <c r="S32" s="157" t="s">
+      <c r="S32" s="70" t="s">
         <v>64</v>
       </c>
-      <c r="T32" s="158"/>
-      <c r="U32" s="69"/>
-      <c r="V32" s="69"/>
-      <c r="W32" s="69" t="s">
+      <c r="T32" s="71"/>
+      <c r="U32" s="82"/>
+      <c r="V32" s="82"/>
+      <c r="W32" s="82" t="s">
         <v>45</v>
       </c>
-      <c r="X32" s="70"/>
+      <c r="X32" s="119"/>
     </row>
     <row r="33" spans="1:24" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="199"/>
-      <c r="B33" s="200"/>
-      <c r="C33" s="53"/>
-      <c r="D33" s="161" t="s">
+      <c r="A33" s="47"/>
+      <c r="B33" s="48"/>
+      <c r="C33" s="26"/>
+      <c r="D33" s="74" t="s">
         <v>68</v>
       </c>
-      <c r="E33" s="162"/>
-      <c r="F33" s="162"/>
-      <c r="G33" s="162"/>
-      <c r="H33" s="162"/>
-      <c r="I33" s="162"/>
-      <c r="J33" s="162"/>
-      <c r="K33" s="162"/>
-      <c r="L33" s="162"/>
-      <c r="M33" s="163"/>
-      <c r="N33" s="54">
+      <c r="E33" s="75"/>
+      <c r="F33" s="75"/>
+      <c r="G33" s="75"/>
+      <c r="H33" s="75"/>
+      <c r="I33" s="75"/>
+      <c r="J33" s="75"/>
+      <c r="K33" s="75"/>
+      <c r="L33" s="75"/>
+      <c r="M33" s="76"/>
+      <c r="N33" s="27">
         <f>SUM(N13,N15,N17,N19,N21,N23,N25,N27,N29,N31)</f>
         <v>0</v>
       </c>
-      <c r="O33" s="49"/>
-      <c r="P33" s="49">
+      <c r="O33" s="23"/>
+      <c r="P33" s="23">
         <f>SUM(P13,P15,P17,P19,P21,P23,P25,P27,P29,P31)</f>
         <v>0</v>
       </c>
-      <c r="Q33" s="49"/>
-      <c r="R33" s="54">
+      <c r="Q33" s="23"/>
+      <c r="R33" s="27">
         <f>SUM(R13,R15,R17,R19,R21,R23,R25,R27,R29,R31)+$M$34</f>
         <v>0</v>
       </c>
-      <c r="S33" s="159" t="s">
+      <c r="S33" s="72" t="s">
         <v>65</v>
       </c>
-      <c r="T33" s="160"/>
-      <c r="U33" s="156"/>
-      <c r="V33" s="156"/>
-      <c r="W33" s="156"/>
-      <c r="X33" s="165"/>
+      <c r="T33" s="73"/>
+      <c r="U33" s="67"/>
+      <c r="V33" s="67"/>
+      <c r="W33" s="67"/>
+      <c r="X33" s="81"/>
     </row>
     <row r="34" spans="1:24" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="50" t="s">
+      <c r="A34" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="B34" s="55"/>
-      <c r="C34" s="56" t="s">
+      <c r="B34" s="28"/>
+      <c r="C34" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="D34" s="68"/>
-      <c r="E34" s="184" t="s">
+      <c r="D34" s="157"/>
+      <c r="E34" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="F34" s="184"/>
-      <c r="G34" s="51"/>
+      <c r="F34" s="39"/>
+      <c r="G34" s="158"/>
       <c r="H34" s="1"/>
-      <c r="I34" s="58" t="s">
+      <c r="I34" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="J34" s="57"/>
-      <c r="K34" s="192" t="s">
+      <c r="J34" s="159"/>
+      <c r="K34" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="L34" s="184"/>
-      <c r="M34" s="57"/>
+      <c r="L34" s="39"/>
+      <c r="M34" s="159"/>
       <c r="N34" s="1"/>
       <c r="O34" s="1"/>
-      <c r="P34" s="59" t="s">
+      <c r="P34" s="31" t="s">
         <v>62</v>
       </c>
       <c r="Q34" s="1"/>
-      <c r="R34" s="57"/>
+      <c r="R34" s="159"/>
       <c r="S34" s="1"/>
       <c r="T34" s="1"/>
-      <c r="U34" s="59" t="s">
+      <c r="U34" s="31" t="s">
         <v>63</v>
       </c>
       <c r="V34" s="1"/>
       <c r="W34" s="1"/>
-      <c r="X34" s="52"/>
+      <c r="X34" s="25"/>
     </row>
     <row r="35" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>76</v>
       </c>
-      <c r="B35" s="8" t="s">
+      <c r="B35" s="156" t="s">
         <v>75</v>
       </c>
       <c r="C35" t="s">
         <v>77</v>
       </c>
-      <c r="E35" s="9" t="s">
+      <c r="E35" s="183" t="s">
         <v>78</v>
       </c>
-      <c r="F35" s="9"/>
+      <c r="F35" s="183"/>
       <c r="G35" t="s">
         <v>81</v>
       </c>
-      <c r="L35" s="10" t="s">
+      <c r="L35" s="195" t="s">
         <v>79</v>
       </c>
       <c r="M35" t="s">
@@ -3760,65 +3760,102 @@
     </row>
   </sheetData>
   <mergeCells count="179">
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="K34:L34"/>
-    <mergeCell ref="A12:B13"/>
-    <mergeCell ref="A14:B15"/>
-    <mergeCell ref="A16:B17"/>
-    <mergeCell ref="A18:B19"/>
-    <mergeCell ref="A20:B21"/>
-    <mergeCell ref="A22:B23"/>
-    <mergeCell ref="A24:B25"/>
-    <mergeCell ref="A26:B27"/>
-    <mergeCell ref="A28:B29"/>
-    <mergeCell ref="A30:B31"/>
-    <mergeCell ref="A32:B33"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="G11:H12"/>
-    <mergeCell ref="M31:M32"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="I25:I26"/>
-    <mergeCell ref="I27:I28"/>
-    <mergeCell ref="I29:I30"/>
-    <mergeCell ref="I31:I32"/>
-    <mergeCell ref="M15:M16"/>
-    <mergeCell ref="M17:M18"/>
-    <mergeCell ref="M19:M20"/>
-    <mergeCell ref="M21:M22"/>
-    <mergeCell ref="M23:M24"/>
-    <mergeCell ref="M25:M26"/>
-    <mergeCell ref="M27:M28"/>
-    <mergeCell ref="M29:M30"/>
+    <mergeCell ref="W32:X32"/>
+    <mergeCell ref="T25:U25"/>
+    <mergeCell ref="T26:U26"/>
+    <mergeCell ref="T27:U27"/>
+    <mergeCell ref="T28:U28"/>
+    <mergeCell ref="S9:T10"/>
+    <mergeCell ref="U9:V10"/>
+    <mergeCell ref="W9:X10"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="S18:X18"/>
+    <mergeCell ref="S19:X19"/>
+    <mergeCell ref="S20:X20"/>
+    <mergeCell ref="W31:X31"/>
+    <mergeCell ref="S11:T11"/>
+    <mergeCell ref="S12:T12"/>
+    <mergeCell ref="S13:T13"/>
+    <mergeCell ref="A9:B11"/>
+    <mergeCell ref="D9:D12"/>
+    <mergeCell ref="E9:E12"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="J10:J12"/>
+    <mergeCell ref="G8:J8"/>
+    <mergeCell ref="F9:F12"/>
+    <mergeCell ref="O2:X8"/>
+    <mergeCell ref="G3:J3"/>
+    <mergeCell ref="G4:J4"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="G5:J5"/>
+    <mergeCell ref="G6:J6"/>
+    <mergeCell ref="G7:J7"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="K10:K12"/>
+    <mergeCell ref="L10:L12"/>
+    <mergeCell ref="H1:Q1"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="M13:M14"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="K3:N3"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="M9:M12"/>
+    <mergeCell ref="O11:O12"/>
+    <mergeCell ref="S14:T14"/>
+    <mergeCell ref="S15:T15"/>
+    <mergeCell ref="S16:T16"/>
+    <mergeCell ref="S17:T17"/>
+    <mergeCell ref="W11:X11"/>
+    <mergeCell ref="W12:X12"/>
+    <mergeCell ref="T29:U29"/>
+    <mergeCell ref="T30:U30"/>
+    <mergeCell ref="T31:U31"/>
+    <mergeCell ref="W24:X24"/>
+    <mergeCell ref="W25:X25"/>
+    <mergeCell ref="W26:X26"/>
+    <mergeCell ref="W27:X27"/>
+    <mergeCell ref="W28:X28"/>
+    <mergeCell ref="W29:X29"/>
+    <mergeCell ref="W30:X30"/>
+    <mergeCell ref="V22:X22"/>
+    <mergeCell ref="U11:V11"/>
+    <mergeCell ref="U12:V12"/>
+    <mergeCell ref="U15:V15"/>
+    <mergeCell ref="U16:V16"/>
+    <mergeCell ref="U13:V13"/>
+    <mergeCell ref="U14:V14"/>
+    <mergeCell ref="U17:V17"/>
     <mergeCell ref="S32:T32"/>
     <mergeCell ref="S33:T33"/>
     <mergeCell ref="D33:M33"/>
@@ -3843,102 +3880,65 @@
     <mergeCell ref="D31:D32"/>
     <mergeCell ref="E31:E32"/>
     <mergeCell ref="E13:E14"/>
-    <mergeCell ref="S14:T14"/>
-    <mergeCell ref="S15:T15"/>
-    <mergeCell ref="S16:T16"/>
-    <mergeCell ref="S17:T17"/>
-    <mergeCell ref="W11:X11"/>
-    <mergeCell ref="W12:X12"/>
-    <mergeCell ref="T29:U29"/>
-    <mergeCell ref="T30:U30"/>
-    <mergeCell ref="T31:U31"/>
-    <mergeCell ref="W24:X24"/>
-    <mergeCell ref="W25:X25"/>
-    <mergeCell ref="W26:X26"/>
-    <mergeCell ref="W27:X27"/>
-    <mergeCell ref="W28:X28"/>
-    <mergeCell ref="W29:X29"/>
-    <mergeCell ref="W30:X30"/>
-    <mergeCell ref="V22:X22"/>
-    <mergeCell ref="U11:V11"/>
-    <mergeCell ref="U12:V12"/>
-    <mergeCell ref="U15:V15"/>
-    <mergeCell ref="U16:V16"/>
-    <mergeCell ref="U13:V13"/>
-    <mergeCell ref="U14:V14"/>
-    <mergeCell ref="U17:V17"/>
-    <mergeCell ref="H1:Q1"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="M13:M14"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="K3:N3"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="M9:M12"/>
-    <mergeCell ref="O11:O12"/>
-    <mergeCell ref="A9:B11"/>
-    <mergeCell ref="D9:D12"/>
-    <mergeCell ref="E9:E12"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="J10:J12"/>
-    <mergeCell ref="G8:J8"/>
-    <mergeCell ref="F9:F12"/>
-    <mergeCell ref="O2:X8"/>
-    <mergeCell ref="G3:J3"/>
-    <mergeCell ref="G4:J4"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="G5:J5"/>
-    <mergeCell ref="G6:J6"/>
-    <mergeCell ref="G7:J7"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="K10:K12"/>
-    <mergeCell ref="L10:L12"/>
-    <mergeCell ref="W32:X32"/>
-    <mergeCell ref="T25:U25"/>
-    <mergeCell ref="T26:U26"/>
-    <mergeCell ref="T27:U27"/>
-    <mergeCell ref="T28:U28"/>
-    <mergeCell ref="S9:T10"/>
-    <mergeCell ref="U9:V10"/>
-    <mergeCell ref="W9:X10"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="S18:X18"/>
-    <mergeCell ref="S19:X19"/>
-    <mergeCell ref="S20:X20"/>
-    <mergeCell ref="W31:X31"/>
-    <mergeCell ref="S11:T11"/>
-    <mergeCell ref="S12:T12"/>
-    <mergeCell ref="S13:T13"/>
+    <mergeCell ref="M31:M32"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="I25:I26"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="I29:I30"/>
+    <mergeCell ref="I31:I32"/>
+    <mergeCell ref="M15:M16"/>
+    <mergeCell ref="M17:M18"/>
+    <mergeCell ref="M19:M20"/>
+    <mergeCell ref="M21:M22"/>
+    <mergeCell ref="M23:M24"/>
+    <mergeCell ref="M25:M26"/>
+    <mergeCell ref="M27:M28"/>
+    <mergeCell ref="M29:M30"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="G11:H12"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="A12:B13"/>
+    <mergeCell ref="A14:B15"/>
+    <mergeCell ref="A16:B17"/>
+    <mergeCell ref="A18:B19"/>
+    <mergeCell ref="A20:B21"/>
+    <mergeCell ref="A22:B23"/>
+    <mergeCell ref="A24:B25"/>
+    <mergeCell ref="A26:B27"/>
+    <mergeCell ref="A28:B29"/>
+    <mergeCell ref="A30:B31"/>
+    <mergeCell ref="A32:B33"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="G32:H32"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="R1" r:id="rId1" xr:uid="{A3AF2B82-9261-4E31-AF70-31D3D7157CB2}"/>

--- a/vaayuyaana/jagiNavLog.xlsx
+++ b/vaayuyaana/jagiNavLog.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\hanchu\code\github.com\jkanasu\utilities\vaayuyaana\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jagadishn\Documents\jagi\haaru\checkRide\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{778DC308-82AC-4B0E-A337-F2B3219C6E3D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACED3FFC-AF7D-4D6F-A3DA-92B8EECA4119}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E3DE2A8C-E23C-4F63-95E8-9AD5B4E402C0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{E3DE2A8C-E23C-4F63-95E8-9AD5B4E402C0}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="navLog" sheetId="1" r:id="rId1"/>
+    <sheet name="tools" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="122">
   <si>
     <t>Weight</t>
   </si>
@@ -406,6 +407,96 @@
       </rPr>
       <t>(TC +/- VAR)</t>
     </r>
+  </si>
+  <si>
+    <t>°C</t>
+  </si>
+  <si>
+    <t>°F</t>
+  </si>
+  <si>
+    <t>Temperature Conversion</t>
+  </si>
+  <si>
+    <t>Time, speed and distance</t>
+  </si>
+  <si>
+    <t>time(min)</t>
+  </si>
+  <si>
+    <t>distance</t>
+  </si>
+  <si>
+    <t>speed /hr</t>
+  </si>
+  <si>
+    <t>Fuel consumption</t>
+  </si>
+  <si>
+    <t>gallons</t>
+  </si>
+  <si>
+    <t>Knots</t>
+  </si>
+  <si>
+    <t>Miles</t>
+  </si>
+  <si>
+    <t>KM</t>
+  </si>
+  <si>
+    <t>Gallons</t>
+  </si>
+  <si>
+    <t>Pound(lb)</t>
+  </si>
+  <si>
+    <t>Quarts</t>
+  </si>
+  <si>
+    <t>Kg</t>
+  </si>
+  <si>
+    <t>Liter</t>
+  </si>
+  <si>
+    <t>Std °C</t>
+  </si>
+  <si>
+    <t>Dev °C</t>
+  </si>
+  <si>
+    <t>PresAlt</t>
+  </si>
+  <si>
+    <t>Speed Conversion</t>
+  </si>
+  <si>
+    <t>Fuel Weight Conversion</t>
+  </si>
+  <si>
+    <t>OAT °C</t>
+  </si>
+  <si>
+    <t>DenAlt</t>
+  </si>
+  <si>
+    <t>Altitude Calcuation given OAT ----- PA --&gt; DA</t>
+  </si>
+  <si>
+    <t>Elevation</t>
+  </si>
+  <si>
+    <t>Pres Hg</t>
+  </si>
+  <si>
+    <t>TAS given IAS and OAT</t>
+  </si>
+  <si>
+    <t>ISA for a particular Altitude</t>
+  </si>
+  <si>
+    <t>Altitude given Altimeter &amp; Elevation --&gt; PA</t>
   </si>
 </sst>
 </file>
@@ -483,7 +574,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -508,6 +599,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="63">
     <border>
@@ -1292,7 +1395,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="201">
+  <cellXfs count="214">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1408,6 +1511,98 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -1438,6 +1633,18 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1462,6 +1669,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1471,6 +1684,24 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1483,6 +1714,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1495,10 +1735,22 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1522,24 +1774,69 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1549,7 +1846,19 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1630,6 +1939,18 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1681,212 +2002,29 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2291,7 +2429,7 @@
   <dimension ref="A1:X35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="Z13" sqref="Z13"/>
+      <selection activeCell="Z9" sqref="Z9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2310,29 +2448,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="87" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="39" t="s">
+      <c r="B1" s="88"/>
+      <c r="C1" s="73" t="s">
         <v>87</v>
       </c>
-      <c r="D1" s="39"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="92"/>
       <c r="G1" s="1"/>
-      <c r="H1" s="85" t="s">
+      <c r="H1" s="153" t="s">
         <v>56</v>
       </c>
-      <c r="I1" s="85"/>
-      <c r="J1" s="85"/>
-      <c r="K1" s="85"/>
-      <c r="L1" s="85"/>
-      <c r="M1" s="85"/>
-      <c r="N1" s="85"/>
-      <c r="O1" s="85"/>
-      <c r="P1" s="85"/>
-      <c r="Q1" s="85"/>
+      <c r="I1" s="153"/>
+      <c r="J1" s="153"/>
+      <c r="K1" s="153"/>
+      <c r="L1" s="153"/>
+      <c r="M1" s="153"/>
+      <c r="N1" s="153"/>
+      <c r="O1" s="153"/>
+      <c r="P1" s="153"/>
+      <c r="Q1" s="153"/>
       <c r="R1" s="35" t="s">
         <v>88</v>
       </c>
@@ -2347,241 +2485,241 @@
       <c r="A2" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="B2" s="130"/>
+      <c r="B2" s="39"/>
       <c r="C2" s="34" t="s">
         <v>70</v>
       </c>
-      <c r="D2" s="130"/>
+      <c r="D2" s="39"/>
       <c r="E2" s="34" t="s">
         <v>71</v>
       </c>
-      <c r="F2" s="131"/>
-      <c r="G2" s="132"/>
+      <c r="F2" s="95"/>
+      <c r="G2" s="96"/>
       <c r="H2" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="I2" s="133"/>
-      <c r="J2" s="134"/>
+      <c r="I2" s="185"/>
+      <c r="J2" s="186"/>
       <c r="K2" s="23" t="s">
         <v>73</v>
       </c>
       <c r="L2" s="22"/>
-      <c r="M2" s="131"/>
-      <c r="N2" s="131"/>
-      <c r="O2" s="104"/>
-      <c r="P2" s="105"/>
-      <c r="Q2" s="105"/>
-      <c r="R2" s="105"/>
-      <c r="S2" s="105"/>
-      <c r="T2" s="105"/>
-      <c r="U2" s="105"/>
-      <c r="V2" s="105"/>
-      <c r="W2" s="105"/>
-      <c r="X2" s="106"/>
+      <c r="M2" s="95"/>
+      <c r="N2" s="95"/>
+      <c r="O2" s="176"/>
+      <c r="P2" s="177"/>
+      <c r="Q2" s="177"/>
+      <c r="R2" s="177"/>
+      <c r="S2" s="177"/>
+      <c r="T2" s="177"/>
+      <c r="U2" s="177"/>
+      <c r="V2" s="177"/>
+      <c r="W2" s="177"/>
+      <c r="X2" s="178"/>
     </row>
     <row r="3" spans="1:24" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="51"/>
-      <c r="B3" s="52"/>
-      <c r="C3" s="53"/>
-      <c r="D3" s="57" t="s">
+      <c r="A3" s="89"/>
+      <c r="B3" s="90"/>
+      <c r="C3" s="91"/>
+      <c r="D3" s="97" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="58"/>
-      <c r="F3" s="59"/>
-      <c r="G3" s="79" t="s">
+      <c r="E3" s="98"/>
+      <c r="F3" s="99"/>
+      <c r="G3" s="140" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="79"/>
-      <c r="I3" s="79"/>
-      <c r="J3" s="80"/>
-      <c r="K3" s="86" t="s">
+      <c r="H3" s="140"/>
+      <c r="I3" s="140"/>
+      <c r="J3" s="141"/>
+      <c r="K3" s="156" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="79"/>
-      <c r="M3" s="79"/>
-      <c r="N3" s="57"/>
-      <c r="O3" s="107"/>
-      <c r="P3" s="108"/>
-      <c r="Q3" s="108"/>
-      <c r="R3" s="108"/>
-      <c r="S3" s="108"/>
-      <c r="T3" s="108"/>
-      <c r="U3" s="108"/>
-      <c r="V3" s="108"/>
-      <c r="W3" s="108"/>
-      <c r="X3" s="109"/>
+      <c r="L3" s="140"/>
+      <c r="M3" s="140"/>
+      <c r="N3" s="97"/>
+      <c r="O3" s="179"/>
+      <c r="P3" s="180"/>
+      <c r="Q3" s="180"/>
+      <c r="R3" s="180"/>
+      <c r="S3" s="180"/>
+      <c r="T3" s="180"/>
+      <c r="U3" s="180"/>
+      <c r="V3" s="180"/>
+      <c r="W3" s="180"/>
+      <c r="X3" s="181"/>
     </row>
     <row r="4" spans="1:24" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="55" t="s">
+      <c r="A4" s="93" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="56"/>
-      <c r="C4" s="56"/>
-      <c r="D4" s="135"/>
-      <c r="E4" s="136"/>
-      <c r="F4" s="137"/>
-      <c r="G4" s="138"/>
-      <c r="H4" s="138"/>
-      <c r="I4" s="138"/>
-      <c r="J4" s="139"/>
-      <c r="K4" s="60" t="s">
+      <c r="B4" s="94"/>
+      <c r="C4" s="94"/>
+      <c r="D4" s="100"/>
+      <c r="E4" s="101"/>
+      <c r="F4" s="102"/>
+      <c r="G4" s="112"/>
+      <c r="H4" s="112"/>
+      <c r="I4" s="112"/>
+      <c r="J4" s="121"/>
+      <c r="K4" s="106" t="s">
         <v>6</v>
       </c>
-      <c r="L4" s="61"/>
-      <c r="M4" s="163"/>
-      <c r="N4" s="164"/>
-      <c r="O4" s="107"/>
-      <c r="P4" s="108"/>
-      <c r="Q4" s="108"/>
-      <c r="R4" s="108"/>
-      <c r="S4" s="108"/>
-      <c r="T4" s="108"/>
-      <c r="U4" s="108"/>
-      <c r="V4" s="108"/>
-      <c r="W4" s="108"/>
-      <c r="X4" s="109"/>
+      <c r="L4" s="107"/>
+      <c r="M4" s="157"/>
+      <c r="N4" s="158"/>
+      <c r="O4" s="179"/>
+      <c r="P4" s="180"/>
+      <c r="Q4" s="180"/>
+      <c r="R4" s="180"/>
+      <c r="S4" s="180"/>
+      <c r="T4" s="180"/>
+      <c r="U4" s="180"/>
+      <c r="V4" s="180"/>
+      <c r="W4" s="180"/>
+      <c r="X4" s="181"/>
     </row>
     <row r="5" spans="1:24" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="55" t="s">
+      <c r="A5" s="93" t="s">
         <v>84</v>
       </c>
-      <c r="B5" s="56"/>
-      <c r="C5" s="56"/>
-      <c r="D5" s="135"/>
-      <c r="E5" s="136"/>
-      <c r="F5" s="137"/>
-      <c r="G5" s="138"/>
-      <c r="H5" s="138"/>
-      <c r="I5" s="138"/>
-      <c r="J5" s="139"/>
-      <c r="K5" s="60" t="s">
+      <c r="B5" s="94"/>
+      <c r="C5" s="94"/>
+      <c r="D5" s="100"/>
+      <c r="E5" s="101"/>
+      <c r="F5" s="102"/>
+      <c r="G5" s="112"/>
+      <c r="H5" s="112"/>
+      <c r="I5" s="112"/>
+      <c r="J5" s="121"/>
+      <c r="K5" s="106" t="s">
         <v>7</v>
       </c>
-      <c r="L5" s="61"/>
-      <c r="M5" s="163"/>
-      <c r="N5" s="164"/>
-      <c r="O5" s="107"/>
-      <c r="P5" s="108"/>
-      <c r="Q5" s="108"/>
-      <c r="R5" s="108"/>
-      <c r="S5" s="108"/>
-      <c r="T5" s="108"/>
-      <c r="U5" s="108"/>
-      <c r="V5" s="108"/>
-      <c r="W5" s="108"/>
-      <c r="X5" s="109"/>
+      <c r="L5" s="107"/>
+      <c r="M5" s="157"/>
+      <c r="N5" s="158"/>
+      <c r="O5" s="179"/>
+      <c r="P5" s="180"/>
+      <c r="Q5" s="180"/>
+      <c r="R5" s="180"/>
+      <c r="S5" s="180"/>
+      <c r="T5" s="180"/>
+      <c r="U5" s="180"/>
+      <c r="V5" s="180"/>
+      <c r="W5" s="180"/>
+      <c r="X5" s="181"/>
     </row>
     <row r="6" spans="1:24" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="55" t="s">
+      <c r="A6" s="93" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="56"/>
-      <c r="C6" s="56"/>
-      <c r="D6" s="135"/>
-      <c r="E6" s="136"/>
-      <c r="F6" s="137"/>
-      <c r="G6" s="138"/>
-      <c r="H6" s="138"/>
-      <c r="I6" s="138"/>
-      <c r="J6" s="139"/>
-      <c r="K6" s="60" t="s">
+      <c r="B6" s="94"/>
+      <c r="C6" s="94"/>
+      <c r="D6" s="100"/>
+      <c r="E6" s="101"/>
+      <c r="F6" s="102"/>
+      <c r="G6" s="112"/>
+      <c r="H6" s="112"/>
+      <c r="I6" s="112"/>
+      <c r="J6" s="121"/>
+      <c r="K6" s="106" t="s">
         <v>8</v>
       </c>
-      <c r="L6" s="61"/>
-      <c r="M6" s="163"/>
-      <c r="N6" s="164"/>
-      <c r="O6" s="107"/>
-      <c r="P6" s="108"/>
-      <c r="Q6" s="108"/>
-      <c r="R6" s="108"/>
-      <c r="S6" s="108"/>
-      <c r="T6" s="108"/>
-      <c r="U6" s="108"/>
-      <c r="V6" s="108"/>
-      <c r="W6" s="108"/>
-      <c r="X6" s="109"/>
+      <c r="L6" s="107"/>
+      <c r="M6" s="157"/>
+      <c r="N6" s="158"/>
+      <c r="O6" s="179"/>
+      <c r="P6" s="180"/>
+      <c r="Q6" s="180"/>
+      <c r="R6" s="180"/>
+      <c r="S6" s="180"/>
+      <c r="T6" s="180"/>
+      <c r="U6" s="180"/>
+      <c r="V6" s="180"/>
+      <c r="W6" s="180"/>
+      <c r="X6" s="181"/>
     </row>
     <row r="7" spans="1:24" ht="21" x14ac:dyDescent="0.25">
-      <c r="A7" s="55" t="s">
+      <c r="A7" s="93" t="s">
         <v>74</v>
       </c>
-      <c r="B7" s="56"/>
-      <c r="C7" s="56"/>
-      <c r="D7" s="135"/>
-      <c r="E7" s="136"/>
-      <c r="F7" s="137"/>
-      <c r="G7" s="138"/>
-      <c r="H7" s="138"/>
-      <c r="I7" s="138"/>
-      <c r="J7" s="139"/>
-      <c r="K7" s="60" t="s">
+      <c r="B7" s="94"/>
+      <c r="C7" s="94"/>
+      <c r="D7" s="100"/>
+      <c r="E7" s="101"/>
+      <c r="F7" s="102"/>
+      <c r="G7" s="112"/>
+      <c r="H7" s="112"/>
+      <c r="I7" s="112"/>
+      <c r="J7" s="121"/>
+      <c r="K7" s="106" t="s">
         <v>9</v>
       </c>
-      <c r="L7" s="61"/>
-      <c r="M7" s="163"/>
-      <c r="N7" s="164"/>
-      <c r="O7" s="107"/>
-      <c r="P7" s="108"/>
-      <c r="Q7" s="108"/>
-      <c r="R7" s="108"/>
-      <c r="S7" s="108"/>
-      <c r="T7" s="108"/>
-      <c r="U7" s="108"/>
-      <c r="V7" s="108"/>
-      <c r="W7" s="108"/>
-      <c r="X7" s="109"/>
+      <c r="L7" s="107"/>
+      <c r="M7" s="157"/>
+      <c r="N7" s="158"/>
+      <c r="O7" s="179"/>
+      <c r="P7" s="180"/>
+      <c r="Q7" s="180"/>
+      <c r="R7" s="180"/>
+      <c r="S7" s="180"/>
+      <c r="T7" s="180"/>
+      <c r="U7" s="180"/>
+      <c r="V7" s="180"/>
+      <c r="W7" s="180"/>
+      <c r="X7" s="181"/>
     </row>
     <row r="8" spans="1:24" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="113" t="s">
+      <c r="A8" s="189" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="114"/>
-      <c r="C8" s="114"/>
-      <c r="D8" s="140"/>
-      <c r="E8" s="141"/>
-      <c r="F8" s="142"/>
-      <c r="G8" s="143"/>
-      <c r="H8" s="143"/>
-      <c r="I8" s="143"/>
-      <c r="J8" s="144"/>
-      <c r="K8" s="62" t="s">
+      <c r="B8" s="190"/>
+      <c r="C8" s="190"/>
+      <c r="D8" s="103"/>
+      <c r="E8" s="104"/>
+      <c r="F8" s="105"/>
+      <c r="G8" s="86"/>
+      <c r="H8" s="86"/>
+      <c r="I8" s="86"/>
+      <c r="J8" s="122"/>
+      <c r="K8" s="108" t="s">
         <v>10</v>
       </c>
-      <c r="L8" s="63"/>
-      <c r="M8" s="165"/>
-      <c r="N8" s="166"/>
-      <c r="O8" s="110"/>
-      <c r="P8" s="111"/>
-      <c r="Q8" s="111"/>
-      <c r="R8" s="111"/>
-      <c r="S8" s="111"/>
-      <c r="T8" s="111"/>
-      <c r="U8" s="111"/>
-      <c r="V8" s="111"/>
-      <c r="W8" s="111"/>
-      <c r="X8" s="112"/>
+      <c r="L8" s="109"/>
+      <c r="M8" s="187"/>
+      <c r="N8" s="188"/>
+      <c r="O8" s="182"/>
+      <c r="P8" s="183"/>
+      <c r="Q8" s="183"/>
+      <c r="R8" s="183"/>
+      <c r="S8" s="183"/>
+      <c r="T8" s="183"/>
+      <c r="U8" s="183"/>
+      <c r="V8" s="183"/>
+      <c r="W8" s="183"/>
+      <c r="X8" s="184"/>
     </row>
     <row r="9" spans="1:24" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="86" t="s">
+      <c r="A9" s="156" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="80"/>
+      <c r="B9" s="141"/>
       <c r="C9" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="93" t="s">
+      <c r="D9" s="165" t="s">
         <v>91</v>
       </c>
-      <c r="E9" s="96" t="s">
+      <c r="E9" s="168" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="101" t="s">
+      <c r="F9" s="173" t="s">
         <v>85</v>
       </c>
-      <c r="G9" s="86" t="s">
+      <c r="G9" s="156" t="s">
         <v>16</v>
       </c>
-      <c r="H9" s="79"/>
+      <c r="H9" s="140"/>
       <c r="I9" s="18" t="s">
         <v>83</v>
       </c>
@@ -2594,7 +2732,7 @@
       <c r="L9" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="M9" s="58" t="s">
+      <c r="M9" s="98" t="s">
         <v>23</v>
       </c>
       <c r="N9" s="8" t="s">
@@ -2603,35 +2741,35 @@
       <c r="O9" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="P9" s="79" t="s">
+      <c r="P9" s="140" t="s">
         <v>32</v>
       </c>
-      <c r="Q9" s="79"/>
+      <c r="Q9" s="140"/>
       <c r="R9" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="S9" s="59" t="s">
+      <c r="S9" s="99" t="s">
         <v>37</v>
       </c>
-      <c r="T9" s="79"/>
-      <c r="U9" s="120" t="s">
+      <c r="T9" s="140"/>
+      <c r="U9" s="196" t="s">
         <v>66</v>
       </c>
-      <c r="V9" s="79"/>
-      <c r="W9" s="79" t="s">
+      <c r="V9" s="140"/>
+      <c r="W9" s="140" t="s">
         <v>38</v>
       </c>
-      <c r="X9" s="80"/>
+      <c r="X9" s="141"/>
     </row>
     <row r="10" spans="1:24" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="90"/>
-      <c r="B10" s="91"/>
+      <c r="A10" s="162"/>
+      <c r="B10" s="163"/>
       <c r="C10" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="94"/>
-      <c r="E10" s="97"/>
-      <c r="F10" s="102"/>
+      <c r="D10" s="166"/>
+      <c r="E10" s="169"/>
+      <c r="F10" s="174"/>
       <c r="G10" s="14" t="s">
         <v>17</v>
       </c>
@@ -2641,59 +2779,59 @@
       <c r="I10" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="J10" s="99" t="s">
+      <c r="J10" s="171" t="s">
         <v>24</v>
       </c>
-      <c r="K10" s="115" t="s">
+      <c r="K10" s="191" t="s">
         <v>25</v>
       </c>
-      <c r="L10" s="117" t="s">
+      <c r="L10" s="193" t="s">
         <v>26</v>
       </c>
-      <c r="M10" s="87"/>
+      <c r="M10" s="159"/>
       <c r="N10" s="14" t="s">
         <v>27</v>
       </c>
       <c r="O10" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="P10" s="170"/>
-      <c r="Q10" s="170"/>
-      <c r="R10" s="153" t="str">
+      <c r="P10" s="131"/>
+      <c r="Q10" s="131"/>
+      <c r="R10" s="44" t="str">
         <f>IF(ISNUMBER(J34),J34,"")</f>
         <v/>
       </c>
-      <c r="S10" s="77"/>
-      <c r="T10" s="78"/>
-      <c r="U10" s="78"/>
-      <c r="V10" s="78"/>
-      <c r="W10" s="78"/>
-      <c r="X10" s="83"/>
+      <c r="S10" s="135"/>
+      <c r="T10" s="136"/>
+      <c r="U10" s="136"/>
+      <c r="V10" s="136"/>
+      <c r="W10" s="136"/>
+      <c r="X10" s="151"/>
     </row>
     <row r="11" spans="1:24" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="92"/>
-      <c r="B11" s="83"/>
+      <c r="A11" s="164"/>
+      <c r="B11" s="151"/>
       <c r="C11" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="94"/>
-      <c r="E11" s="97"/>
-      <c r="F11" s="102"/>
-      <c r="G11" s="64" t="s">
+      <c r="D11" s="166"/>
+      <c r="E11" s="169"/>
+      <c r="F11" s="174"/>
+      <c r="G11" s="113" t="s">
         <v>86</v>
       </c>
-      <c r="H11" s="65"/>
-      <c r="I11" s="68" t="s">
+      <c r="H11" s="114"/>
+      <c r="I11" s="119" t="s">
         <v>19</v>
       </c>
-      <c r="J11" s="99"/>
-      <c r="K11" s="115"/>
-      <c r="L11" s="117"/>
-      <c r="M11" s="87"/>
+      <c r="J11" s="171"/>
+      <c r="K11" s="191"/>
+      <c r="L11" s="193"/>
+      <c r="M11" s="159"/>
       <c r="N11" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="O11" s="65" t="s">
+      <c r="O11" s="114" t="s">
         <v>31</v>
       </c>
       <c r="P11" s="13" t="s">
@@ -2705,33 +2843,33 @@
       <c r="R11" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="S11" s="167"/>
-      <c r="T11" s="168"/>
-      <c r="U11" s="84" t="s">
+      <c r="S11" s="137"/>
+      <c r="T11" s="138"/>
+      <c r="U11" s="152" t="s">
         <v>39</v>
       </c>
-      <c r="V11" s="84"/>
-      <c r="W11" s="168"/>
-      <c r="X11" s="173"/>
+      <c r="V11" s="152"/>
+      <c r="W11" s="138"/>
+      <c r="X11" s="139"/>
     </row>
     <row r="12" spans="1:24" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="41" t="s">
+      <c r="A12" s="75" t="s">
         <v>37</v>
       </c>
-      <c r="B12" s="42"/>
+      <c r="B12" s="76"/>
       <c r="C12" s="3"/>
-      <c r="D12" s="95"/>
-      <c r="E12" s="98"/>
-      <c r="F12" s="103"/>
-      <c r="G12" s="66"/>
-      <c r="H12" s="67"/>
-      <c r="I12" s="69"/>
-      <c r="J12" s="100"/>
-      <c r="K12" s="116"/>
-      <c r="L12" s="118"/>
-      <c r="M12" s="88"/>
-      <c r="N12" s="160"/>
-      <c r="O12" s="89"/>
+      <c r="D12" s="167"/>
+      <c r="E12" s="170"/>
+      <c r="F12" s="175"/>
+      <c r="G12" s="115"/>
+      <c r="H12" s="116"/>
+      <c r="I12" s="120"/>
+      <c r="J12" s="172"/>
+      <c r="K12" s="192"/>
+      <c r="L12" s="194"/>
+      <c r="M12" s="160"/>
+      <c r="N12" s="51"/>
+      <c r="O12" s="161"/>
       <c r="P12" s="11" t="s">
         <v>33</v>
       </c>
@@ -2741,936 +2879,936 @@
       <c r="R12" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="S12" s="169"/>
-      <c r="T12" s="170"/>
-      <c r="U12" s="65" t="s">
+      <c r="S12" s="147"/>
+      <c r="T12" s="131"/>
+      <c r="U12" s="114" t="s">
         <v>16</v>
       </c>
-      <c r="V12" s="65"/>
-      <c r="W12" s="170"/>
-      <c r="X12" s="174"/>
+      <c r="V12" s="114"/>
+      <c r="W12" s="131"/>
+      <c r="X12" s="132"/>
     </row>
     <row r="13" spans="1:24" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="43"/>
-      <c r="B13" s="44"/>
+      <c r="A13" s="77"/>
+      <c r="B13" s="78"/>
       <c r="C13" s="20"/>
-      <c r="D13" s="184" t="str">
+      <c r="D13" s="130" t="str">
         <f>IF(J13&lt;&gt;"",MOD(J13+K14,360),"")</f>
         <v/>
       </c>
-      <c r="E13" s="145"/>
-      <c r="F13" s="186" t="str">
+      <c r="E13" s="146"/>
+      <c r="F13" s="83" t="str">
         <f>IF(ISNUMBER(E13),15-E13/1000*2,"")</f>
         <v/>
       </c>
-      <c r="G13" s="146"/>
-      <c r="H13" s="147"/>
-      <c r="I13" s="148"/>
-      <c r="J13" s="146"/>
-      <c r="K13" s="190" t="str">
+      <c r="G13" s="40"/>
+      <c r="H13" s="41"/>
+      <c r="I13" s="154"/>
+      <c r="J13" s="40"/>
+      <c r="K13" s="59" t="str">
         <f>IF(J13&lt;&gt;"",IF(ISNUMBER(J14),MOD(J13+J14,360),J13),"")</f>
         <v/>
       </c>
-      <c r="L13" s="191" t="str">
+      <c r="L13" s="60" t="str">
         <f>IF(K13&lt;&gt;"",MOD(K13+K14,360),"")</f>
         <v/>
       </c>
-      <c r="M13" s="192" t="str">
+      <c r="M13" s="155" t="str">
         <f>IF(L13&lt;&gt;"",MOD(L13+L14,360),"")</f>
         <v/>
       </c>
-      <c r="N13" s="189" t="str">
+      <c r="N13" s="58" t="str">
         <f>IF(AND(ISNUMBER(O13),ISNUMBER(P13)),ROUND(P13*O13/60,0),"")</f>
         <v/>
       </c>
-      <c r="O13" s="198" t="str">
+      <c r="O13" s="64" t="str">
         <f>IF(ISNUMBER(I13),SQRT((H13^2) + (I13^2) - (2*H13*I13*COS(   ACOS(COS(RADIANS(J13-G13)))   ) ) ),"")</f>
         <v/>
       </c>
-      <c r="P13" s="161"/>
-      <c r="Q13" s="180"/>
-      <c r="R13" s="162" t="str">
+      <c r="P13" s="52"/>
+      <c r="Q13" s="54"/>
+      <c r="R13" s="53" t="str">
         <f>IF(ISNUMBER(P13),P13*$R$10/60,"")</f>
         <v/>
       </c>
-      <c r="S13" s="169"/>
-      <c r="T13" s="170"/>
-      <c r="U13" s="65" t="s">
+      <c r="S13" s="147"/>
+      <c r="T13" s="131"/>
+      <c r="U13" s="114" t="s">
         <v>40</v>
       </c>
-      <c r="V13" s="65"/>
-      <c r="W13" s="170"/>
-      <c r="X13" s="174"/>
+      <c r="V13" s="114"/>
+      <c r="W13" s="131"/>
+      <c r="X13" s="132"/>
     </row>
     <row r="14" spans="1:24" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="45" t="s">
+      <c r="A14" s="79" t="s">
         <v>89</v>
       </c>
-      <c r="B14" s="46"/>
+      <c r="B14" s="80"/>
       <c r="C14" s="32"/>
-      <c r="D14" s="184"/>
-      <c r="E14" s="137"/>
-      <c r="F14" s="187"/>
-      <c r="G14" s="149"/>
-      <c r="H14" s="138"/>
-      <c r="I14" s="139"/>
-      <c r="J14" s="189" t="str">
+      <c r="D14" s="130"/>
+      <c r="E14" s="102"/>
+      <c r="F14" s="84"/>
+      <c r="G14" s="111"/>
+      <c r="H14" s="112"/>
+      <c r="I14" s="121"/>
+      <c r="J14" s="58" t="str">
         <f>IF(G13&lt;&gt;"",DEGREES(ASIN(H13/I13*SIN(RADIANS(G13-J13)))),"")</f>
         <v/>
       </c>
-      <c r="K14" s="151"/>
-      <c r="L14" s="153"/>
-      <c r="M14" s="193"/>
-      <c r="N14" s="189" t="str">
+      <c r="K14" s="43"/>
+      <c r="L14" s="44"/>
+      <c r="M14" s="117"/>
+      <c r="N14" s="58" t="str">
         <f>IF(ISNUMBER(N13),N12-N13,"")</f>
         <v/>
       </c>
-      <c r="O14" s="181"/>
-      <c r="P14" s="181"/>
-      <c r="Q14" s="181"/>
-      <c r="R14" s="197" t="str">
+      <c r="O14" s="55"/>
+      <c r="P14" s="55"/>
+      <c r="Q14" s="55"/>
+      <c r="R14" s="63" t="str">
         <f>IF(AND(ISNUMBER(R34),ISNUMBER(R13)),R34-$M$34-R13,"")</f>
         <v/>
       </c>
-      <c r="S14" s="169"/>
-      <c r="T14" s="170"/>
-      <c r="U14" s="65" t="s">
+      <c r="S14" s="147"/>
+      <c r="T14" s="131"/>
+      <c r="U14" s="114" t="s">
         <v>41</v>
       </c>
-      <c r="V14" s="65"/>
-      <c r="W14" s="170"/>
-      <c r="X14" s="174"/>
+      <c r="V14" s="114"/>
+      <c r="W14" s="131"/>
+      <c r="X14" s="132"/>
     </row>
     <row r="15" spans="1:24" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="43"/>
-      <c r="B15" s="44"/>
+      <c r="A15" s="77"/>
+      <c r="B15" s="78"/>
       <c r="C15" s="20"/>
-      <c r="D15" s="184" t="str">
+      <c r="D15" s="130" t="str">
         <f>IF(J15&lt;&gt;"",MOD(J15+K16,360),"")</f>
         <v/>
       </c>
-      <c r="E15" s="137"/>
-      <c r="F15" s="186" t="str">
+      <c r="E15" s="102"/>
+      <c r="F15" s="83" t="str">
         <f t="shared" ref="F15" si="0">IF(ISNUMBER(E15),15-E15/1000*2,"")</f>
         <v/>
       </c>
-      <c r="G15" s="150"/>
-      <c r="H15" s="151"/>
-      <c r="I15" s="139"/>
-      <c r="J15" s="150"/>
-      <c r="K15" s="196" t="str">
+      <c r="G15" s="42"/>
+      <c r="H15" s="43"/>
+      <c r="I15" s="121"/>
+      <c r="J15" s="42"/>
+      <c r="K15" s="62" t="str">
         <f>IF(J15&lt;&gt;"",IF(ISNUMBER(J16),MOD(J15+J16,360),J15),"")</f>
         <v/>
       </c>
-      <c r="L15" s="197" t="str">
+      <c r="L15" s="63" t="str">
         <f>IF(K15&lt;&gt;"",MOD(K15+K16,360),"")</f>
         <v/>
       </c>
-      <c r="M15" s="193" t="str">
+      <c r="M15" s="117" t="str">
         <f>IF(L15&lt;&gt;"",MOD(L15+L16,360),"")</f>
         <v/>
       </c>
-      <c r="N15" s="150"/>
-      <c r="O15" s="196" t="str">
+      <c r="N15" s="42"/>
+      <c r="O15" s="62" t="str">
         <f>IF(ISNUMBER(I15),SQRT((H15^2) + (I15^2) - (2*H15*I15*COS(   ACOS(COS(RADIANS(J15-G15)))   ) ) ),"")</f>
         <v/>
       </c>
-      <c r="P15" s="196" t="str">
+      <c r="P15" s="62" t="str">
         <f>IF(ISNUMBER(O15),ROUND(N15/O15*60,0),"")</f>
         <v/>
       </c>
-      <c r="Q15" s="181"/>
-      <c r="R15" s="153" t="str">
+      <c r="Q15" s="55"/>
+      <c r="R15" s="44" t="str">
         <f>IF(ISNUMBER(P15),P15*$R$10/60,"")</f>
         <v/>
       </c>
-      <c r="S15" s="169"/>
-      <c r="T15" s="170"/>
-      <c r="U15" s="65" t="s">
+      <c r="S15" s="147"/>
+      <c r="T15" s="131"/>
+      <c r="U15" s="114" t="s">
         <v>42</v>
       </c>
-      <c r="V15" s="65"/>
-      <c r="W15" s="170"/>
-      <c r="X15" s="174"/>
+      <c r="V15" s="114"/>
+      <c r="W15" s="131"/>
+      <c r="X15" s="132"/>
     </row>
     <row r="16" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="45"/>
-      <c r="B16" s="46"/>
+      <c r="A16" s="79"/>
+      <c r="B16" s="80"/>
       <c r="C16" s="32"/>
-      <c r="D16" s="184"/>
-      <c r="E16" s="137"/>
-      <c r="F16" s="187"/>
-      <c r="G16" s="149"/>
-      <c r="H16" s="138"/>
-      <c r="I16" s="139"/>
-      <c r="J16" s="189" t="str">
+      <c r="D16" s="130"/>
+      <c r="E16" s="102"/>
+      <c r="F16" s="84"/>
+      <c r="G16" s="111"/>
+      <c r="H16" s="112"/>
+      <c r="I16" s="121"/>
+      <c r="J16" s="58" t="str">
         <f>IF(G15&lt;&gt;"",DEGREES(ASIN(H15/I15*SIN(RADIANS(G15-J15)))),"")</f>
         <v/>
       </c>
-      <c r="K16" s="151"/>
-      <c r="L16" s="153"/>
-      <c r="M16" s="193"/>
-      <c r="N16" s="189" t="str">
+      <c r="K16" s="43"/>
+      <c r="L16" s="44"/>
+      <c r="M16" s="117"/>
+      <c r="N16" s="58" t="str">
         <f>IF(ISNUMBER(N15),N14-N15,"")</f>
         <v/>
       </c>
-      <c r="O16" s="181"/>
-      <c r="P16" s="181"/>
-      <c r="Q16" s="181"/>
-      <c r="R16" s="197" t="str">
+      <c r="O16" s="55"/>
+      <c r="P16" s="55"/>
+      <c r="Q16" s="55"/>
+      <c r="R16" s="63" t="str">
         <f>IF(AND(ISNUMBER(R14),ISNUMBER(R15)),R14-R15,"")</f>
         <v/>
       </c>
-      <c r="S16" s="169"/>
-      <c r="T16" s="170"/>
-      <c r="U16" s="65" t="s">
+      <c r="S16" s="147"/>
+      <c r="T16" s="131"/>
+      <c r="U16" s="114" t="s">
         <v>43</v>
       </c>
-      <c r="V16" s="65"/>
-      <c r="W16" s="170"/>
-      <c r="X16" s="174"/>
+      <c r="V16" s="114"/>
+      <c r="W16" s="131"/>
+      <c r="X16" s="132"/>
     </row>
     <row r="17" spans="1:24" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="43"/>
-      <c r="B17" s="44"/>
+      <c r="A17" s="77"/>
+      <c r="B17" s="78"/>
       <c r="C17" s="33"/>
-      <c r="D17" s="184" t="str">
+      <c r="D17" s="130" t="str">
         <f>IF(J17&lt;&gt;"",MOD(J17+K18,360),"")</f>
         <v/>
       </c>
-      <c r="E17" s="137"/>
-      <c r="F17" s="186" t="str">
+      <c r="E17" s="102"/>
+      <c r="F17" s="83" t="str">
         <f t="shared" ref="F17" si="1">IF(ISNUMBER(E17),15-E17/1000*2,"")</f>
         <v/>
       </c>
-      <c r="G17" s="150"/>
-      <c r="H17" s="151"/>
-      <c r="I17" s="139"/>
-      <c r="J17" s="150"/>
-      <c r="K17" s="196" t="str">
+      <c r="G17" s="42"/>
+      <c r="H17" s="43"/>
+      <c r="I17" s="121"/>
+      <c r="J17" s="42"/>
+      <c r="K17" s="62" t="str">
         <f>IF(J17&lt;&gt;"",IF(ISNUMBER(J18),MOD(J17+J18,360),J17),"")</f>
         <v/>
       </c>
-      <c r="L17" s="197" t="str">
+      <c r="L17" s="63" t="str">
         <f>IF(K17&lt;&gt;"",MOD(K17+K18,360),"")</f>
         <v/>
       </c>
-      <c r="M17" s="193" t="str">
+      <c r="M17" s="117" t="str">
         <f>IF(L17&lt;&gt;"",MOD(L17+L18,360),"")</f>
         <v/>
       </c>
-      <c r="N17" s="150"/>
-      <c r="O17" s="196" t="str">
+      <c r="N17" s="42"/>
+      <c r="O17" s="62" t="str">
         <f>IF(ISNUMBER(I17),SQRT((H17^2) + (I17^2) - (2*H17*I17*COS(   ACOS(COS(RADIANS(J17-G17)))   ) ) ),"")</f>
         <v/>
       </c>
-      <c r="P17" s="196" t="str">
+      <c r="P17" s="62" t="str">
         <f>IF(ISNUMBER(O17),ROUND(N17/O17*60,0),"")</f>
         <v/>
       </c>
-      <c r="Q17" s="181"/>
-      <c r="R17" s="153" t="str">
+      <c r="Q17" s="55"/>
+      <c r="R17" s="44" t="str">
         <f>IF(ISNUMBER(P17),P17*$R$10/60,"")</f>
         <v/>
       </c>
-      <c r="S17" s="171"/>
-      <c r="T17" s="172"/>
-      <c r="U17" s="67" t="s">
+      <c r="S17" s="148"/>
+      <c r="T17" s="133"/>
+      <c r="U17" s="116" t="s">
         <v>44</v>
       </c>
-      <c r="V17" s="67"/>
-      <c r="W17" s="172"/>
-      <c r="X17" s="175"/>
+      <c r="V17" s="116"/>
+      <c r="W17" s="133"/>
+      <c r="X17" s="134"/>
     </row>
     <row r="18" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="45"/>
-      <c r="B18" s="46"/>
+      <c r="A18" s="79"/>
+      <c r="B18" s="80"/>
       <c r="C18" s="3"/>
-      <c r="D18" s="184"/>
-      <c r="E18" s="137"/>
-      <c r="F18" s="187"/>
-      <c r="G18" s="149"/>
-      <c r="H18" s="138"/>
-      <c r="I18" s="139"/>
-      <c r="J18" s="189" t="str">
+      <c r="D18" s="130"/>
+      <c r="E18" s="102"/>
+      <c r="F18" s="84"/>
+      <c r="G18" s="111"/>
+      <c r="H18" s="112"/>
+      <c r="I18" s="121"/>
+      <c r="J18" s="58" t="str">
         <f>IF(G17&lt;&gt;"",DEGREES(ASIN(H17/I17*SIN(RADIANS(G17-J17)))),"")</f>
         <v/>
       </c>
-      <c r="K18" s="151"/>
-      <c r="L18" s="153"/>
-      <c r="M18" s="193"/>
-      <c r="N18" s="189" t="str">
+      <c r="K18" s="43"/>
+      <c r="L18" s="44"/>
+      <c r="M18" s="117"/>
+      <c r="N18" s="58" t="str">
         <f>IF(ISNUMBER(N17),N16-N17,"")</f>
         <v/>
       </c>
-      <c r="O18" s="181"/>
-      <c r="P18" s="181"/>
-      <c r="Q18" s="181"/>
-      <c r="R18" s="197" t="str">
+      <c r="O18" s="55"/>
+      <c r="P18" s="55"/>
+      <c r="Q18" s="55"/>
+      <c r="R18" s="63" t="str">
         <f>IF(AND(ISNUMBER(R16),ISNUMBER(R17)),R16-R17,"")</f>
         <v/>
       </c>
-      <c r="S18" s="121"/>
-      <c r="T18" s="122"/>
-      <c r="U18" s="122"/>
-      <c r="V18" s="122"/>
-      <c r="W18" s="122"/>
-      <c r="X18" s="123"/>
+      <c r="S18" s="197"/>
+      <c r="T18" s="198"/>
+      <c r="U18" s="198"/>
+      <c r="V18" s="198"/>
+      <c r="W18" s="198"/>
+      <c r="X18" s="199"/>
     </row>
     <row r="19" spans="1:24" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="43"/>
-      <c r="B19" s="44"/>
+      <c r="A19" s="77"/>
+      <c r="B19" s="78"/>
       <c r="C19" s="33"/>
-      <c r="D19" s="184" t="str">
+      <c r="D19" s="130" t="str">
         <f>IF(J19&lt;&gt;"",MOD(J19+K20,360),"")</f>
         <v/>
       </c>
-      <c r="E19" s="137"/>
-      <c r="F19" s="186" t="str">
+      <c r="E19" s="102"/>
+      <c r="F19" s="83" t="str">
         <f t="shared" ref="F19" si="2">IF(ISNUMBER(E19),15-E19/1000*2,"")</f>
         <v/>
       </c>
-      <c r="G19" s="150"/>
-      <c r="H19" s="151"/>
-      <c r="I19" s="139"/>
-      <c r="J19" s="150"/>
-      <c r="K19" s="196" t="str">
+      <c r="G19" s="42"/>
+      <c r="H19" s="43"/>
+      <c r="I19" s="121"/>
+      <c r="J19" s="42"/>
+      <c r="K19" s="62" t="str">
         <f>IF(J19&lt;&gt;"",IF(ISNUMBER(J20),MOD(J19+J20,360),J19),"")</f>
         <v/>
       </c>
-      <c r="L19" s="197" t="str">
+      <c r="L19" s="63" t="str">
         <f>IF(K19&lt;&gt;"",MOD(K19+K20,360),"")</f>
         <v/>
       </c>
-      <c r="M19" s="193" t="str">
+      <c r="M19" s="117" t="str">
         <f>IF(L19&lt;&gt;"",MOD(L19+L20,360),"")</f>
         <v/>
       </c>
-      <c r="N19" s="150"/>
-      <c r="O19" s="196" t="str">
+      <c r="N19" s="42"/>
+      <c r="O19" s="62" t="str">
         <f>IF(ISNUMBER(I19),SQRT((H19^2) + (I19^2) - (2*H19*I19*COS(   ACOS(COS(RADIANS(J19-G19)))   ) ) ),"")</f>
         <v/>
       </c>
-      <c r="P19" s="196" t="str">
+      <c r="P19" s="62" t="str">
         <f>IF(ISNUMBER(O19),ROUND(N19/O19*60,0),"")</f>
         <v/>
       </c>
-      <c r="Q19" s="181"/>
-      <c r="R19" s="153" t="str">
+      <c r="Q19" s="55"/>
+      <c r="R19" s="44" t="str">
         <f>IF(ISNUMBER(P19),P19*$R$10/60,"")</f>
         <v/>
       </c>
-      <c r="S19" s="124"/>
-      <c r="T19" s="125"/>
-      <c r="U19" s="125"/>
-      <c r="V19" s="125"/>
-      <c r="W19" s="125"/>
-      <c r="X19" s="126"/>
+      <c r="S19" s="200"/>
+      <c r="T19" s="201"/>
+      <c r="U19" s="201"/>
+      <c r="V19" s="201"/>
+      <c r="W19" s="201"/>
+      <c r="X19" s="202"/>
     </row>
     <row r="20" spans="1:24" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="45"/>
-      <c r="B20" s="46"/>
+      <c r="A20" s="79"/>
+      <c r="B20" s="80"/>
       <c r="C20" s="3"/>
-      <c r="D20" s="184"/>
-      <c r="E20" s="137"/>
-      <c r="F20" s="187"/>
-      <c r="G20" s="149"/>
-      <c r="H20" s="138"/>
-      <c r="I20" s="139"/>
-      <c r="J20" s="189" t="str">
+      <c r="D20" s="130"/>
+      <c r="E20" s="102"/>
+      <c r="F20" s="84"/>
+      <c r="G20" s="111"/>
+      <c r="H20" s="112"/>
+      <c r="I20" s="121"/>
+      <c r="J20" s="58" t="str">
         <f>IF(G19&lt;&gt;"",DEGREES(ASIN(H19/I19*SIN(RADIANS(G19-J19)))),"")</f>
         <v/>
       </c>
-      <c r="K20" s="151"/>
-      <c r="L20" s="153"/>
-      <c r="M20" s="193"/>
-      <c r="N20" s="189" t="str">
+      <c r="K20" s="43"/>
+      <c r="L20" s="44"/>
+      <c r="M20" s="117"/>
+      <c r="N20" s="58" t="str">
         <f>IF(ISNUMBER(N19),N18-N19,"")</f>
         <v/>
       </c>
-      <c r="O20" s="181"/>
-      <c r="P20" s="181"/>
-      <c r="Q20" s="181"/>
-      <c r="R20" s="197" t="str">
+      <c r="O20" s="55"/>
+      <c r="P20" s="55"/>
+      <c r="Q20" s="55"/>
+      <c r="R20" s="63" t="str">
         <f>IF(AND(ISNUMBER(R18),ISNUMBER(R19)),R18-R19,"")</f>
         <v/>
       </c>
-      <c r="S20" s="127"/>
-      <c r="T20" s="128"/>
-      <c r="U20" s="128"/>
-      <c r="V20" s="128"/>
-      <c r="W20" s="128"/>
-      <c r="X20" s="129"/>
+      <c r="S20" s="203"/>
+      <c r="T20" s="204"/>
+      <c r="U20" s="204"/>
+      <c r="V20" s="204"/>
+      <c r="W20" s="204"/>
+      <c r="X20" s="205"/>
     </row>
     <row r="21" spans="1:24" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="43"/>
-      <c r="B21" s="44"/>
+      <c r="A21" s="77"/>
+      <c r="B21" s="78"/>
       <c r="C21" s="33"/>
-      <c r="D21" s="184" t="str">
+      <c r="D21" s="130" t="str">
         <f>IF(J21&lt;&gt;"",MOD(J21+K22,360),"")</f>
         <v/>
       </c>
-      <c r="E21" s="137"/>
-      <c r="F21" s="186" t="str">
+      <c r="E21" s="102"/>
+      <c r="F21" s="83" t="str">
         <f t="shared" ref="F21" si="3">IF(ISNUMBER(E21),15-E21/1000*2,"")</f>
         <v/>
       </c>
-      <c r="G21" s="150"/>
-      <c r="H21" s="151"/>
-      <c r="I21" s="139"/>
-      <c r="J21" s="150"/>
-      <c r="K21" s="196" t="str">
+      <c r="G21" s="42"/>
+      <c r="H21" s="43"/>
+      <c r="I21" s="121"/>
+      <c r="J21" s="42"/>
+      <c r="K21" s="62" t="str">
         <f>IF(J21&lt;&gt;"",IF(ISNUMBER(J22),MOD(J21+J22,360),J21),"")</f>
         <v/>
       </c>
-      <c r="L21" s="197" t="str">
+      <c r="L21" s="63" t="str">
         <f>IF(K21&lt;&gt;"",MOD(K21+K22,360),"")</f>
         <v/>
       </c>
-      <c r="M21" s="193" t="str">
+      <c r="M21" s="117" t="str">
         <f>IF(L21&lt;&gt;"",MOD(L21+L22,360),"")</f>
         <v/>
       </c>
-      <c r="N21" s="150"/>
-      <c r="O21" s="196" t="str">
+      <c r="N21" s="42"/>
+      <c r="O21" s="62" t="str">
         <f>IF(ISNUMBER(I21),SQRT((H21^2) + (I21^2) - (2*H21*I21*COS(   ACOS(COS(RADIANS(J21-G21)))   ) ) ),"")</f>
         <v/>
       </c>
-      <c r="P21" s="196" t="str">
+      <c r="P21" s="62" t="str">
         <f>IF(ISNUMBER(O21),ROUND(N21/O21*60,0),"")</f>
         <v/>
       </c>
-      <c r="Q21" s="181"/>
-      <c r="R21" s="153" t="str">
+      <c r="Q21" s="55"/>
+      <c r="R21" s="44" t="str">
         <f>IF(ISNUMBER(P21),P21*$R$10/60,"")</f>
         <v/>
       </c>
-      <c r="S21" s="59" t="s">
+      <c r="S21" s="99" t="s">
         <v>55</v>
       </c>
-      <c r="T21" s="79"/>
-      <c r="U21" s="79"/>
-      <c r="V21" s="79"/>
-      <c r="W21" s="79"/>
-      <c r="X21" s="80"/>
+      <c r="T21" s="140"/>
+      <c r="U21" s="140"/>
+      <c r="V21" s="140"/>
+      <c r="W21" s="140"/>
+      <c r="X21" s="141"/>
     </row>
     <row r="22" spans="1:24" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="45"/>
-      <c r="B22" s="46"/>
+      <c r="A22" s="79"/>
+      <c r="B22" s="80"/>
       <c r="C22" s="3"/>
-      <c r="D22" s="184"/>
-      <c r="E22" s="137"/>
-      <c r="F22" s="187"/>
-      <c r="G22" s="149"/>
-      <c r="H22" s="138"/>
-      <c r="I22" s="139"/>
-      <c r="J22" s="189" t="str">
+      <c r="D22" s="130"/>
+      <c r="E22" s="102"/>
+      <c r="F22" s="84"/>
+      <c r="G22" s="111"/>
+      <c r="H22" s="112"/>
+      <c r="I22" s="121"/>
+      <c r="J22" s="58" t="str">
         <f>IF(G21&lt;&gt;"",DEGREES(ASIN(H21/I21*SIN(RADIANS(G21-J21)))),"")</f>
         <v/>
       </c>
-      <c r="K22" s="151"/>
-      <c r="L22" s="153"/>
-      <c r="M22" s="193"/>
-      <c r="N22" s="189" t="str">
+      <c r="K22" s="43"/>
+      <c r="L22" s="44"/>
+      <c r="M22" s="117"/>
+      <c r="N22" s="58" t="str">
         <f>IF(ISNUMBER(N21),N20-N21,"")</f>
         <v/>
       </c>
-      <c r="O22" s="181"/>
-      <c r="P22" s="181"/>
-      <c r="Q22" s="181"/>
-      <c r="R22" s="197" t="str">
+      <c r="O22" s="55"/>
+      <c r="P22" s="55"/>
+      <c r="Q22" s="55"/>
+      <c r="R22" s="63" t="str">
         <f>IF(AND(ISNUMBER(R20),ISNUMBER(R21)),R20-R21,"")</f>
         <v/>
       </c>
-      <c r="S22" s="77" t="s">
+      <c r="S22" s="135" t="s">
         <v>37</v>
       </c>
-      <c r="T22" s="78"/>
-      <c r="U22" s="78"/>
-      <c r="V22" s="78" t="s">
+      <c r="T22" s="136"/>
+      <c r="U22" s="136"/>
+      <c r="V22" s="136" t="s">
         <v>38</v>
       </c>
-      <c r="W22" s="78"/>
-      <c r="X22" s="83"/>
+      <c r="W22" s="136"/>
+      <c r="X22" s="151"/>
     </row>
     <row r="23" spans="1:24" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="43"/>
-      <c r="B23" s="44"/>
+      <c r="A23" s="77"/>
+      <c r="B23" s="78"/>
       <c r="C23" s="20"/>
-      <c r="D23" s="184" t="str">
+      <c r="D23" s="130" t="str">
         <f>IF(J23&lt;&gt;"",MOD(J23+K24,360),"")</f>
         <v/>
       </c>
-      <c r="E23" s="137"/>
-      <c r="F23" s="186" t="str">
+      <c r="E23" s="102"/>
+      <c r="F23" s="83" t="str">
         <f t="shared" ref="F23" si="4">IF(ISNUMBER(E23),15-E23/1000*2,"")</f>
         <v/>
       </c>
-      <c r="G23" s="150"/>
-      <c r="H23" s="151"/>
-      <c r="I23" s="139"/>
-      <c r="J23" s="150"/>
-      <c r="K23" s="196" t="str">
+      <c r="G23" s="42"/>
+      <c r="H23" s="43"/>
+      <c r="I23" s="121"/>
+      <c r="J23" s="42"/>
+      <c r="K23" s="62" t="str">
         <f>IF(J23&lt;&gt;"",IF(ISNUMBER(J24),MOD(J23+J24,360),J23),"")</f>
         <v/>
       </c>
-      <c r="L23" s="197" t="str">
+      <c r="L23" s="63" t="str">
         <f>IF(K23&lt;&gt;"",MOD(K23+K24,360),"")</f>
         <v/>
       </c>
-      <c r="M23" s="193" t="str">
+      <c r="M23" s="117" t="str">
         <f>IF(L23&lt;&gt;"",MOD(L23+L24,360),"")</f>
         <v/>
       </c>
-      <c r="N23" s="150"/>
-      <c r="O23" s="196" t="str">
+      <c r="N23" s="42"/>
+      <c r="O23" s="62" t="str">
         <f>IF(ISNUMBER(I23),SQRT((H23^2) + (I23^2) - (2*H23*I23*COS(   ACOS(COS(RADIANS(J23-G23)))   ) ) ),"")</f>
         <v/>
       </c>
-      <c r="P23" s="196" t="str">
+      <c r="P23" s="62" t="str">
         <f>IF(ISNUMBER(O23),ROUND(N23/O23*60,0),"")</f>
         <v/>
       </c>
-      <c r="Q23" s="181"/>
-      <c r="R23" s="153" t="str">
+      <c r="Q23" s="55"/>
+      <c r="R23" s="44" t="str">
         <f>IF(ISNUMBER(P23),P23*$R$10/60,"")</f>
         <v/>
       </c>
-      <c r="S23" s="167"/>
-      <c r="T23" s="168"/>
-      <c r="U23" s="168"/>
-      <c r="V23" s="168"/>
-      <c r="W23" s="168"/>
-      <c r="X23" s="173"/>
+      <c r="S23" s="137"/>
+      <c r="T23" s="138"/>
+      <c r="U23" s="138"/>
+      <c r="V23" s="138"/>
+      <c r="W23" s="138"/>
+      <c r="X23" s="139"/>
     </row>
     <row r="24" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="45"/>
-      <c r="B24" s="46"/>
+      <c r="A24" s="79"/>
+      <c r="B24" s="80"/>
       <c r="C24" s="32"/>
-      <c r="D24" s="184"/>
-      <c r="E24" s="137"/>
-      <c r="F24" s="187"/>
-      <c r="G24" s="149"/>
-      <c r="H24" s="138"/>
-      <c r="I24" s="139"/>
-      <c r="J24" s="189" t="str">
+      <c r="D24" s="130"/>
+      <c r="E24" s="102"/>
+      <c r="F24" s="84"/>
+      <c r="G24" s="111"/>
+      <c r="H24" s="112"/>
+      <c r="I24" s="121"/>
+      <c r="J24" s="58" t="str">
         <f>IF(G23&lt;&gt;"",DEGREES(ASIN(H23/I23*SIN(RADIANS(G23-J23)))),"")</f>
         <v/>
       </c>
-      <c r="K24" s="151"/>
-      <c r="L24" s="153"/>
-      <c r="M24" s="193"/>
-      <c r="N24" s="189" t="str">
+      <c r="K24" s="43"/>
+      <c r="L24" s="44"/>
+      <c r="M24" s="117"/>
+      <c r="N24" s="58" t="str">
         <f>IF(ISNUMBER(N23),N22-N23,"")</f>
         <v/>
       </c>
-      <c r="O24" s="181"/>
-      <c r="P24" s="181"/>
-      <c r="Q24" s="181"/>
-      <c r="R24" s="197" t="str">
+      <c r="O24" s="55"/>
+      <c r="P24" s="55"/>
+      <c r="Q24" s="55"/>
+      <c r="R24" s="63" t="str">
         <f>IF(AND(ISNUMBER(R22),ISNUMBER(R23)),R22-R23,"")</f>
         <v/>
       </c>
       <c r="S24" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="T24" s="176"/>
-      <c r="U24" s="176"/>
+      <c r="T24" s="142"/>
+      <c r="U24" s="142"/>
       <c r="V24" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="W24" s="176"/>
-      <c r="X24" s="177"/>
+      <c r="W24" s="142"/>
+      <c r="X24" s="150"/>
     </row>
     <row r="25" spans="1:24" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="43"/>
-      <c r="B25" s="44"/>
+      <c r="A25" s="77"/>
+      <c r="B25" s="78"/>
       <c r="C25" s="33"/>
-      <c r="D25" s="184" t="str">
+      <c r="D25" s="130" t="str">
         <f>IF(J25&lt;&gt;"",MOD(J25+K26,360),"")</f>
         <v/>
       </c>
-      <c r="E25" s="137"/>
-      <c r="F25" s="186" t="str">
+      <c r="E25" s="102"/>
+      <c r="F25" s="83" t="str">
         <f t="shared" ref="F25" si="5">IF(ISNUMBER(E25),15-E25/1000*2,"")</f>
         <v/>
       </c>
-      <c r="G25" s="150"/>
-      <c r="H25" s="151"/>
-      <c r="I25" s="139"/>
-      <c r="J25" s="150"/>
-      <c r="K25" s="196" t="str">
+      <c r="G25" s="42"/>
+      <c r="H25" s="43"/>
+      <c r="I25" s="121"/>
+      <c r="J25" s="42"/>
+      <c r="K25" s="62" t="str">
         <f>IF(J25&lt;&gt;"",IF(ISNUMBER(J26),MOD(J25+J26,360),J25),"")</f>
         <v/>
       </c>
-      <c r="L25" s="197" t="str">
+      <c r="L25" s="63" t="str">
         <f>IF(K25&lt;&gt;"",MOD(K25+K26,360),"")</f>
         <v/>
       </c>
-      <c r="M25" s="193" t="str">
+      <c r="M25" s="117" t="str">
         <f>IF(L25&lt;&gt;"",MOD(L25+L26,360),"")</f>
         <v/>
       </c>
-      <c r="N25" s="150"/>
-      <c r="O25" s="196" t="str">
+      <c r="N25" s="42"/>
+      <c r="O25" s="62" t="str">
         <f>IF(ISNUMBER(I25),SQRT((H25^2) + (I25^2) - (2*H25*I25*COS(   ACOS(COS(RADIANS(J25-G25)))   ) ) ),"")</f>
         <v/>
       </c>
-      <c r="P25" s="196" t="str">
+      <c r="P25" s="62" t="str">
         <f>IF(ISNUMBER(O25),ROUND(N25/O25*60,0),"")</f>
         <v/>
       </c>
-      <c r="Q25" s="181"/>
-      <c r="R25" s="153" t="str">
+      <c r="Q25" s="55"/>
+      <c r="R25" s="44" t="str">
         <f>IF(ISNUMBER(P25),P25*$R$10/60,"")</f>
         <v/>
       </c>
       <c r="S25" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="T25" s="176"/>
-      <c r="U25" s="176"/>
+      <c r="T25" s="142"/>
+      <c r="U25" s="142"/>
       <c r="V25" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="W25" s="176"/>
-      <c r="X25" s="177"/>
+      <c r="W25" s="142"/>
+      <c r="X25" s="150"/>
     </row>
     <row r="26" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="45"/>
-      <c r="B26" s="46"/>
+      <c r="A26" s="79"/>
+      <c r="B26" s="80"/>
       <c r="C26" s="3"/>
-      <c r="D26" s="184"/>
-      <c r="E26" s="137"/>
-      <c r="F26" s="187"/>
-      <c r="G26" s="149"/>
-      <c r="H26" s="138"/>
-      <c r="I26" s="139"/>
-      <c r="J26" s="189" t="str">
+      <c r="D26" s="130"/>
+      <c r="E26" s="102"/>
+      <c r="F26" s="84"/>
+      <c r="G26" s="111"/>
+      <c r="H26" s="112"/>
+      <c r="I26" s="121"/>
+      <c r="J26" s="58" t="str">
         <f>IF(G25&lt;&gt;"",DEGREES(ASIN(H25/I25*SIN(RADIANS(G25-J25)))),"")</f>
         <v/>
       </c>
-      <c r="K26" s="151"/>
-      <c r="L26" s="153"/>
-      <c r="M26" s="193"/>
-      <c r="N26" s="189" t="str">
+      <c r="K26" s="43"/>
+      <c r="L26" s="44"/>
+      <c r="M26" s="117"/>
+      <c r="N26" s="58" t="str">
         <f>IF(ISNUMBER(N25),N24-N25,"")</f>
         <v/>
       </c>
-      <c r="O26" s="181"/>
-      <c r="P26" s="181"/>
-      <c r="Q26" s="181"/>
-      <c r="R26" s="197" t="str">
+      <c r="O26" s="55"/>
+      <c r="P26" s="55"/>
+      <c r="Q26" s="55"/>
+      <c r="R26" s="63" t="str">
         <f>IF(AND(ISNUMBER(R24),ISNUMBER(R25)),R24-R25,"")</f>
         <v/>
       </c>
       <c r="S26" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="T26" s="176"/>
-      <c r="U26" s="176"/>
+      <c r="T26" s="142"/>
+      <c r="U26" s="142"/>
       <c r="V26" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="W26" s="176"/>
-      <c r="X26" s="177"/>
+      <c r="W26" s="142"/>
+      <c r="X26" s="150"/>
     </row>
     <row r="27" spans="1:24" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="43"/>
-      <c r="B27" s="44"/>
+      <c r="A27" s="77"/>
+      <c r="B27" s="78"/>
       <c r="C27" s="20"/>
-      <c r="D27" s="184" t="str">
+      <c r="D27" s="130" t="str">
         <f>IF(J27&lt;&gt;"",MOD(J27+K28,360),"")</f>
         <v/>
       </c>
-      <c r="E27" s="137"/>
-      <c r="F27" s="186" t="str">
+      <c r="E27" s="102"/>
+      <c r="F27" s="83" t="str">
         <f t="shared" ref="F27" si="6">IF(ISNUMBER(E27),15-E27/1000*2,"")</f>
         <v/>
       </c>
-      <c r="G27" s="150"/>
-      <c r="H27" s="151"/>
-      <c r="I27" s="139"/>
-      <c r="J27" s="150"/>
-      <c r="K27" s="196" t="str">
+      <c r="G27" s="42"/>
+      <c r="H27" s="43"/>
+      <c r="I27" s="121"/>
+      <c r="J27" s="42"/>
+      <c r="K27" s="62" t="str">
         <f>IF(J27&lt;&gt;"",IF(ISNUMBER(J28),MOD(J27+J28,360),J27),"")</f>
         <v/>
       </c>
-      <c r="L27" s="197" t="str">
+      <c r="L27" s="63" t="str">
         <f>IF(K27&lt;&gt;"",MOD(K27+K28,360),"")</f>
         <v/>
       </c>
-      <c r="M27" s="193" t="str">
+      <c r="M27" s="117" t="str">
         <f>IF(L27&lt;&gt;"",MOD(L27+L28,360),"")</f>
         <v/>
       </c>
-      <c r="N27" s="150"/>
-      <c r="O27" s="196" t="str">
+      <c r="N27" s="42"/>
+      <c r="O27" s="62" t="str">
         <f>IF(ISNUMBER(I27),SQRT((H27^2) + (I27^2) - (2*H27*I27*COS(   ACOS(COS(RADIANS(J27-G27)))   ) ) ),"")</f>
         <v/>
       </c>
-      <c r="P27" s="196" t="str">
+      <c r="P27" s="62" t="str">
         <f>IF(ISNUMBER(O27),ROUND(N27/O27*60,0),"")</f>
         <v/>
       </c>
-      <c r="Q27" s="181"/>
-      <c r="R27" s="153" t="str">
+      <c r="Q27" s="55"/>
+      <c r="R27" s="44" t="str">
         <f>IF(ISNUMBER(P27),P27*$R$10/60,"")</f>
         <v/>
       </c>
       <c r="S27" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="T27" s="176"/>
-      <c r="U27" s="176"/>
+      <c r="T27" s="142"/>
+      <c r="U27" s="142"/>
       <c r="V27" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="W27" s="176"/>
-      <c r="X27" s="177"/>
+      <c r="W27" s="142"/>
+      <c r="X27" s="150"/>
     </row>
     <row r="28" spans="1:24" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="45"/>
-      <c r="B28" s="46"/>
+      <c r="A28" s="79"/>
+      <c r="B28" s="80"/>
       <c r="C28" s="32"/>
-      <c r="D28" s="184"/>
-      <c r="E28" s="137"/>
-      <c r="F28" s="187"/>
-      <c r="G28" s="149"/>
-      <c r="H28" s="138"/>
-      <c r="I28" s="139"/>
-      <c r="J28" s="189" t="str">
+      <c r="D28" s="130"/>
+      <c r="E28" s="102"/>
+      <c r="F28" s="84"/>
+      <c r="G28" s="111"/>
+      <c r="H28" s="112"/>
+      <c r="I28" s="121"/>
+      <c r="J28" s="58" t="str">
         <f>IF(G27&lt;&gt;"",DEGREES(ASIN(H27/I27*SIN(RADIANS(G27-J27)))),"")</f>
         <v/>
       </c>
-      <c r="K28" s="151"/>
-      <c r="L28" s="153"/>
-      <c r="M28" s="193"/>
-      <c r="N28" s="189" t="str">
+      <c r="K28" s="43"/>
+      <c r="L28" s="44"/>
+      <c r="M28" s="117"/>
+      <c r="N28" s="58" t="str">
         <f>IF(ISNUMBER(N27),N26-N27,"")</f>
         <v/>
       </c>
-      <c r="O28" s="181"/>
-      <c r="P28" s="181"/>
-      <c r="Q28" s="181"/>
-      <c r="R28" s="197" t="str">
+      <c r="O28" s="55"/>
+      <c r="P28" s="55"/>
+      <c r="Q28" s="55"/>
+      <c r="R28" s="63" t="str">
         <f>IF(AND(ISNUMBER(R26),ISNUMBER(R27)),R26-R27,"")</f>
         <v/>
       </c>
       <c r="S28" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="T28" s="176"/>
-      <c r="U28" s="176"/>
+      <c r="T28" s="142"/>
+      <c r="U28" s="142"/>
       <c r="V28" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="W28" s="176"/>
-      <c r="X28" s="177"/>
+      <c r="W28" s="142"/>
+      <c r="X28" s="150"/>
     </row>
     <row r="29" spans="1:24" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="43"/>
-      <c r="B29" s="44"/>
+      <c r="A29" s="77"/>
+      <c r="B29" s="78"/>
       <c r="C29" s="33"/>
-      <c r="D29" s="184" t="str">
+      <c r="D29" s="130" t="str">
         <f>IF(J29&lt;&gt;"",MOD(J29+K30,360),"")</f>
         <v/>
       </c>
-      <c r="E29" s="137"/>
-      <c r="F29" s="186" t="str">
+      <c r="E29" s="102"/>
+      <c r="F29" s="83" t="str">
         <f>IF(ISNUMBER(E29),15-E29/1000*2,"")</f>
         <v/>
       </c>
-      <c r="G29" s="150"/>
-      <c r="H29" s="151"/>
-      <c r="I29" s="139"/>
-      <c r="J29" s="150"/>
-      <c r="K29" s="196" t="str">
+      <c r="G29" s="42"/>
+      <c r="H29" s="43"/>
+      <c r="I29" s="121"/>
+      <c r="J29" s="42"/>
+      <c r="K29" s="62" t="str">
         <f>IF(J29&lt;&gt;"",IF(ISNUMBER(J30),MOD(J29+J30,360),J29),"")</f>
         <v/>
       </c>
-      <c r="L29" s="197" t="str">
+      <c r="L29" s="63" t="str">
         <f>IF(K29&lt;&gt;"",MOD(K29+K30,360),"")</f>
         <v/>
       </c>
-      <c r="M29" s="193" t="str">
+      <c r="M29" s="117" t="str">
         <f>IF(L29&lt;&gt;"",MOD(L29+L30,360),"")</f>
         <v/>
       </c>
-      <c r="N29" s="150"/>
-      <c r="O29" s="196" t="str">
+      <c r="N29" s="42"/>
+      <c r="O29" s="62" t="str">
         <f>IF(ISNUMBER(I29),SQRT((H29^2) + (I29^2) - (2*H29*I29*COS(   ACOS(COS(RADIANS(J29-G29)))   ) ) ),"")</f>
         <v/>
       </c>
-      <c r="P29" s="196" t="str">
+      <c r="P29" s="62" t="str">
         <f>IF(ISNUMBER(O29),ROUND(N29/O29*60,0),"")</f>
         <v/>
       </c>
-      <c r="Q29" s="181"/>
-      <c r="R29" s="153" t="str">
+      <c r="Q29" s="55"/>
+      <c r="R29" s="44" t="str">
         <f>IF(ISNUMBER(P29),P29*$R$10/60,"")</f>
         <v/>
       </c>
       <c r="S29" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="T29" s="176"/>
-      <c r="U29" s="176"/>
+      <c r="T29" s="142"/>
+      <c r="U29" s="142"/>
       <c r="V29" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="W29" s="176"/>
-      <c r="X29" s="177"/>
+      <c r="W29" s="142"/>
+      <c r="X29" s="150"/>
     </row>
     <row r="30" spans="1:24" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="45" t="s">
+      <c r="A30" s="79" t="s">
         <v>90</v>
       </c>
-      <c r="B30" s="46"/>
+      <c r="B30" s="80"/>
       <c r="C30" s="3"/>
-      <c r="D30" s="184"/>
-      <c r="E30" s="137"/>
-      <c r="F30" s="187"/>
-      <c r="G30" s="149"/>
-      <c r="H30" s="138"/>
-      <c r="I30" s="139"/>
-      <c r="J30" s="189" t="str">
+      <c r="D30" s="130"/>
+      <c r="E30" s="102"/>
+      <c r="F30" s="84"/>
+      <c r="G30" s="111"/>
+      <c r="H30" s="112"/>
+      <c r="I30" s="121"/>
+      <c r="J30" s="58" t="str">
         <f>IF(G29&lt;&gt;"",DEGREES(ASIN(H29/I29*SIN(RADIANS(G29-J29)))),"")</f>
         <v/>
       </c>
-      <c r="K30" s="151"/>
-      <c r="L30" s="153"/>
-      <c r="M30" s="193"/>
-      <c r="N30" s="189" t="str">
+      <c r="K30" s="43"/>
+      <c r="L30" s="44"/>
+      <c r="M30" s="117"/>
+      <c r="N30" s="58" t="str">
         <f>IF(ISNUMBER(N29),N28-N29,"")</f>
         <v/>
       </c>
-      <c r="O30" s="181"/>
-      <c r="P30" s="181"/>
-      <c r="Q30" s="181"/>
-      <c r="R30" s="197" t="str">
+      <c r="O30" s="55"/>
+      <c r="P30" s="55"/>
+      <c r="Q30" s="55"/>
+      <c r="R30" s="63" t="str">
         <f>IF(AND(ISNUMBER(R28),ISNUMBER(R29)),R28-R29,"")</f>
         <v/>
       </c>
       <c r="S30" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="T30" s="176"/>
-      <c r="U30" s="176"/>
+      <c r="T30" s="142"/>
+      <c r="U30" s="142"/>
       <c r="V30" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="W30" s="176"/>
-      <c r="X30" s="177"/>
+      <c r="W30" s="142"/>
+      <c r="X30" s="150"/>
     </row>
     <row r="31" spans="1:24" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="43"/>
-      <c r="B31" s="44"/>
+      <c r="A31" s="77"/>
+      <c r="B31" s="78"/>
       <c r="C31" s="20"/>
-      <c r="D31" s="184" t="str">
+      <c r="D31" s="130" t="str">
         <f>IF(J31&lt;&gt;"",MOD(J31+K32,360),"")</f>
         <v/>
       </c>
-      <c r="E31" s="137"/>
-      <c r="F31" s="187"/>
-      <c r="G31" s="150"/>
-      <c r="H31" s="151"/>
-      <c r="I31" s="139"/>
-      <c r="J31" s="150"/>
-      <c r="K31" s="196" t="str">
+      <c r="E31" s="102"/>
+      <c r="F31" s="84"/>
+      <c r="G31" s="42"/>
+      <c r="H31" s="43"/>
+      <c r="I31" s="121"/>
+      <c r="J31" s="42"/>
+      <c r="K31" s="62" t="str">
         <f>IF(J31&lt;&gt;"",IF(ISNUMBER(J32),MOD(J31+J32,360),J31),"")</f>
         <v/>
       </c>
-      <c r="L31" s="197" t="str">
+      <c r="L31" s="63" t="str">
         <f>IF(K31&lt;&gt;"",MOD(K31+K32,360),"")</f>
         <v/>
       </c>
-      <c r="M31" s="193" t="str">
+      <c r="M31" s="117" t="str">
         <f>IF(L31&lt;&gt;"",MOD(L31+L32,360),"")</f>
         <v/>
       </c>
-      <c r="N31" s="189" t="str">
+      <c r="N31" s="58" t="str">
         <f>IF(AND(ISNUMBER(O31),ISNUMBER(P31)),ROUND(P31*O31/60,0),"")</f>
         <v/>
       </c>
-      <c r="O31" s="196" t="str">
+      <c r="O31" s="62" t="str">
         <f>IF(ISNUMBER(I31),SQRT((H31^2) + (I31^2) - (2*H31*I31*COS(   ACOS(COS(RADIANS(J31-G31)))   ) ) ),"")</f>
         <v/>
       </c>
-      <c r="P31" s="151"/>
-      <c r="Q31" s="181"/>
-      <c r="R31" s="153" t="str">
+      <c r="P31" s="43"/>
+      <c r="Q31" s="55"/>
+      <c r="R31" s="44" t="str">
         <f>IF(ISNUMBER(P31),P31*$R$10/60,"")</f>
         <v/>
       </c>
       <c r="S31" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="T31" s="178"/>
-      <c r="U31" s="178"/>
+      <c r="T31" s="149"/>
+      <c r="U31" s="149"/>
       <c r="V31" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="W31" s="178"/>
-      <c r="X31" s="179"/>
+      <c r="W31" s="149"/>
+      <c r="X31" s="206"/>
     </row>
     <row r="32" spans="1:24" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="45" t="s">
+      <c r="A32" s="79" t="s">
         <v>38</v>
       </c>
-      <c r="B32" s="46"/>
+      <c r="B32" s="80"/>
       <c r="C32" s="32"/>
-      <c r="D32" s="185"/>
-      <c r="E32" s="142"/>
-      <c r="F32" s="188"/>
-      <c r="G32" s="152"/>
-      <c r="H32" s="143"/>
-      <c r="I32" s="144"/>
-      <c r="J32" s="189" t="str">
+      <c r="D32" s="145"/>
+      <c r="E32" s="105"/>
+      <c r="F32" s="110"/>
+      <c r="G32" s="85"/>
+      <c r="H32" s="86"/>
+      <c r="I32" s="122"/>
+      <c r="J32" s="58" t="str">
         <f>IF(G31&lt;&gt;"",DEGREES(ASIN(H31/I31*SIN(RADIANS(G31-J31)))),"")</f>
         <v/>
       </c>
-      <c r="K32" s="154"/>
-      <c r="L32" s="155"/>
-      <c r="M32" s="194"/>
-      <c r="N32" s="200" t="str">
+      <c r="K32" s="45"/>
+      <c r="L32" s="46"/>
+      <c r="M32" s="118"/>
+      <c r="N32" s="66" t="str">
         <f>IF(ISNUMBER(N31),N12-SUM(N13,N15,N17,N19,N21,N23,N25,N27,N29,N31),"")</f>
         <v/>
       </c>
-      <c r="O32" s="182"/>
-      <c r="P32" s="182"/>
-      <c r="Q32" s="182"/>
-      <c r="R32" s="199" t="str">
+      <c r="O32" s="56"/>
+      <c r="P32" s="56"/>
+      <c r="Q32" s="56"/>
+      <c r="R32" s="65" t="str">
         <f>IF(AND(ISNUMBER(R30),ISNUMBER(R31)),R30-R31,"")</f>
         <v/>
       </c>
-      <c r="S32" s="70" t="s">
+      <c r="S32" s="123" t="s">
         <v>64</v>
       </c>
-      <c r="T32" s="71"/>
-      <c r="U32" s="82"/>
-      <c r="V32" s="82"/>
-      <c r="W32" s="82" t="s">
+      <c r="T32" s="124"/>
+      <c r="U32" s="144"/>
+      <c r="V32" s="144"/>
+      <c r="W32" s="144" t="s">
         <v>45</v>
       </c>
-      <c r="X32" s="119"/>
+      <c r="X32" s="195"/>
     </row>
     <row r="33" spans="1:24" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="47"/>
-      <c r="B33" s="48"/>
+      <c r="A33" s="81"/>
+      <c r="B33" s="82"/>
       <c r="C33" s="26"/>
-      <c r="D33" s="74" t="s">
+      <c r="D33" s="127" t="s">
         <v>68</v>
       </c>
-      <c r="E33" s="75"/>
-      <c r="F33" s="75"/>
-      <c r="G33" s="75"/>
-      <c r="H33" s="75"/>
-      <c r="I33" s="75"/>
-      <c r="J33" s="75"/>
-      <c r="K33" s="75"/>
-      <c r="L33" s="75"/>
-      <c r="M33" s="76"/>
+      <c r="E33" s="128"/>
+      <c r="F33" s="128"/>
+      <c r="G33" s="128"/>
+      <c r="H33" s="128"/>
+      <c r="I33" s="128"/>
+      <c r="J33" s="128"/>
+      <c r="K33" s="128"/>
+      <c r="L33" s="128"/>
+      <c r="M33" s="129"/>
       <c r="N33" s="27">
         <f>SUM(N13,N15,N17,N19,N21,N23,N25,N27,N29,N31)</f>
         <v>0</v>
@@ -3685,14 +3823,14 @@
         <f>SUM(R13,R15,R17,R19,R21,R23,R25,R27,R29,R31)+$M$34</f>
         <v>0</v>
       </c>
-      <c r="S33" s="72" t="s">
+      <c r="S33" s="125" t="s">
         <v>65</v>
       </c>
-      <c r="T33" s="73"/>
-      <c r="U33" s="67"/>
-      <c r="V33" s="67"/>
-      <c r="W33" s="67"/>
-      <c r="X33" s="81"/>
+      <c r="T33" s="126"/>
+      <c r="U33" s="116"/>
+      <c r="V33" s="116"/>
+      <c r="W33" s="116"/>
+      <c r="X33" s="143"/>
     </row>
     <row r="34" spans="1:24" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="24" t="s">
@@ -3702,29 +3840,29 @@
       <c r="C34" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="D34" s="157"/>
-      <c r="E34" s="39" t="s">
+      <c r="D34" s="48"/>
+      <c r="E34" s="73" t="s">
         <v>59</v>
       </c>
-      <c r="F34" s="39"/>
-      <c r="G34" s="158"/>
+      <c r="F34" s="73"/>
+      <c r="G34" s="49"/>
       <c r="H34" s="1"/>
       <c r="I34" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="J34" s="159"/>
-      <c r="K34" s="40" t="s">
+      <c r="J34" s="50"/>
+      <c r="K34" s="74" t="s">
         <v>61</v>
       </c>
-      <c r="L34" s="39"/>
-      <c r="M34" s="159"/>
+      <c r="L34" s="73"/>
+      <c r="M34" s="50"/>
       <c r="N34" s="1"/>
       <c r="O34" s="1"/>
       <c r="P34" s="31" t="s">
         <v>62</v>
       </c>
       <c r="Q34" s="1"/>
-      <c r="R34" s="159"/>
+      <c r="R34" s="50"/>
       <c r="S34" s="1"/>
       <c r="T34" s="1"/>
       <c r="U34" s="31" t="s">
@@ -3738,20 +3876,20 @@
       <c r="A35" t="s">
         <v>76</v>
       </c>
-      <c r="B35" s="156" t="s">
+      <c r="B35" s="47" t="s">
         <v>75</v>
       </c>
       <c r="C35" t="s">
         <v>77</v>
       </c>
-      <c r="E35" s="183" t="s">
+      <c r="E35" s="57" t="s">
         <v>78</v>
       </c>
-      <c r="F35" s="183"/>
+      <c r="F35" s="57"/>
       <c r="G35" t="s">
         <v>81</v>
       </c>
-      <c r="L35" s="195" t="s">
+      <c r="L35" s="61" t="s">
         <v>79</v>
       </c>
       <c r="M35" t="s">
@@ -3976,4 +4114,558 @@
     </mc:Choice>
   </mc:AlternateContent>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47CE3149-0144-4439-9653-DB570435D338}">
+  <dimension ref="A1:R21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="68"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A1" s="207" t="s">
+        <v>94</v>
+      </c>
+      <c r="B1" s="207"/>
+      <c r="C1" s="207"/>
+      <c r="D1" s="207"/>
+      <c r="E1" s="207"/>
+      <c r="H1" s="207" t="s">
+        <v>95</v>
+      </c>
+      <c r="I1" s="207"/>
+      <c r="J1" s="207"/>
+      <c r="M1" s="208" t="s">
+        <v>121</v>
+      </c>
+      <c r="N1" s="208"/>
+      <c r="O1" s="208"/>
+      <c r="P1" s="208"/>
+      <c r="Q1" s="208"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" s="69" t="s">
+        <v>92</v>
+      </c>
+      <c r="B2" s="69" t="s">
+        <v>93</v>
+      </c>
+      <c r="C2" s="212"/>
+      <c r="D2" s="69" t="s">
+        <v>93</v>
+      </c>
+      <c r="E2" s="69" t="s">
+        <v>92</v>
+      </c>
+      <c r="H2" s="69" t="s">
+        <v>96</v>
+      </c>
+      <c r="I2" s="69" t="s">
+        <v>97</v>
+      </c>
+      <c r="J2" s="69" t="s">
+        <v>98</v>
+      </c>
+      <c r="M2" s="70" t="s">
+        <v>117</v>
+      </c>
+      <c r="N2" s="70" t="s">
+        <v>118</v>
+      </c>
+      <c r="O2" s="70" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3" s="71">
+        <v>15</v>
+      </c>
+      <c r="B3" s="67">
+        <f>IF(ISNUMBER(A3),32 + 9/5*A3,"")</f>
+        <v>59</v>
+      </c>
+      <c r="C3" s="213"/>
+      <c r="D3" s="71">
+        <v>59</v>
+      </c>
+      <c r="E3" s="67">
+        <f>IF(ISNUMBER(D3),5/9*(D3-32),"")</f>
+        <v>15</v>
+      </c>
+      <c r="H3" s="71">
+        <v>1</v>
+      </c>
+      <c r="I3" s="71">
+        <v>10</v>
+      </c>
+      <c r="J3" s="67">
+        <f>IF(AND(ISNUMBER(H3),ISNUMBER(I3)),I3/H3*60,"")</f>
+        <v>600</v>
+      </c>
+      <c r="M3" s="71">
+        <v>13</v>
+      </c>
+      <c r="N3" s="71">
+        <v>29.92</v>
+      </c>
+      <c r="O3" s="67">
+        <f>(29.92-N3)*1000+M3</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="H4" s="69" t="s">
+        <v>97</v>
+      </c>
+      <c r="I4" s="69" t="s">
+        <v>98</v>
+      </c>
+      <c r="J4" s="69" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="H5" s="71">
+        <v>10</v>
+      </c>
+      <c r="I5" s="71">
+        <v>600</v>
+      </c>
+      <c r="J5" s="67">
+        <f>IF(AND(ISNUMBER(H5),ISNUMBER(I5)),I5/H5/60,"")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" s="207" t="s">
+        <v>112</v>
+      </c>
+      <c r="B6" s="207"/>
+      <c r="C6" s="207"/>
+      <c r="D6" s="72"/>
+      <c r="E6" s="72"/>
+      <c r="H6" s="69" t="s">
+        <v>98</v>
+      </c>
+      <c r="I6" s="69" t="s">
+        <v>96</v>
+      </c>
+      <c r="J6" s="69" t="s">
+        <v>97</v>
+      </c>
+      <c r="M6" s="207" t="s">
+        <v>120</v>
+      </c>
+      <c r="N6" s="207"/>
+      <c r="O6" s="207"/>
+      <c r="P6" s="207"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" s="69" t="s">
+        <v>101</v>
+      </c>
+      <c r="B7" s="69" t="s">
+        <v>102</v>
+      </c>
+      <c r="C7" s="69" t="s">
+        <v>103</v>
+      </c>
+      <c r="H7" s="71">
+        <v>600</v>
+      </c>
+      <c r="I7" s="71">
+        <v>1</v>
+      </c>
+      <c r="J7" s="67">
+        <f>IF(AND(ISNUMBER(H7),ISNUMBER(I7)),I7*H7/60,"")</f>
+        <v>10</v>
+      </c>
+      <c r="M7" s="70" t="s">
+        <v>111</v>
+      </c>
+      <c r="N7" s="70" t="s">
+        <v>114</v>
+      </c>
+      <c r="O7" s="70" t="s">
+        <v>109</v>
+      </c>
+      <c r="P7" s="70" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8" s="71">
+        <v>10</v>
+      </c>
+      <c r="B8" s="67">
+        <f>IF(ISNUMBER($A8),1.1515*$A8,"")</f>
+        <v>11.515000000000001</v>
+      </c>
+      <c r="C8" s="67">
+        <f>IF(ISNUMBER($A8),1.855*$A8,"")</f>
+        <v>18.55</v>
+      </c>
+      <c r="M8" s="71">
+        <v>2000</v>
+      </c>
+      <c r="N8" s="71">
+        <v>6</v>
+      </c>
+      <c r="O8" s="67">
+        <f>IF(AND(ISNUMBER(M8)),15-M8/500,"")</f>
+        <v>11</v>
+      </c>
+      <c r="P8" s="67">
+        <f>IF(AND(ISNUMBER(O8)),N8-O8,"")</f>
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9" s="69" t="s">
+        <v>102</v>
+      </c>
+      <c r="B9" s="69" t="s">
+        <v>101</v>
+      </c>
+      <c r="C9" s="69" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10" s="71">
+        <v>11.52</v>
+      </c>
+      <c r="B10" s="67">
+        <f>IF(ISNUMBER($A10),$A10/1.1515,"")</f>
+        <v>10.004342162396874</v>
+      </c>
+      <c r="C10" s="67">
+        <f>IF(ISNUMBER($A10),$A10*1.6059,"")</f>
+        <v>18.499967999999999</v>
+      </c>
+      <c r="H10" s="207" t="s">
+        <v>99</v>
+      </c>
+      <c r="I10" s="207"/>
+      <c r="J10" s="207"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11" s="69" t="s">
+        <v>103</v>
+      </c>
+      <c r="B11" s="69" t="s">
+        <v>102</v>
+      </c>
+      <c r="C11" s="69" t="s">
+        <v>101</v>
+      </c>
+      <c r="H11" s="69" t="s">
+        <v>96</v>
+      </c>
+      <c r="I11" s="69" t="s">
+        <v>100</v>
+      </c>
+      <c r="J11" s="69" t="s">
+        <v>36</v>
+      </c>
+      <c r="M11" s="207" t="s">
+        <v>116</v>
+      </c>
+      <c r="N11" s="207"/>
+      <c r="O11" s="207"/>
+      <c r="P11" s="207"/>
+      <c r="Q11" s="207"/>
+      <c r="R11" s="72"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A12" s="71">
+        <v>18.55</v>
+      </c>
+      <c r="B12" s="67">
+        <f>IF(ISNUMBER($A12),$A12/1.6059,"")</f>
+        <v>11.55115511551155</v>
+      </c>
+      <c r="C12" s="67">
+        <f>IF(ISNUMBER($A12),$A12/1.855,"")</f>
+        <v>10</v>
+      </c>
+      <c r="H12" s="71">
+        <v>87</v>
+      </c>
+      <c r="I12" s="71">
+        <v>13.484999999999999</v>
+      </c>
+      <c r="J12" s="67">
+        <f>IF(AND(ISNUMBER(H12),ISNUMBER(I12)),I12/H12*60,"")</f>
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="M12" s="70" t="s">
+        <v>111</v>
+      </c>
+      <c r="N12" s="70" t="s">
+        <v>114</v>
+      </c>
+      <c r="O12" s="70" t="s">
+        <v>109</v>
+      </c>
+      <c r="P12" s="70" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q12" s="70" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="H13" s="69" t="s">
+        <v>100</v>
+      </c>
+      <c r="I13" s="69" t="s">
+        <v>36</v>
+      </c>
+      <c r="J13" s="69" t="s">
+        <v>96</v>
+      </c>
+      <c r="M13" s="71">
+        <v>2000</v>
+      </c>
+      <c r="N13" s="71">
+        <v>30</v>
+      </c>
+      <c r="O13" s="67">
+        <f>IF(AND(ISNUMBER(M13)),15-M13/500,"")</f>
+        <v>11</v>
+      </c>
+      <c r="P13" s="67">
+        <f>IF(AND(ISNUMBER(O13)),N13-O13,"")</f>
+        <v>19</v>
+      </c>
+      <c r="Q13" s="67">
+        <f>M13+118.8*P13</f>
+        <v>4257.2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="H14" s="71">
+        <v>13.484999999999999</v>
+      </c>
+      <c r="I14" s="71">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="J14" s="67">
+        <f>IF(AND(ISNUMBER(H14),ISNUMBER(I14)),H14/I14*60,"")</f>
+        <v>86.999999999999986</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A15" s="207" t="s">
+        <v>113</v>
+      </c>
+      <c r="B15" s="207"/>
+      <c r="C15" s="207"/>
+      <c r="D15" s="207"/>
+      <c r="E15" s="207"/>
+      <c r="H15" s="69" t="s">
+        <v>36</v>
+      </c>
+      <c r="I15" s="69" t="s">
+        <v>96</v>
+      </c>
+      <c r="J15" s="69" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A16" s="69" t="s">
+        <v>104</v>
+      </c>
+      <c r="B16" s="69" t="s">
+        <v>105</v>
+      </c>
+      <c r="C16" s="69" t="s">
+        <v>106</v>
+      </c>
+      <c r="D16" s="69" t="s">
+        <v>107</v>
+      </c>
+      <c r="E16" s="69" t="s">
+        <v>108</v>
+      </c>
+      <c r="H16" s="71">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="I16" s="71">
+        <v>87</v>
+      </c>
+      <c r="J16" s="67">
+        <f>IF(AND(ISNUMBER(H16),ISNUMBER(I16)),I16*H16/60,"")</f>
+        <v>13.485000000000001</v>
+      </c>
+      <c r="M16" s="209" t="s">
+        <v>119</v>
+      </c>
+      <c r="N16" s="210"/>
+      <c r="O16" s="210"/>
+      <c r="P16" s="210"/>
+      <c r="Q16" s="210"/>
+      <c r="R16" s="211"/>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A17" s="71">
+        <v>1</v>
+      </c>
+      <c r="B17" s="67">
+        <f>IF(ISNUMBER($A17),6*$A17,"")</f>
+        <v>6</v>
+      </c>
+      <c r="C17" s="67">
+        <f>IF(ISNUMBER($A17),4*$A17,"")</f>
+        <v>4</v>
+      </c>
+      <c r="D17" s="67">
+        <f>IF(ISNUMBER($A17),2.721552*$A17,"")</f>
+        <v>2.721552</v>
+      </c>
+      <c r="E17" s="67">
+        <f>IF(ISNUMBER($A17),3.78541*$A17,"")</f>
+        <v>3.7854100000000002</v>
+      </c>
+      <c r="M17" s="70" t="s">
+        <v>111</v>
+      </c>
+      <c r="N17" s="70" t="s">
+        <v>114</v>
+      </c>
+      <c r="O17" s="70" t="s">
+        <v>109</v>
+      </c>
+      <c r="P17" s="70" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q17" s="70" t="s">
+        <v>83</v>
+      </c>
+      <c r="R17" s="70" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A18" s="69" t="s">
+        <v>105</v>
+      </c>
+      <c r="B18" s="69" t="s">
+        <v>104</v>
+      </c>
+      <c r="C18" s="69" t="s">
+        <v>106</v>
+      </c>
+      <c r="D18" s="69" t="s">
+        <v>107</v>
+      </c>
+      <c r="E18" s="69" t="s">
+        <v>108</v>
+      </c>
+      <c r="M18" s="71">
+        <v>6000</v>
+      </c>
+      <c r="N18" s="71">
+        <v>-10</v>
+      </c>
+      <c r="O18" s="67">
+        <f>IF(AND(ISNUMBER(M18)),15-M18/500,"")</f>
+        <v>3</v>
+      </c>
+      <c r="P18" s="67">
+        <f>IF(AND(ISNUMBER(O18)),N18-O18,"")</f>
+        <v>-13</v>
+      </c>
+      <c r="Q18" s="71">
+        <v>103</v>
+      </c>
+      <c r="R18" s="67">
+        <f>IF(AND(ISNUMBER(Q18)),Q18+Q18*(M18/600+P18/5)%,"")</f>
+        <v>110.622</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A19" s="71">
+        <v>6</v>
+      </c>
+      <c r="B19" s="67">
+        <f>IF(ISNUMBER($A19),$A19/6,"")</f>
+        <v>1</v>
+      </c>
+      <c r="C19" s="67">
+        <f>IF(ISNUMBER($A19),$A19/1.5,"")</f>
+        <v>4</v>
+      </c>
+      <c r="D19" s="67">
+        <f>IF(ISNUMBER($A19),$A19*0.453592,"")</f>
+        <v>2.721552</v>
+      </c>
+      <c r="E19" s="67">
+        <f>IF(ISNUMBER($A19),$A19/1.58503,"")</f>
+        <v>3.785417310713362</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A20" s="69" t="s">
+        <v>106</v>
+      </c>
+      <c r="B20" s="69" t="s">
+        <v>105</v>
+      </c>
+      <c r="C20" s="69" t="s">
+        <v>104</v>
+      </c>
+      <c r="D20" s="69" t="s">
+        <v>107</v>
+      </c>
+      <c r="E20" s="69" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A21" s="71">
+        <v>4</v>
+      </c>
+      <c r="B21" s="67">
+        <f>IF(ISNUMBER($A21),$A21*1.5,"")</f>
+        <v>6</v>
+      </c>
+      <c r="C21" s="67">
+        <f>IF(ISNUMBER($A21),$A21/4,"")</f>
+        <v>1</v>
+      </c>
+      <c r="D21" s="67">
+        <f>IF(ISNUMBER($A21),$A21*0.680388,"")</f>
+        <v>2.721552</v>
+      </c>
+      <c r="E21" s="67">
+        <f>IF(ISNUMBER($A21),$A21*0.946353,"")</f>
+        <v>3.785412</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="M11:Q11"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="M16:R16"/>
+    <mergeCell ref="M6:P6"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A15:E15"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="H10:J10"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/vaayuyaana/jagiNavLog.xlsx
+++ b/vaayuyaana/jagiNavLog.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jagadishn\Documents\jagi\haaru\checkRide\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACED3FFC-AF7D-4D6F-A3DA-92B8EECA4119}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFDC2CCE-3E16-4B02-BFEE-F11CF3B27F71}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{E3DE2A8C-E23C-4F63-95E8-9AD5B4E402C0}"/>
+    <workbookView xWindow="6450" yWindow="3240" windowWidth="21600" windowHeight="12735" xr2:uid="{E3DE2A8C-E23C-4F63-95E8-9AD5B4E402C0}"/>
   </bookViews>
   <sheets>
     <sheet name="navLog" sheetId="1" r:id="rId1"/>
     <sheet name="tools" sheetId="2" r:id="rId2"/>
+    <sheet name="windtempSFO" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="265">
   <si>
     <t>Weight</t>
   </si>
@@ -497,6 +498,446 @@
   </si>
   <si>
     <t>Altitude given Altimeter &amp; Elevation --&gt; PA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FT </t>
+  </si>
+  <si>
+    <t>BIH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    </t>
+  </si>
+  <si>
+    <t>9900+06</t>
+  </si>
+  <si>
+    <t>3506+03</t>
+  </si>
+  <si>
+    <t>3314-11</t>
+  </si>
+  <si>
+    <t>3323-22</t>
+  </si>
+  <si>
+    <t>BLH</t>
+  </si>
+  <si>
+    <t>0410+10</t>
+  </si>
+  <si>
+    <t>0110+07</t>
+  </si>
+  <si>
+    <t>9900+04</t>
+  </si>
+  <si>
+    <t>2708-09</t>
+  </si>
+  <si>
+    <t>2508-22</t>
+  </si>
+  <si>
+    <t>FAT</t>
+  </si>
+  <si>
+    <t>1905+13</t>
+  </si>
+  <si>
+    <t>9900+07</t>
+  </si>
+  <si>
+    <t>9900+03</t>
+  </si>
+  <si>
+    <t>3615-11</t>
+  </si>
+  <si>
+    <t>3316-22</t>
+  </si>
+  <si>
+    <t>FOT</t>
+  </si>
+  <si>
+    <t>2805+13</t>
+  </si>
+  <si>
+    <t>2811+08</t>
+  </si>
+  <si>
+    <t>2715+03</t>
+  </si>
+  <si>
+    <t>2717-12</t>
+  </si>
+  <si>
+    <t>2732-24</t>
+  </si>
+  <si>
+    <t>ONT</t>
+  </si>
+  <si>
+    <t>0612+12</t>
+  </si>
+  <si>
+    <t>0710+07</t>
+  </si>
+  <si>
+    <t>0411+05</t>
+  </si>
+  <si>
+    <t>9900-10</t>
+  </si>
+  <si>
+    <t>3206-22</t>
+  </si>
+  <si>
+    <t>RBL</t>
+  </si>
+  <si>
+    <t>9900+12</t>
+  </si>
+  <si>
+    <t>2806+08</t>
+  </si>
+  <si>
+    <t>3011+03</t>
+  </si>
+  <si>
+    <t>3115-12</t>
+  </si>
+  <si>
+    <t>2931-24</t>
+  </si>
+  <si>
+    <t>SAC</t>
+  </si>
+  <si>
+    <t>9900+13</t>
+  </si>
+  <si>
+    <t>9900+09</t>
+  </si>
+  <si>
+    <t>3205+03</t>
+  </si>
+  <si>
+    <t>3218-11</t>
+  </si>
+  <si>
+    <t>3025-23</t>
+  </si>
+  <si>
+    <t>SAN</t>
+  </si>
+  <si>
+    <t>0307+13</t>
+  </si>
+  <si>
+    <t>0509+08</t>
+  </si>
+  <si>
+    <t>0908+04</t>
+  </si>
+  <si>
+    <t>9900-09</t>
+  </si>
+  <si>
+    <t>9900-22</t>
+  </si>
+  <si>
+    <t>SBA</t>
+  </si>
+  <si>
+    <t>1113+13</t>
+  </si>
+  <si>
+    <t>0913+08</t>
+  </si>
+  <si>
+    <t>0412+04</t>
+  </si>
+  <si>
+    <t>0211-10</t>
+  </si>
+  <si>
+    <t>0114-22</t>
+  </si>
+  <si>
+    <t>SFO</t>
+  </si>
+  <si>
+    <t>0706+14</t>
+  </si>
+  <si>
+    <t>3607+04</t>
+  </si>
+  <si>
+    <t>3214-10</t>
+  </si>
+  <si>
+    <t>3016-23</t>
+  </si>
+  <si>
+    <t>SIY</t>
+  </si>
+  <si>
+    <t>2107+11</t>
+  </si>
+  <si>
+    <t>2612+07</t>
+  </si>
+  <si>
+    <t>2817+02</t>
+  </si>
+  <si>
+    <t>2822-13</t>
+  </si>
+  <si>
+    <t>2826-26</t>
+  </si>
+  <si>
+    <t>WJF</t>
+  </si>
+  <si>
+    <t>0722+10</t>
+  </si>
+  <si>
+    <t>0618+07</t>
+  </si>
+  <si>
+    <t>0313+04</t>
+  </si>
+  <si>
+    <t>0106-10</t>
+  </si>
+  <si>
+    <t>0214-22</t>
+  </si>
+  <si>
+    <t>AST</t>
+  </si>
+  <si>
+    <t>2327+06</t>
+  </si>
+  <si>
+    <t>2432+02</t>
+  </si>
+  <si>
+    <t>2534-02</t>
+  </si>
+  <si>
+    <t>2642-14</t>
+  </si>
+  <si>
+    <t>2648-26</t>
+  </si>
+  <si>
+    <t>IMB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       </t>
+  </si>
+  <si>
+    <t>2519+04</t>
+  </si>
+  <si>
+    <t>2723+00</t>
+  </si>
+  <si>
+    <t>2834-14</t>
+  </si>
+  <si>
+    <t>2837-27</t>
+  </si>
+  <si>
+    <t>LKV</t>
+  </si>
+  <si>
+    <t>2513+06</t>
+  </si>
+  <si>
+    <t>3025-13</t>
+  </si>
+  <si>
+    <t>2828-26</t>
+  </si>
+  <si>
+    <t>OTH</t>
+  </si>
+  <si>
+    <t>2318+10</t>
+  </si>
+  <si>
+    <t>2622+06</t>
+  </si>
+  <si>
+    <t>2626+01</t>
+  </si>
+  <si>
+    <t>2633-13</t>
+  </si>
+  <si>
+    <t>2636-26</t>
+  </si>
+  <si>
+    <t>PDX</t>
+  </si>
+  <si>
+    <t>2322+07</t>
+  </si>
+  <si>
+    <t>2526+03</t>
+  </si>
+  <si>
+    <t>2530-01</t>
+  </si>
+  <si>
+    <t>2741-14</t>
+  </si>
+  <si>
+    <t>2745-26</t>
+  </si>
+  <si>
+    <t>RDM</t>
+  </si>
+  <si>
+    <t>2314+09</t>
+  </si>
+  <si>
+    <t>2619+05</t>
+  </si>
+  <si>
+    <t>2724+01</t>
+  </si>
+  <si>
+    <t>2834-13</t>
+  </si>
+  <si>
+    <t>2838-26</t>
+  </si>
+  <si>
+    <t>GEG</t>
+  </si>
+  <si>
+    <t>2319+02</t>
+  </si>
+  <si>
+    <t>2621-01</t>
+  </si>
+  <si>
+    <t>2730-04</t>
+  </si>
+  <si>
+    <t>2844-16</t>
+  </si>
+  <si>
+    <t>2954-27</t>
+  </si>
+  <si>
+    <t>SEA</t>
+  </si>
+  <si>
+    <t>2323+03</t>
+  </si>
+  <si>
+    <t>2537+01</t>
+  </si>
+  <si>
+    <t>2538-04</t>
+  </si>
+  <si>
+    <t>2644-15</t>
+  </si>
+  <si>
+    <t>2753-27</t>
+  </si>
+  <si>
+    <t>YKM</t>
+  </si>
+  <si>
+    <t>2416+05</t>
+  </si>
+  <si>
+    <t>2626+02</t>
+  </si>
+  <si>
+    <t>2629-03</t>
+  </si>
+  <si>
+    <t>2740-15</t>
+  </si>
+  <si>
+    <t>2747-27</t>
+  </si>
+  <si>
+    <t>dir</t>
+  </si>
+  <si>
+    <t>knots</t>
+  </si>
+  <si>
+    <t>temp</t>
+  </si>
+  <si>
+    <t>KHES
+Healdsburg</t>
+  </si>
+  <si>
+    <t>sfosac @3000</t>
+  </si>
+  <si>
+    <t>KSTS
+Santa Rosa</t>
+  </si>
+  <si>
+    <t>sfosac @4500</t>
+  </si>
+  <si>
+    <t>sfosac @5500</t>
+  </si>
+  <si>
+    <t>O69
+Petaluma</t>
+  </si>
+  <si>
+    <t>KAPC
+Napa County</t>
+  </si>
+  <si>
+    <t>Begin Edge city
+PITTSBURG</t>
+  </si>
+  <si>
+    <t>C83
+Byron</t>
+  </si>
+  <si>
+    <t>KTCY
+Tracy</t>
+  </si>
+  <si>
+    <t>KMOD
+Modesto</t>
+  </si>
+  <si>
+    <t>sacfat @5500</t>
+  </si>
+  <si>
+    <t>KMCE
+Merced</t>
+  </si>
+  <si>
+    <t>fat @5500</t>
+  </si>
+  <si>
+    <t>KMAE
+Madera</t>
+  </si>
+  <si>
+    <t>KFAT
+Fresno</t>
   </si>
 </sst>
 </file>
@@ -574,7 +1015,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -611,6 +1052,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="63">
     <border>
@@ -1395,7 +1842,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="214">
+  <cellXfs count="215">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1603,9 +2050,375 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -1636,373 +2449,7 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2026,6 +2473,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2448,29 +2896,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="87" t="s">
+      <c r="A1" s="186" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="88"/>
-      <c r="C1" s="73" t="s">
+      <c r="B1" s="187"/>
+      <c r="C1" s="188" t="s">
         <v>87</v>
       </c>
-      <c r="D1" s="73"/>
-      <c r="E1" s="92"/>
-      <c r="F1" s="92"/>
+      <c r="D1" s="188"/>
+      <c r="E1" s="192"/>
+      <c r="F1" s="192"/>
       <c r="G1" s="1"/>
-      <c r="H1" s="153" t="s">
+      <c r="H1" s="142" t="s">
         <v>56</v>
       </c>
-      <c r="I1" s="153"/>
-      <c r="J1" s="153"/>
-      <c r="K1" s="153"/>
-      <c r="L1" s="153"/>
-      <c r="M1" s="153"/>
-      <c r="N1" s="153"/>
-      <c r="O1" s="153"/>
-      <c r="P1" s="153"/>
-      <c r="Q1" s="153"/>
+      <c r="I1" s="142"/>
+      <c r="J1" s="142"/>
+      <c r="K1" s="142"/>
+      <c r="L1" s="142"/>
+      <c r="M1" s="142"/>
+      <c r="N1" s="142"/>
+      <c r="O1" s="142"/>
+      <c r="P1" s="142"/>
+      <c r="Q1" s="142"/>
       <c r="R1" s="35" t="s">
         <v>88</v>
       </c>
@@ -2493,233 +2941,233 @@
       <c r="E2" s="34" t="s">
         <v>71</v>
       </c>
-      <c r="F2" s="95"/>
-      <c r="G2" s="96"/>
+      <c r="F2" s="129"/>
+      <c r="G2" s="193"/>
       <c r="H2" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="I2" s="185"/>
-      <c r="J2" s="186"/>
+      <c r="I2" s="127"/>
+      <c r="J2" s="128"/>
       <c r="K2" s="23" t="s">
         <v>73</v>
       </c>
       <c r="L2" s="22"/>
-      <c r="M2" s="95"/>
-      <c r="N2" s="95"/>
-      <c r="O2" s="176"/>
-      <c r="P2" s="177"/>
-      <c r="Q2" s="177"/>
-      <c r="R2" s="177"/>
-      <c r="S2" s="177"/>
-      <c r="T2" s="177"/>
-      <c r="U2" s="177"/>
-      <c r="V2" s="177"/>
-      <c r="W2" s="177"/>
-      <c r="X2" s="178"/>
+      <c r="M2" s="129"/>
+      <c r="N2" s="129"/>
+      <c r="O2" s="118"/>
+      <c r="P2" s="119"/>
+      <c r="Q2" s="119"/>
+      <c r="R2" s="119"/>
+      <c r="S2" s="119"/>
+      <c r="T2" s="119"/>
+      <c r="U2" s="119"/>
+      <c r="V2" s="119"/>
+      <c r="W2" s="119"/>
+      <c r="X2" s="120"/>
     </row>
     <row r="3" spans="1:24" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="89"/>
-      <c r="B3" s="90"/>
-      <c r="C3" s="91"/>
-      <c r="D3" s="97" t="s">
+      <c r="A3" s="189"/>
+      <c r="B3" s="190"/>
+      <c r="C3" s="191"/>
+      <c r="D3" s="148" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="98"/>
-      <c r="F3" s="99"/>
-      <c r="G3" s="140" t="s">
+      <c r="E3" s="149"/>
+      <c r="F3" s="76"/>
+      <c r="G3" s="77" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="140"/>
-      <c r="I3" s="140"/>
-      <c r="J3" s="141"/>
-      <c r="K3" s="156" t="s">
+      <c r="H3" s="77"/>
+      <c r="I3" s="77"/>
+      <c r="J3" s="81"/>
+      <c r="K3" s="101" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="140"/>
-      <c r="M3" s="140"/>
-      <c r="N3" s="97"/>
-      <c r="O3" s="179"/>
-      <c r="P3" s="180"/>
-      <c r="Q3" s="180"/>
-      <c r="R3" s="180"/>
-      <c r="S3" s="180"/>
-      <c r="T3" s="180"/>
-      <c r="U3" s="180"/>
-      <c r="V3" s="180"/>
-      <c r="W3" s="180"/>
-      <c r="X3" s="181"/>
+      <c r="L3" s="77"/>
+      <c r="M3" s="77"/>
+      <c r="N3" s="148"/>
+      <c r="O3" s="121"/>
+      <c r="P3" s="122"/>
+      <c r="Q3" s="122"/>
+      <c r="R3" s="122"/>
+      <c r="S3" s="122"/>
+      <c r="T3" s="122"/>
+      <c r="U3" s="122"/>
+      <c r="V3" s="122"/>
+      <c r="W3" s="122"/>
+      <c r="X3" s="123"/>
     </row>
     <row r="4" spans="1:24" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="93" t="s">
+      <c r="A4" s="134" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="94"/>
-      <c r="C4" s="94"/>
-      <c r="D4" s="100"/>
-      <c r="E4" s="101"/>
-      <c r="F4" s="102"/>
-      <c r="G4" s="112"/>
-      <c r="H4" s="112"/>
-      <c r="I4" s="112"/>
-      <c r="J4" s="121"/>
-      <c r="K4" s="106" t="s">
+      <c r="B4" s="135"/>
+      <c r="C4" s="135"/>
+      <c r="D4" s="182"/>
+      <c r="E4" s="183"/>
+      <c r="F4" s="144"/>
+      <c r="G4" s="84"/>
+      <c r="H4" s="84"/>
+      <c r="I4" s="84"/>
+      <c r="J4" s="85"/>
+      <c r="K4" s="176" t="s">
         <v>6</v>
       </c>
-      <c r="L4" s="107"/>
-      <c r="M4" s="157"/>
-      <c r="N4" s="158"/>
-      <c r="O4" s="179"/>
-      <c r="P4" s="180"/>
-      <c r="Q4" s="180"/>
-      <c r="R4" s="180"/>
-      <c r="S4" s="180"/>
-      <c r="T4" s="180"/>
-      <c r="U4" s="180"/>
-      <c r="V4" s="180"/>
-      <c r="W4" s="180"/>
-      <c r="X4" s="181"/>
+      <c r="L4" s="177"/>
+      <c r="M4" s="130"/>
+      <c r="N4" s="131"/>
+      <c r="O4" s="121"/>
+      <c r="P4" s="122"/>
+      <c r="Q4" s="122"/>
+      <c r="R4" s="122"/>
+      <c r="S4" s="122"/>
+      <c r="T4" s="122"/>
+      <c r="U4" s="122"/>
+      <c r="V4" s="122"/>
+      <c r="W4" s="122"/>
+      <c r="X4" s="123"/>
     </row>
     <row r="5" spans="1:24" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="93" t="s">
+      <c r="A5" s="134" t="s">
         <v>84</v>
       </c>
-      <c r="B5" s="94"/>
-      <c r="C5" s="94"/>
-      <c r="D5" s="100"/>
-      <c r="E5" s="101"/>
-      <c r="F5" s="102"/>
-      <c r="G5" s="112"/>
-      <c r="H5" s="112"/>
-      <c r="I5" s="112"/>
-      <c r="J5" s="121"/>
-      <c r="K5" s="106" t="s">
+      <c r="B5" s="135"/>
+      <c r="C5" s="135"/>
+      <c r="D5" s="182"/>
+      <c r="E5" s="183"/>
+      <c r="F5" s="144"/>
+      <c r="G5" s="84"/>
+      <c r="H5" s="84"/>
+      <c r="I5" s="84"/>
+      <c r="J5" s="85"/>
+      <c r="K5" s="176" t="s">
         <v>7</v>
       </c>
-      <c r="L5" s="107"/>
-      <c r="M5" s="157"/>
-      <c r="N5" s="158"/>
-      <c r="O5" s="179"/>
-      <c r="P5" s="180"/>
-      <c r="Q5" s="180"/>
-      <c r="R5" s="180"/>
-      <c r="S5" s="180"/>
-      <c r="T5" s="180"/>
-      <c r="U5" s="180"/>
-      <c r="V5" s="180"/>
-      <c r="W5" s="180"/>
-      <c r="X5" s="181"/>
+      <c r="L5" s="177"/>
+      <c r="M5" s="130"/>
+      <c r="N5" s="131"/>
+      <c r="O5" s="121"/>
+      <c r="P5" s="122"/>
+      <c r="Q5" s="122"/>
+      <c r="R5" s="122"/>
+      <c r="S5" s="122"/>
+      <c r="T5" s="122"/>
+      <c r="U5" s="122"/>
+      <c r="V5" s="122"/>
+      <c r="W5" s="122"/>
+      <c r="X5" s="123"/>
     </row>
     <row r="6" spans="1:24" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="93" t="s">
+      <c r="A6" s="134" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="94"/>
-      <c r="C6" s="94"/>
-      <c r="D6" s="100"/>
-      <c r="E6" s="101"/>
-      <c r="F6" s="102"/>
-      <c r="G6" s="112"/>
-      <c r="H6" s="112"/>
-      <c r="I6" s="112"/>
-      <c r="J6" s="121"/>
-      <c r="K6" s="106" t="s">
+      <c r="B6" s="135"/>
+      <c r="C6" s="135"/>
+      <c r="D6" s="182"/>
+      <c r="E6" s="183"/>
+      <c r="F6" s="144"/>
+      <c r="G6" s="84"/>
+      <c r="H6" s="84"/>
+      <c r="I6" s="84"/>
+      <c r="J6" s="85"/>
+      <c r="K6" s="176" t="s">
         <v>8</v>
       </c>
-      <c r="L6" s="107"/>
-      <c r="M6" s="157"/>
-      <c r="N6" s="158"/>
-      <c r="O6" s="179"/>
-      <c r="P6" s="180"/>
-      <c r="Q6" s="180"/>
-      <c r="R6" s="180"/>
-      <c r="S6" s="180"/>
-      <c r="T6" s="180"/>
-      <c r="U6" s="180"/>
-      <c r="V6" s="180"/>
-      <c r="W6" s="180"/>
-      <c r="X6" s="181"/>
+      <c r="L6" s="177"/>
+      <c r="M6" s="130"/>
+      <c r="N6" s="131"/>
+      <c r="O6" s="121"/>
+      <c r="P6" s="122"/>
+      <c r="Q6" s="122"/>
+      <c r="R6" s="122"/>
+      <c r="S6" s="122"/>
+      <c r="T6" s="122"/>
+      <c r="U6" s="122"/>
+      <c r="V6" s="122"/>
+      <c r="W6" s="122"/>
+      <c r="X6" s="123"/>
     </row>
     <row r="7" spans="1:24" ht="21" x14ac:dyDescent="0.25">
-      <c r="A7" s="93" t="s">
+      <c r="A7" s="134" t="s">
         <v>74</v>
       </c>
-      <c r="B7" s="94"/>
-      <c r="C7" s="94"/>
-      <c r="D7" s="100"/>
-      <c r="E7" s="101"/>
-      <c r="F7" s="102"/>
-      <c r="G7" s="112"/>
-      <c r="H7" s="112"/>
-      <c r="I7" s="112"/>
-      <c r="J7" s="121"/>
-      <c r="K7" s="106" t="s">
+      <c r="B7" s="135"/>
+      <c r="C7" s="135"/>
+      <c r="D7" s="182"/>
+      <c r="E7" s="183"/>
+      <c r="F7" s="144"/>
+      <c r="G7" s="84"/>
+      <c r="H7" s="84"/>
+      <c r="I7" s="84"/>
+      <c r="J7" s="85"/>
+      <c r="K7" s="176" t="s">
         <v>9</v>
       </c>
-      <c r="L7" s="107"/>
-      <c r="M7" s="157"/>
-      <c r="N7" s="158"/>
-      <c r="O7" s="179"/>
-      <c r="P7" s="180"/>
-      <c r="Q7" s="180"/>
-      <c r="R7" s="180"/>
-      <c r="S7" s="180"/>
-      <c r="T7" s="180"/>
-      <c r="U7" s="180"/>
-      <c r="V7" s="180"/>
-      <c r="W7" s="180"/>
-      <c r="X7" s="181"/>
+      <c r="L7" s="177"/>
+      <c r="M7" s="130"/>
+      <c r="N7" s="131"/>
+      <c r="O7" s="121"/>
+      <c r="P7" s="122"/>
+      <c r="Q7" s="122"/>
+      <c r="R7" s="122"/>
+      <c r="S7" s="122"/>
+      <c r="T7" s="122"/>
+      <c r="U7" s="122"/>
+      <c r="V7" s="122"/>
+      <c r="W7" s="122"/>
+      <c r="X7" s="123"/>
     </row>
     <row r="8" spans="1:24" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="189" t="s">
+      <c r="A8" s="136" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="190"/>
-      <c r="C8" s="190"/>
-      <c r="D8" s="103"/>
-      <c r="E8" s="104"/>
-      <c r="F8" s="105"/>
-      <c r="G8" s="86"/>
-      <c r="H8" s="86"/>
-      <c r="I8" s="86"/>
-      <c r="J8" s="122"/>
-      <c r="K8" s="108" t="s">
+      <c r="B8" s="137"/>
+      <c r="C8" s="137"/>
+      <c r="D8" s="194"/>
+      <c r="E8" s="195"/>
+      <c r="F8" s="171"/>
+      <c r="G8" s="113"/>
+      <c r="H8" s="113"/>
+      <c r="I8" s="113"/>
+      <c r="J8" s="114"/>
+      <c r="K8" s="178" t="s">
         <v>10</v>
       </c>
-      <c r="L8" s="109"/>
-      <c r="M8" s="187"/>
-      <c r="N8" s="188"/>
-      <c r="O8" s="182"/>
-      <c r="P8" s="183"/>
-      <c r="Q8" s="183"/>
-      <c r="R8" s="183"/>
-      <c r="S8" s="183"/>
-      <c r="T8" s="183"/>
-      <c r="U8" s="183"/>
-      <c r="V8" s="183"/>
-      <c r="W8" s="183"/>
-      <c r="X8" s="184"/>
+      <c r="L8" s="179"/>
+      <c r="M8" s="132"/>
+      <c r="N8" s="133"/>
+      <c r="O8" s="124"/>
+      <c r="P8" s="125"/>
+      <c r="Q8" s="125"/>
+      <c r="R8" s="125"/>
+      <c r="S8" s="125"/>
+      <c r="T8" s="125"/>
+      <c r="U8" s="125"/>
+      <c r="V8" s="125"/>
+      <c r="W8" s="125"/>
+      <c r="X8" s="126"/>
     </row>
     <row r="9" spans="1:24" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="156" t="s">
+      <c r="A9" s="101" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="141"/>
+      <c r="B9" s="81"/>
       <c r="C9" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="165" t="s">
+      <c r="D9" s="105" t="s">
         <v>91</v>
       </c>
-      <c r="E9" s="168" t="s">
+      <c r="E9" s="108" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="173" t="s">
+      <c r="F9" s="115" t="s">
         <v>85</v>
       </c>
-      <c r="G9" s="156" t="s">
+      <c r="G9" s="101" t="s">
         <v>16</v>
       </c>
-      <c r="H9" s="140"/>
+      <c r="H9" s="77"/>
       <c r="I9" s="18" t="s">
         <v>83</v>
       </c>
@@ -2732,7 +3180,7 @@
       <c r="L9" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="M9" s="98" t="s">
+      <c r="M9" s="149" t="s">
         <v>23</v>
       </c>
       <c r="N9" s="8" t="s">
@@ -2741,35 +3189,35 @@
       <c r="O9" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="P9" s="140" t="s">
+      <c r="P9" s="77" t="s">
         <v>32</v>
       </c>
-      <c r="Q9" s="140"/>
+      <c r="Q9" s="77"/>
       <c r="R9" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="S9" s="99" t="s">
+      <c r="S9" s="76" t="s">
         <v>37</v>
       </c>
-      <c r="T9" s="140"/>
-      <c r="U9" s="196" t="s">
+      <c r="T9" s="77"/>
+      <c r="U9" s="80" t="s">
         <v>66</v>
       </c>
-      <c r="V9" s="140"/>
-      <c r="W9" s="140" t="s">
+      <c r="V9" s="77"/>
+      <c r="W9" s="77" t="s">
         <v>38</v>
       </c>
-      <c r="X9" s="141"/>
+      <c r="X9" s="81"/>
     </row>
     <row r="10" spans="1:24" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="162"/>
-      <c r="B10" s="163"/>
+      <c r="A10" s="102"/>
+      <c r="B10" s="103"/>
       <c r="C10" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="166"/>
-      <c r="E10" s="169"/>
-      <c r="F10" s="174"/>
+      <c r="D10" s="106"/>
+      <c r="E10" s="109"/>
+      <c r="F10" s="116"/>
       <c r="G10" s="14" t="s">
         <v>17</v>
       </c>
@@ -2779,59 +3227,59 @@
       <c r="I10" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="J10" s="171" t="s">
+      <c r="J10" s="111" t="s">
         <v>24</v>
       </c>
-      <c r="K10" s="191" t="s">
+      <c r="K10" s="138" t="s">
         <v>25</v>
       </c>
-      <c r="L10" s="193" t="s">
+      <c r="L10" s="140" t="s">
         <v>26</v>
       </c>
-      <c r="M10" s="159"/>
+      <c r="M10" s="150"/>
       <c r="N10" s="14" t="s">
         <v>27</v>
       </c>
       <c r="O10" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="P10" s="131"/>
-      <c r="Q10" s="131"/>
+      <c r="P10" s="86"/>
+      <c r="Q10" s="86"/>
       <c r="R10" s="44" t="str">
         <f>IF(ISNUMBER(J34),J34,"")</f>
         <v/>
       </c>
-      <c r="S10" s="135"/>
-      <c r="T10" s="136"/>
-      <c r="U10" s="136"/>
-      <c r="V10" s="136"/>
-      <c r="W10" s="136"/>
-      <c r="X10" s="151"/>
+      <c r="S10" s="78"/>
+      <c r="T10" s="79"/>
+      <c r="U10" s="79"/>
+      <c r="V10" s="79"/>
+      <c r="W10" s="79"/>
+      <c r="X10" s="82"/>
     </row>
     <row r="11" spans="1:24" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="164"/>
-      <c r="B11" s="151"/>
+      <c r="A11" s="104"/>
+      <c r="B11" s="82"/>
       <c r="C11" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="166"/>
-      <c r="E11" s="169"/>
-      <c r="F11" s="174"/>
-      <c r="G11" s="113" t="s">
+      <c r="D11" s="106"/>
+      <c r="E11" s="109"/>
+      <c r="F11" s="116"/>
+      <c r="G11" s="184" t="s">
         <v>86</v>
       </c>
-      <c r="H11" s="114"/>
-      <c r="I11" s="119" t="s">
+      <c r="H11" s="152"/>
+      <c r="I11" s="174" t="s">
         <v>19</v>
       </c>
-      <c r="J11" s="171"/>
-      <c r="K11" s="191"/>
-      <c r="L11" s="193"/>
-      <c r="M11" s="159"/>
+      <c r="J11" s="111"/>
+      <c r="K11" s="138"/>
+      <c r="L11" s="140"/>
+      <c r="M11" s="150"/>
       <c r="N11" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="O11" s="114" t="s">
+      <c r="O11" s="152" t="s">
         <v>31</v>
       </c>
       <c r="P11" s="13" t="s">
@@ -2843,33 +3291,33 @@
       <c r="R11" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="S11" s="137"/>
-      <c r="T11" s="138"/>
-      <c r="U11" s="152" t="s">
+      <c r="S11" s="98"/>
+      <c r="T11" s="99"/>
+      <c r="U11" s="159" t="s">
         <v>39</v>
       </c>
-      <c r="V11" s="152"/>
-      <c r="W11" s="138"/>
-      <c r="X11" s="139"/>
+      <c r="V11" s="159"/>
+      <c r="W11" s="99"/>
+      <c r="X11" s="156"/>
     </row>
     <row r="12" spans="1:24" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="75" t="s">
+      <c r="A12" s="197" t="s">
         <v>37</v>
       </c>
-      <c r="B12" s="76"/>
+      <c r="B12" s="198"/>
       <c r="C12" s="3"/>
-      <c r="D12" s="167"/>
-      <c r="E12" s="170"/>
-      <c r="F12" s="175"/>
-      <c r="G12" s="115"/>
-      <c r="H12" s="116"/>
-      <c r="I12" s="120"/>
-      <c r="J12" s="172"/>
-      <c r="K12" s="192"/>
-      <c r="L12" s="194"/>
-      <c r="M12" s="160"/>
+      <c r="D12" s="107"/>
+      <c r="E12" s="110"/>
+      <c r="F12" s="117"/>
+      <c r="G12" s="185"/>
+      <c r="H12" s="160"/>
+      <c r="I12" s="175"/>
+      <c r="J12" s="112"/>
+      <c r="K12" s="139"/>
+      <c r="L12" s="141"/>
+      <c r="M12" s="151"/>
       <c r="N12" s="51"/>
-      <c r="O12" s="161"/>
+      <c r="O12" s="153"/>
       <c r="P12" s="11" t="s">
         <v>33</v>
       </c>
@@ -2879,31 +3327,31 @@
       <c r="R12" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="S12" s="147"/>
-      <c r="T12" s="131"/>
-      <c r="U12" s="114" t="s">
+      <c r="S12" s="100"/>
+      <c r="T12" s="86"/>
+      <c r="U12" s="152" t="s">
         <v>16</v>
       </c>
-      <c r="V12" s="114"/>
-      <c r="W12" s="131"/>
-      <c r="X12" s="132"/>
+      <c r="V12" s="152"/>
+      <c r="W12" s="86"/>
+      <c r="X12" s="157"/>
     </row>
     <row r="13" spans="1:24" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="77"/>
-      <c r="B13" s="78"/>
+      <c r="A13" s="199"/>
+      <c r="B13" s="200"/>
       <c r="C13" s="20"/>
-      <c r="D13" s="130" t="str">
+      <c r="D13" s="143" t="str">
         <f>IF(J13&lt;&gt;"",MOD(J13+K14,360),"")</f>
         <v/>
       </c>
-      <c r="E13" s="146"/>
-      <c r="F13" s="83" t="str">
+      <c r="E13" s="172"/>
+      <c r="F13" s="205" t="str">
         <f>IF(ISNUMBER(E13),15-E13/1000*2,"")</f>
         <v/>
       </c>
       <c r="G13" s="40"/>
       <c r="H13" s="41"/>
-      <c r="I13" s="154"/>
+      <c r="I13" s="145"/>
       <c r="J13" s="40"/>
       <c r="K13" s="59" t="str">
         <f>IF(J13&lt;&gt;"",IF(ISNUMBER(J14),MOD(J13+J14,360),J13),"")</f>
@@ -2913,7 +3361,7 @@
         <f>IF(K13&lt;&gt;"",MOD(K13+K14,360),"")</f>
         <v/>
       </c>
-      <c r="M13" s="155" t="str">
+      <c r="M13" s="146" t="str">
         <f>IF(L13&lt;&gt;"",MOD(L13+L14,360),"")</f>
         <v/>
       </c>
@@ -2931,34 +3379,34 @@
         <f>IF(ISNUMBER(P13),P13*$R$10/60,"")</f>
         <v/>
       </c>
-      <c r="S13" s="147"/>
-      <c r="T13" s="131"/>
-      <c r="U13" s="114" t="s">
+      <c r="S13" s="100"/>
+      <c r="T13" s="86"/>
+      <c r="U13" s="152" t="s">
         <v>40</v>
       </c>
-      <c r="V13" s="114"/>
-      <c r="W13" s="131"/>
-      <c r="X13" s="132"/>
+      <c r="V13" s="152"/>
+      <c r="W13" s="86"/>
+      <c r="X13" s="157"/>
     </row>
     <row r="14" spans="1:24" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="79" t="s">
+      <c r="A14" s="201" t="s">
         <v>89</v>
       </c>
-      <c r="B14" s="80"/>
+      <c r="B14" s="202"/>
       <c r="C14" s="32"/>
-      <c r="D14" s="130"/>
-      <c r="E14" s="102"/>
-      <c r="F14" s="84"/>
-      <c r="G14" s="111"/>
-      <c r="H14" s="112"/>
-      <c r="I14" s="121"/>
+      <c r="D14" s="143"/>
+      <c r="E14" s="144"/>
+      <c r="F14" s="180"/>
+      <c r="G14" s="83"/>
+      <c r="H14" s="84"/>
+      <c r="I14" s="85"/>
       <c r="J14" s="58" t="str">
         <f>IF(G13&lt;&gt;"",DEGREES(ASIN(H13/I13*SIN(RADIANS(G13-J13)))),"")</f>
         <v/>
       </c>
       <c r="K14" s="43"/>
       <c r="L14" s="44"/>
-      <c r="M14" s="117"/>
+      <c r="M14" s="147"/>
       <c r="N14" s="58" t="str">
         <f>IF(ISNUMBER(N13),N12-N13,"")</f>
         <v/>
@@ -2970,31 +3418,31 @@
         <f>IF(AND(ISNUMBER(R34),ISNUMBER(R13)),R34-$M$34-R13,"")</f>
         <v/>
       </c>
-      <c r="S14" s="147"/>
-      <c r="T14" s="131"/>
-      <c r="U14" s="114" t="s">
+      <c r="S14" s="100"/>
+      <c r="T14" s="86"/>
+      <c r="U14" s="152" t="s">
         <v>41</v>
       </c>
-      <c r="V14" s="114"/>
-      <c r="W14" s="131"/>
-      <c r="X14" s="132"/>
+      <c r="V14" s="152"/>
+      <c r="W14" s="86"/>
+      <c r="X14" s="157"/>
     </row>
     <row r="15" spans="1:24" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="77"/>
-      <c r="B15" s="78"/>
+      <c r="A15" s="199"/>
+      <c r="B15" s="200"/>
       <c r="C15" s="20"/>
-      <c r="D15" s="130" t="str">
+      <c r="D15" s="143" t="str">
         <f>IF(J15&lt;&gt;"",MOD(J15+K16,360),"")</f>
         <v/>
       </c>
-      <c r="E15" s="102"/>
-      <c r="F15" s="83" t="str">
+      <c r="E15" s="144"/>
+      <c r="F15" s="205" t="str">
         <f t="shared" ref="F15" si="0">IF(ISNUMBER(E15),15-E15/1000*2,"")</f>
         <v/>
       </c>
       <c r="G15" s="42"/>
       <c r="H15" s="43"/>
-      <c r="I15" s="121"/>
+      <c r="I15" s="85"/>
       <c r="J15" s="42"/>
       <c r="K15" s="62" t="str">
         <f>IF(J15&lt;&gt;"",IF(ISNUMBER(J16),MOD(J15+J16,360),J15),"")</f>
@@ -3004,7 +3452,7 @@
         <f>IF(K15&lt;&gt;"",MOD(K15+K16,360),"")</f>
         <v/>
       </c>
-      <c r="M15" s="117" t="str">
+      <c r="M15" s="147" t="str">
         <f>IF(L15&lt;&gt;"",MOD(L15+L16,360),"")</f>
         <v/>
       </c>
@@ -3022,32 +3470,32 @@
         <f>IF(ISNUMBER(P15),P15*$R$10/60,"")</f>
         <v/>
       </c>
-      <c r="S15" s="147"/>
-      <c r="T15" s="131"/>
-      <c r="U15" s="114" t="s">
+      <c r="S15" s="100"/>
+      <c r="T15" s="86"/>
+      <c r="U15" s="152" t="s">
         <v>42</v>
       </c>
-      <c r="V15" s="114"/>
-      <c r="W15" s="131"/>
-      <c r="X15" s="132"/>
+      <c r="V15" s="152"/>
+      <c r="W15" s="86"/>
+      <c r="X15" s="157"/>
     </row>
     <row r="16" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="79"/>
-      <c r="B16" s="80"/>
+      <c r="A16" s="201"/>
+      <c r="B16" s="202"/>
       <c r="C16" s="32"/>
-      <c r="D16" s="130"/>
-      <c r="E16" s="102"/>
-      <c r="F16" s="84"/>
-      <c r="G16" s="111"/>
-      <c r="H16" s="112"/>
-      <c r="I16" s="121"/>
+      <c r="D16" s="143"/>
+      <c r="E16" s="144"/>
+      <c r="F16" s="180"/>
+      <c r="G16" s="83"/>
+      <c r="H16" s="84"/>
+      <c r="I16" s="85"/>
       <c r="J16" s="58" t="str">
         <f>IF(G15&lt;&gt;"",DEGREES(ASIN(H15/I15*SIN(RADIANS(G15-J15)))),"")</f>
         <v/>
       </c>
       <c r="K16" s="43"/>
       <c r="L16" s="44"/>
-      <c r="M16" s="117"/>
+      <c r="M16" s="147"/>
       <c r="N16" s="58" t="str">
         <f>IF(ISNUMBER(N15),N14-N15,"")</f>
         <v/>
@@ -3059,31 +3507,31 @@
         <f>IF(AND(ISNUMBER(R14),ISNUMBER(R15)),R14-R15,"")</f>
         <v/>
       </c>
-      <c r="S16" s="147"/>
-      <c r="T16" s="131"/>
-      <c r="U16" s="114" t="s">
+      <c r="S16" s="100"/>
+      <c r="T16" s="86"/>
+      <c r="U16" s="152" t="s">
         <v>43</v>
       </c>
-      <c r="V16" s="114"/>
-      <c r="W16" s="131"/>
-      <c r="X16" s="132"/>
+      <c r="V16" s="152"/>
+      <c r="W16" s="86"/>
+      <c r="X16" s="157"/>
     </row>
     <row r="17" spans="1:24" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="77"/>
-      <c r="B17" s="78"/>
+      <c r="A17" s="199"/>
+      <c r="B17" s="200"/>
       <c r="C17" s="33"/>
-      <c r="D17" s="130" t="str">
+      <c r="D17" s="143" t="str">
         <f>IF(J17&lt;&gt;"",MOD(J17+K18,360),"")</f>
         <v/>
       </c>
-      <c r="E17" s="102"/>
-      <c r="F17" s="83" t="str">
+      <c r="E17" s="144"/>
+      <c r="F17" s="205" t="str">
         <f t="shared" ref="F17" si="1">IF(ISNUMBER(E17),15-E17/1000*2,"")</f>
         <v/>
       </c>
       <c r="G17" s="42"/>
       <c r="H17" s="43"/>
-      <c r="I17" s="121"/>
+      <c r="I17" s="85"/>
       <c r="J17" s="42"/>
       <c r="K17" s="62" t="str">
         <f>IF(J17&lt;&gt;"",IF(ISNUMBER(J18),MOD(J17+J18,360),J17),"")</f>
@@ -3093,7 +3541,7 @@
         <f>IF(K17&lt;&gt;"",MOD(K17+K18,360),"")</f>
         <v/>
       </c>
-      <c r="M17" s="117" t="str">
+      <c r="M17" s="147" t="str">
         <f>IF(L17&lt;&gt;"",MOD(L17+L18,360),"")</f>
         <v/>
       </c>
@@ -3111,32 +3559,32 @@
         <f>IF(ISNUMBER(P17),P17*$R$10/60,"")</f>
         <v/>
       </c>
-      <c r="S17" s="148"/>
-      <c r="T17" s="133"/>
-      <c r="U17" s="116" t="s">
+      <c r="S17" s="154"/>
+      <c r="T17" s="155"/>
+      <c r="U17" s="160" t="s">
         <v>44</v>
       </c>
-      <c r="V17" s="116"/>
-      <c r="W17" s="133"/>
-      <c r="X17" s="134"/>
+      <c r="V17" s="160"/>
+      <c r="W17" s="155"/>
+      <c r="X17" s="168"/>
     </row>
     <row r="18" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="79"/>
-      <c r="B18" s="80"/>
+      <c r="A18" s="201"/>
+      <c r="B18" s="202"/>
       <c r="C18" s="3"/>
-      <c r="D18" s="130"/>
-      <c r="E18" s="102"/>
-      <c r="F18" s="84"/>
-      <c r="G18" s="111"/>
-      <c r="H18" s="112"/>
-      <c r="I18" s="121"/>
+      <c r="D18" s="143"/>
+      <c r="E18" s="144"/>
+      <c r="F18" s="180"/>
+      <c r="G18" s="83"/>
+      <c r="H18" s="84"/>
+      <c r="I18" s="85"/>
       <c r="J18" s="58" t="str">
         <f>IF(G17&lt;&gt;"",DEGREES(ASIN(H17/I17*SIN(RADIANS(G17-J17)))),"")</f>
         <v/>
       </c>
       <c r="K18" s="43"/>
       <c r="L18" s="44"/>
-      <c r="M18" s="117"/>
+      <c r="M18" s="147"/>
       <c r="N18" s="58" t="str">
         <f>IF(ISNUMBER(N17),N16-N17,"")</f>
         <v/>
@@ -3148,29 +3596,29 @@
         <f>IF(AND(ISNUMBER(R16),ISNUMBER(R17)),R16-R17,"")</f>
         <v/>
       </c>
-      <c r="S18" s="197"/>
-      <c r="T18" s="198"/>
-      <c r="U18" s="198"/>
-      <c r="V18" s="198"/>
-      <c r="W18" s="198"/>
-      <c r="X18" s="199"/>
+      <c r="S18" s="87"/>
+      <c r="T18" s="88"/>
+      <c r="U18" s="88"/>
+      <c r="V18" s="88"/>
+      <c r="W18" s="88"/>
+      <c r="X18" s="89"/>
     </row>
     <row r="19" spans="1:24" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="77"/>
-      <c r="B19" s="78"/>
+      <c r="A19" s="199"/>
+      <c r="B19" s="200"/>
       <c r="C19" s="33"/>
-      <c r="D19" s="130" t="str">
+      <c r="D19" s="143" t="str">
         <f>IF(J19&lt;&gt;"",MOD(J19+K20,360),"")</f>
         <v/>
       </c>
-      <c r="E19" s="102"/>
-      <c r="F19" s="83" t="str">
+      <c r="E19" s="144"/>
+      <c r="F19" s="205" t="str">
         <f t="shared" ref="F19" si="2">IF(ISNUMBER(E19),15-E19/1000*2,"")</f>
         <v/>
       </c>
       <c r="G19" s="42"/>
       <c r="H19" s="43"/>
-      <c r="I19" s="121"/>
+      <c r="I19" s="85"/>
       <c r="J19" s="42"/>
       <c r="K19" s="62" t="str">
         <f>IF(J19&lt;&gt;"",IF(ISNUMBER(J20),MOD(J19+J20,360),J19),"")</f>
@@ -3180,7 +3628,7 @@
         <f>IF(K19&lt;&gt;"",MOD(K19+K20,360),"")</f>
         <v/>
       </c>
-      <c r="M19" s="117" t="str">
+      <c r="M19" s="147" t="str">
         <f>IF(L19&lt;&gt;"",MOD(L19+L20,360),"")</f>
         <v/>
       </c>
@@ -3198,30 +3646,30 @@
         <f>IF(ISNUMBER(P19),P19*$R$10/60,"")</f>
         <v/>
       </c>
-      <c r="S19" s="200"/>
-      <c r="T19" s="201"/>
-      <c r="U19" s="201"/>
-      <c r="V19" s="201"/>
-      <c r="W19" s="201"/>
-      <c r="X19" s="202"/>
+      <c r="S19" s="90"/>
+      <c r="T19" s="91"/>
+      <c r="U19" s="91"/>
+      <c r="V19" s="91"/>
+      <c r="W19" s="91"/>
+      <c r="X19" s="92"/>
     </row>
     <row r="20" spans="1:24" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="79"/>
-      <c r="B20" s="80"/>
+      <c r="A20" s="201"/>
+      <c r="B20" s="202"/>
       <c r="C20" s="3"/>
-      <c r="D20" s="130"/>
-      <c r="E20" s="102"/>
-      <c r="F20" s="84"/>
-      <c r="G20" s="111"/>
-      <c r="H20" s="112"/>
-      <c r="I20" s="121"/>
+      <c r="D20" s="143"/>
+      <c r="E20" s="144"/>
+      <c r="F20" s="180"/>
+      <c r="G20" s="83"/>
+      <c r="H20" s="84"/>
+      <c r="I20" s="85"/>
       <c r="J20" s="58" t="str">
         <f>IF(G19&lt;&gt;"",DEGREES(ASIN(H19/I19*SIN(RADIANS(G19-J19)))),"")</f>
         <v/>
       </c>
       <c r="K20" s="43"/>
       <c r="L20" s="44"/>
-      <c r="M20" s="117"/>
+      <c r="M20" s="147"/>
       <c r="N20" s="58" t="str">
         <f>IF(ISNUMBER(N19),N18-N19,"")</f>
         <v/>
@@ -3233,29 +3681,29 @@
         <f>IF(AND(ISNUMBER(R18),ISNUMBER(R19)),R18-R19,"")</f>
         <v/>
       </c>
-      <c r="S20" s="203"/>
-      <c r="T20" s="204"/>
-      <c r="U20" s="204"/>
-      <c r="V20" s="204"/>
-      <c r="W20" s="204"/>
-      <c r="X20" s="205"/>
+      <c r="S20" s="93"/>
+      <c r="T20" s="94"/>
+      <c r="U20" s="94"/>
+      <c r="V20" s="94"/>
+      <c r="W20" s="94"/>
+      <c r="X20" s="95"/>
     </row>
     <row r="21" spans="1:24" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="77"/>
-      <c r="B21" s="78"/>
+      <c r="A21" s="199"/>
+      <c r="B21" s="200"/>
       <c r="C21" s="33"/>
-      <c r="D21" s="130" t="str">
+      <c r="D21" s="143" t="str">
         <f>IF(J21&lt;&gt;"",MOD(J21+K22,360),"")</f>
         <v/>
       </c>
-      <c r="E21" s="102"/>
-      <c r="F21" s="83" t="str">
+      <c r="E21" s="144"/>
+      <c r="F21" s="205" t="str">
         <f t="shared" ref="F21" si="3">IF(ISNUMBER(E21),15-E21/1000*2,"")</f>
         <v/>
       </c>
       <c r="G21" s="42"/>
       <c r="H21" s="43"/>
-      <c r="I21" s="121"/>
+      <c r="I21" s="85"/>
       <c r="J21" s="42"/>
       <c r="K21" s="62" t="str">
         <f>IF(J21&lt;&gt;"",IF(ISNUMBER(J22),MOD(J21+J22,360),J21),"")</f>
@@ -3265,7 +3713,7 @@
         <f>IF(K21&lt;&gt;"",MOD(K21+K22,360),"")</f>
         <v/>
       </c>
-      <c r="M21" s="117" t="str">
+      <c r="M21" s="147" t="str">
         <f>IF(L21&lt;&gt;"",MOD(L21+L22,360),"")</f>
         <v/>
       </c>
@@ -3283,32 +3731,32 @@
         <f>IF(ISNUMBER(P21),P21*$R$10/60,"")</f>
         <v/>
       </c>
-      <c r="S21" s="99" t="s">
+      <c r="S21" s="76" t="s">
         <v>55</v>
       </c>
-      <c r="T21" s="140"/>
-      <c r="U21" s="140"/>
-      <c r="V21" s="140"/>
-      <c r="W21" s="140"/>
-      <c r="X21" s="141"/>
+      <c r="T21" s="77"/>
+      <c r="U21" s="77"/>
+      <c r="V21" s="77"/>
+      <c r="W21" s="77"/>
+      <c r="X21" s="81"/>
     </row>
     <row r="22" spans="1:24" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="79"/>
-      <c r="B22" s="80"/>
+      <c r="A22" s="201"/>
+      <c r="B22" s="202"/>
       <c r="C22" s="3"/>
-      <c r="D22" s="130"/>
-      <c r="E22" s="102"/>
-      <c r="F22" s="84"/>
-      <c r="G22" s="111"/>
-      <c r="H22" s="112"/>
-      <c r="I22" s="121"/>
+      <c r="D22" s="143"/>
+      <c r="E22" s="144"/>
+      <c r="F22" s="180"/>
+      <c r="G22" s="83"/>
+      <c r="H22" s="84"/>
+      <c r="I22" s="85"/>
       <c r="J22" s="58" t="str">
         <f>IF(G21&lt;&gt;"",DEGREES(ASIN(H21/I21*SIN(RADIANS(G21-J21)))),"")</f>
         <v/>
       </c>
       <c r="K22" s="43"/>
       <c r="L22" s="44"/>
-      <c r="M22" s="117"/>
+      <c r="M22" s="147"/>
       <c r="N22" s="58" t="str">
         <f>IF(ISNUMBER(N21),N20-N21,"")</f>
         <v/>
@@ -3320,33 +3768,33 @@
         <f>IF(AND(ISNUMBER(R20),ISNUMBER(R21)),R20-R21,"")</f>
         <v/>
       </c>
-      <c r="S22" s="135" t="s">
+      <c r="S22" s="78" t="s">
         <v>37</v>
       </c>
-      <c r="T22" s="136"/>
-      <c r="U22" s="136"/>
-      <c r="V22" s="136" t="s">
+      <c r="T22" s="79"/>
+      <c r="U22" s="79"/>
+      <c r="V22" s="79" t="s">
         <v>38</v>
       </c>
-      <c r="W22" s="136"/>
-      <c r="X22" s="151"/>
+      <c r="W22" s="79"/>
+      <c r="X22" s="82"/>
     </row>
     <row r="23" spans="1:24" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="77"/>
-      <c r="B23" s="78"/>
+      <c r="A23" s="199"/>
+      <c r="B23" s="200"/>
       <c r="C23" s="20"/>
-      <c r="D23" s="130" t="str">
+      <c r="D23" s="143" t="str">
         <f>IF(J23&lt;&gt;"",MOD(J23+K24,360),"")</f>
         <v/>
       </c>
-      <c r="E23" s="102"/>
-      <c r="F23" s="83" t="str">
+      <c r="E23" s="144"/>
+      <c r="F23" s="205" t="str">
         <f t="shared" ref="F23" si="4">IF(ISNUMBER(E23),15-E23/1000*2,"")</f>
         <v/>
       </c>
       <c r="G23" s="42"/>
       <c r="H23" s="43"/>
-      <c r="I23" s="121"/>
+      <c r="I23" s="85"/>
       <c r="J23" s="42"/>
       <c r="K23" s="62" t="str">
         <f>IF(J23&lt;&gt;"",IF(ISNUMBER(J24),MOD(J23+J24,360),J23),"")</f>
@@ -3356,7 +3804,7 @@
         <f>IF(K23&lt;&gt;"",MOD(K23+K24,360),"")</f>
         <v/>
       </c>
-      <c r="M23" s="117" t="str">
+      <c r="M23" s="147" t="str">
         <f>IF(L23&lt;&gt;"",MOD(L23+L24,360),"")</f>
         <v/>
       </c>
@@ -3374,30 +3822,30 @@
         <f>IF(ISNUMBER(P23),P23*$R$10/60,"")</f>
         <v/>
       </c>
-      <c r="S23" s="137"/>
-      <c r="T23" s="138"/>
-      <c r="U23" s="138"/>
-      <c r="V23" s="138"/>
-      <c r="W23" s="138"/>
-      <c r="X23" s="139"/>
+      <c r="S23" s="98"/>
+      <c r="T23" s="99"/>
+      <c r="U23" s="99"/>
+      <c r="V23" s="99"/>
+      <c r="W23" s="99"/>
+      <c r="X23" s="156"/>
     </row>
     <row r="24" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="79"/>
-      <c r="B24" s="80"/>
+      <c r="A24" s="201"/>
+      <c r="B24" s="202"/>
       <c r="C24" s="32"/>
-      <c r="D24" s="130"/>
-      <c r="E24" s="102"/>
-      <c r="F24" s="84"/>
-      <c r="G24" s="111"/>
-      <c r="H24" s="112"/>
-      <c r="I24" s="121"/>
+      <c r="D24" s="143"/>
+      <c r="E24" s="144"/>
+      <c r="F24" s="180"/>
+      <c r="G24" s="83"/>
+      <c r="H24" s="84"/>
+      <c r="I24" s="85"/>
       <c r="J24" s="58" t="str">
         <f>IF(G23&lt;&gt;"",DEGREES(ASIN(H23/I23*SIN(RADIANS(G23-J23)))),"")</f>
         <v/>
       </c>
       <c r="K24" s="43"/>
       <c r="L24" s="44"/>
-      <c r="M24" s="117"/>
+      <c r="M24" s="147"/>
       <c r="N24" s="58" t="str">
         <f>IF(ISNUMBER(N23),N22-N23,"")</f>
         <v/>
@@ -3412,30 +3860,30 @@
       <c r="S24" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="T24" s="142"/>
-      <c r="U24" s="142"/>
+      <c r="T24" s="75"/>
+      <c r="U24" s="75"/>
       <c r="V24" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="W24" s="142"/>
-      <c r="X24" s="150"/>
+      <c r="W24" s="75"/>
+      <c r="X24" s="158"/>
     </row>
     <row r="25" spans="1:24" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="77"/>
-      <c r="B25" s="78"/>
+      <c r="A25" s="199"/>
+      <c r="B25" s="200"/>
       <c r="C25" s="33"/>
-      <c r="D25" s="130" t="str">
+      <c r="D25" s="143" t="str">
         <f>IF(J25&lt;&gt;"",MOD(J25+K26,360),"")</f>
         <v/>
       </c>
-      <c r="E25" s="102"/>
-      <c r="F25" s="83" t="str">
+      <c r="E25" s="144"/>
+      <c r="F25" s="205" t="str">
         <f t="shared" ref="F25" si="5">IF(ISNUMBER(E25),15-E25/1000*2,"")</f>
         <v/>
       </c>
       <c r="G25" s="42"/>
       <c r="H25" s="43"/>
-      <c r="I25" s="121"/>
+      <c r="I25" s="85"/>
       <c r="J25" s="42"/>
       <c r="K25" s="62" t="str">
         <f>IF(J25&lt;&gt;"",IF(ISNUMBER(J26),MOD(J25+J26,360),J25),"")</f>
@@ -3445,7 +3893,7 @@
         <f>IF(K25&lt;&gt;"",MOD(K25+K26,360),"")</f>
         <v/>
       </c>
-      <c r="M25" s="117" t="str">
+      <c r="M25" s="147" t="str">
         <f>IF(L25&lt;&gt;"",MOD(L25+L26,360),"")</f>
         <v/>
       </c>
@@ -3466,31 +3914,31 @@
       <c r="S25" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="T25" s="142"/>
-      <c r="U25" s="142"/>
+      <c r="T25" s="75"/>
+      <c r="U25" s="75"/>
       <c r="V25" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="W25" s="142"/>
-      <c r="X25" s="150"/>
+      <c r="W25" s="75"/>
+      <c r="X25" s="158"/>
     </row>
     <row r="26" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="79"/>
-      <c r="B26" s="80"/>
+      <c r="A26" s="201"/>
+      <c r="B26" s="202"/>
       <c r="C26" s="3"/>
-      <c r="D26" s="130"/>
-      <c r="E26" s="102"/>
-      <c r="F26" s="84"/>
-      <c r="G26" s="111"/>
-      <c r="H26" s="112"/>
-      <c r="I26" s="121"/>
+      <c r="D26" s="143"/>
+      <c r="E26" s="144"/>
+      <c r="F26" s="180"/>
+      <c r="G26" s="83"/>
+      <c r="H26" s="84"/>
+      <c r="I26" s="85"/>
       <c r="J26" s="58" t="str">
         <f>IF(G25&lt;&gt;"",DEGREES(ASIN(H25/I25*SIN(RADIANS(G25-J25)))),"")</f>
         <v/>
       </c>
       <c r="K26" s="43"/>
       <c r="L26" s="44"/>
-      <c r="M26" s="117"/>
+      <c r="M26" s="147"/>
       <c r="N26" s="58" t="str">
         <f>IF(ISNUMBER(N25),N24-N25,"")</f>
         <v/>
@@ -3505,30 +3953,30 @@
       <c r="S26" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="T26" s="142"/>
-      <c r="U26" s="142"/>
+      <c r="T26" s="75"/>
+      <c r="U26" s="75"/>
       <c r="V26" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="W26" s="142"/>
-      <c r="X26" s="150"/>
+      <c r="W26" s="75"/>
+      <c r="X26" s="158"/>
     </row>
     <row r="27" spans="1:24" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="77"/>
-      <c r="B27" s="78"/>
+      <c r="A27" s="199"/>
+      <c r="B27" s="200"/>
       <c r="C27" s="20"/>
-      <c r="D27" s="130" t="str">
+      <c r="D27" s="143" t="str">
         <f>IF(J27&lt;&gt;"",MOD(J27+K28,360),"")</f>
         <v/>
       </c>
-      <c r="E27" s="102"/>
-      <c r="F27" s="83" t="str">
+      <c r="E27" s="144"/>
+      <c r="F27" s="205" t="str">
         <f t="shared" ref="F27" si="6">IF(ISNUMBER(E27),15-E27/1000*2,"")</f>
         <v/>
       </c>
       <c r="G27" s="42"/>
       <c r="H27" s="43"/>
-      <c r="I27" s="121"/>
+      <c r="I27" s="85"/>
       <c r="J27" s="42"/>
       <c r="K27" s="62" t="str">
         <f>IF(J27&lt;&gt;"",IF(ISNUMBER(J28),MOD(J27+J28,360),J27),"")</f>
@@ -3538,7 +3986,7 @@
         <f>IF(K27&lt;&gt;"",MOD(K27+K28,360),"")</f>
         <v/>
       </c>
-      <c r="M27" s="117" t="str">
+      <c r="M27" s="147" t="str">
         <f>IF(L27&lt;&gt;"",MOD(L27+L28,360),"")</f>
         <v/>
       </c>
@@ -3559,31 +4007,31 @@
       <c r="S27" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="T27" s="142"/>
-      <c r="U27" s="142"/>
+      <c r="T27" s="75"/>
+      <c r="U27" s="75"/>
       <c r="V27" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="W27" s="142"/>
-      <c r="X27" s="150"/>
+      <c r="W27" s="75"/>
+      <c r="X27" s="158"/>
     </row>
     <row r="28" spans="1:24" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="79"/>
-      <c r="B28" s="80"/>
+      <c r="A28" s="201"/>
+      <c r="B28" s="202"/>
       <c r="C28" s="32"/>
-      <c r="D28" s="130"/>
-      <c r="E28" s="102"/>
-      <c r="F28" s="84"/>
-      <c r="G28" s="111"/>
-      <c r="H28" s="112"/>
-      <c r="I28" s="121"/>
+      <c r="D28" s="143"/>
+      <c r="E28" s="144"/>
+      <c r="F28" s="180"/>
+      <c r="G28" s="83"/>
+      <c r="H28" s="84"/>
+      <c r="I28" s="85"/>
       <c r="J28" s="58" t="str">
         <f>IF(G27&lt;&gt;"",DEGREES(ASIN(H27/I27*SIN(RADIANS(G27-J27)))),"")</f>
         <v/>
       </c>
       <c r="K28" s="43"/>
       <c r="L28" s="44"/>
-      <c r="M28" s="117"/>
+      <c r="M28" s="147"/>
       <c r="N28" s="58" t="str">
         <f>IF(ISNUMBER(N27),N26-N27,"")</f>
         <v/>
@@ -3598,30 +4046,30 @@
       <c r="S28" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="T28" s="142"/>
-      <c r="U28" s="142"/>
+      <c r="T28" s="75"/>
+      <c r="U28" s="75"/>
       <c r="V28" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="W28" s="142"/>
-      <c r="X28" s="150"/>
+      <c r="W28" s="75"/>
+      <c r="X28" s="158"/>
     </row>
     <row r="29" spans="1:24" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="77"/>
-      <c r="B29" s="78"/>
+      <c r="A29" s="199"/>
+      <c r="B29" s="200"/>
       <c r="C29" s="33"/>
-      <c r="D29" s="130" t="str">
+      <c r="D29" s="143" t="str">
         <f>IF(J29&lt;&gt;"",MOD(J29+K30,360),"")</f>
         <v/>
       </c>
-      <c r="E29" s="102"/>
-      <c r="F29" s="83" t="str">
+      <c r="E29" s="144"/>
+      <c r="F29" s="205" t="str">
         <f>IF(ISNUMBER(E29),15-E29/1000*2,"")</f>
         <v/>
       </c>
       <c r="G29" s="42"/>
       <c r="H29" s="43"/>
-      <c r="I29" s="121"/>
+      <c r="I29" s="85"/>
       <c r="J29" s="42"/>
       <c r="K29" s="62" t="str">
         <f>IF(J29&lt;&gt;"",IF(ISNUMBER(J30),MOD(J29+J30,360),J29),"")</f>
@@ -3631,7 +4079,7 @@
         <f>IF(K29&lt;&gt;"",MOD(K29+K30,360),"")</f>
         <v/>
       </c>
-      <c r="M29" s="117" t="str">
+      <c r="M29" s="147" t="str">
         <f>IF(L29&lt;&gt;"",MOD(L29+L30,360),"")</f>
         <v/>
       </c>
@@ -3652,33 +4100,33 @@
       <c r="S29" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="T29" s="142"/>
-      <c r="U29" s="142"/>
+      <c r="T29" s="75"/>
+      <c r="U29" s="75"/>
       <c r="V29" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="W29" s="142"/>
-      <c r="X29" s="150"/>
+      <c r="W29" s="75"/>
+      <c r="X29" s="158"/>
     </row>
     <row r="30" spans="1:24" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="79" t="s">
+      <c r="A30" s="201" t="s">
         <v>90</v>
       </c>
-      <c r="B30" s="80"/>
+      <c r="B30" s="202"/>
       <c r="C30" s="3"/>
-      <c r="D30" s="130"/>
-      <c r="E30" s="102"/>
-      <c r="F30" s="84"/>
-      <c r="G30" s="111"/>
-      <c r="H30" s="112"/>
-      <c r="I30" s="121"/>
+      <c r="D30" s="143"/>
+      <c r="E30" s="144"/>
+      <c r="F30" s="180"/>
+      <c r="G30" s="83"/>
+      <c r="H30" s="84"/>
+      <c r="I30" s="85"/>
       <c r="J30" s="58" t="str">
         <f>IF(G29&lt;&gt;"",DEGREES(ASIN(H29/I29*SIN(RADIANS(G29-J29)))),"")</f>
         <v/>
       </c>
       <c r="K30" s="43"/>
       <c r="L30" s="44"/>
-      <c r="M30" s="117"/>
+      <c r="M30" s="147"/>
       <c r="N30" s="58" t="str">
         <f>IF(ISNUMBER(N29),N28-N29,"")</f>
         <v/>
@@ -3693,27 +4141,27 @@
       <c r="S30" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="T30" s="142"/>
-      <c r="U30" s="142"/>
+      <c r="T30" s="75"/>
+      <c r="U30" s="75"/>
       <c r="V30" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="W30" s="142"/>
-      <c r="X30" s="150"/>
+      <c r="W30" s="75"/>
+      <c r="X30" s="158"/>
     </row>
     <row r="31" spans="1:24" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="77"/>
-      <c r="B31" s="78"/>
+      <c r="A31" s="199"/>
+      <c r="B31" s="200"/>
       <c r="C31" s="20"/>
-      <c r="D31" s="130" t="str">
+      <c r="D31" s="143" t="str">
         <f>IF(J31&lt;&gt;"",MOD(J31+K32,360),"")</f>
         <v/>
       </c>
-      <c r="E31" s="102"/>
-      <c r="F31" s="84"/>
+      <c r="E31" s="144"/>
+      <c r="F31" s="180"/>
       <c r="G31" s="42"/>
       <c r="H31" s="43"/>
-      <c r="I31" s="121"/>
+      <c r="I31" s="85"/>
       <c r="J31" s="42"/>
       <c r="K31" s="62" t="str">
         <f>IF(J31&lt;&gt;"",IF(ISNUMBER(J32),MOD(J31+J32,360),J31),"")</f>
@@ -3723,7 +4171,7 @@
         <f>IF(K31&lt;&gt;"",MOD(K31+K32,360),"")</f>
         <v/>
       </c>
-      <c r="M31" s="117" t="str">
+      <c r="M31" s="147" t="str">
         <f>IF(L31&lt;&gt;"",MOD(L31+L32,360),"")</f>
         <v/>
       </c>
@@ -3744,33 +4192,33 @@
       <c r="S31" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="T31" s="149"/>
-      <c r="U31" s="149"/>
+      <c r="T31" s="96"/>
+      <c r="U31" s="96"/>
       <c r="V31" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="W31" s="149"/>
-      <c r="X31" s="206"/>
+      <c r="W31" s="96"/>
+      <c r="X31" s="97"/>
     </row>
     <row r="32" spans="1:24" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="79" t="s">
+      <c r="A32" s="201" t="s">
         <v>38</v>
       </c>
-      <c r="B32" s="80"/>
+      <c r="B32" s="202"/>
       <c r="C32" s="32"/>
-      <c r="D32" s="145"/>
-      <c r="E32" s="105"/>
-      <c r="F32" s="110"/>
-      <c r="G32" s="85"/>
-      <c r="H32" s="86"/>
-      <c r="I32" s="122"/>
+      <c r="D32" s="170"/>
+      <c r="E32" s="171"/>
+      <c r="F32" s="181"/>
+      <c r="G32" s="206"/>
+      <c r="H32" s="113"/>
+      <c r="I32" s="114"/>
       <c r="J32" s="58" t="str">
         <f>IF(G31&lt;&gt;"",DEGREES(ASIN(H31/I31*SIN(RADIANS(G31-J31)))),"")</f>
         <v/>
       </c>
       <c r="K32" s="45"/>
       <c r="L32" s="46"/>
-      <c r="M32" s="118"/>
+      <c r="M32" s="173"/>
       <c r="N32" s="66" t="str">
         <f>IF(ISNUMBER(N31),N12-SUM(N13,N15,N17,N19,N21,N23,N25,N27,N29,N31),"")</f>
         <v/>
@@ -3782,33 +4230,33 @@
         <f>IF(AND(ISNUMBER(R30),ISNUMBER(R31)),R30-R31,"")</f>
         <v/>
       </c>
-      <c r="S32" s="123" t="s">
+      <c r="S32" s="161" t="s">
         <v>64</v>
       </c>
-      <c r="T32" s="124"/>
-      <c r="U32" s="144"/>
-      <c r="V32" s="144"/>
-      <c r="W32" s="144" t="s">
+      <c r="T32" s="162"/>
+      <c r="U32" s="73"/>
+      <c r="V32" s="73"/>
+      <c r="W32" s="73" t="s">
         <v>45</v>
       </c>
-      <c r="X32" s="195"/>
+      <c r="X32" s="74"/>
     </row>
     <row r="33" spans="1:24" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="81"/>
-      <c r="B33" s="82"/>
+      <c r="A33" s="203"/>
+      <c r="B33" s="204"/>
       <c r="C33" s="26"/>
-      <c r="D33" s="127" t="s">
+      <c r="D33" s="165" t="s">
         <v>68</v>
       </c>
-      <c r="E33" s="128"/>
-      <c r="F33" s="128"/>
-      <c r="G33" s="128"/>
-      <c r="H33" s="128"/>
-      <c r="I33" s="128"/>
-      <c r="J33" s="128"/>
-      <c r="K33" s="128"/>
-      <c r="L33" s="128"/>
-      <c r="M33" s="129"/>
+      <c r="E33" s="166"/>
+      <c r="F33" s="166"/>
+      <c r="G33" s="166"/>
+      <c r="H33" s="166"/>
+      <c r="I33" s="166"/>
+      <c r="J33" s="166"/>
+      <c r="K33" s="166"/>
+      <c r="L33" s="166"/>
+      <c r="M33" s="167"/>
       <c r="N33" s="27">
         <f>SUM(N13,N15,N17,N19,N21,N23,N25,N27,N29,N31)</f>
         <v>0</v>
@@ -3823,14 +4271,14 @@
         <f>SUM(R13,R15,R17,R19,R21,R23,R25,R27,R29,R31)+$M$34</f>
         <v>0</v>
       </c>
-      <c r="S33" s="125" t="s">
+      <c r="S33" s="163" t="s">
         <v>65</v>
       </c>
-      <c r="T33" s="126"/>
-      <c r="U33" s="116"/>
-      <c r="V33" s="116"/>
-      <c r="W33" s="116"/>
-      <c r="X33" s="143"/>
+      <c r="T33" s="164"/>
+      <c r="U33" s="160"/>
+      <c r="V33" s="160"/>
+      <c r="W33" s="160"/>
+      <c r="X33" s="169"/>
     </row>
     <row r="34" spans="1:24" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="24" t="s">
@@ -3841,20 +4289,20 @@
         <v>60</v>
       </c>
       <c r="D34" s="48"/>
-      <c r="E34" s="73" t="s">
+      <c r="E34" s="188" t="s">
         <v>59</v>
       </c>
-      <c r="F34" s="73"/>
+      <c r="F34" s="188"/>
       <c r="G34" s="49"/>
       <c r="H34" s="1"/>
       <c r="I34" s="30" t="s">
         <v>58</v>
       </c>
       <c r="J34" s="50"/>
-      <c r="K34" s="74" t="s">
+      <c r="K34" s="196" t="s">
         <v>61</v>
       </c>
-      <c r="L34" s="73"/>
+      <c r="L34" s="188"/>
       <c r="M34" s="50"/>
       <c r="N34" s="1"/>
       <c r="O34" s="1"/>
@@ -3898,6 +4346,161 @@
     </row>
   </sheetData>
   <mergeCells count="179">
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="A12:B13"/>
+    <mergeCell ref="A14:B15"/>
+    <mergeCell ref="A16:B17"/>
+    <mergeCell ref="A18:B19"/>
+    <mergeCell ref="A20:B21"/>
+    <mergeCell ref="A22:B23"/>
+    <mergeCell ref="A24:B25"/>
+    <mergeCell ref="A26:B27"/>
+    <mergeCell ref="A28:B29"/>
+    <mergeCell ref="A30:B31"/>
+    <mergeCell ref="A32:B33"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="G11:H12"/>
+    <mergeCell ref="M31:M32"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="I25:I26"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="I29:I30"/>
+    <mergeCell ref="I31:I32"/>
+    <mergeCell ref="M15:M16"/>
+    <mergeCell ref="M17:M18"/>
+    <mergeCell ref="M19:M20"/>
+    <mergeCell ref="M21:M22"/>
+    <mergeCell ref="M23:M24"/>
+    <mergeCell ref="M25:M26"/>
+    <mergeCell ref="M27:M28"/>
+    <mergeCell ref="M29:M30"/>
+    <mergeCell ref="S32:T32"/>
+    <mergeCell ref="S33:T33"/>
+    <mergeCell ref="D33:M33"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="W13:X13"/>
+    <mergeCell ref="W14:X14"/>
+    <mergeCell ref="W15:X15"/>
+    <mergeCell ref="W16:X16"/>
+    <mergeCell ref="W17:X17"/>
+    <mergeCell ref="S22:U22"/>
+    <mergeCell ref="S23:U23"/>
+    <mergeCell ref="V23:X23"/>
+    <mergeCell ref="S21:X21"/>
+    <mergeCell ref="T24:U24"/>
+    <mergeCell ref="W33:X33"/>
+    <mergeCell ref="U32:V32"/>
+    <mergeCell ref="U33:V33"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="S14:T14"/>
+    <mergeCell ref="S15:T15"/>
+    <mergeCell ref="S16:T16"/>
+    <mergeCell ref="S17:T17"/>
+    <mergeCell ref="W11:X11"/>
+    <mergeCell ref="W12:X12"/>
+    <mergeCell ref="T29:U29"/>
+    <mergeCell ref="T30:U30"/>
+    <mergeCell ref="T31:U31"/>
+    <mergeCell ref="W24:X24"/>
+    <mergeCell ref="W25:X25"/>
+    <mergeCell ref="W26:X26"/>
+    <mergeCell ref="W27:X27"/>
+    <mergeCell ref="W28:X28"/>
+    <mergeCell ref="W29:X29"/>
+    <mergeCell ref="W30:X30"/>
+    <mergeCell ref="V22:X22"/>
+    <mergeCell ref="U11:V11"/>
+    <mergeCell ref="U12:V12"/>
+    <mergeCell ref="U15:V15"/>
+    <mergeCell ref="U16:V16"/>
+    <mergeCell ref="U13:V13"/>
+    <mergeCell ref="U14:V14"/>
+    <mergeCell ref="U17:V17"/>
+    <mergeCell ref="H1:Q1"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="M13:M14"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="K3:N3"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="M9:M12"/>
+    <mergeCell ref="O11:O12"/>
+    <mergeCell ref="A9:B11"/>
+    <mergeCell ref="D9:D12"/>
+    <mergeCell ref="E9:E12"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="J10:J12"/>
+    <mergeCell ref="G8:J8"/>
+    <mergeCell ref="F9:F12"/>
+    <mergeCell ref="O2:X8"/>
+    <mergeCell ref="G3:J3"/>
+    <mergeCell ref="G4:J4"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="G5:J5"/>
+    <mergeCell ref="G6:J6"/>
+    <mergeCell ref="G7:J7"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="K10:K12"/>
+    <mergeCell ref="L10:L12"/>
     <mergeCell ref="W32:X32"/>
     <mergeCell ref="T25:U25"/>
     <mergeCell ref="T26:U26"/>
@@ -3922,161 +4525,6 @@
     <mergeCell ref="S11:T11"/>
     <mergeCell ref="S12:T12"/>
     <mergeCell ref="S13:T13"/>
-    <mergeCell ref="A9:B11"/>
-    <mergeCell ref="D9:D12"/>
-    <mergeCell ref="E9:E12"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="J10:J12"/>
-    <mergeCell ref="G8:J8"/>
-    <mergeCell ref="F9:F12"/>
-    <mergeCell ref="O2:X8"/>
-    <mergeCell ref="G3:J3"/>
-    <mergeCell ref="G4:J4"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="G5:J5"/>
-    <mergeCell ref="G6:J6"/>
-    <mergeCell ref="G7:J7"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="K10:K12"/>
-    <mergeCell ref="L10:L12"/>
-    <mergeCell ref="H1:Q1"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="M13:M14"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="K3:N3"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="M9:M12"/>
-    <mergeCell ref="O11:O12"/>
-    <mergeCell ref="S14:T14"/>
-    <mergeCell ref="S15:T15"/>
-    <mergeCell ref="S16:T16"/>
-    <mergeCell ref="S17:T17"/>
-    <mergeCell ref="W11:X11"/>
-    <mergeCell ref="W12:X12"/>
-    <mergeCell ref="T29:U29"/>
-    <mergeCell ref="T30:U30"/>
-    <mergeCell ref="T31:U31"/>
-    <mergeCell ref="W24:X24"/>
-    <mergeCell ref="W25:X25"/>
-    <mergeCell ref="W26:X26"/>
-    <mergeCell ref="W27:X27"/>
-    <mergeCell ref="W28:X28"/>
-    <mergeCell ref="W29:X29"/>
-    <mergeCell ref="W30:X30"/>
-    <mergeCell ref="V22:X22"/>
-    <mergeCell ref="U11:V11"/>
-    <mergeCell ref="U12:V12"/>
-    <mergeCell ref="U15:V15"/>
-    <mergeCell ref="U16:V16"/>
-    <mergeCell ref="U13:V13"/>
-    <mergeCell ref="U14:V14"/>
-    <mergeCell ref="U17:V17"/>
-    <mergeCell ref="S32:T32"/>
-    <mergeCell ref="S33:T33"/>
-    <mergeCell ref="D33:M33"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="W13:X13"/>
-    <mergeCell ref="W14:X14"/>
-    <mergeCell ref="W15:X15"/>
-    <mergeCell ref="W16:X16"/>
-    <mergeCell ref="W17:X17"/>
-    <mergeCell ref="S22:U22"/>
-    <mergeCell ref="S23:U23"/>
-    <mergeCell ref="V23:X23"/>
-    <mergeCell ref="S21:X21"/>
-    <mergeCell ref="T24:U24"/>
-    <mergeCell ref="W33:X33"/>
-    <mergeCell ref="U32:V32"/>
-    <mergeCell ref="U33:V33"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="M31:M32"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="I25:I26"/>
-    <mergeCell ref="I27:I28"/>
-    <mergeCell ref="I29:I30"/>
-    <mergeCell ref="I31:I32"/>
-    <mergeCell ref="M15:M16"/>
-    <mergeCell ref="M17:M18"/>
-    <mergeCell ref="M19:M20"/>
-    <mergeCell ref="M21:M22"/>
-    <mergeCell ref="M23:M24"/>
-    <mergeCell ref="M25:M26"/>
-    <mergeCell ref="M27:M28"/>
-    <mergeCell ref="M29:M30"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="G11:H12"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="K34:L34"/>
-    <mergeCell ref="A12:B13"/>
-    <mergeCell ref="A14:B15"/>
-    <mergeCell ref="A16:B17"/>
-    <mergeCell ref="A18:B19"/>
-    <mergeCell ref="A20:B21"/>
-    <mergeCell ref="A22:B23"/>
-    <mergeCell ref="A24:B25"/>
-    <mergeCell ref="A26:B27"/>
-    <mergeCell ref="A28:B29"/>
-    <mergeCell ref="A30:B31"/>
-    <mergeCell ref="A32:B33"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="G32:H32"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="R1" r:id="rId1" xr:uid="{A3AF2B82-9261-4E31-AF70-31D3D7157CB2}"/>
@@ -4668,4 +5116,2172 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD280EFF-0B6E-4AC0-9F4F-21053F8D55DC}">
+  <dimension ref="A1:AC51"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B1">
+        <v>3000</v>
+      </c>
+      <c r="C1">
+        <v>6000</v>
+      </c>
+      <c r="D1">
+        <v>9000</v>
+      </c>
+      <c r="E1">
+        <v>12000</v>
+      </c>
+      <c r="F1">
+        <v>18000</v>
+      </c>
+      <c r="G1">
+        <v>24000</v>
+      </c>
+      <c r="H1">
+        <v>30000</v>
+      </c>
+      <c r="I1">
+        <v>34000</v>
+      </c>
+      <c r="J1">
+        <v>39000</v>
+      </c>
+      <c r="N1">
+        <v>3000</v>
+      </c>
+      <c r="O1">
+        <v>3000</v>
+      </c>
+      <c r="P1">
+        <v>3000</v>
+      </c>
+      <c r="Q1">
+        <v>6000</v>
+      </c>
+      <c r="R1">
+        <v>6000</v>
+      </c>
+      <c r="S1">
+        <v>6000</v>
+      </c>
+      <c r="V1">
+        <v>4500</v>
+      </c>
+      <c r="W1">
+        <v>4500</v>
+      </c>
+      <c r="X1">
+        <v>4500</v>
+      </c>
+      <c r="Z1">
+        <v>5500</v>
+      </c>
+      <c r="AA1">
+        <v>5500</v>
+      </c>
+      <c r="AB1">
+        <v>5500</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C2">
+        <v>9900</v>
+      </c>
+      <c r="D2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E2" t="s">
+        <v>126</v>
+      </c>
+      <c r="F2" t="s">
+        <v>127</v>
+      </c>
+      <c r="G2" t="s">
+        <v>128</v>
+      </c>
+      <c r="H2">
+        <v>312639</v>
+      </c>
+      <c r="I2">
+        <v>313049</v>
+      </c>
+      <c r="J2">
+        <v>302760</v>
+      </c>
+      <c r="N2">
+        <f t="shared" ref="N2:N22" si="0">IF(OR(MID($B2,1,2)="  ",MID($B2,1,2)="99"),0,IF(LEN($B2)=3,MID($B2,1,1)*10,MID($B2,1,2)*10))</f>
+        <v>0</v>
+      </c>
+      <c r="O2" t="str">
+        <f>MID($B2,3,2)</f>
+        <v xml:space="preserve">  </v>
+      </c>
+      <c r="P2" t="str">
+        <f>MID($B2,5,3)</f>
+        <v/>
+      </c>
+      <c r="Q2">
+        <f>IF(OR(MID($C2,1,2)="  ",MID($C2,1,2)="99"),0,MID($C2,1,2)*10)</f>
+        <v>0</v>
+      </c>
+      <c r="R2" t="str">
+        <f>MID($C2,3,2)</f>
+        <v>00</v>
+      </c>
+      <c r="S2" t="str">
+        <f>MID($C2,5,3)</f>
+        <v/>
+      </c>
+      <c r="V2">
+        <f>MIN($N2,$Q2)+(ABS($N2-$Q2)*1/2)</f>
+        <v>0</v>
+      </c>
+      <c r="W2" t="e">
+        <f>MIN($O2,$R2)+(ABS($O2-$R2)*1/2)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="X2" t="e">
+        <f>$S2+2+2+1</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z2">
+        <f t="shared" ref="Z2:Z3" si="1">MIN($N2,$Q2)+(ABS($N2-$Q2)*5/6)</f>
+        <v>0</v>
+      </c>
+      <c r="AA2" t="e">
+        <f>MIN($O2,$R2)+(ABS($O2-$R2)*5/6)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AB2" t="e">
+        <f>$S2+1</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B3">
+        <v>615</v>
+      </c>
+      <c r="C3" t="s">
+        <v>130</v>
+      </c>
+      <c r="D3" t="s">
+        <v>131</v>
+      </c>
+      <c r="E3" t="s">
+        <v>132</v>
+      </c>
+      <c r="F3" t="s">
+        <v>133</v>
+      </c>
+      <c r="G3" t="s">
+        <v>134</v>
+      </c>
+      <c r="H3">
+        <v>231339</v>
+      </c>
+      <c r="I3">
+        <v>251548</v>
+      </c>
+      <c r="J3">
+        <v>262356</v>
+      </c>
+      <c r="N3">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="O3" t="str">
+        <f t="shared" ref="O3:O22" si="2">MID($B3,3,2)</f>
+        <v>5</v>
+      </c>
+      <c r="P3" t="str">
+        <f t="shared" ref="P3:P22" si="3">MID($B3,5,3)</f>
+        <v/>
+      </c>
+      <c r="Q3">
+        <f t="shared" ref="Q3:Q22" si="4">IF(OR(MID($C3,1,2)="  ",MID($C3,1,2)="99"),0,MID($C3,1,2)*10)</f>
+        <v>40</v>
+      </c>
+      <c r="R3" t="str">
+        <f t="shared" ref="R3:R22" si="5">MID($C3,3,2)</f>
+        <v>10</v>
+      </c>
+      <c r="S3" t="str">
+        <f t="shared" ref="S3:S22" si="6">MID($C3,5,3)</f>
+        <v>+10</v>
+      </c>
+      <c r="V3">
+        <f t="shared" ref="V3:V22" si="7">MIN($N3,$Q3)+(ABS($N3-$Q3)*1/2)</f>
+        <v>50</v>
+      </c>
+      <c r="W3">
+        <f t="shared" ref="W3:W22" si="8">MIN($O3,$R3)+(ABS($O3-$R3)*1/2)</f>
+        <v>2.5</v>
+      </c>
+      <c r="X3">
+        <f t="shared" ref="X3:X22" si="9">$S3+2+2+1</f>
+        <v>15</v>
+      </c>
+      <c r="Z3">
+        <f t="shared" si="1"/>
+        <v>56.666666666666671</v>
+      </c>
+      <c r="AA3">
+        <f t="shared" ref="AA3:AA22" si="10">MIN($O3,$R3)+(ABS($O3-$R3)*5/6)</f>
+        <v>4.166666666666667</v>
+      </c>
+      <c r="AB3">
+        <f t="shared" ref="AB3:AB22" si="11">$S3+1</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>135</v>
+      </c>
+      <c r="B4">
+        <v>9900</v>
+      </c>
+      <c r="C4" t="s">
+        <v>136</v>
+      </c>
+      <c r="D4" t="s">
+        <v>137</v>
+      </c>
+      <c r="E4" t="s">
+        <v>138</v>
+      </c>
+      <c r="F4" t="s">
+        <v>139</v>
+      </c>
+      <c r="G4" t="s">
+        <v>140</v>
+      </c>
+      <c r="H4">
+        <v>322239</v>
+      </c>
+      <c r="I4">
+        <v>312449</v>
+      </c>
+      <c r="J4">
+        <v>302360</v>
+      </c>
+      <c r="M4" s="214"/>
+      <c r="N4" s="214">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O4" s="214" t="str">
+        <f t="shared" si="2"/>
+        <v>00</v>
+      </c>
+      <c r="P4" s="214" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="Q4" s="214">
+        <f t="shared" si="4"/>
+        <v>190</v>
+      </c>
+      <c r="R4" s="214" t="str">
+        <f t="shared" si="5"/>
+        <v>05</v>
+      </c>
+      <c r="S4" s="214" t="str">
+        <f t="shared" si="6"/>
+        <v>+13</v>
+      </c>
+      <c r="T4" s="214"/>
+      <c r="U4" s="214"/>
+      <c r="V4" s="214">
+        <f t="shared" si="7"/>
+        <v>95</v>
+      </c>
+      <c r="W4" s="214">
+        <f t="shared" si="8"/>
+        <v>2.5</v>
+      </c>
+      <c r="X4" s="214">
+        <f t="shared" si="9"/>
+        <v>18</v>
+      </c>
+      <c r="Y4" s="214"/>
+      <c r="Z4" s="214">
+        <f>MIN($N4,$Q4)+(ABS($N4-$Q4)*5/6)</f>
+        <v>158.33333333333334</v>
+      </c>
+      <c r="AA4" s="214">
+        <f t="shared" si="10"/>
+        <v>4.166666666666667</v>
+      </c>
+      <c r="AB4" s="214">
+        <f t="shared" si="11"/>
+        <v>14</v>
+      </c>
+      <c r="AC4" s="214"/>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>141</v>
+      </c>
+      <c r="B5">
+        <v>305</v>
+      </c>
+      <c r="C5" t="s">
+        <v>142</v>
+      </c>
+      <c r="D5" t="s">
+        <v>143</v>
+      </c>
+      <c r="E5" t="s">
+        <v>144</v>
+      </c>
+      <c r="F5" t="s">
+        <v>145</v>
+      </c>
+      <c r="G5" t="s">
+        <v>146</v>
+      </c>
+      <c r="H5">
+        <v>274040</v>
+      </c>
+      <c r="I5">
+        <v>264850</v>
+      </c>
+      <c r="J5">
+        <v>264761</v>
+      </c>
+      <c r="N5">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="O5" t="str">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="P5" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="Q5">
+        <f t="shared" si="4"/>
+        <v>280</v>
+      </c>
+      <c r="R5" t="str">
+        <f t="shared" si="5"/>
+        <v>05</v>
+      </c>
+      <c r="S5" t="str">
+        <f t="shared" si="6"/>
+        <v>+13</v>
+      </c>
+      <c r="V5">
+        <f t="shared" si="7"/>
+        <v>155</v>
+      </c>
+      <c r="W5">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <f t="shared" si="9"/>
+        <v>18</v>
+      </c>
+      <c r="Z5">
+        <f t="shared" ref="Z5:Z22" si="12">MIN($N5,$Q5)+(ABS($N5-$Q5)*5/6)</f>
+        <v>238.33333333333334</v>
+      </c>
+      <c r="AA5">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AB5">
+        <f t="shared" si="11"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>147</v>
+      </c>
+      <c r="B6">
+        <v>515</v>
+      </c>
+      <c r="C6" t="s">
+        <v>148</v>
+      </c>
+      <c r="D6" t="s">
+        <v>149</v>
+      </c>
+      <c r="E6" t="s">
+        <v>150</v>
+      </c>
+      <c r="F6" t="s">
+        <v>151</v>
+      </c>
+      <c r="G6" t="s">
+        <v>152</v>
+      </c>
+      <c r="H6">
+        <v>21738</v>
+      </c>
+      <c r="I6">
+        <v>21548</v>
+      </c>
+      <c r="J6">
+        <v>311557</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="O6" t="str">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="P6" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="Q6">
+        <f t="shared" si="4"/>
+        <v>60</v>
+      </c>
+      <c r="R6" t="str">
+        <f t="shared" si="5"/>
+        <v>12</v>
+      </c>
+      <c r="S6" t="str">
+        <f t="shared" si="6"/>
+        <v>+12</v>
+      </c>
+      <c r="V6">
+        <f t="shared" si="7"/>
+        <v>55</v>
+      </c>
+      <c r="W6">
+        <f t="shared" si="8"/>
+        <v>3.5</v>
+      </c>
+      <c r="X6">
+        <f t="shared" si="9"/>
+        <v>17</v>
+      </c>
+      <c r="Z6">
+        <f t="shared" si="12"/>
+        <v>58.333333333333336</v>
+      </c>
+      <c r="AA6">
+        <f t="shared" si="10"/>
+        <v>5.833333333333333</v>
+      </c>
+      <c r="AB6">
+        <f t="shared" si="11"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>153</v>
+      </c>
+      <c r="B7">
+        <v>9900</v>
+      </c>
+      <c r="C7" t="s">
+        <v>154</v>
+      </c>
+      <c r="D7" t="s">
+        <v>155</v>
+      </c>
+      <c r="E7" t="s">
+        <v>156</v>
+      </c>
+      <c r="F7" t="s">
+        <v>157</v>
+      </c>
+      <c r="G7" t="s">
+        <v>158</v>
+      </c>
+      <c r="H7">
+        <v>293840</v>
+      </c>
+      <c r="I7">
+        <v>284649</v>
+      </c>
+      <c r="J7">
+        <v>274260</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O7" t="str">
+        <f t="shared" si="2"/>
+        <v>00</v>
+      </c>
+      <c r="P7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="Q7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R7" t="str">
+        <f t="shared" si="5"/>
+        <v>00</v>
+      </c>
+      <c r="S7" t="str">
+        <f t="shared" si="6"/>
+        <v>+12</v>
+      </c>
+      <c r="V7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="W7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="X7">
+        <f t="shared" si="9"/>
+        <v>17</v>
+      </c>
+      <c r="Z7">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AA7">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AB7">
+        <f t="shared" si="11"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>159</v>
+      </c>
+      <c r="B8">
+        <v>1407</v>
+      </c>
+      <c r="C8" t="s">
+        <v>160</v>
+      </c>
+      <c r="D8" t="s">
+        <v>161</v>
+      </c>
+      <c r="E8" t="s">
+        <v>162</v>
+      </c>
+      <c r="F8" t="s">
+        <v>163</v>
+      </c>
+      <c r="G8" t="s">
+        <v>164</v>
+      </c>
+      <c r="H8">
+        <v>303339</v>
+      </c>
+      <c r="I8">
+        <v>293449</v>
+      </c>
+      <c r="J8">
+        <v>283260</v>
+      </c>
+      <c r="M8" s="214"/>
+      <c r="N8" s="214">
+        <f t="shared" si="0"/>
+        <v>140</v>
+      </c>
+      <c r="O8" s="214" t="str">
+        <f t="shared" si="2"/>
+        <v>07</v>
+      </c>
+      <c r="P8" s="214" t="str">
+        <f>IF(MID($B8,5,3)="","",MID($B8,5,3))</f>
+        <v/>
+      </c>
+      <c r="Q8" s="214">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R8" s="214" t="str">
+        <f t="shared" si="5"/>
+        <v>00</v>
+      </c>
+      <c r="S8" s="214" t="str">
+        <f t="shared" si="6"/>
+        <v>+13</v>
+      </c>
+      <c r="T8" s="214"/>
+      <c r="U8" s="214"/>
+      <c r="V8" s="214">
+        <f t="shared" si="7"/>
+        <v>70</v>
+      </c>
+      <c r="W8" s="214">
+        <f t="shared" si="8"/>
+        <v>3.5</v>
+      </c>
+      <c r="X8" s="214">
+        <f t="shared" si="9"/>
+        <v>18</v>
+      </c>
+      <c r="Y8" s="214"/>
+      <c r="Z8" s="214">
+        <f t="shared" si="12"/>
+        <v>116.66666666666667</v>
+      </c>
+      <c r="AA8" s="214">
+        <f t="shared" si="10"/>
+        <v>5.833333333333333</v>
+      </c>
+      <c r="AB8" s="214">
+        <f t="shared" si="11"/>
+        <v>14</v>
+      </c>
+      <c r="AC8" s="214"/>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>165</v>
+      </c>
+      <c r="B9">
+        <v>722</v>
+      </c>
+      <c r="C9" t="s">
+        <v>166</v>
+      </c>
+      <c r="D9" t="s">
+        <v>167</v>
+      </c>
+      <c r="E9" t="s">
+        <v>168</v>
+      </c>
+      <c r="F9" t="s">
+        <v>169</v>
+      </c>
+      <c r="G9" t="s">
+        <v>170</v>
+      </c>
+      <c r="H9">
+        <v>990039</v>
+      </c>
+      <c r="I9">
+        <v>280547</v>
+      </c>
+      <c r="J9">
+        <v>261656</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+      <c r="O9" t="str">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="P9" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="Q9">
+        <f t="shared" si="4"/>
+        <v>30</v>
+      </c>
+      <c r="R9" t="str">
+        <f t="shared" si="5"/>
+        <v>07</v>
+      </c>
+      <c r="S9" t="str">
+        <f t="shared" si="6"/>
+        <v>+13</v>
+      </c>
+      <c r="V9">
+        <f t="shared" si="7"/>
+        <v>50</v>
+      </c>
+      <c r="W9">
+        <f t="shared" si="8"/>
+        <v>2.5</v>
+      </c>
+      <c r="X9">
+        <f t="shared" si="9"/>
+        <v>18</v>
+      </c>
+      <c r="Z9">
+        <f t="shared" si="12"/>
+        <v>63.333333333333336</v>
+      </c>
+      <c r="AA9">
+        <f t="shared" si="10"/>
+        <v>4.166666666666667</v>
+      </c>
+      <c r="AB9">
+        <f t="shared" si="11"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>171</v>
+      </c>
+      <c r="B10">
+        <v>1111</v>
+      </c>
+      <c r="C10" t="s">
+        <v>172</v>
+      </c>
+      <c r="D10" t="s">
+        <v>173</v>
+      </c>
+      <c r="E10" t="s">
+        <v>174</v>
+      </c>
+      <c r="F10" t="s">
+        <v>175</v>
+      </c>
+      <c r="G10" t="s">
+        <v>176</v>
+      </c>
+      <c r="H10">
+        <v>11739</v>
+      </c>
+      <c r="I10">
+        <v>21248</v>
+      </c>
+      <c r="J10">
+        <v>301458</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="0"/>
+        <v>110</v>
+      </c>
+      <c r="O10" t="str">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="P10" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="Q10">
+        <f t="shared" si="4"/>
+        <v>110</v>
+      </c>
+      <c r="R10" t="str">
+        <f t="shared" si="5"/>
+        <v>13</v>
+      </c>
+      <c r="S10" t="str">
+        <f t="shared" si="6"/>
+        <v>+13</v>
+      </c>
+      <c r="V10">
+        <f t="shared" si="7"/>
+        <v>110</v>
+      </c>
+      <c r="W10">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="X10">
+        <f t="shared" si="9"/>
+        <v>18</v>
+      </c>
+      <c r="Z10">
+        <f t="shared" si="12"/>
+        <v>110</v>
+      </c>
+      <c r="AA10">
+        <f t="shared" si="10"/>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="AB10">
+        <f t="shared" si="11"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>177</v>
+      </c>
+      <c r="B11">
+        <v>609</v>
+      </c>
+      <c r="C11" t="s">
+        <v>178</v>
+      </c>
+      <c r="D11" t="s">
+        <v>161</v>
+      </c>
+      <c r="E11" t="s">
+        <v>179</v>
+      </c>
+      <c r="F11" t="s">
+        <v>180</v>
+      </c>
+      <c r="G11" t="s">
+        <v>181</v>
+      </c>
+      <c r="H11">
+        <v>292239</v>
+      </c>
+      <c r="I11">
+        <v>282349</v>
+      </c>
+      <c r="J11">
+        <v>272660</v>
+      </c>
+      <c r="M11" s="214"/>
+      <c r="N11" s="214">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="O11" s="214" t="str">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="P11" s="214" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="Q11" s="214">
+        <f t="shared" si="4"/>
+        <v>70</v>
+      </c>
+      <c r="R11" s="214" t="str">
+        <f t="shared" si="5"/>
+        <v>06</v>
+      </c>
+      <c r="S11" s="214" t="str">
+        <f t="shared" si="6"/>
+        <v>+14</v>
+      </c>
+      <c r="T11" s="214"/>
+      <c r="U11" s="214"/>
+      <c r="V11" s="214">
+        <f t="shared" si="7"/>
+        <v>65</v>
+      </c>
+      <c r="W11" s="214">
+        <f t="shared" si="8"/>
+        <v>1.5</v>
+      </c>
+      <c r="X11" s="214">
+        <f t="shared" si="9"/>
+        <v>19</v>
+      </c>
+      <c r="Y11" s="214"/>
+      <c r="Z11" s="214">
+        <f t="shared" si="12"/>
+        <v>68.333333333333329</v>
+      </c>
+      <c r="AA11" s="214">
+        <f t="shared" si="10"/>
+        <v>2.5</v>
+      </c>
+      <c r="AB11" s="214">
+        <f t="shared" si="11"/>
+        <v>15</v>
+      </c>
+      <c r="AC11" s="214"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>182</v>
+      </c>
+      <c r="B12" t="s">
+        <v>124</v>
+      </c>
+      <c r="C12" t="s">
+        <v>183</v>
+      </c>
+      <c r="D12" t="s">
+        <v>184</v>
+      </c>
+      <c r="E12" t="s">
+        <v>185</v>
+      </c>
+      <c r="F12" t="s">
+        <v>186</v>
+      </c>
+      <c r="G12" t="s">
+        <v>187</v>
+      </c>
+      <c r="H12">
+        <v>283740</v>
+      </c>
+      <c r="I12">
+        <v>284650</v>
+      </c>
+      <c r="J12">
+        <v>274660</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O12" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">  </v>
+      </c>
+      <c r="P12" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="Q12">
+        <f t="shared" si="4"/>
+        <v>210</v>
+      </c>
+      <c r="R12" t="str">
+        <f t="shared" si="5"/>
+        <v>07</v>
+      </c>
+      <c r="S12" t="str">
+        <f t="shared" si="6"/>
+        <v>+11</v>
+      </c>
+      <c r="V12">
+        <f t="shared" si="7"/>
+        <v>105</v>
+      </c>
+      <c r="W12" t="e">
+        <f t="shared" si="8"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="X12">
+        <f t="shared" si="9"/>
+        <v>16</v>
+      </c>
+      <c r="Z12">
+        <f t="shared" si="12"/>
+        <v>175</v>
+      </c>
+      <c r="AA12" t="e">
+        <f t="shared" si="10"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AB12">
+        <f t="shared" si="11"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>188</v>
+      </c>
+      <c r="B13" t="s">
+        <v>124</v>
+      </c>
+      <c r="C13" t="s">
+        <v>189</v>
+      </c>
+      <c r="D13" t="s">
+        <v>190</v>
+      </c>
+      <c r="E13" t="s">
+        <v>191</v>
+      </c>
+      <c r="F13" t="s">
+        <v>192</v>
+      </c>
+      <c r="G13" t="s">
+        <v>193</v>
+      </c>
+      <c r="H13">
+        <v>11739</v>
+      </c>
+      <c r="I13">
+        <v>11449</v>
+      </c>
+      <c r="J13">
+        <v>311658</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O13" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">  </v>
+      </c>
+      <c r="P13" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="Q13">
+        <f t="shared" si="4"/>
+        <v>70</v>
+      </c>
+      <c r="R13" t="str">
+        <f t="shared" si="5"/>
+        <v>22</v>
+      </c>
+      <c r="S13" t="str">
+        <f t="shared" si="6"/>
+        <v>+10</v>
+      </c>
+      <c r="V13">
+        <f t="shared" si="7"/>
+        <v>35</v>
+      </c>
+      <c r="W13" t="e">
+        <f t="shared" si="8"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="X13">
+        <f t="shared" si="9"/>
+        <v>15</v>
+      </c>
+      <c r="Z13">
+        <f t="shared" si="12"/>
+        <v>58.333333333333336</v>
+      </c>
+      <c r="AA13" t="e">
+        <f t="shared" si="10"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AB13">
+        <f t="shared" si="11"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>194</v>
+      </c>
+      <c r="B14">
+        <v>2221</v>
+      </c>
+      <c r="C14" t="s">
+        <v>195</v>
+      </c>
+      <c r="D14" t="s">
+        <v>196</v>
+      </c>
+      <c r="E14" t="s">
+        <v>197</v>
+      </c>
+      <c r="F14" t="s">
+        <v>198</v>
+      </c>
+      <c r="G14" t="s">
+        <v>199</v>
+      </c>
+      <c r="H14">
+        <v>265742</v>
+      </c>
+      <c r="I14">
+        <v>266152</v>
+      </c>
+      <c r="J14">
+        <v>266760</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="0"/>
+        <v>220</v>
+      </c>
+      <c r="O14" t="str">
+        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
+      <c r="P14" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="Q14">
+        <f t="shared" si="4"/>
+        <v>230</v>
+      </c>
+      <c r="R14" t="str">
+        <f t="shared" si="5"/>
+        <v>27</v>
+      </c>
+      <c r="S14" t="str">
+        <f t="shared" si="6"/>
+        <v>+06</v>
+      </c>
+      <c r="V14">
+        <f t="shared" si="7"/>
+        <v>225</v>
+      </c>
+      <c r="W14">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="X14">
+        <f t="shared" si="9"/>
+        <v>11</v>
+      </c>
+      <c r="Z14">
+        <f t="shared" si="12"/>
+        <v>228.33333333333334</v>
+      </c>
+      <c r="AA14">
+        <f t="shared" si="10"/>
+        <v>5</v>
+      </c>
+      <c r="AB14">
+        <f t="shared" si="11"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>200</v>
+      </c>
+      <c r="B15" t="s">
+        <v>124</v>
+      </c>
+      <c r="C15" t="s">
+        <v>201</v>
+      </c>
+      <c r="D15" t="s">
+        <v>202</v>
+      </c>
+      <c r="E15" t="s">
+        <v>203</v>
+      </c>
+      <c r="F15" t="s">
+        <v>204</v>
+      </c>
+      <c r="G15" t="s">
+        <v>205</v>
+      </c>
+      <c r="H15">
+        <v>283741</v>
+      </c>
+      <c r="I15">
+        <v>284451</v>
+      </c>
+      <c r="J15">
+        <v>295360</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O15" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">  </v>
+      </c>
+      <c r="P15" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="Q15">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R15" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">  </v>
+      </c>
+      <c r="S15" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">   </v>
+      </c>
+      <c r="V15">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="W15" t="e">
+        <f t="shared" si="8"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="X15" t="e">
+        <f t="shared" si="9"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z15">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AA15" t="e">
+        <f t="shared" si="10"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AB15" t="e">
+        <f t="shared" si="11"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>206</v>
+      </c>
+      <c r="B16" t="s">
+        <v>124</v>
+      </c>
+      <c r="C16" t="s">
+        <v>201</v>
+      </c>
+      <c r="D16" t="s">
+        <v>207</v>
+      </c>
+      <c r="E16" t="s">
+        <v>185</v>
+      </c>
+      <c r="F16" t="s">
+        <v>208</v>
+      </c>
+      <c r="G16" t="s">
+        <v>209</v>
+      </c>
+      <c r="H16">
+        <v>294141</v>
+      </c>
+      <c r="I16">
+        <v>294350</v>
+      </c>
+      <c r="J16">
+        <v>284559</v>
+      </c>
+      <c r="N16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O16" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">  </v>
+      </c>
+      <c r="P16" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="Q16">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R16" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">  </v>
+      </c>
+      <c r="S16" t="str">
+        <f>MID($C16,5,3)</f>
+        <v xml:space="preserve">   </v>
+      </c>
+      <c r="V16">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="W16" t="e">
+        <f t="shared" si="8"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="X16" t="e">
+        <f t="shared" si="9"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z16">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AA16" t="e">
+        <f t="shared" si="10"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AB16" t="e">
+        <f t="shared" si="11"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>210</v>
+      </c>
+      <c r="B17">
+        <v>2111</v>
+      </c>
+      <c r="C17" t="s">
+        <v>211</v>
+      </c>
+      <c r="D17" t="s">
+        <v>212</v>
+      </c>
+      <c r="E17" t="s">
+        <v>213</v>
+      </c>
+      <c r="F17" t="s">
+        <v>214</v>
+      </c>
+      <c r="G17" t="s">
+        <v>215</v>
+      </c>
+      <c r="H17">
+        <v>264041</v>
+      </c>
+      <c r="I17">
+        <v>264651</v>
+      </c>
+      <c r="J17">
+        <v>265460</v>
+      </c>
+      <c r="N17">
+        <f t="shared" si="0"/>
+        <v>210</v>
+      </c>
+      <c r="O17" t="str">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="P17" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="Q17">
+        <f t="shared" si="4"/>
+        <v>230</v>
+      </c>
+      <c r="R17" t="str">
+        <f t="shared" si="5"/>
+        <v>18</v>
+      </c>
+      <c r="S17" t="str">
+        <f t="shared" si="6"/>
+        <v>+10</v>
+      </c>
+      <c r="V17">
+        <f t="shared" si="7"/>
+        <v>220</v>
+      </c>
+      <c r="W17">
+        <f t="shared" si="8"/>
+        <v>3.5</v>
+      </c>
+      <c r="X17">
+        <f t="shared" si="9"/>
+        <v>15</v>
+      </c>
+      <c r="Z17">
+        <f t="shared" si="12"/>
+        <v>226.66666666666666</v>
+      </c>
+      <c r="AA17">
+        <f t="shared" si="10"/>
+        <v>5.833333333333333</v>
+      </c>
+      <c r="AB17">
+        <f t="shared" si="11"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>216</v>
+      </c>
+      <c r="B18">
+        <v>2012</v>
+      </c>
+      <c r="C18" t="s">
+        <v>217</v>
+      </c>
+      <c r="D18" t="s">
+        <v>218</v>
+      </c>
+      <c r="E18" t="s">
+        <v>219</v>
+      </c>
+      <c r="F18" t="s">
+        <v>220</v>
+      </c>
+      <c r="G18" t="s">
+        <v>221</v>
+      </c>
+      <c r="H18">
+        <v>275242</v>
+      </c>
+      <c r="I18">
+        <v>275851</v>
+      </c>
+      <c r="J18">
+        <v>266360</v>
+      </c>
+      <c r="N18">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+      <c r="O18" t="str">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="P18" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="Q18">
+        <f t="shared" si="4"/>
+        <v>230</v>
+      </c>
+      <c r="R18" t="str">
+        <f t="shared" si="5"/>
+        <v>22</v>
+      </c>
+      <c r="S18" t="str">
+        <f t="shared" si="6"/>
+        <v>+07</v>
+      </c>
+      <c r="V18">
+        <f t="shared" si="7"/>
+        <v>215</v>
+      </c>
+      <c r="W18">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="X18">
+        <f t="shared" si="9"/>
+        <v>12</v>
+      </c>
+      <c r="Z18">
+        <f t="shared" si="12"/>
+        <v>225</v>
+      </c>
+      <c r="AA18">
+        <f t="shared" si="10"/>
+        <v>8.3333333333333339</v>
+      </c>
+      <c r="AB18">
+        <f t="shared" si="11"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>222</v>
+      </c>
+      <c r="B19" t="s">
+        <v>124</v>
+      </c>
+      <c r="C19" t="s">
+        <v>223</v>
+      </c>
+      <c r="D19" t="s">
+        <v>224</v>
+      </c>
+      <c r="E19" t="s">
+        <v>225</v>
+      </c>
+      <c r="F19" t="s">
+        <v>226</v>
+      </c>
+      <c r="G19" t="s">
+        <v>227</v>
+      </c>
+      <c r="H19">
+        <v>294741</v>
+      </c>
+      <c r="I19">
+        <v>285151</v>
+      </c>
+      <c r="J19">
+        <v>275260</v>
+      </c>
+      <c r="N19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O19" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">  </v>
+      </c>
+      <c r="P19" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="Q19">
+        <f t="shared" si="4"/>
+        <v>230</v>
+      </c>
+      <c r="R19" t="str">
+        <f t="shared" si="5"/>
+        <v>14</v>
+      </c>
+      <c r="S19" t="str">
+        <f t="shared" si="6"/>
+        <v>+09</v>
+      </c>
+      <c r="V19">
+        <f t="shared" si="7"/>
+        <v>115</v>
+      </c>
+      <c r="W19" t="e">
+        <f t="shared" si="8"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="X19">
+        <f t="shared" si="9"/>
+        <v>14</v>
+      </c>
+      <c r="Z19">
+        <f t="shared" si="12"/>
+        <v>191.66666666666666</v>
+      </c>
+      <c r="AA19" t="e">
+        <f t="shared" si="10"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AB19">
+        <f t="shared" si="11"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>228</v>
+      </c>
+      <c r="B20" t="s">
+        <v>124</v>
+      </c>
+      <c r="C20" t="s">
+        <v>229</v>
+      </c>
+      <c r="D20" t="s">
+        <v>230</v>
+      </c>
+      <c r="E20" t="s">
+        <v>231</v>
+      </c>
+      <c r="F20" t="s">
+        <v>232</v>
+      </c>
+      <c r="G20" t="s">
+        <v>233</v>
+      </c>
+      <c r="H20">
+        <v>286543</v>
+      </c>
+      <c r="I20">
+        <v>287352</v>
+      </c>
+      <c r="J20">
+        <v>287461</v>
+      </c>
+      <c r="N20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O20" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">  </v>
+      </c>
+      <c r="P20" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="Q20">
+        <f t="shared" si="4"/>
+        <v>230</v>
+      </c>
+      <c r="R20" t="str">
+        <f t="shared" si="5"/>
+        <v>19</v>
+      </c>
+      <c r="S20" t="str">
+        <f t="shared" si="6"/>
+        <v>+02</v>
+      </c>
+      <c r="V20">
+        <f t="shared" si="7"/>
+        <v>115</v>
+      </c>
+      <c r="W20" t="e">
+        <f t="shared" si="8"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="X20">
+        <f t="shared" si="9"/>
+        <v>7</v>
+      </c>
+      <c r="Z20">
+        <f t="shared" si="12"/>
+        <v>191.66666666666666</v>
+      </c>
+      <c r="AA20" t="e">
+        <f t="shared" si="10"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AB20">
+        <f t="shared" si="11"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>234</v>
+      </c>
+      <c r="B21">
+        <v>2127</v>
+      </c>
+      <c r="C21" t="s">
+        <v>235</v>
+      </c>
+      <c r="D21" t="s">
+        <v>236</v>
+      </c>
+      <c r="E21" t="s">
+        <v>237</v>
+      </c>
+      <c r="F21" t="s">
+        <v>238</v>
+      </c>
+      <c r="G21" t="s">
+        <v>239</v>
+      </c>
+      <c r="H21">
+        <v>266043</v>
+      </c>
+      <c r="I21">
+        <v>266452</v>
+      </c>
+      <c r="J21">
+        <v>277361</v>
+      </c>
+      <c r="N21">
+        <f t="shared" si="0"/>
+        <v>210</v>
+      </c>
+      <c r="O21" t="str">
+        <f t="shared" si="2"/>
+        <v>27</v>
+      </c>
+      <c r="P21" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="Q21">
+        <f t="shared" si="4"/>
+        <v>230</v>
+      </c>
+      <c r="R21" t="str">
+        <f t="shared" si="5"/>
+        <v>23</v>
+      </c>
+      <c r="S21" t="str">
+        <f t="shared" si="6"/>
+        <v>+03</v>
+      </c>
+      <c r="V21">
+        <f t="shared" si="7"/>
+        <v>220</v>
+      </c>
+      <c r="W21">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="X21">
+        <f t="shared" si="9"/>
+        <v>8</v>
+      </c>
+      <c r="Z21">
+        <f t="shared" si="12"/>
+        <v>226.66666666666666</v>
+      </c>
+      <c r="AA21">
+        <f t="shared" si="10"/>
+        <v>3.3333333333333335</v>
+      </c>
+      <c r="AB21">
+        <f t="shared" si="11"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>240</v>
+      </c>
+      <c r="B22">
+        <v>2207</v>
+      </c>
+      <c r="C22" t="s">
+        <v>241</v>
+      </c>
+      <c r="D22" t="s">
+        <v>242</v>
+      </c>
+      <c r="E22" t="s">
+        <v>243</v>
+      </c>
+      <c r="F22" t="s">
+        <v>244</v>
+      </c>
+      <c r="G22" t="s">
+        <v>245</v>
+      </c>
+      <c r="H22">
+        <v>275042</v>
+      </c>
+      <c r="I22">
+        <v>275452</v>
+      </c>
+      <c r="J22">
+        <v>286161</v>
+      </c>
+      <c r="N22">
+        <f t="shared" si="0"/>
+        <v>220</v>
+      </c>
+      <c r="O22" t="str">
+        <f t="shared" si="2"/>
+        <v>07</v>
+      </c>
+      <c r="P22" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="Q22">
+        <f t="shared" si="4"/>
+        <v>240</v>
+      </c>
+      <c r="R22" t="str">
+        <f t="shared" si="5"/>
+        <v>16</v>
+      </c>
+      <c r="S22" t="str">
+        <f t="shared" si="6"/>
+        <v>+05</v>
+      </c>
+      <c r="V22">
+        <f t="shared" si="7"/>
+        <v>230</v>
+      </c>
+      <c r="W22">
+        <f t="shared" si="8"/>
+        <v>4.5</v>
+      </c>
+      <c r="X22">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="Z22">
+        <f t="shared" si="12"/>
+        <v>236.66666666666666</v>
+      </c>
+      <c r="AA22">
+        <f t="shared" si="10"/>
+        <v>7.5</v>
+      </c>
+      <c r="AB22">
+        <f t="shared" si="11"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E25" t="s">
+        <v>246</v>
+      </c>
+      <c r="F25" t="s">
+        <v>247</v>
+      </c>
+      <c r="G25" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="26" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="197" t="s">
+        <v>249</v>
+      </c>
+      <c r="B26" s="198"/>
+      <c r="D26" s="172">
+        <v>280</v>
+      </c>
+      <c r="E26">
+        <f>ROUNDUP(MIN($N$11,$N$8)+(ABS($N$11-$N$8)*1/2),0)</f>
+        <v>100</v>
+      </c>
+      <c r="F26">
+        <f>ROUNDUP(MIN($O$11,$O$8)+(ABS($O$11-$O$8)*1/2),0)</f>
+        <v>1</v>
+      </c>
+      <c r="H26" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="27" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="199"/>
+      <c r="B27" s="200"/>
+      <c r="D27" s="144"/>
+    </row>
+    <row r="28" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="201" t="s">
+        <v>251</v>
+      </c>
+      <c r="B28" s="202"/>
+      <c r="D28" s="144">
+        <v>4500</v>
+      </c>
+      <c r="E28">
+        <f>ROUNDUP(MIN($V$11,$V$8)+(ABS($V$11-$V$8)*1/2),0)</f>
+        <v>68</v>
+      </c>
+      <c r="F28">
+        <f>ROUNDUP(MIN($W$11,$W$8)+(ABS($W$11-$W$8)*1/2),0)</f>
+        <v>3</v>
+      </c>
+      <c r="G28">
+        <f>ROUNDUP(MIN($X$11,$X$8)+(ABS($X$11-$X$8)*1/2),0)</f>
+        <v>19</v>
+      </c>
+      <c r="H28" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="29" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="199"/>
+      <c r="B29" s="200"/>
+      <c r="D29" s="144"/>
+    </row>
+    <row r="30" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="201" t="s">
+        <v>89</v>
+      </c>
+      <c r="B30" s="202"/>
+      <c r="D30" s="144">
+        <v>5500</v>
+      </c>
+      <c r="E30">
+        <f>ROUNDUP(MIN($Z$11,$Z$8)+(ABS($Z$11-$Z$8)*1/2),0)</f>
+        <v>93</v>
+      </c>
+      <c r="F30">
+        <f>ROUNDUP(MIN($AA$11,$AA$8)+(ABS($AA$11-$AA$8)*1/2),0)</f>
+        <v>5</v>
+      </c>
+      <c r="G30">
+        <f>ROUNDUP(MIN($AB$11,$AB$8)+(ABS($AB$11-$AB$8)*1/2),0)</f>
+        <v>15</v>
+      </c>
+      <c r="H30" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="31" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="199"/>
+      <c r="B31" s="200"/>
+      <c r="D31" s="144"/>
+    </row>
+    <row r="32" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="201" t="s">
+        <v>254</v>
+      </c>
+      <c r="B32" s="202"/>
+      <c r="D32" s="144">
+        <v>5500</v>
+      </c>
+      <c r="E32">
+        <f>ROUNDUP(MIN($Z$11,$Z$8)+(ABS($Z$11-$Z$8)*1/2),0)</f>
+        <v>93</v>
+      </c>
+      <c r="F32">
+        <f>ROUNDUP(MIN($AA$11,$AA$8)+(ABS($AA$11-$AA$8)*1/2),0)</f>
+        <v>5</v>
+      </c>
+      <c r="G32">
+        <f>ROUNDUP(MIN($AB$11,$AB$8)+(ABS($AB$11-$AB$8)*1/2),0)</f>
+        <v>15</v>
+      </c>
+      <c r="H32" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="199"/>
+      <c r="B33" s="200"/>
+      <c r="D33" s="144"/>
+    </row>
+    <row r="34" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="201" t="s">
+        <v>255</v>
+      </c>
+      <c r="B34" s="202"/>
+      <c r="D34" s="144">
+        <v>5500</v>
+      </c>
+      <c r="E34">
+        <f>ROUNDUP(MIN($Z$11,$Z$8)+(ABS($Z$11-$Z$8)*1/2),0)</f>
+        <v>93</v>
+      </c>
+      <c r="F34">
+        <f>ROUNDUP(MIN($AA$11,$AA$8)+(ABS($AA$11-$AA$8)*1/2),0)</f>
+        <v>5</v>
+      </c>
+      <c r="G34">
+        <f>ROUNDUP(MIN($AB$11,$AB$8)+(ABS($AB$11-$AB$8)*1/2),0)</f>
+        <v>15</v>
+      </c>
+      <c r="H34" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="199"/>
+      <c r="B35" s="200"/>
+      <c r="D35" s="144"/>
+    </row>
+    <row r="36" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="201" t="s">
+        <v>256</v>
+      </c>
+      <c r="B36" s="202"/>
+      <c r="D36" s="144">
+        <v>5500</v>
+      </c>
+      <c r="E36">
+        <f>ROUNDUP(MIN($Z$11,$Z$8)+(ABS($Z$11-$Z$8)*1/2),0)</f>
+        <v>93</v>
+      </c>
+      <c r="F36">
+        <f>ROUNDUP(MIN($AA$11,$AA$8)+(ABS($AA$11-$AA$8)*1/2),0)</f>
+        <v>5</v>
+      </c>
+      <c r="G36">
+        <f>ROUNDUP(MIN($AB$11,$AB$8)+(ABS($AB$11-$AB$8)*1/2),0)</f>
+        <v>15</v>
+      </c>
+      <c r="H36" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="199"/>
+      <c r="B37" s="200"/>
+      <c r="D37" s="144"/>
+    </row>
+    <row r="38" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="201" t="s">
+        <v>257</v>
+      </c>
+      <c r="B38" s="202"/>
+      <c r="D38" s="144">
+        <v>5500</v>
+      </c>
+      <c r="E38">
+        <f>ROUNDUP(MIN($Z$11,$Z$8)+(ABS($Z$11-$Z$8)*1/2),0)</f>
+        <v>93</v>
+      </c>
+      <c r="F38">
+        <f>ROUNDUP(MIN($AA$11,$AA$8)+(ABS($AA$11-$AA$8)*1/2),0)</f>
+        <v>5</v>
+      </c>
+      <c r="G38">
+        <f>ROUNDUP(MIN($AB$11,$AB$8)+(ABS($AB$11-$AB$8)*1/2),0)</f>
+        <v>15</v>
+      </c>
+      <c r="H38" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="199"/>
+      <c r="B39" s="200"/>
+      <c r="D39" s="144"/>
+    </row>
+    <row r="40" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="201" t="s">
+        <v>258</v>
+      </c>
+      <c r="B40" s="202"/>
+      <c r="D40" s="144">
+        <v>5500</v>
+      </c>
+      <c r="E40">
+        <f>ROUNDUP(MIN($Z$11,$Z$8)+(ABS($Z$11-$Z$8)*1/2),0)</f>
+        <v>93</v>
+      </c>
+      <c r="F40">
+        <f>ROUNDUP(MIN($AA$11,$AA$8)+(ABS($AA$11-$AA$8)*1/2),0)</f>
+        <v>5</v>
+      </c>
+      <c r="G40">
+        <f>ROUNDUP(MIN($AB$11,$AB$8)+(ABS($AB$11-$AB$8)*1/2),0)</f>
+        <v>15</v>
+      </c>
+      <c r="H40" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="199"/>
+      <c r="B41" s="200"/>
+      <c r="D41" s="144"/>
+    </row>
+    <row r="42" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="201" t="s">
+        <v>259</v>
+      </c>
+      <c r="B42" s="202"/>
+      <c r="D42" s="144">
+        <v>5500</v>
+      </c>
+      <c r="E42">
+        <f>ROUNDUP(MIN($Z$4,$Z$8)+(ABS($Z$4-$Z$8)*1/2),0)</f>
+        <v>138</v>
+      </c>
+      <c r="F42">
+        <f>ROUNDUP(MIN($AA$4,$AA$8)+(ABS($AA$4-$AA$8)*1/2),0)</f>
+        <v>5</v>
+      </c>
+      <c r="G42">
+        <f>ROUNDUP(MIN($AB$4,$AB$8)+(ABS($AB$4-$AB$8)*1/2),0)</f>
+        <v>14</v>
+      </c>
+      <c r="H42" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="199"/>
+      <c r="B43" s="200"/>
+      <c r="D43" s="144"/>
+    </row>
+    <row r="44" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="201" t="s">
+        <v>261</v>
+      </c>
+      <c r="B44" s="202"/>
+      <c r="D44" s="144">
+        <v>5500</v>
+      </c>
+      <c r="E44">
+        <f>ROUNDUP($Z$4,0)</f>
+        <v>159</v>
+      </c>
+      <c r="F44">
+        <f>ROUNDUP($AA$4,0)</f>
+        <v>5</v>
+      </c>
+      <c r="G44">
+        <f>ROUNDUP($AB$4,0)</f>
+        <v>14</v>
+      </c>
+      <c r="H44" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="199"/>
+      <c r="B45" s="200"/>
+      <c r="D45" s="144"/>
+    </row>
+    <row r="46" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="201" t="s">
+        <v>263</v>
+      </c>
+      <c r="B46" s="202"/>
+      <c r="D46" s="144">
+        <v>5500</v>
+      </c>
+      <c r="E46">
+        <f>ROUNDUP($Z$4,0)</f>
+        <v>159</v>
+      </c>
+      <c r="F46">
+        <f>ROUNDUP($AA$4,0)</f>
+        <v>5</v>
+      </c>
+      <c r="G46">
+        <f>ROUNDUP($AB$4,0)</f>
+        <v>14</v>
+      </c>
+      <c r="H46" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="199"/>
+      <c r="B47" s="200"/>
+      <c r="D47" s="144"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="201" t="s">
+        <v>90</v>
+      </c>
+      <c r="B48" s="202"/>
+      <c r="D48" s="144">
+        <v>336</v>
+      </c>
+      <c r="E48">
+        <f>ROUNDUP($Z$4,0)</f>
+        <v>159</v>
+      </c>
+      <c r="F48">
+        <f>ROUNDUP($AA$4,0)</f>
+        <v>5</v>
+      </c>
+      <c r="G48">
+        <f>ROUNDUP($AB$4,0)</f>
+        <v>14</v>
+      </c>
+      <c r="H48" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="199"/>
+      <c r="B49" s="200"/>
+      <c r="D49" s="171"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="201" t="s">
+        <v>264</v>
+      </c>
+      <c r="B50" s="202"/>
+    </row>
+    <row r="51" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="203"/>
+      <c r="B51" s="204"/>
+    </row>
+  </sheetData>
+  <mergeCells count="25">
+    <mergeCell ref="A50:B51"/>
+    <mergeCell ref="A44:B45"/>
+    <mergeCell ref="D44:D45"/>
+    <mergeCell ref="A46:B47"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="A48:B49"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="A38:B39"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="A40:B41"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="A42:B43"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="A32:B33"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="A34:B35"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="A36:B37"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="A26:B27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="A28:B29"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="A30:B31"/>
+    <mergeCell ref="D30:D31"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>